--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="421">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -466,7 +466,7 @@
     <t xml:space="preserve">SERRA MARMORE</t>
   </si>
   <si>
-    <t xml:space="preserve">DISCOS</t>
+    <t xml:space="preserve">DISCO</t>
   </si>
   <si>
     <t xml:space="preserve">ARUELAS</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">MARTELETE</t>
   </si>
   <si>
-    <t xml:space="preserve">BROCAS</t>
+    <t xml:space="preserve">BROCA</t>
   </si>
   <si>
     <t xml:space="preserve">REBITE</t>
@@ -700,7 +700,7 @@
     <t xml:space="preserve">ARAMES</t>
   </si>
   <si>
-    <t xml:space="preserve">RATOEIRAS</t>
+    <t xml:space="preserve">RATOEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">COLA AZULEJO</t>
@@ -721,6 +721,9 @@
     <t xml:space="preserve">LINHA PEDREIRO/ NYLON</t>
   </si>
   <si>
+    <t xml:space="preserve">LAPIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MULTIMETRO</t>
   </si>
   <si>
@@ -865,6 +868,9 @@
     <t xml:space="preserve">BOMBA D'AGUA</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAP</t>
+  </si>
+  <si>
     <t xml:space="preserve">PORTAS</t>
   </si>
   <si>
@@ -1274,6 +1280,9 @@
   </si>
   <si>
     <t xml:space="preserve">DIABO VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA GRANDE</t>
   </si>
 </sst>
 </file>
@@ -1288,6 +1297,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1309,6 +1319,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1353,12 +1364,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1485,1442 +1500,1453 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="41.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="43.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="49.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="40.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="32.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="18.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="X3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="Y3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="0" t="s">
+      <c r="Z3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="0" t="s">
+      <c r="AA3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="Q4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="X4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="Y4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="Z4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" s="0" t="s">
+      <c r="AA4" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="Q5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="R5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="T5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="Y5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="Z5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="0" t="s">
+      <c r="AA5" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="P6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="Q6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="R6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="T6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="Y6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z6" s="0" t="s">
+      <c r="Z6" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="Q7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="R7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="T7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="W7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="Z7" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="S8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Z8" s="0" t="s">
+      <c r="Z8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AA8" s="0" t="s">
+      <c r="AA8" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T9" s="0" t="s">
+      <c r="T9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="W9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Z9" s="0" t="s">
+      <c r="Z9" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="R10" s="0" t="s">
+      <c r="R10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="T10" s="0" t="s">
+      <c r="T10" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="V10" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="P11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="R11" s="0" t="s">
+      <c r="R11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="T11" s="0" t="s">
+      <c r="T11" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="V11" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="P12" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="R12" s="0" t="s">
+      <c r="R12" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="T12" s="0" t="s">
+      <c r="T12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="V12" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="N13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="R13" s="0" t="s">
+      <c r="O13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="0" t="s">
+      <c r="R13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="T13" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="V13" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="L14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="N14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="R14" s="0" t="s">
+      <c r="O14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="R14" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="V14" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="N15" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="O15" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="V15" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="L16" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="N16" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="O16" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="V16" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="L17" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="N17" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="O17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="L18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="L19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="V20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>306</v>
       </c>
+      <c r="L20" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="H21" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="V21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>313</v>
       </c>
+      <c r="L21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="H22" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="V22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="L22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="D23" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="L23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="V23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="L23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="H24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="F24" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="H24" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>330</v>
       </c>
+      <c r="L24" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="H25" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="H26" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="H27" s="1" t="s">
         <v>343</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="H28" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>351</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="H30" s="1" t="s">
         <v>355</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="H31" s="1" t="s">
         <v>359</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="L32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>362</v>
       </c>
+      <c r="H32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="H33" s="1" t="s">
         <v>366</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>370</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="L35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="H35" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>375</v>
+      <c r="D36" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="L37" s="0" t="s">
-        <v>377</v>
+      <c r="D37" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>379</v>
+      <c r="D38" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>381</v>
+      <c r="D39" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>383</v>
+      <c r="D40" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>385</v>
+      <c r="D41" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>387</v>
+      <c r="D42" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>389</v>
+      <c r="D43" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>391</v>
+      <c r="D44" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>393</v>
+      <c r="D45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>395</v>
+      <c r="D46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="L47" s="0" t="s">
-        <v>397</v>
+      <c r="D47" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="L48" s="0" t="s">
-        <v>399</v>
+      <c r="D48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>401</v>
+      <c r="D49" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>403</v>
+      <c r="D50" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="L51" s="0" t="s">
-        <v>405</v>
+      <c r="D51" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>407</v>
+      <c r="D52" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>409</v>
+      <c r="D53" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="L54" s="0" t="s">
-        <v>411</v>
+      <c r="D54" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L55" s="0" t="s">
-        <v>412</v>
+      <c r="L55" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="0" t="s">
-        <v>413</v>
+      <c r="D56" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="0" t="s">
-        <v>414</v>
+      <c r="D57" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="0" t="s">
-        <v>415</v>
+      <c r="D58" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="0" t="s">
-        <v>416</v>
+      <c r="D59" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="0" t="s">
-        <v>417</v>
+      <c r="D60" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D61" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="594">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -76,9 +76,6 @@
     <t xml:space="preserve">BANHEIRO</t>
   </si>
   <si>
-    <t xml:space="preserve">VESTIMENTA </t>
-  </si>
-  <si>
     <t xml:space="preserve">EPI</t>
   </si>
   <si>
@@ -130,7 +127,7 @@
     <t xml:space="preserve">OTTO</t>
   </si>
   <si>
-    <t xml:space="preserve">PILHAS</t>
+    <t xml:space="preserve">PILHA ALCALINA</t>
   </si>
   <si>
     <t xml:space="preserve">CONJUNTO VEDACAO </t>
@@ -157,7 +154,7 @@
     <t xml:space="preserve">MANCAL</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMPA PISO</t>
+    <t xml:space="preserve">FERJA LIMPADOR</t>
   </si>
   <si>
     <t xml:space="preserve">COLA BRANCA</t>
@@ -199,861 +196,888 @@
     <t xml:space="preserve">CIMENTO</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSENTO HERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACETE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACA SINALIZADORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADITIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIO COAXIAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACESSÓRIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEE 11/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA EMBALAGEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA AUTO ADESIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA PERFURADA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA CONTATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTENSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA PLASTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXINHA PAREDE/LAJE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBIRA SUPORTE DRENAGEM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECOLIDER ALICATE NIVELADOR PISO/PAREDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORCADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÁPIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOPRADOR TERMICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYLON ROCADEIRA	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO DRYWALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REJUNTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSENTO SANITARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUVEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELASTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDACIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMEEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR METAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE CALHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE 11/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURVA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ISOLANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITAS ALUMÍNIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA MOVEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLEO LINHAÇA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEKBOND COLA INSTANTANEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATALISADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CORRUGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSURIZADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENGRIPANTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPEADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT COMPRESSOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO CHIPBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA DESCARGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASCARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUECEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUNCIADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUPLA FACE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYKO FITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA PRATELEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRODEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA MADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THINNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAFON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTADOR PISO/AZULEJO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE CABRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURADEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO BITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUMBADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA CORRIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPIRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAÇADEIRA P/ CANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARRAFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA JARDIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNCAO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVER TAPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA P/ TRINCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPOR PRAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAQUETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFIL COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUARAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFLETOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELO BORRACHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICORROSIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBA VERTICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELETRODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA MARMORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCA TORNEADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPA CHUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTALETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVISOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELETRODUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTRO ESFERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDUCAO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA TELADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATA CUPIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA JUNTA DIESEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENTOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA FERRAMENTAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARUELA ZINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVATORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÓCULOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYKOPRIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA RETENCAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ZEBRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA VEDATUDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE BRASFORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVATINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA FIBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTACULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIFAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALHA AÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTAGOR VIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISTURADOR DE TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRA DE APOIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA VIDRACEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA LIQUIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTENA EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA MULTIUSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBRADICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPÓXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERFONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA LAVATORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOELHEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPATULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO FERRAMENTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRO SOLDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABAFADOR RUIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA CALAFETAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECPLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR CURTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENTUPIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARALDITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA MASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOQUETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA SABESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPACADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPATULAS METAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO MULTIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPIRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCAPULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTETOR AUDITIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATOEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA AZULEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDEIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALVITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVELADOR PISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDRIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO DELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDACALHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTOPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISJUNTORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA D'AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINHA PEDREIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFIL MACARICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDS-PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO ABROCANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUCADOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAPACETE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA SINALIZADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO COAXIAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSÓRIOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA EMBALAGEM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA AUTO ADESIVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA PERFURADA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA CONTATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA PLASTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXINHA PAREDE/LAJE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBIRA SUPORTE DRENAGEM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECOLIDER ALICATE NIVELADOR PISO/PAREDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORCADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÁPIS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOPRADOR TERMICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYLON ROCADEIRA	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO DRYWALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJUNTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO SANITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPATOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUMEEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ISOLANTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITAS ALUMÍNIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA MOVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO LINHAÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEKBOND COLA INSTANTANEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALISADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRUGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENGRIPANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPEADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKITA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT COMPRESSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO CHIPBOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DESCARGA</t>
+    <t xml:space="preserve">RODIZIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA LUVA LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXA FIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMA PINCEL ARTESANATO 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO P/LAMINACAO IBERE 900GR C/CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA CANALETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEMPENADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS MACARICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RABO QUENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCOVA AÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUDO MAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT FIXACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA 11/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACHINHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA VINIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAÇAMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARRA CABO BATERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACESSORIOS DE REPARO (CAIXA E PIAS) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALICATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS BUTANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTE VOLTAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO SEXTAVADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO FIXACAO</t>
   </si>
   <si>
     <t xml:space="preserve">CAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">MASCARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUECEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANUNCIADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUPLA FACE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKO FITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA PRATELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRODEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRINCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THINNER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGATE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTADOR PISO/AZULEJO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRIFICANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE CABRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FURADEIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO BITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUMBADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CORRIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACIA</t>
+    <t xml:space="preserve">FUSIVEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE LLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAÇANETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIBRA ABRASIVA LIMPEZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA FIXA TUDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERNIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO CHUPETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXINHA LUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBA D'AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCA BORBOLETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA ACOPLADA</t>
   </si>
   <si>
     <t xml:space="preserve">BOTINA</t>
   </si>
   <si>
-    <t xml:space="preserve">RESPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA P/ CANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARAFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA JARDIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVER TAPE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA P/ TRINCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPOR PRAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFLETOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICORROSIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA VERTICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA MARMORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA TORNEADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASO</t>
+    <t xml:space="preserve">PORTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTICADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREJADOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA FIXA ESPELHO/CUBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA VIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUCHA HIGENICA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RASPADORES E APLICADORES REJUNTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERROTE IRWIN GESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO PONTEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO CHIPBORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO SANITÁRIO</t>
   </si>
   <si>
     <t xml:space="preserve">AVENTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVISOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO ESFERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDUCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA TELADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATA CUPIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA JUNTA DIESEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FERRAMENTAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUELA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKOPRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA RETENCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ZEBRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA VEDATUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTACULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTAGOR VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA DE APOIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA VIDRACEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA LIQUIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPÓXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERFONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO FERRAMENTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITÃO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAFADOR RUIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CALAFETAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR CURTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENTUPIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARALDITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRAS (BOIAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPACADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULAS METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCAPULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR AUDITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RATOEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA AZULEJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALVITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVELADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO SEGUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISJUNTORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINHA PEDREIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL MACARICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ABROCANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUCADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODIZIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMA PINCEL ARTESANATO 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO P/LAMINACAO IBERE 900GR C/CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESEMPENADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS MACARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RABO QUENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCOVA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUDO MAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACHINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA VINIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAÇAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRA CABO BATERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSORIOS DE REPARO (CAIXA E PIAS) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS BUTANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTE VOLTAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO SEXTAVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSIVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE LLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAÇANETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBRA ABRASIVA LIMPEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA FIXA TUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERNIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO CHUPETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXINHA LUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA BORBOLETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREJADOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA FIXA ESPELHO/CUBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA HIGENICA  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RASPADORES E APLICADORES REJUNTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERROTE IRWIN GESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO CHIPBORD</t>
-  </si>
-  <si>
     <t xml:space="preserve">CORDA</t>
   </si>
   <si>
@@ -1081,15 +1105,24 @@
     <t xml:space="preserve">REGISTROS E ACABAMENTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">CHAVES (PHS, FENDA, FIXA, BOCA, ALLEN, COMBINADA, BIELA)</t>
+    <t xml:space="preserve">CHAVE GRIFO</t>
   </si>
   <si>
     <t xml:space="preserve">ESMERILHADEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">SERRA COPO</t>
+  </si>
+  <si>
     <t xml:space="preserve">NEW FIX PARAFUSO</t>
   </si>
   <si>
+    <t xml:space="preserve">CONJUNTOR FIXACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEIA UMBRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABO REDE</t>
   </si>
   <si>
@@ -1117,6 +1150,15 @@
     <t xml:space="preserve">COLHER</t>
   </si>
   <si>
+    <t xml:space="preserve">FURADEIRA/PARAFUSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBOLO DIAMANTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCA SEXTAVADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLOCO VIDRO</t>
   </si>
   <si>
@@ -1144,7 +1186,13 @@
     <t xml:space="preserve">MARTELO</t>
   </si>
   <si>
-    <t xml:space="preserve">PAPEL SUFITE </t>
+    <t xml:space="preserve">SERRA CIRCULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRUELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPEL SULFITE </t>
   </si>
   <si>
     <t xml:space="preserve">JOELHO AZUL</t>
@@ -1162,12 +1210,15 @@
     <t xml:space="preserve">CONECTOR BORNE</t>
   </si>
   <si>
-    <t xml:space="preserve">RALOS</t>
+    <t xml:space="preserve">RALO</t>
   </si>
   <si>
     <t xml:space="preserve">MARRETA</t>
   </si>
   <si>
+    <t xml:space="preserve">PONTEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAPEL TOALHA</t>
   </si>
   <si>
@@ -1186,13 +1237,10 @@
     <t xml:space="preserve">CONDUITE</t>
   </si>
   <si>
-    <t xml:space="preserve">TUBO</t>
-  </si>
-  <si>
     <t xml:space="preserve">CABOS FERRAMENTAS</t>
   </si>
   <si>
-    <t xml:space="preserve">SACO ENTULHO/ SACO AREIA</t>
+    <t xml:space="preserve">SACO AREIA</t>
   </si>
   <si>
     <t xml:space="preserve">JOELHO LR</t>
@@ -1285,6 +1333,9 @@
     <t xml:space="preserve">PÉ FOGÃO</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPER BONDER</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA FERRO</t>
   </si>
   <si>
@@ -1309,6 +1360,9 @@
     <t xml:space="preserve">REGADOR</t>
   </si>
   <si>
+    <t xml:space="preserve">COLA SELANTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA TATU</t>
   </si>
   <si>
@@ -1321,6 +1375,9 @@
     <t xml:space="preserve">PICARETA</t>
   </si>
   <si>
+    <t xml:space="preserve">PIA SINTETICA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAPS PLASTILIT</t>
   </si>
   <si>
@@ -1330,6 +1387,9 @@
     <t xml:space="preserve">REGULADOR GAS</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPER COLA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESMALTE</t>
   </si>
   <si>
@@ -1342,6 +1402,9 @@
     <t xml:space="preserve">LIMA</t>
   </si>
   <si>
+    <t xml:space="preserve">PLASTICO BOLHA</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOELHO SOLDAVEL</t>
   </si>
   <si>
@@ -1351,6 +1414,9 @@
     <t xml:space="preserve">NUMERO COLONIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">COLA SILICONE</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGUA RAZ</t>
   </si>
   <si>
@@ -1363,6 +1429,9 @@
     <t xml:space="preserve">ALAVANCA</t>
   </si>
   <si>
+    <t xml:space="preserve">PORTA MADEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CURVA SOLDAVEL</t>
   </si>
   <si>
@@ -1381,9 +1450,15 @@
     <t xml:space="preserve">CHIBANCA</t>
   </si>
   <si>
+    <t xml:space="preserve">SACO ENTULHO</t>
+  </si>
+  <si>
     <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">CORRENTE SOLDAVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOGÃO</t>
   </si>
   <si>
@@ -1399,9 +1474,18 @@
     <t xml:space="preserve">CARRINHO MAO</t>
   </si>
   <si>
+    <t xml:space="preserve">FIXADOR PORTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP SOLDAVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">KIT PE</t>
   </si>
   <si>
+    <t xml:space="preserve">LATEX ACRILICA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CENTRI</t>
   </si>
   <si>
@@ -1411,9 +1495,18 @@
     <t xml:space="preserve">TORQUES</t>
   </si>
   <si>
+    <t xml:space="preserve">ANNLUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTAO FRANCES</t>
   </si>
   <si>
+    <t xml:space="preserve">BANDEIA PINTURA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE DISJUNTOR</t>
   </si>
   <si>
@@ -1423,15 +1516,30 @@
     <t xml:space="preserve">APLICADOR </t>
   </si>
   <si>
+    <t xml:space="preserve">DESENGRAXANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO AZUL</t>
+  </si>
+  <si>
     <t xml:space="preserve">RECEPTOR DE TV DIGITAL AQUARIO DTV-4000S</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA AGUA</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">JOELHO LL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TORNEIRAS E ACESSORIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA MADEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAXINHA LUZ</t>
   </si>
   <si>
@@ -1495,6 +1603,9 @@
     <t xml:space="preserve">PINO MACHO</t>
   </si>
   <si>
+    <t xml:space="preserve">CAIXA AGUA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARRINHOS</t>
   </si>
   <si>
@@ -1504,6 +1615,9 @@
     <t xml:space="preserve">CAIXA LUZ </t>
   </si>
   <si>
+    <t xml:space="preserve">VÁLVULA AMERICANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">TESOURA</t>
   </si>
   <si>
@@ -1546,10 +1660,10 @@
     <t xml:space="preserve">ESCADA</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAMONTINA PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO/ESPUMA</t>
+    <t xml:space="preserve">TRAMONTINA PLACA INTERNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCO ESPUMA</t>
   </si>
   <si>
     <t xml:space="preserve">VELA</t>
@@ -1564,24 +1678,36 @@
     <t xml:space="preserve">TANQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">LUMINARIA ALETADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE SOQUETE</t>
   </si>
   <si>
     <t xml:space="preserve">FACAO</t>
   </si>
   <si>
+    <t xml:space="preserve">PINO PRENSA</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGUA</t>
   </si>
   <si>
     <t xml:space="preserve">TERMINAL ROCO</t>
   </si>
   <si>
+    <t xml:space="preserve">ADAPTADOR FEMEA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANGA</t>
   </si>
   <si>
     <t xml:space="preserve">SUPORTE TV</t>
   </si>
   <si>
+    <t xml:space="preserve">CONECTOR PORCELANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIZ DE LINHA</t>
   </si>
   <si>
@@ -1633,7 +1759,33 @@
     <t xml:space="preserve">LAMINA SERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA VIQUA</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TORNEIRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VIQUA</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CHAVE COMBINADA</t>
@@ -1658,6 +1810,24 @@
   </si>
   <si>
     <t xml:space="preserve">IBIRA MANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA BOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA ACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPAINHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE CANHAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE REMOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE PHILLIPS</t>
   </si>
 </sst>
 </file>
@@ -1703,9 +1873,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1778,11 +1950,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1913,10 +2085,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H50" activeCellId="0" sqref="H50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1928,7 +2100,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.71"/>
@@ -1938,18 +2110,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="20.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,21 +2208,21 @@
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
@@ -2078,60 +2249,60 @@
       <c r="AB3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -2164,693 +2335,693 @@
       <c r="AB4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="X7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="X8" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="V11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC11" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2894,859 +3065,1010 @@
       <c r="R15" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>305</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="V16" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>319</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB17" s="1" t="s">
         <v>332</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>337</v>
+        <v>341</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>342</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>361</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>366</v>
+        <v>375</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB21" s="1" t="s">
-        <v>375</v>
+        <v>387</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>409</v>
+        <v>423</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>420</v>
+        <v>436</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>426</v>
+        <v>441</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>428</v>
+        <v>445</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>433</v>
+        <v>450</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5" t="s">
-        <v>434</v>
+      <c r="C29" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>435</v>
+        <v>454</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>442</v>
+        <v>463</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>447</v>
+        <v>468</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>453</v>
+        <v>475</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>458</v>
+        <v>482</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>459</v>
+        <v>486</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>462</v>
+        <v>490</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>463</v>
+        <v>493</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>466</v>
+        <v>497</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>467</v>
+        <v>500</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>468</v>
+        <v>502</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>469</v>
+        <v>504</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>487</v>
+        <v>523</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>493</v>
+        <v>530</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>495</v>
+        <v>533</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>497</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>500</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>503</v>
+        <v>541</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>505</v>
+        <v>542</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>506</v>
+        <v>544</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>508</v>
+        <v>545</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>509</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>512</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>513</v>
+        <v>551</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>552</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>515</v>
+        <v>554</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>555</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>517</v>
+        <v>557</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>558</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>519</v>
+        <v>560</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>522</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>524</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>525</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>527</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>528</v>
+        <v>570</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>529</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>531</v>
+        <v>572</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="1" t="s">
-        <v>537</v>
+      <c r="D62" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="1" t="s">
-        <v>545</v>
+        <v>587</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D68" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D69" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="616">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -211,9 +211,6 @@
     <t xml:space="preserve">ADITIVO</t>
   </si>
   <si>
-    <t xml:space="preserve">BATEIRAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">TELHA </t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t xml:space="preserve">PRESSURIZADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">DESENGRIPANTES</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRAMPEADOR</t>
   </si>
   <si>
@@ -460,510 +454,513 @@
     <t xml:space="preserve">SUPORTE</t>
   </si>
   <si>
+    <t xml:space="preserve">MULTILIT LUVA AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNCAO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVER TAPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA P/ TRINCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPOR PRAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAQUETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFIL COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUARAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFLETOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELO BORRACHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICORROSIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBA VERTICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELETRODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA MARMORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCA TORNEADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPA CHUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTALETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVISOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELETRODUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTRO ESFERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDUCAO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA TELADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATA CUPIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA JUNTA DIESEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENTOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA FERRAMENTAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARUELA ZINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVATORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÓCULOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYKOPRIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CORRER KRONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA RETENCAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ZEBRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA VEDATUDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE BRASFORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVATINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA FIBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTACULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIFAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALHA AÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTAGOR VIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISTURADOR DE TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRA DE APOIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA VIDRACEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA LIQUIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTENA EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA MULTIUSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBRADICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPÓXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERFONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA LAVATORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOELHEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPATULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO FERRAMENTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRO SOLDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABAFADOR RUIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA CALAFETAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECPLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR CURTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ALTA FUSAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENTUPIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARALDITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA MASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOQUETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA SABESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPACADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPATULAS METAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO MULTIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPIRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCAPULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTETOR AUDITIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIABIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATOEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA AZULEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDEIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALVITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVELADOR PISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDRIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO DELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS DE ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDACALHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTOPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISJUNTORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA D'AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINHA PEDREIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFIL MACARICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDS-PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO ABROCANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUCADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODIZIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA LUVA LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXA FIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PU40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMA PINCEL ARTESANATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO P/LAMINACAO IBERE 900GR C/CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA CANALETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEMPENADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS MACARICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RABO QUENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCOVA AÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUDO MAQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT FIXACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAPATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA 11/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACHINHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA VINIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAÇAMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARRA CABO BATERIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">TORNEIRA JARDIM</t>
   </si>
   <si>
-    <t xml:space="preserve">JUNCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVER TAPE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA P/ TRINCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPOR PRAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFLETOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICORROSIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA VERTICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA MARMORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA TORNEADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA CHUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTALETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVISOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO ESFERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDUCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA TELADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATA CUPIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA JUNTA DIESEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FERRAMENTAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUELA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÓCULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKOPRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA RETENCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ZEBRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA VEDATUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTACULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTAGOR VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA DE APOIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA VIDRACEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA LIQUIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPÓXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERFONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO FERRAMENTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITÃO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAFADOR RUIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CALAFETAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR CURTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENTUPIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARALDITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SABESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPACADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULAS METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCAPULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR AUDITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RATOEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA AZULEJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALVITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVELADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISJUNTORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINHA PEDREIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL MACARICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ABROCANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUCADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODIZIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMA PINCEL ARTESANATO 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO P/LAMINACAO IBERE 900GR C/CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESEMPENADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS MACARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RABO QUENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCOVA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUDO MAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACHINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA VINIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAÇAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRA CABO BATERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSORIOS DE REPARO (CAIXA E PIAS) </t>
-  </si>
-  <si>
     <t xml:space="preserve">ALICATE</t>
   </si>
   <si>
@@ -985,7 +982,7 @@
     <t xml:space="preserve">CAPAS</t>
   </si>
   <si>
-    <t xml:space="preserve">FUSIVEIS</t>
+    <t xml:space="preserve">FUSIVEL</t>
   </si>
   <si>
     <t xml:space="preserve">TE LLL</t>
@@ -1030,7 +1027,7 @@
     <t xml:space="preserve">BOTINA</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTAS</t>
+    <t xml:space="preserve">CUBA INOX</t>
   </si>
   <si>
     <t xml:space="preserve">TE AZUL</t>
@@ -1057,9 +1054,6 @@
     <t xml:space="preserve">DUCHA HIGENICA  </t>
   </si>
   <si>
-    <t xml:space="preserve">RASPADORES E APLICADORES REJUNTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">SERROTE IRWIN GESSO</t>
   </si>
   <si>
@@ -1141,6 +1135,9 @@
     <t xml:space="preserve">KIT PINTURA</t>
   </si>
   <si>
+    <t xml:space="preserve">MASSA POLIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">FILTRO DE LINHA</t>
   </si>
   <si>
@@ -1159,6 +1156,9 @@
     <t xml:space="preserve">PORCA SEXTAVADO</t>
   </si>
   <si>
+    <t xml:space="preserve">MANGOTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLOCO VIDRO</t>
   </si>
   <si>
@@ -1177,6 +1177,9 @@
     <t xml:space="preserve">CAL</t>
   </si>
   <si>
+    <t xml:space="preserve">FERROX</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERMINAL</t>
   </si>
   <si>
@@ -1207,6 +1210,9 @@
     <t xml:space="preserve">LONA</t>
   </si>
   <si>
+    <t xml:space="preserve">QUEROSENE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONECTOR BORNE</t>
   </si>
   <si>
@@ -1237,7 +1243,7 @@
     <t xml:space="preserve">CONDUITE</t>
   </si>
   <si>
-    <t xml:space="preserve">CABOS FERRAMENTAS</t>
+    <t xml:space="preserve">ARCO SERRA</t>
   </si>
   <si>
     <t xml:space="preserve">SACO AREIA</t>
@@ -1441,6 +1447,9 @@
     <t xml:space="preserve">KIT GÁS</t>
   </si>
   <si>
+    <t xml:space="preserve">AMANCO ADESIVO </t>
+  </si>
+  <si>
     <t xml:space="preserve">CAIXA DE PASSAGEM </t>
   </si>
   <si>
@@ -1480,6 +1489,9 @@
     <t xml:space="preserve">CAP SOLDAVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">BARRA ROSCADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">KIT PE</t>
   </si>
   <si>
@@ -1501,6 +1513,9 @@
     <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">BARRA ZINC</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTAO FRANCES</t>
   </si>
   <si>
@@ -1522,6 +1537,9 @@
     <t xml:space="preserve">COTOVELO AZUL</t>
   </si>
   <si>
+    <t xml:space="preserve">TARGETA RCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">RECEPTOR DE TV DIGITAL AQUARIO DTV-4000S</t>
   </si>
   <si>
@@ -1534,9 +1552,6 @@
     <t xml:space="preserve">JOELHO LL</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRAS E ACESSORIOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">LIXA MADEIRA</t>
   </si>
   <si>
@@ -1549,9 +1564,15 @@
     <t xml:space="preserve">TALHADEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">AMANCO LUVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABIDE</t>
   </si>
   <si>
+    <t xml:space="preserve">LATEX QUARTZOLIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLAFONIER</t>
   </si>
   <si>
@@ -1561,10 +1582,13 @@
     <t xml:space="preserve">PONTEIRO </t>
   </si>
   <si>
-    <t xml:space="preserve">ACESSORIOS P/BANHEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO ILUMI </t>
+    <t xml:space="preserve">CAPS CORR PLASTIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAREDE NOVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILUMI CONJUNTO</t>
   </si>
   <si>
     <t xml:space="preserve">VALVULA ENTRADA</t>
@@ -1573,6 +1597,9 @@
     <t xml:space="preserve">ESCOVA AÇO 	</t>
   </si>
   <si>
+    <t xml:space="preserve">CAPS FORTLEV</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOALHA MESA TERMICA</t>
   </si>
   <si>
@@ -1585,6 +1612,9 @@
     <t xml:space="preserve">CAVADEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA FORLTEV</t>
+  </si>
+  <si>
     <t xml:space="preserve">GARRAFAO</t>
   </si>
   <si>
@@ -1597,7 +1627,7 @@
     <t xml:space="preserve">PRUMO</t>
   </si>
   <si>
-    <t xml:space="preserve">ACESSORIOS P/ MANGUEIRA</t>
+    <t xml:space="preserve">LUVA TIGRE</t>
   </si>
   <si>
     <t xml:space="preserve">PINO MACHO</t>
@@ -1606,7 +1636,10 @@
     <t xml:space="preserve">CAIXA AGUA</t>
   </si>
   <si>
-    <t xml:space="preserve">CARRINHOS</t>
+    <t xml:space="preserve">CHAVE TORX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANCO NIPEL</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA</t>
@@ -1627,6 +1660,9 @@
     <t xml:space="preserve">CANALETA</t>
   </si>
   <si>
+    <t xml:space="preserve">CAIXA HIDROMETRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">GÁS BUTANO</t>
   </si>
   <si>
@@ -1636,6 +1672,9 @@
     <t xml:space="preserve">TRAMONTINA LUX</t>
   </si>
   <si>
+    <t xml:space="preserve"> REGISTRO GAVETA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAÇARICO</t>
   </si>
   <si>
@@ -1714,42 +1753,66 @@
     <t xml:space="preserve">CONTROLE TV</t>
   </si>
   <si>
+    <t xml:space="preserve">MEC PLACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">FORMÃO</t>
   </si>
   <si>
     <t xml:space="preserve">GABINETE</t>
   </si>
   <si>
+    <t xml:space="preserve">ILUMI PLACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MACHAD</t>
   </si>
   <si>
+    <t xml:space="preserve">PINO FEMEA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESQUADRO</t>
   </si>
   <si>
     <t xml:space="preserve">SODA CAUSICA</t>
   </si>
   <si>
+    <t xml:space="preserve">CONJUNTO RADIAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">RODEL</t>
   </si>
   <si>
     <t xml:space="preserve">ESPONJA MAGICA 	</t>
   </si>
   <si>
+    <t xml:space="preserve">PENZEL TERMINAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERROTE</t>
   </si>
   <si>
     <t xml:space="preserve">SACO ALVEJADO</t>
   </si>
   <si>
+    <t xml:space="preserve">ILUMI ESPELHO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE FIXA</t>
   </si>
   <si>
+    <t xml:space="preserve">FOXLUX FIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE FENDA</t>
   </si>
   <si>
     <t xml:space="preserve">DIABO VERDE</t>
   </si>
   <si>
+    <t xml:space="preserve">AVANT LUMINARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
@@ -1759,33 +1822,7 @@
     <t xml:space="preserve">LAMINA SERRA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TORNEIRA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">VIQUA</t>
-    </r>
+    <t xml:space="preserve">VIQUA TORNEIRA </t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE COMBINADA</t>
@@ -1828,6 +1865,9 @@
   </si>
   <si>
     <t xml:space="preserve">CHAVE PHILLIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAQUIMETRO</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1877,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1871,17 +1911,24 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1929,7 +1976,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1960,6 +2007,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2085,10 +2136,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S20" activeCellId="0" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2317,987 +2368,987 @@
       <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="AA7" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="X8" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Z8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="V11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AA11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="V12" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AB12" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="AB13" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="R17" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="N18" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="S18" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="N19" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="S19" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N20" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>378</v>
       </c>
       <c r="U20" s="1" t="s">
@@ -3320,755 +3371,823 @@
       <c r="F21" s="1" t="s">
         <v>384</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="H21" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="1" t="s">
-        <v>504</v>
-      </c>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+      <c r="AA36" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
+      </c>
+      <c r="AA38" s="5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>529</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="1" t="s">
-        <v>525</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H41" s="1" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>534</v>
+        <v>545</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>537</v>
+        <v>549</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>543</v>
+        <v>555</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>546</v>
+        <v>558</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>565</v>
+        <v>579</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="H55" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="L55" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>568</v>
+        <v>584</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>570</v>
+        <v>587</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>591</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>575</v>
+        <v>595</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>596</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="4" t="s">
-        <v>579</v>
+      <c r="D62" s="8" t="s">
+        <v>600</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="1" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="4" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="1" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>593</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L70" s="1" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="752">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">PRESSURIZADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">CORTADOR PISO/AZULEJO </t>
+    <t xml:space="preserve">CORTADOR PISO</t>
   </si>
   <si>
     <t xml:space="preserve">GRAXA</t>
@@ -382,6 +382,9 @@
     <t xml:space="preserve">VEDACIT</t>
   </si>
   <si>
+    <t xml:space="preserve">PILHA TORRE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUMEEIRA</t>
   </si>
   <si>
@@ -589,6 +592,9 @@
     <t xml:space="preserve">ESGUICHO PADRAO</t>
   </si>
   <si>
+    <t xml:space="preserve">PIA SINTETICA </t>
+  </si>
+  <si>
     <t xml:space="preserve">DIABO VERDE</t>
   </si>
   <si>
@@ -646,6 +652,9 @@
     <t xml:space="preserve">ARUELA ZINC</t>
   </si>
   <si>
+    <t xml:space="preserve">PORCELANA PISO</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAVATORIO</t>
   </si>
   <si>
@@ -670,6 +679,12 @@
     <t xml:space="preserve">REDUCAO ESGOTO</t>
   </si>
   <si>
+    <t xml:space="preserve">TANQUE PLASTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESINFETANTE CREO</t>
+  </si>
+  <si>
     <t xml:space="preserve">FECHADURA</t>
   </si>
   <si>
@@ -721,6 +736,9 @@
     <t xml:space="preserve">REBITE</t>
   </si>
   <si>
+    <t xml:space="preserve">MULTIMASSA PLACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARRA DE APOIO</t>
   </si>
   <si>
@@ -745,6 +763,9 @@
     <t xml:space="preserve">PENEIRA ARO</t>
   </si>
   <si>
+    <t xml:space="preserve">PIA ACO INOX</t>
+  </si>
+  <si>
     <t xml:space="preserve">CADEADO PADO</t>
   </si>
   <si>
@@ -802,7 +823,7 @@
     <t xml:space="preserve">ARMARIO</t>
   </si>
   <si>
-    <t xml:space="preserve">ABAFADOR RUIDOS</t>
+    <t xml:space="preserve">ABAFADOR DE RUIDOS</t>
   </si>
   <si>
     <t xml:space="preserve">MASSA VIDRACEIRO</t>
@@ -931,6 +952,9 @@
     <t xml:space="preserve">TUBO</t>
   </si>
   <si>
+    <t xml:space="preserve">SINGER OLEO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRENA</t>
   </si>
   <si>
@@ -958,6 +982,27 @@
     <t xml:space="preserve">VIABIT</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CONECTOR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">COAXIAL</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">CAP 3/4</t>
   </si>
   <si>
@@ -1054,7 +1099,7 @@
     <t xml:space="preserve">ROMA PINCEL ARTESANATO</t>
   </si>
   <si>
-    <t xml:space="preserve">ADESIVO P/LAMINACAO IBERE 900GR C/CAT</t>
+    <t xml:space="preserve">GARRA CABO BATERIA</t>
   </si>
   <si>
     <t xml:space="preserve">TOMADA</t>
@@ -1096,12 +1141,18 @@
     <t xml:space="preserve">KRONA LUVA LL</t>
   </si>
   <si>
+    <t xml:space="preserve">TEE ESGOTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TELA MOSQUITEIRO</t>
   </si>
   <si>
     <t xml:space="preserve">TRAVA PORTAO</t>
   </si>
   <si>
+    <t xml:space="preserve">CONJUNTO PIAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIXA FIO</t>
   </si>
   <si>
@@ -1114,12 +1165,18 @@
     <t xml:space="preserve">CAÇAMBA</t>
   </si>
   <si>
-    <t xml:space="preserve">GARRA CABO BATERIA</t>
+    <t xml:space="preserve">CABO CHUPETA</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXINHA LUZ</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA BOIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLEO MULTIUSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALICATE</t>
   </si>
   <si>
@@ -1144,12 +1201,24 @@
     <t xml:space="preserve">CORDA</t>
   </si>
   <si>
+    <t xml:space="preserve">CHAPIX</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUVA 11/2</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO VISITA</t>
+  </si>
+  <si>
     <t xml:space="preserve">NYLON CORTAR GRAMA</t>
   </si>
   <si>
+    <t xml:space="preserve">FECHO CADEADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAMONTINA MODULO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TACHINHA</t>
   </si>
   <si>
@@ -1162,7 +1231,7 @@
     <t xml:space="preserve">VERNIZ</t>
   </si>
   <si>
-    <t xml:space="preserve">CABO CHUPETA</t>
+    <t xml:space="preserve">MANTA VIDRO</t>
   </si>
   <si>
     <t xml:space="preserve">PLUG</t>
@@ -1195,12 +1264,21 @@
     <t xml:space="preserve">CABO REDE</t>
   </si>
   <si>
+    <t xml:space="preserve">NEUTROL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TE LLL</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA TRANÇADA</t>
   </si>
   <si>
+    <t xml:space="preserve">CADEADO STAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAMONTINA PLACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESTICADOR</t>
   </si>
   <si>
@@ -1213,7 +1291,7 @@
     <t xml:space="preserve">SELADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">MANTA VIDRO</t>
+    <t xml:space="preserve">ABRACADEIRA NYLON</t>
   </si>
   <si>
     <t xml:space="preserve">TOMADA EM BARRA</t>
@@ -1225,6 +1303,9 @@
     <t xml:space="preserve">SERROTE IRWIN GESSO</t>
   </si>
   <si>
+    <t xml:space="preserve">CABO FERRAMENTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
   </si>
   <si>
@@ -1234,6 +1315,9 @@
     <t xml:space="preserve">PARAFUSO CHIPBORD</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSENTO OVAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">AVENTAL</t>
   </si>
   <si>
@@ -1246,6 +1330,12 @@
     <t xml:space="preserve">REGADOR</t>
   </si>
   <si>
+    <t xml:space="preserve">CADEADO SILVANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAMONTINA CONJUNTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">GANCHO REDE</t>
   </si>
   <si>
@@ -1255,7 +1345,7 @@
     <t xml:space="preserve">FUNDO</t>
   </si>
   <si>
-    <t xml:space="preserve">ABRACADEIRA NYLON</t>
+    <t xml:space="preserve">MASSA POLIR</t>
   </si>
   <si>
     <t xml:space="preserve">FILTRO DE LINHA</t>
@@ -1267,6 +1357,9 @@
     <t xml:space="preserve">CHAVE GRIFO</t>
   </si>
   <si>
+    <t xml:space="preserve">LANÇA CHAMAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESMERILHADEIRA</t>
   </si>
   <si>
@@ -1276,6 +1369,9 @@
     <t xml:space="preserve">NEW FIX PARAFUSO</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSENTO ALMOFADADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEIA UMBRO</t>
   </si>
   <si>
@@ -1288,6 +1384,9 @@
     <t xml:space="preserve">TELA VIVEIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">CONJUNTO ARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GONZO</t>
   </si>
   <si>
@@ -1300,7 +1399,7 @@
     <t xml:space="preserve">KIT PINTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">MASSA POLIR</t>
+    <t xml:space="preserve">FERROX</t>
   </si>
   <si>
     <t xml:space="preserve">TERMINAL</t>
@@ -1321,6 +1420,9 @@
     <t xml:space="preserve">PORCA SEXTAVADO</t>
   </si>
   <si>
+    <t xml:space="preserve">PAPELEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANGOTE</t>
   </si>
   <si>
@@ -1333,6 +1435,9 @@
     <t xml:space="preserve">MANGUEIRA CRISTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">MEC CONJUNTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">RODO</t>
   </si>
   <si>
@@ -1342,7 +1447,7 @@
     <t xml:space="preserve">CAL</t>
   </si>
   <si>
-    <t xml:space="preserve">FERROX</t>
+    <t xml:space="preserve">QUEROSENE</t>
   </si>
   <si>
     <t xml:space="preserve">CONECTOR BORNE</t>
@@ -1360,6 +1465,12 @@
     <t xml:space="preserve">ARRUELA</t>
   </si>
   <si>
+    <t xml:space="preserve">CHUVEIRINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO SEGURANÇA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SACO AREIA</t>
   </si>
   <si>
@@ -1369,6 +1480,9 @@
     <t xml:space="preserve">BESTWAY REPARO INFLAVEIS</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPELHO MECTRONIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">CANTONEIRA</t>
   </si>
   <si>
@@ -1381,7 +1495,7 @@
     <t xml:space="preserve">LONA</t>
   </si>
   <si>
-    <t xml:space="preserve">QUEROSENE</t>
+    <t xml:space="preserve">MAXI RUBBER</t>
   </si>
   <si>
     <t xml:space="preserve">CONDUITE</t>
@@ -1396,12 +1510,21 @@
     <t xml:space="preserve">PONTEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">PARAFUSO ROSCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA BORRACHA</t>
+  </si>
+  <si>
     <t xml:space="preserve">FITILHO</t>
   </si>
   <si>
     <t xml:space="preserve">JOELHO AZUL</t>
   </si>
   <si>
+    <t xml:space="preserve">PENEIRA TELAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOBRADIÇA</t>
   </si>
   <si>
@@ -1411,7 +1534,7 @@
     <t xml:space="preserve">TEK BOND SILICONE</t>
   </si>
   <si>
-    <t xml:space="preserve">MAXI RUBBER</t>
+    <t xml:space="preserve">ASPIR DE PO WAP</t>
   </si>
   <si>
     <t xml:space="preserve">FIO SOM/LUSTRE</t>
@@ -1420,12 +1543,42 @@
     <t xml:space="preserve">ARCO SERRA</t>
   </si>
   <si>
+    <t xml:space="preserve">PONTA MONTADA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PARAFUSO CHATA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PHILIPS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA TANQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">VENTILADOR</t>
   </si>
   <si>
     <t xml:space="preserve">LUVA LR</t>
   </si>
   <si>
+    <t xml:space="preserve">TELA NYLON</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARRA ROSCADA</t>
   </si>
   <si>
@@ -1438,7 +1591,7 @@
     <t xml:space="preserve">ZARCÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">ASPIR DE PO WAP</t>
+    <t xml:space="preserve">MASSA PLASTICO </t>
   </si>
   <si>
     <t xml:space="preserve">CABO FLEX</t>
@@ -1450,9 +1603,18 @@
     <t xml:space="preserve">ENXADA</t>
   </si>
   <si>
+    <t xml:space="preserve">PARAFUSO FRANCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINHA NYLON PESCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOELHO LR</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIAO TORNEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARRA ZINC</t>
   </si>
   <si>
@@ -1462,7 +1624,7 @@
     <t xml:space="preserve">BALDE</t>
   </si>
   <si>
-    <t xml:space="preserve">MASSA PLASTICO </t>
+    <t xml:space="preserve">MACACO JACARE</t>
   </si>
   <si>
     <t xml:space="preserve">FIO CABO AUTO</t>
@@ -1474,9 +1636,18 @@
     <t xml:space="preserve">RAMADA</t>
   </si>
   <si>
+    <t xml:space="preserve">ALCOOL GEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">KRONA TE LLL 11/2</t>
   </si>
   <si>
+    <t xml:space="preserve">TELA GALVANIZADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCA ABRACADEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGULADOR GAS</t>
   </si>
   <si>
@@ -1498,6 +1669,12 @@
     <t xml:space="preserve">TE RRR</t>
   </si>
   <si>
+    <t xml:space="preserve">ADAPTADOR INTERNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCA RSF</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUMERO COLONIAL</t>
   </si>
   <si>
@@ -1522,6 +1699,12 @@
     <t xml:space="preserve">KRONA CAP</t>
   </si>
   <si>
+    <t xml:space="preserve">BRASFORT FIO NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRACADEIRA RSF</t>
+  </si>
+  <si>
     <t xml:space="preserve">KIT GÁS</t>
   </si>
   <si>
@@ -1543,6 +1726,9 @@
     <t xml:space="preserve">MULTILIT ADAPTADOR</t>
   </si>
   <si>
+    <t xml:space="preserve">DOBRADIÇA SILVANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOGÃO</t>
   </si>
   <si>
@@ -1660,6 +1846,9 @@
     <t xml:space="preserve">CABIDE</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIPEGA SILICONE</t>
+  </si>
+  <si>
     <t xml:space="preserve">BANDEIA PINTURA</t>
   </si>
   <si>
@@ -1672,6 +1861,12 @@
     <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA TANQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPUMA POLIURETANO</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA AGUA</t>
   </si>
   <si>
@@ -1690,6 +1885,9 @@
     <t xml:space="preserve">TOALHA MESA TERMICA</t>
   </si>
   <si>
+    <t xml:space="preserve">CASCOREZ HENKEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA MADEIRA</t>
   </si>
   <si>
@@ -1708,6 +1906,9 @@
     <t xml:space="preserve">GARRAFAO</t>
   </si>
   <si>
+    <t xml:space="preserve">CASCOLA HENKEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">LATEX QUARTZOLIT</t>
   </si>
   <si>
@@ -1723,6 +1924,12 @@
     <t xml:space="preserve">AMANCO LUVA</t>
   </si>
   <si>
+    <t xml:space="preserve">GRAP TORNEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAREDE NOVA</t>
   </si>
   <si>
@@ -1741,6 +1948,12 @@
     <t xml:space="preserve">MANGUEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA BOSCH MASSA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ILUMI PROLONGADOR</t>
   </si>
   <si>
@@ -1756,6 +1969,9 @@
     <t xml:space="preserve">GRELHA</t>
   </si>
   <si>
+    <t xml:space="preserve">PA QUADRADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PINO MACHO</t>
   </si>
   <si>
@@ -1771,6 +1987,9 @@
     <t xml:space="preserve">CESTO</t>
   </si>
   <si>
+    <t xml:space="preserve">PA BICO </t>
+  </si>
+  <si>
     <t xml:space="preserve">CAIXA LUZ </t>
   </si>
   <si>
@@ -1786,6 +2005,9 @@
     <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA DOBLEA FERRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CANALETA</t>
   </si>
   <si>
@@ -1801,6 +2023,9 @@
     <t xml:space="preserve">VARAL</t>
   </si>
   <si>
+    <t xml:space="preserve">SAYERLACK MASSA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANNLUX</t>
   </si>
   <si>
@@ -1810,18 +2035,33 @@
     <t xml:space="preserve">PULVEIZADOR</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO PLASTILIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESCADA</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA NORTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONERTOR BORNE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> REGISTRO GAVETA</t>
   </si>
   <si>
     <t xml:space="preserve">BOMBA AR</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIAO PLASTILIT</t>
+  </si>
+  <si>
     <t xml:space="preserve">VELA</t>
   </si>
   <si>
+    <t xml:space="preserve">HYDRONORTH RESINA</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRAMONTINA CORRUGADO</t>
   </si>
   <si>
@@ -1831,6 +2071,18 @@
     <t xml:space="preserve">BLOCO ESPUMA</t>
   </si>
   <si>
+    <t xml:space="preserve">NIPLE PLASTILT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAS PINCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC EXTENSAO</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUMENTO TORNEIRA</t>
   </si>
   <si>
@@ -1840,6 +2092,12 @@
     <t xml:space="preserve">FACAO</t>
   </si>
   <si>
+    <t xml:space="preserve">AGUARRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALVULA HYDRA</t>
   </si>
   <si>
@@ -1852,6 +2110,9 @@
     <t xml:space="preserve">LUMINARIA ALETADA</t>
   </si>
   <si>
+    <t xml:space="preserve">GARDEN JUNCAO</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGUA</t>
   </si>
   <si>
@@ -1861,6 +2122,9 @@
     <t xml:space="preserve">PINO PRENSA</t>
   </si>
   <si>
+    <t xml:space="preserve">ADAPTADOR GARDEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">VANGA</t>
   </si>
   <si>
@@ -1870,6 +2134,9 @@
     <t xml:space="preserve">ADAPTADOR FEMEA</t>
   </si>
   <si>
+    <t xml:space="preserve">VÁLVULA PLASTICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIZ DE LINHA</t>
   </si>
   <si>
@@ -1879,12 +2146,33 @@
     <t xml:space="preserve">CONECTOR PORCELANA</t>
   </si>
   <si>
+    <t xml:space="preserve">BASE REGISTRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">FORMÃO</t>
   </si>
   <si>
+    <t xml:space="preserve">FIBRA ABRASIVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTRO PRESSAO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MACHAD</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA ELETRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTENSÃO TECHNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA HIDRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESQUADRO</t>
   </si>
   <si>
@@ -1894,21 +2182,33 @@
     <t xml:space="preserve">PINO FEMEA</t>
   </si>
   <si>
+    <t xml:space="preserve">VÁLVULA HYDRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">RODEL</t>
   </si>
   <si>
     <t xml:space="preserve">SACO ALVEJADO</t>
   </si>
   <si>
+    <t xml:space="preserve">REGISTRO GAVETA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERROTE</t>
   </si>
   <si>
     <t xml:space="preserve">PENZEL TERMINAL</t>
   </si>
   <si>
+    <t xml:space="preserve">CENSI REPARO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE FIXA</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE FENDA</t>
   </si>
   <si>
@@ -1939,12 +2239,18 @@
     <t xml:space="preserve">CHAVE COMBINADA</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPONJA FLASH </t>
+  </si>
+  <si>
     <t xml:space="preserve">SENSOR PRESENÇA</t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE BIELA</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA MAQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELETRODUTO</t>
   </si>
   <si>
@@ -1960,6 +2266,9 @@
     <t xml:space="preserve">CHAVE ESTRELA</t>
   </si>
   <si>
+    <t xml:space="preserve">PENZEL TERM PREISOL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERRA BOSCH</t>
   </si>
   <si>
@@ -1975,13 +2284,34 @@
     <t xml:space="preserve">CHAVE CANHAO</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA VIQUA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE PHILLIPS</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA HERC</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAQUIMETRO</t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE RODA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE DE GRIFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE INGLESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXADEIRA MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE VIRAR FERRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBA DE AR</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +2321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2026,17 +2356,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2088,7 +2407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2098,10 +2417,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2117,19 +2432,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2256,10 +2559,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG68"/>
+  <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2271,7 +2574,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.71"/>
@@ -2280,8 +2583,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="28.14"/>
@@ -2289,14 +2592,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="20.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="21.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,19 +2687,19 @@
       <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2461,7 +2764,6 @@
       <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="0"/>
       <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
@@ -2486,16 +2788,16 @@
       <c r="AC3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="0" t="s">
+      <c r="AD3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE3" s="0" t="s">
+      <c r="AE3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="0" t="s">
+      <c r="AG3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2587,16 +2889,16 @@
       <c r="AC4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AD4" s="0" t="s">
+      <c r="AD4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AE4" s="0" t="s">
+      <c r="AE4" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AF4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AG4" s="0" t="s">
+      <c r="AG4" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2667,1783 +2969,2079 @@
       <c r="V5" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="X5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC5" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="AD5" s="0" t="s">
+      <c r="AC5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AD5" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="AE5" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="AF5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG5" s="0" t="s">
         <v>129</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC6" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="AD6" s="0" t="s">
+      <c r="AC6" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="AD6" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="AE6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG6" s="0" t="s">
         <v>161</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="X7" s="5" t="s">
         <v>184</v>
       </c>
+      <c r="X7" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="Y7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA7" s="5" t="s">
         <v>186</v>
       </c>
+      <c r="AA7" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="AB7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC7" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="AE7" s="0" t="s">
+      <c r="AC7" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AD7" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AG7" s="0" t="s">
+      <c r="AE7" s="1" t="s">
         <v>191</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="0"/>
+        <v>216</v>
+      </c>
       <c r="AA8" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC8" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="AD8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="AF8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG8" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC9" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG9" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AC10" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG10" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC11" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG11" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
-        <v>295</v>
+      <c r="B12" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG12" s="0" t="s">
-        <v>316</v>
+        <v>324</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF13" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="AG13" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="AF14" s="0" t="s">
-        <v>359</v>
+        <v>366</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I15" s="0"/>
+        <v>376</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="L15" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>380</v>
+        <v>396</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>387</v>
+        <v>403</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>390</v>
+        <v>407</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC16" s="0" t="s">
-        <v>392</v>
+        <v>409</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>397</v>
+        <v>416</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>400</v>
+        <v>420</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>403</v>
+        <v>423</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC17" s="0" t="s">
-        <v>407</v>
+        <v>428</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6" t="s">
-        <v>408</v>
+      <c r="C18" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>415</v>
+        <v>438</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>417</v>
+        <v>441</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC18" s="0" t="s">
-        <v>421</v>
+        <v>446</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>430</v>
+        <v>456</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>432</v>
+        <v>459</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC19" s="0" t="s">
-        <v>436</v>
+        <v>463</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>445</v>
+        <v>474</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC20" s="8" t="s">
-        <v>448</v>
+        <v>478</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>457</v>
+        <v>489</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="6" t="s">
-        <v>460</v>
+        <v>493</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>463</v>
+      <c r="G22" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>465</v>
+        <v>500</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>466</v>
+        <v>504</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>505</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>470</v>
+        <v>509</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>472</v>
+        <v>510</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="U23" s="0"/>
+        <v>514</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>516</v>
+      </c>
       <c r="AA23" s="1" t="s">
-        <v>476</v>
+        <v>517</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>477</v>
+        <v>519</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>478</v>
+        <v>429</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="U24" s="0"/>
+        <v>525</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>526</v>
+      </c>
       <c r="AA24" s="1" t="s">
-        <v>484</v>
+        <v>527</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0"/>
+      <c r="C25" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>487</v>
+        <v>532</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>489</v>
+        <v>534</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>490</v>
+        <v>535</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>491</v>
+        <v>536</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>498</v>
+        <v>544</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>545</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>499</v>
+        <v>546</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1" t="s">
+        <v>548</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>514</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="1" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>518</v>
+        <v>568</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>519</v>
+        <v>569</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>520</v>
+        <v>570</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>522</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="1" t="s">
-        <v>523</v>
+        <v>573</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>524</v>
+        <v>574</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>525</v>
+        <v>575</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>527</v>
+        <v>576</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
-        <v>530</v>
+        <v>580</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="U32" s="0"/>
+        <v>593</v>
+      </c>
       <c r="AA32" s="1" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>545</v>
+        <v>595</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="U33" s="0"/>
+        <v>599</v>
+      </c>
       <c r="AA33" s="1" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>602</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>551</v>
+        <v>604</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>555</v>
+        <v>608</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>556</v>
+        <v>610</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>560</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>562</v>
+        <v>615</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>617</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>564</v>
+        <v>619</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>566</v>
+        <v>620</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>623</v>
+      </c>
       <c r="F37" s="1" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA37" s="5" t="s">
-        <v>571</v>
+        <v>627</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>572</v>
+        <v>629</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="AA38" s="5" t="s">
-        <v>576</v>
+        <v>634</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>577</v>
+        <v>636</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>637</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>578</v>
+        <v>638</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>579</v>
+        <v>639</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>581</v>
+        <v>641</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>582</v>
+        <v>642</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>583</v>
+        <v>644</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>584</v>
+        <v>645</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>586</v>
+        <v>646</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>587</v>
+        <v>648</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>652</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>592</v>
+        <v>654</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>655</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>595</v>
+        <v>658</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>597</v>
+        <v>660</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>598</v>
+        <v>664</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>600</v>
+        <v>666</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>668</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>602</v>
+        <v>670</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="5"/>
+      <c r="D45" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>674</v>
+      </c>
       <c r="I45" s="1" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>605</v>
+        <v>677</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>679</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>609</v>
+        <v>683</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>612</v>
+        <v>687</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>688</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>615</v>
+        <v>691</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>618</v>
+        <v>695</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>700</v>
+      </c>
       <c r="L51" s="1" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>704</v>
+      </c>
       <c r="L52" s="1" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>623</v>
+        <v>707</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>217</v>
+        <v>710</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>626</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
-        <v>479</v>
+        <v>521</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>628</v>
+        <v>713</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="1" t="s">
+        <v>716</v>
+      </c>
       <c r="H56" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>629</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>630</v>
+        <v>718</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>631</v>
+        <v>719</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>632</v>
+        <v>720</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>634</v>
+      <c r="D58" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>635</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>636</v>
+        <v>724</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>637</v>
+        <v>725</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>638</v>
+        <v>726</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="H60" s="1" t="s">
-        <v>639</v>
+        <v>728</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>640</v>
+        <v>729</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D61" s="1" t="s">
+        <v>730</v>
+      </c>
       <c r="H61" s="1" t="s">
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>642</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>644</v>
+        <v>733</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>734</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>645</v>
+        <v>735</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D63" s="6" t="s">
-        <v>361</v>
+      <c r="D63" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>646</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D64" s="5" t="s">
-        <v>647</v>
+      <c r="D64" s="4" t="s">
+        <v>738</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>648</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>649</v>
+        <v>740</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>650</v>
+        <v>741</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="L66" s="5" t="s">
-        <v>651</v>
+      <c r="D66" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D67" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="L67" s="1" t="s">
-        <v>652</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L68" s="1" t="s">
-        <v>653</v>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L69" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L70" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L71" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L72" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L73" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="798">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -181,6 +181,9 @@
     <t xml:space="preserve">BRACO CHUVEIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">FIO CABO PATCH</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTTO</t>
   </si>
   <si>
@@ -380,606 +383,6 @@
   </si>
   <si>
     <t xml:space="preserve">VEDACIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILHA TORRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUMEEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA TRAMONTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA PEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO LATAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO TRAMONTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ISOLANTE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITAS ALUMÍNIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA MOVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRINCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THINNER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFLETOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGATE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRIFICANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE CABRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FURADEIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO BITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUMBADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CORRIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUECEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANUNCIADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICO UNIAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBA INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERJA LIMPADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA CADEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO TRAMONTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUPLA FACE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKO FITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA PRATELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICORROSIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA VERTICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA MARMORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA TORNEADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA CHUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA P/ CANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARRAFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTILIT LUVA AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESGUICHO PADRAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA SINTETICA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIABO VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHO CHATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEC PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVER TAPE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA P/ TRINCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPOR PRAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENTUPIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA JUNTA DIESEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAXI RUBBER PRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTACULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FERRAMENTAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNEU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUELA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÓCULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTALETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVISOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO ESFERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDUCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESINFETANTE CREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHADURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO RADIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA TELADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RATOEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERFONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTAGOR VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMASSA PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA DE APOIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKOPRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER KRONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA RETENCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA ARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA ACO INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO PADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO RADIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ZEBRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA VEDATUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPÓXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPACADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO MAQUINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO FERRAMENTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITÃO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAFADOR DE RUIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA VIDRACEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA LIQUIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO PAPAIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARALDITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SABESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVELADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA CONTATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULAS METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCAPULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUCADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR AUDITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CALAFETAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA INTERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR CURTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PULVERIZADOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORRENTE SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI ESPELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ALTA FUSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA AZULEJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALVITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISJUNTORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGER OLEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENGRAXANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIABIT</t>
   </si>
   <si>
     <r>
@@ -989,7 +392,634 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CONECTOR </t>
+      <t xml:space="preserve">PILHA TORRE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PANASONIC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMEEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR METAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE CALHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE 11/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURVA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMENDA TRAMONTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIA INOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMPA PEDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADEADO LATAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPELHO TRAMONTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ISOLANTE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITAS ALUMÍNIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA MOVEIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVATINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA MADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRINCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THINNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFLETOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELO BORRACHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE CABRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURADEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO BITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHUMBADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA CORRIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPIRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUECEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANUNCIADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICO UNIAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBA INOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERJA LIMPADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA CADEADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONJUNTO TRAMONTINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUPLA FACE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYKO FITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA PRATELEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RALINHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFIL COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUARAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENTOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICORROSIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBA VERTICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELETRODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA MARMORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCA TORNEADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARGAMASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPA CHUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAÇADEIRA P/ CANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SARRAFO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTILIT LUVA AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNCAO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESGUICHO PADRAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIA SINTETICA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIABO VERDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHO CHATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEC PLACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVER TAPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELA P/ TRINCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPOR PRAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENTUPIDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA JUNTA DIESEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAXI RUBBER PRIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTACULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALHA AÇO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASELINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA FERRAMENTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNEU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARUELA ZINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCELANA PISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAVATORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÓCULOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTALETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVISOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTRO ESFERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REDUCAO ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANQUE PLASTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESINFETANTE CREO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHADURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONJUNTO RADIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA TELADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATOEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA FIBRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERFONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIFAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOELHEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTADOR DE VIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISTURADOR DE TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIMASSA USO GERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRA DE APOIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRYKOPRIMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CORRER KRONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA RETENCAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENEIRA ARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIA ACO INOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONVERTEDOR DE FERRUGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADEADO PADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPELHO RADIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ZEBRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA VEDATUDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE BRASFORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPÓXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOQUETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA LAVATORIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPACADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLEO MAQUINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPATULA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO FERRAMENTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERRO SOLDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITÃO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABAFADOR DE RUIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA VIDRACEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANTA LIQUIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTENA EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENEIRA PLASTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR DE FERRUGEM REMOX 250ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADEADO PAPAIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILUMI PLACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA MULTIUSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBRADICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARALDITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA MASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA SABESP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVELADOR PISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMPA CONTATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPATULAS METAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABO MULTIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPIRADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCAPULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUCADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTETOR AUDITIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA CALAFETAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECPLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTENA INTERNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR CURTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULVERIZADOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORRENTE SOLDAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILUMI ESPELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FITA ALTA FUSAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLA AZULEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANDEIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALVITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISJUNTORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALHA DE ACO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGER OLEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAPIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDRIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT FIXACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTO DELTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESENGRAXANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIABIT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CONECTOR CABO </t>
     </r>
     <r>
       <rPr>
@@ -1087,6 +1117,9 @@
     <t xml:space="preserve">CONJUNTO MECTRONIC</t>
   </si>
   <si>
+    <t xml:space="preserve">VEDATUDO FITA ADESIVA ALUMINIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
   </si>
   <si>
@@ -1240,6 +1273,9 @@
     <t xml:space="preserve">ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
   </si>
   <si>
+    <t xml:space="preserve">OLEO DESENGRIPANTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERRORTE</t>
   </si>
   <si>
@@ -1384,6 +1420,9 @@
     <t xml:space="preserve">TELA VIVEIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAVA LARETAL PORTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONJUNTO ARIA</t>
   </si>
   <si>
@@ -1411,6 +1450,9 @@
     <t xml:space="preserve">COLHER</t>
   </si>
   <si>
+    <t xml:space="preserve">REFIL P/ MACARICOS E FOGAREIROS ETANIZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">FURADEIRA/PARAFUSO</t>
   </si>
   <si>
@@ -1459,6 +1501,9 @@
     <t xml:space="preserve">MARTELO</t>
   </si>
   <si>
+    <t xml:space="preserve">PISTOLA SILICONE </t>
+  </si>
+  <si>
     <t xml:space="preserve">SERRA CIRCULAR</t>
   </si>
   <si>
@@ -1505,6 +1550,9 @@
   </si>
   <si>
     <t xml:space="preserve">MARRETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA P/ SILICONE BIVOLT 40W GRANDE EDA</t>
   </si>
   <si>
     <t xml:space="preserve">PONTEIRA</t>
@@ -1606,6 +1654,9 @@
     <t xml:space="preserve">PARAFUSO FRANCES</t>
   </si>
   <si>
+    <t xml:space="preserve">KIT BANHEIRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">LINHA NYLON PESCA</t>
   </si>
   <si>
@@ -1624,7 +1675,7 @@
     <t xml:space="preserve">BALDE</t>
   </si>
   <si>
-    <t xml:space="preserve">MACACO JACARE</t>
+    <t xml:space="preserve">EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
   </si>
   <si>
     <t xml:space="preserve">FIO CABO AUTO</t>
@@ -1636,6 +1687,30 @@
     <t xml:space="preserve">RAMADA</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PARAFUSO CHATA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PHILIPS JOMARCA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZARTE COLUNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALCOOL GEL</t>
   </si>
   <si>
@@ -1657,13 +1732,22 @@
     <t xml:space="preserve">LIXA SECO</t>
   </si>
   <si>
+    <t xml:space="preserve">FIO BICOLOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONECTOR WAGO</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA SIFONADA</t>
   </si>
   <si>
-    <t xml:space="preserve">PÁS</t>
+    <t xml:space="preserve">PÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSENTO METASUL ALMOFADADO OVAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA SANFONADA</t>
   </si>
   <si>
     <t xml:space="preserve">TE RRR</t>
@@ -1693,7 +1777,7 @@
     <t xml:space="preserve">PICARETA</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTA SANFONADA</t>
+    <t xml:space="preserve">PLASTICO BOLHA</t>
   </si>
   <si>
     <t xml:space="preserve">KRONA CAP</t>
@@ -1723,6 +1807,9 @@
     <t xml:space="preserve">LIMA</t>
   </si>
   <si>
+    <t xml:space="preserve">PORTA MADEIRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MULTILIT ADAPTADOR</t>
   </si>
   <si>
@@ -1747,12 +1834,15 @@
     <t xml:space="preserve">ALAVANCA</t>
   </si>
   <si>
-    <t xml:space="preserve">PLASTICO BOLHA</t>
+    <t xml:space="preserve">SACO ENTULHO</t>
   </si>
   <si>
     <t xml:space="preserve">CAPS PLASTILIT</t>
   </si>
   <si>
+    <t xml:space="preserve">MIGUELAO</t>
+  </si>
+  <si>
     <t xml:space="preserve">KIT PE</t>
   </si>
   <si>
@@ -1771,7 +1861,7 @@
     <t xml:space="preserve">CHIBANCA</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTA MADEIRA</t>
+    <t xml:space="preserve">FIXADOR PORTA</t>
   </si>
   <si>
     <t xml:space="preserve">JOELHO SOLDAVEL</t>
@@ -1792,7 +1882,7 @@
     <t xml:space="preserve">CARRINHO MAO</t>
   </si>
   <si>
-    <t xml:space="preserve">SACO ENTULHO</t>
+    <t xml:space="preserve">BRINDE SQUEEZE</t>
   </si>
   <si>
     <t xml:space="preserve">CURVA SOLDAVEL</t>
@@ -1816,7 +1906,7 @@
     <t xml:space="preserve">TORQUES</t>
   </si>
   <si>
-    <t xml:space="preserve">FIXADOR PORTA</t>
+    <t xml:space="preserve">BARBANTE ALGODAO</t>
   </si>
   <si>
     <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
@@ -1840,6 +1930,9 @@
     <t xml:space="preserve">APLICADOR </t>
   </si>
   <si>
+    <t xml:space="preserve">PROTETOR SOLAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAP SOLDAVEL</t>
   </si>
   <si>
@@ -1876,9 +1969,6 @@
     <t xml:space="preserve">TALHADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">BRINDE SQUEEZE</t>
-  </si>
-  <si>
     <t xml:space="preserve">COTOVELO AZUL</t>
   </si>
   <si>
@@ -1906,7 +1996,25 @@
     <t xml:space="preserve">GARRAFAO</t>
   </si>
   <si>
-    <t xml:space="preserve">CASCOLA HENKEL</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CASCOLA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">HENKEL</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LATEX QUARTZOLIT</t>
@@ -1969,6 +2077,9 @@
     <t xml:space="preserve">GRELHA</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA QUADRADA</t>
   </si>
   <si>
@@ -1987,6 +2098,9 @@
     <t xml:space="preserve">CESTO</t>
   </si>
   <si>
+    <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA BICO </t>
   </si>
   <si>
@@ -2005,6 +2119,9 @@
     <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
   </si>
   <si>
+    <t xml:space="preserve">REMOVEDOR COLA </t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA DOBLEA FERRO</t>
   </si>
   <si>
@@ -2023,6 +2140,9 @@
     <t xml:space="preserve">VARAL</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAYERLACK MASSA</t>
   </si>
   <si>
@@ -2041,6 +2161,9 @@
     <t xml:space="preserve">ESCADA</t>
   </si>
   <si>
+    <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA NORTON</t>
   </si>
   <si>
@@ -2059,6 +2182,9 @@
     <t xml:space="preserve">VELA</t>
   </si>
   <si>
+    <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">HYDRONORTH RESINA</t>
   </si>
   <si>
@@ -2077,6 +2203,9 @@
     <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
   </si>
   <si>
+    <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATLAS PINCEL</t>
   </si>
   <si>
@@ -2089,6 +2218,9 @@
     <t xml:space="preserve">ESTILETE</t>
   </si>
   <si>
+    <t xml:space="preserve">CAP MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">FACAO</t>
   </si>
   <si>
@@ -2104,9 +2236,15 @@
     <t xml:space="preserve">CHAVE SOQUETE</t>
   </si>
   <si>
+    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERMINAL ROCO</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA BOSCH AGUA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUMINARIA ALETADA</t>
   </si>
   <si>
@@ -2209,6 +2347,9 @@
     <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE FENDA</t>
   </si>
   <si>
@@ -2218,6 +2359,9 @@
     <t xml:space="preserve">FOXLUX FIO</t>
   </si>
   <si>
+    <t xml:space="preserve">HYDRA REPARO VÁLVULA</t>
+  </si>
+  <si>
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
@@ -2227,6 +2371,9 @@
     <t xml:space="preserve">AVANT LUMINARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">CAIXA HIDROMETRO SABESP</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAMINA SERRA</t>
   </si>
   <si>
@@ -2236,6 +2383,9 @@
     <t xml:space="preserve">FIO TELEF</t>
   </si>
   <si>
+    <t xml:space="preserve">JUNCAO METAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE COMBINADA</t>
   </si>
   <si>
@@ -2245,6 +2395,9 @@
     <t xml:space="preserve">SENSOR PRESENÇA</t>
   </si>
   <si>
+    <t xml:space="preserve">VÁLVULA TANQUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE BIELA</t>
   </si>
   <si>
@@ -2254,6 +2407,9 @@
     <t xml:space="preserve">ELETRODUTO</t>
   </si>
   <si>
+    <t xml:space="preserve">VÁLVULA MULTIUSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE ALLEN</t>
   </si>
   <si>
@@ -2263,30 +2419,69 @@
     <t xml:space="preserve">EXT ILUMI PLACA</t>
   </si>
   <si>
+    <t xml:space="preserve">MECANISMO ENTRADA UNIVERSAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE ESTRELA</t>
   </si>
   <si>
     <t xml:space="preserve">PENZEL TERM PREISOL</t>
   </si>
   <si>
+    <t xml:space="preserve">BLUKIT REPARO VALVULA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERRA BOSCH</t>
   </si>
   <si>
     <t xml:space="preserve">CAMPAINHA </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">THOMPSON </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CONECTOR BORNE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA MULT GORDURA CESTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERRA ACO</t>
   </si>
   <si>
     <t xml:space="preserve">CONTROLE REMOTO</t>
   </si>
   <si>
+    <t xml:space="preserve">CONECTOR GENERICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAF CAIXA P/ HIDROMETRO PP SABESP NTS303</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE CANHAO</t>
   </si>
   <si>
     <t xml:space="preserve">TORNEIRA VIQUA</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X RADIAL  CAIXA BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE PHILLIPS</t>
   </si>
   <si>
@@ -2296,16 +2491,31 @@
     <t xml:space="preserve">PAQUIMETRO</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPONJA MULTIUSO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE RODA</t>
   </si>
   <si>
+    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE DE GRIFO</t>
   </si>
   <si>
+    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILIC 1/4V 1167 PRETO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE INGLESA</t>
   </si>
   <si>
+    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILIC 1/4V 1167 VERMELHO</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXADEIRA MANUAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE VIRAR FERRO</t>
@@ -2321,7 +2531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2356,6 +2566,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2407,12 +2630,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2424,15 +2647,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2561,17 +2792,17 @@
   </sheetPr>
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H67" activeCellId="0" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.9"/>
@@ -2579,27 +2810,28 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="29.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="42.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="24.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="28.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="23.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="34" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,7 +2931,7 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2764,2284 +2996,2422 @@
       <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="V3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF7" s="5" t="s">
         <v>192</v>
       </c>
+      <c r="AF7" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="AG7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="Q9" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>397</v>
+        <v>401</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>404</v>
+        <v>409</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5" t="s">
-        <v>432</v>
+      <c r="C18" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>479</v>
+        <v>487</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>488</v>
+        <v>497</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5" t="s">
-        <v>495</v>
+      <c r="C22" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>520</v>
+        <v>435</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>525</v>
+        <v>536</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>532</v>
+        <v>545</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>546</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>535</v>
+        <v>549</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>551</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>545</v>
+        <v>560</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>554</v>
+        <v>570</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="1" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>612</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>636</v>
+        <v>654</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>655</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>642</v>
+        <v>661</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>662</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>648</v>
+        <v>668</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>654</v>
+        <v>675</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>676</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>660</v>
+        <v>682</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>683</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>666</v>
+        <v>689</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>690</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>672</v>
+        <v>696</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>697</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>676</v>
+        <v>701</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>681</v>
+        <v>707</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>682</v>
+        <v>709</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>715</v>
+        <v>742</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>718</v>
+        <v>747</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>719</v>
+        <v>748</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="6" t="s">
-        <v>721</v>
+      <c r="D58" s="8" t="s">
+        <v>751</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>722</v>
+        <v>752</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>725</v>
+        <v>756</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>757</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>728</v>
+        <v>760</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>731</v>
+        <v>764</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>765</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>732</v>
+        <v>766</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>734</v>
+        <v>768</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>769</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D63" s="5" t="s">
-        <v>372</v>
+      <c r="D63" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>736</v>
+        <v>771</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>772</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="4" t="s">
-        <v>738</v>
+        <v>774</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>776</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>739</v>
+        <v>777</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>740</v>
+        <v>778</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>780</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="1" t="s">
-        <v>742</v>
+        <v>782</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>783</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="1" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D68" s="1" t="s">
+        <v>787</v>
+      </c>
       <c r="L68" s="1" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D69" s="5" t="s">
+        <v>789</v>
+      </c>
       <c r="L69" s="1" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D70" s="6" t="s">
+        <v>791</v>
+      </c>
       <c r="L70" s="1" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D71" s="6" t="s">
+        <v>793</v>
+      </c>
       <c r="L71" s="1" t="s">
-        <v>749</v>
+        <v>794</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D72" s="6" t="s">
+        <v>795</v>
+      </c>
       <c r="L72" s="1" t="s">
-        <v>750</v>
+        <v>796</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="L73" s="1" t="s">
-        <v>751</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="841">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -601,7 +601,10 @@
     <t xml:space="preserve">SARRAFO</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE</t>
+    <t xml:space="preserve">SUPORTE ANTENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALHA ZINCO</t>
   </si>
   <si>
     <t xml:space="preserve">MULTILIT LUVA AZUL</t>
@@ -631,7 +634,7 @@
     <t xml:space="preserve">TELA P/ TRINCA </t>
   </si>
   <si>
-    <t xml:space="preserve">SUPOR PRAT</t>
+    <t xml:space="preserve">SUPORTE PRATELEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">DESENTUPIDOR</t>
@@ -694,6 +697,9 @@
     <t xml:space="preserve">DIVISOR</t>
   </si>
   <si>
+    <t xml:space="preserve">CALHA FORTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGISTRO ESFERA</t>
   </si>
   <si>
@@ -844,6 +850,9 @@
     <t xml:space="preserve">PITÃO </t>
   </si>
   <si>
+    <t xml:space="preserve">VARANDAS E QUINTAIS SC 20KG</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARMARIO</t>
   </si>
   <si>
@@ -868,7 +877,10 @@
     <t xml:space="preserve">PENEIRA PLASTICO</t>
   </si>
   <si>
-    <t xml:space="preserve">REMOVEDOR DE FERRUGEM REMOX 250ML</t>
+    <t xml:space="preserve">TANQUE SINTETICO RORATO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR DE FERRUGEM </t>
   </si>
   <si>
     <t xml:space="preserve">CADEADO PAPAIZ</t>
@@ -923,6 +935,9 @@
   </si>
   <si>
     <t xml:space="preserve">ESCAPULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASSA PRONTA ASSENT REVEST</t>
   </si>
   <si>
     <t xml:space="preserve">TOUCADOR</t>
@@ -1186,6 +1201,9 @@
     <t xml:space="preserve">CONJUNTO PIAL</t>
   </si>
   <si>
+    <t xml:space="preserve">BRASILIT FITA ADESIVA ALUMINIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIXA FIO</t>
   </si>
   <si>
@@ -1477,6 +1495,9 @@
     <t xml:space="preserve">MANGUEIRA CRISTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">CADEADO GOLD</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEC CONJUNTO</t>
   </si>
   <si>
@@ -1525,6 +1546,9 @@
     <t xml:space="preserve">BESTWAY REPARO INFLAVEIS</t>
   </si>
   <si>
+    <t xml:space="preserve">BRASFORT CADEADO BIKE CHAVE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESPELHO MECTRONIC</t>
   </si>
   <si>
@@ -1552,7 +1576,7 @@
     <t xml:space="preserve">MARRETA</t>
   </si>
   <si>
-    <t xml:space="preserve">PISTOLA P/ SILICONE BIVOLT 40W GRANDE EDA</t>
+    <t xml:space="preserve">PISTOLA P/ SILICONE BIVOLT</t>
   </si>
   <si>
     <t xml:space="preserve">PONTEIRA</t>
@@ -1571,6 +1595,9 @@
   </si>
   <si>
     <t xml:space="preserve">PENEIRA TELAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA X RADIAL SIMPLES CAIXA BRANCO</t>
   </si>
   <si>
     <t xml:space="preserve">DOBRADIÇA</t>
@@ -1627,6 +1654,9 @@
     <t xml:space="preserve">TELA NYLON</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X RADIAL 2 TOMADAS  CAIXA BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARRA ROSCADA</t>
   </si>
   <si>
@@ -1651,13 +1681,16 @@
     <t xml:space="preserve">ENXADA</t>
   </si>
   <si>
+    <t xml:space="preserve">REFIL PISTOLA  SILICONE EM BARRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PARAFUSO FRANCES</t>
   </si>
   <si>
     <t xml:space="preserve">KIT BANHEIRO</t>
   </si>
   <si>
-    <t xml:space="preserve">LINHA NYLON PESCA</t>
+    <t xml:space="preserve">EKILON LINHA NYLON P/ PESCA</t>
   </si>
   <si>
     <t xml:space="preserve">JOELHO LR</t>
@@ -1666,6 +1699,9 @@
     <t xml:space="preserve">UNIAO TORNEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPELHO CEGO ILUMI SLIM</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARRA ZINC</t>
   </si>
   <si>
@@ -1687,25 +1723,10 @@
     <t xml:space="preserve">RAMADA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PARAFUSO CHATA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PHILIPS JOMARCA</t>
-    </r>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO LIXAD/POLITRIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">LUZARTE COLUNA</t>
@@ -1768,6 +1789,9 @@
     <t xml:space="preserve">LIXA FERRO</t>
   </si>
   <si>
+    <t xml:space="preserve">ITAQUA DILUENTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">HASTE</t>
   </si>
   <si>
@@ -1777,6 +1801,9 @@
     <t xml:space="preserve">PICARETA</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSENTO TIGRE OVAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLASTICO BOLHA</t>
   </si>
   <si>
@@ -1813,6 +1840,9 @@
     <t xml:space="preserve">MULTILIT ADAPTADOR</t>
   </si>
   <si>
+    <t xml:space="preserve">PLASTCOR TELA PLASTICA TAPUME</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOBRADIÇA SILVANA</t>
   </si>
   <si>
@@ -1840,6 +1870,9 @@
     <t xml:space="preserve">CAPS PLASTILIT</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIAO INTERNA REBOUCAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIGUELAO</t>
   </si>
   <si>
@@ -1867,6 +1900,12 @@
     <t xml:space="preserve">JOELHO SOLDAVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">PENEIRA ARO MADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRA ROSCA GALVANIZADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTAO FRANCES</t>
   </si>
   <si>
@@ -1906,7 +1945,7 @@
     <t xml:space="preserve">TORQUES</t>
   </si>
   <si>
-    <t xml:space="preserve">BARBANTE ALGODAO</t>
+    <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
   </si>
   <si>
     <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
@@ -2224,6 +2263,9 @@
     <t xml:space="preserve">FACAO</t>
   </si>
   <si>
+    <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGUARRAS</t>
   </si>
   <si>
@@ -2242,6 +2284,9 @@
     <t xml:space="preserve">TERMINAL ROCO</t>
   </si>
   <si>
+    <t xml:space="preserve">FIXA CUBA </t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXA BOSCH AGUA</t>
   </si>
   <si>
@@ -2254,9 +2299,15 @@
     <t xml:space="preserve">REGUA</t>
   </si>
   <si>
+    <t xml:space="preserve">TEE FORTLEV</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE TV</t>
   </si>
   <si>
+    <t xml:space="preserve">FERJA LIXA D AGUA </t>
+  </si>
+  <si>
     <t xml:space="preserve">PINO PRENSA</t>
   </si>
   <si>
@@ -2266,6 +2317,9 @@
     <t xml:space="preserve">VANGA</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONTROLE TV</t>
   </si>
   <si>
@@ -2278,6 +2332,9 @@
     <t xml:space="preserve">GIZ DE LINHA</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
+  </si>
+  <si>
     <t xml:space="preserve">GABINETE</t>
   </si>
   <si>
@@ -2290,6 +2347,9 @@
     <t xml:space="preserve">FORMÃO</t>
   </si>
   <si>
+    <t xml:space="preserve">TEE TIGRE MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIBRA ABRASIVA </t>
   </si>
   <si>
@@ -2300,6 +2360,9 @@
   </si>
   <si>
     <t xml:space="preserve">MACHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">TORNEIRA ELETRICA</t>
@@ -2479,7 +2542,10 @@
     <t xml:space="preserve">TORNEIRA VIQUA</t>
   </si>
   <si>
-    <t xml:space="preserve">SISTEMA X RADIAL  CAIXA BRANCO</t>
+    <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACABAMENTO REGISTRO ART METAIS</t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE PHILLIPS</t>
@@ -2488,28 +2554,52 @@
     <t xml:space="preserve">TORNEIRA HERC</t>
   </si>
   <si>
+    <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA AMERICANA METAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAQUIMETRO</t>
   </si>
   <si>
     <t xml:space="preserve">ESPONJA MULTIUSO</t>
   </si>
   <si>
+    <t xml:space="preserve">MEGATRON CABO PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALVA REGISTRO ALPHA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE RODA</t>
   </si>
   <si>
     <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPERIO HIDRO ACABAMENTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHAVE DE GRIFO</t>
   </si>
   <si>
-    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILIC 1/4V 1167 PRETO</t>
+    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACESSORIO CAIXA BLUKIT</t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE INGLESA</t>
   </si>
   <si>
-    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILIC 1/4V 1167 VERMELHO</t>
+    <t xml:space="preserve">SUPORTE LAJE FIXO</t>
   </si>
   <si>
     <t xml:space="preserve">LIXADEIRA MANUAL</t>
@@ -2521,7 +2611,28 @@
     <t xml:space="preserve">CHAVE VIRAR FERRO</t>
   </si>
   <si>
+    <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
+  </si>
+  <si>
     <t xml:space="preserve">BOMBA DE AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENTILADOR DE MESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE BRASFORMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE PIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE PRIMETECH</t>
   </si>
 </sst>
 </file>
@@ -2575,17 +2686,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2630,7 +2741,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2655,16 +2766,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2790,10 +2897,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG73"/>
+  <dimension ref="A1:AG79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H67" activeCellId="0" sqref="H67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2801,36 +2908,36 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="42.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="44.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="29.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="28.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="31.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="24.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="29.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="19.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="27.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="40.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="41.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="34" style="1" width="11.57"/>
   </cols>
   <sheetData>
@@ -3409,2009 +3516,2154 @@
       <c r="Y7" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="Z7" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="AA7" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>498</v>
+        <v>505</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>525</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>527</v>
+        <v>537</v>
+      </c>
+      <c r="U23" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>536</v>
+        <v>548</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="R25" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>557</v>
+        <v>570</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>560</v>
+        <v>574</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>587</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>578</v>
+        <v>594</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>579</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="P28" s="5"/>
       <c r="U28" s="1" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>597</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>590</v>
+        <v>607</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>604</v>
+        <v>622</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>683</v>
+        <v>701</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>702</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>690</v>
+        <v>708</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>697</v>
+        <v>715</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>703</v>
+        <v>722</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>723</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="AA46" s="5" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>709</v>
+        <v>729</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>734</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>714</v>
+        <v>736</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>715</v>
+        <v>738</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>740</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>721</v>
+        <v>745</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>725</v>
+        <v>750</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>729</v>
+        <v>755</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="8" t="s">
-        <v>751</v>
+      <c r="D58" s="6" t="s">
+        <v>778</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="4" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>780</v>
+        <v>806</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>783</v>
+        <v>809</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>811</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>784</v>
+        <v>812</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="1" t="s">
-        <v>785</v>
+        <v>813</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>787</v>
+        <v>817</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>819</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="5" t="s">
-        <v>789</v>
+        <v>821</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>823</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>790</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="6" t="s">
-        <v>791</v>
+      <c r="D70" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>827</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="6" t="s">
-        <v>793</v>
+      <c r="D71" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="6" t="s">
-        <v>795</v>
+      <c r="D72" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D73" s="5" t="s">
+        <v>833</v>
+      </c>
       <c r="L73" s="1" t="s">
-        <v>797</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D74" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D75" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D76" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D77" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D78" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D79" s="1" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="865">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -769,7 +769,7 @@
     <t xml:space="preserve">BARRA DE APOIO</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA</t>
+    <t xml:space="preserve">LUVA MAO</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
@@ -781,7 +781,7 @@
     <t xml:space="preserve">RECEPTOR</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA CORRER KRONA</t>
+    <t xml:space="preserve">KRONA PLUG</t>
   </si>
   <si>
     <t xml:space="preserve">VALVULA RETENCAO</t>
@@ -868,7 +868,7 @@
     <t xml:space="preserve">ANTENA EXT</t>
   </si>
   <si>
-    <t xml:space="preserve">KRONA PLUG</t>
+    <t xml:space="preserve">ADAPTADOR CURTO</t>
   </si>
   <si>
     <t xml:space="preserve">CAPS ESGOTO</t>
@@ -898,7 +898,7 @@
     <t xml:space="preserve">DOBRADICA</t>
   </si>
   <si>
-    <t xml:space="preserve">CANTONEIRAS/MÃO FRANCESA</t>
+    <t xml:space="preserve">PORTAO DOMESTICO</t>
   </si>
   <si>
     <t xml:space="preserve">ARALDITE</t>
@@ -955,7 +955,7 @@
     <t xml:space="preserve">ANTENA INTERNA</t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR CURTO</t>
+    <t xml:space="preserve">CAP 3/4</t>
   </si>
   <si>
     <t xml:space="preserve">CURVA CURTA ESGOTO</t>
@@ -976,7 +976,7 @@
     <t xml:space="preserve">PREGO</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTAO</t>
+    <t xml:space="preserve">FIBRA ABRASIVA LIMPEZA</t>
   </si>
   <si>
     <t xml:space="preserve">COLA AZULEJO</t>
@@ -1048,7 +1048,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CAP 3/4</t>
+    <t xml:space="preserve">LUVA 3/4</t>
   </si>
   <si>
     <t xml:space="preserve">COTOVELO ESGOTO</t>
@@ -1069,7 +1069,7 @@
     <t xml:space="preserve">ARAME</t>
   </si>
   <si>
-    <t xml:space="preserve">FIBRA ABRASIVA LIMPEZA</t>
+    <t xml:space="preserve">AREJADOR </t>
   </si>
   <si>
     <t xml:space="preserve">VEDACALHA</t>
@@ -1117,7 +1117,7 @@
     <t xml:space="preserve">OTTO PRIMER MANTA</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA 3/4</t>
+    <t xml:space="preserve">KRONA LUVA LL</t>
   </si>
   <si>
     <t xml:space="preserve">CAPS DE ESGOTO</t>
@@ -1138,7 +1138,7 @@
     <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
   </si>
   <si>
-    <t xml:space="preserve">AREJADOR </t>
+    <t xml:space="preserve">CESTINHA</t>
   </si>
   <si>
     <t xml:space="preserve">PU40</t>
@@ -1186,7 +1186,7 @@
     <t xml:space="preserve">PRIMER MANTA</t>
   </si>
   <si>
-    <t xml:space="preserve">KRONA LUVA LL</t>
+    <t xml:space="preserve">LUVA 11/2</t>
   </si>
   <si>
     <t xml:space="preserve">TEE ESGOTO</t>
@@ -1207,7 +1207,7 @@
     <t xml:space="preserve">FIXA FIO</t>
   </si>
   <si>
-    <t xml:space="preserve">CESTINHA</t>
+    <t xml:space="preserve">CAIXA CORREIO</t>
   </si>
   <si>
     <t xml:space="preserve">COLA VINIL</t>
@@ -1255,7 +1255,7 @@
     <t xml:space="preserve">CHAPIX</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA 11/2</t>
+    <t xml:space="preserve">TE LLL</t>
   </si>
   <si>
     <t xml:space="preserve">COTOVELO VISITA</t>
@@ -1273,7 +1273,7 @@
     <t xml:space="preserve">TACHINHA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAIXA CORREIO</t>
+    <t xml:space="preserve">PEDRA AFIAR</t>
   </si>
   <si>
     <t xml:space="preserve">COLA FIXA TUDO</t>
@@ -1321,7 +1321,10 @@
     <t xml:space="preserve">NEUTROL</t>
   </si>
   <si>
-    <t xml:space="preserve">TE LLL</t>
+    <t xml:space="preserve">TE AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CORRER ESGOTO</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA TRANÇADA</t>
@@ -1336,9 +1339,6 @@
     <t xml:space="preserve">ESTICADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">PEDRA AFIAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">COLA FIXA ESPELHO/CUBA</t>
   </si>
   <si>
@@ -1378,7 +1378,7 @@
     <t xml:space="preserve">BLOCO VIDRO</t>
   </si>
   <si>
-    <t xml:space="preserve">TE AZUL</t>
+    <t xml:space="preserve">LUVA AZUL</t>
   </si>
   <si>
     <t xml:space="preserve">REGADOR</t>
@@ -1393,6 +1393,9 @@
     <t xml:space="preserve">GANCHO REDE</t>
   </si>
   <si>
+    <t xml:space="preserve">VASSOURA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESPUMA EXPANSIVA</t>
   </si>
   <si>
@@ -1432,7 +1435,7 @@
     <t xml:space="preserve">PAPEL SULFITE </t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA AZUL</t>
+    <t xml:space="preserve">ADAPTADOR FLANGE</t>
   </si>
   <si>
     <t xml:space="preserve">TELA VIVEIRO</t>
@@ -1447,7 +1450,7 @@
     <t xml:space="preserve">GONZO</t>
   </si>
   <si>
-    <t xml:space="preserve">VASSOURA</t>
+    <t xml:space="preserve">RODO</t>
   </si>
   <si>
     <t xml:space="preserve">SELATRINCA</t>
@@ -1489,7 +1492,7 @@
     <t xml:space="preserve">PAPEL TOALHA</t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR FLANGE</t>
+    <t xml:space="preserve">CURVA LONGA</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA CRISTAL</t>
@@ -1501,7 +1504,7 @@
     <t xml:space="preserve">MEC CONJUNTO</t>
   </si>
   <si>
-    <t xml:space="preserve">RODO</t>
+    <t xml:space="preserve">LIMPA VIDRO</t>
   </si>
   <si>
     <t xml:space="preserve">SILICONE ACETICO</t>
@@ -1540,7 +1543,7 @@
     <t xml:space="preserve">SACO AREIA</t>
   </si>
   <si>
-    <t xml:space="preserve">CURVA LONGA</t>
+    <t xml:space="preserve">JOELHO AZUL</t>
   </si>
   <si>
     <t xml:space="preserve">BESTWAY REPARO INFLAVEIS</t>
@@ -1555,7 +1558,7 @@
     <t xml:space="preserve">CANTONEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">LIMPA VIDRO</t>
+    <t xml:space="preserve">LAMPADA FOGÃO	</t>
   </si>
   <si>
     <t xml:space="preserve">COLA BRANCO</t>
@@ -1588,10 +1591,13 @@
     <t xml:space="preserve">TAMPA BORRACHA</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA TRICOTADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">FITILHO</t>
   </si>
   <si>
-    <t xml:space="preserve">JOELHO AZUL</t>
+    <t xml:space="preserve">LUVA LR</t>
   </si>
   <si>
     <t xml:space="preserve">PENEIRA TELAS</t>
@@ -1603,7 +1609,7 @@
     <t xml:space="preserve">DOBRADIÇA</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMPADA FOGÃO	</t>
+    <t xml:space="preserve">PÉ FOGÃO</t>
   </si>
   <si>
     <t xml:space="preserve">TEK BOND SILICONE</t>
@@ -1645,10 +1651,13 @@
     <t xml:space="preserve">TAMPA TANQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA DELTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VENTILADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA LR</t>
+    <t xml:space="preserve">JOELHO LR</t>
   </si>
   <si>
     <t xml:space="preserve">TELA NYLON</t>
@@ -1660,9 +1669,6 @@
     <t xml:space="preserve">BARRA ROSCADA</t>
   </si>
   <si>
-    <t xml:space="preserve">PÉ FOGÃO</t>
-  </si>
-  <si>
     <t xml:space="preserve">COLA PU</t>
   </si>
   <si>
@@ -1690,10 +1696,13 @@
     <t xml:space="preserve">KIT BANHEIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA SANRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">EKILON LINHA NYLON P/ PESCA</t>
   </si>
   <si>
-    <t xml:space="preserve">JOELHO LR</t>
+    <t xml:space="preserve">KRONA TE LLL 11/2</t>
   </si>
   <si>
     <t xml:space="preserve">UNIAO TORNEIRA</t>
@@ -1705,6 +1714,9 @@
     <t xml:space="preserve">BARRA ZINC</t>
   </si>
   <si>
+    <t xml:space="preserve">REGULADOR GAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">DUREPOXI</t>
   </si>
   <si>
@@ -1732,19 +1744,43 @@
     <t xml:space="preserve">LUZARTE COLUNA</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">LUVA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">KALIPSO</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">ALCOOL GEL</t>
   </si>
   <si>
-    <t xml:space="preserve">KRONA TE LLL 11/2</t>
+    <t xml:space="preserve">TE RRR</t>
   </si>
   <si>
     <t xml:space="preserve">TELA GALVANIZADO</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAMONTINA TOMADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCA ABRACADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">REGULADOR GAS</t>
+    <t xml:space="preserve">NUMERO COLONIAL</t>
   </si>
   <si>
     <t xml:space="preserve">COLA HENKEL</t>
@@ -1768,19 +1804,25 @@
     <t xml:space="preserve">ASSENTO METASUL ALMOFADADO OVAL</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA IMBAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PORTA SANFONADA</t>
   </si>
   <si>
-    <t xml:space="preserve">TE RRR</t>
+    <t xml:space="preserve">KRONA CAP</t>
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR INTERNO</t>
   </si>
   <si>
+    <t xml:space="preserve">MODULO MECTRONIC TOMADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCA RSF</t>
   </si>
   <si>
-    <t xml:space="preserve">NUMERO COLONIAL</t>
+    <t xml:space="preserve">KIT GÁS</t>
   </si>
   <si>
     <t xml:space="preserve">SUPER BONDER</t>
@@ -1804,10 +1846,13 @@
     <t xml:space="preserve">ASSENTO TIGRE OVAL</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA RASPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLASTICO BOLHA</t>
   </si>
   <si>
-    <t xml:space="preserve">KRONA CAP</t>
+    <t xml:space="preserve">MULTILIT ADAPTADOR</t>
   </si>
   <si>
     <t xml:space="preserve">BRASFORT FIO NYLON</t>
@@ -1816,7 +1861,7 @@
     <t xml:space="preserve">ABRACADEIRA RSF</t>
   </si>
   <si>
-    <t xml:space="preserve">KIT GÁS</t>
+    <t xml:space="preserve">FOGÃO</t>
   </si>
   <si>
     <t xml:space="preserve">COLA SELANTE</t>
@@ -1834,10 +1879,13 @@
     <t xml:space="preserve">LIMA</t>
   </si>
   <si>
+    <t xml:space="preserve">ALPHA DUCHA HIGIENICA REGISTRO METAL </t>
+  </si>
+  <si>
     <t xml:space="preserve">PORTA MADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTILIT ADAPTADOR</t>
+    <t xml:space="preserve">CAPS PLASTILIT</t>
   </si>
   <si>
     <t xml:space="preserve">PLASTCOR TELA PLASTICA TAPUME</t>
@@ -1846,7 +1894,7 @@
     <t xml:space="preserve">DOBRADIÇA SILVANA</t>
   </si>
   <si>
-    <t xml:space="preserve">FOGÃO</t>
+    <t xml:space="preserve">KIT PE</t>
   </si>
   <si>
     <t xml:space="preserve">SUPER COLA</t>
@@ -1867,7 +1915,7 @@
     <t xml:space="preserve">SACO ENTULHO</t>
   </si>
   <si>
-    <t xml:space="preserve">CAPS PLASTILIT</t>
+    <t xml:space="preserve">JOELHO SOLDAVEL</t>
   </si>
   <si>
     <t xml:space="preserve">UNIAO INTERNA REBOUCAS</t>
@@ -1876,7 +1924,7 @@
     <t xml:space="preserve">MIGUELAO</t>
   </si>
   <si>
-    <t xml:space="preserve">KIT PE</t>
+    <t xml:space="preserve">BOTAO FRANCES</t>
   </si>
   <si>
     <t xml:space="preserve">COLA SILICONE</t>
@@ -1897,7 +1945,7 @@
     <t xml:space="preserve">FIXADOR PORTA</t>
   </si>
   <si>
-    <t xml:space="preserve">JOELHO SOLDAVEL</t>
+    <t xml:space="preserve">CURVA SOLDAVEL</t>
   </si>
   <si>
     <t xml:space="preserve">PENEIRA ARO MADEIRA</t>
@@ -1906,7 +1954,7 @@
     <t xml:space="preserve">BARRA ROSCA GALVANIZADO</t>
   </si>
   <si>
-    <t xml:space="preserve">BOTAO FRANCES</t>
+    <t xml:space="preserve">RECEPTOR DE TV DIGITAL AQUARIO</t>
   </si>
   <si>
     <t xml:space="preserve">AMANCO ADESIVO </t>
@@ -1924,10 +1972,13 @@
     <t xml:space="preserve">BRINDE SQUEEZE</t>
   </si>
   <si>
-    <t xml:space="preserve">CURVA SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR DE TV DIGITAL AQUARIO</t>
+    <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICO ENGATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA CARTA</t>
   </si>
   <si>
     <t xml:space="preserve">VEDA CALHA</t>
@@ -1948,10 +1999,13 @@
     <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
   </si>
   <si>
-    <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA CARTA</t>
+    <t xml:space="preserve">CAP SOLDAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGATE MANGUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABIDE</t>
   </si>
   <si>
     <t xml:space="preserve">COLA TIGRE</t>
@@ -1972,10 +2026,13 @@
     <t xml:space="preserve">PROTETOR SOLAR</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIDE</t>
+    <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA JARDIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA TANQ</t>
   </si>
   <si>
     <t xml:space="preserve">UNIPEGA SILICONE</t>
@@ -1990,10 +2047,13 @@
     <t xml:space="preserve">NIVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA TANQ</t>
+    <t xml:space="preserve">COTOVELO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMENDA MANGUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOALHA MESA TERMICA</t>
   </si>
   <si>
     <t xml:space="preserve">ESPUMA POLIURETANO</t>
@@ -2008,10 +2068,10 @@
     <t xml:space="preserve">TALHADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">COTOVELO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TERMICA</t>
+    <t xml:space="preserve">JOELHO LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARRAFAO</t>
   </si>
   <si>
     <t xml:space="preserve">CASCOREZ HENKEL</t>
@@ -2029,10 +2089,10 @@
     <t xml:space="preserve">PONTEIRO </t>
   </si>
   <si>
-    <t xml:space="preserve">JOELHO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRAFAO</t>
+    <t xml:space="preserve">AMANCO LUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAP TORNEIRA</t>
   </si>
   <si>
     <r>
@@ -2068,10 +2128,7 @@
     <t xml:space="preserve">ESCOVA AÇO 	</t>
   </si>
   <si>
-    <t xml:space="preserve">AMANCO LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAP TORNEIRA</t>
+    <t xml:space="preserve">CAPS CORR PLASTIK</t>
   </si>
   <si>
     <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
@@ -2089,10 +2146,10 @@
     <t xml:space="preserve">CAVADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAPS CORR PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA</t>
+    <t xml:space="preserve">CAPS FORTLEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESTO</t>
   </si>
   <si>
     <t xml:space="preserve">SILICONE INCOLOR</t>
@@ -2110,10 +2167,10 @@
     <t xml:space="preserve">PRUMO</t>
   </si>
   <si>
-    <t xml:space="preserve">CAPS FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRELHA</t>
+    <t xml:space="preserve">LUVA FORLTEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
   </si>
   <si>
     <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
@@ -2131,10 +2188,10 @@
     <t xml:space="preserve">CHAVE TORX</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA FORLTEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTO</t>
+    <t xml:space="preserve">LUVA TIGRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARAL</t>
   </si>
   <si>
     <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
@@ -2152,10 +2209,10 @@
     <t xml:space="preserve">TESOURA</t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA TIGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
+    <t xml:space="preserve">AMANCO NIPEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCADA</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVEDOR COLA </t>
@@ -2173,10 +2230,10 @@
     <t xml:space="preserve">MAÇARICO</t>
   </si>
   <si>
-    <t xml:space="preserve">AMANCO NIPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAL</t>
+    <t xml:space="preserve">COTOVELO PLASTILIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELA</t>
   </si>
   <si>
     <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
@@ -2194,10 +2251,10 @@
     <t xml:space="preserve">PULVEIZADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">COTOVELO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCADA</t>
+    <t xml:space="preserve">UNIAO PLASTILIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
   </si>
   <si>
     <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
@@ -2215,10 +2272,10 @@
     <t xml:space="preserve">BOMBA AR</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIAO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELA</t>
+    <t xml:space="preserve">NIPLE PLASTILT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACAO</t>
   </si>
   <si>
     <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
@@ -2236,10 +2293,10 @@
     <t xml:space="preserve">BLOCO ESPUMA</t>
   </si>
   <si>
-    <t xml:space="preserve">NIPLE PLASTILT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
+    <t xml:space="preserve">CAP MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL ROCO</t>
   </si>
   <si>
     <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
@@ -2257,10 +2314,10 @@
     <t xml:space="preserve">ESTILETE</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACAO</t>
+    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE TV</t>
   </si>
   <si>
     <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
@@ -2278,10 +2335,10 @@
     <t xml:space="preserve">CHAVE SOQUETE</t>
   </si>
   <si>
-    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL ROCO</t>
+    <t xml:space="preserve">TEE FORTLEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE TV</t>
   </si>
   <si>
     <t xml:space="preserve">FIXA CUBA </t>
@@ -2299,10 +2356,10 @@
     <t xml:space="preserve">REGUA</t>
   </si>
   <si>
-    <t xml:space="preserve">TEE FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE TV</t>
+    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABINETE</t>
   </si>
   <si>
     <t xml:space="preserve">FERJA LIXA D AGUA </t>
@@ -2317,10 +2374,10 @@
     <t xml:space="preserve">VANGA</t>
   </si>
   <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE TV</t>
+    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIBRA ABRASIVA </t>
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR FEMEA</t>
@@ -2332,10 +2389,10 @@
     <t xml:space="preserve">GIZ DE LINHA</t>
   </si>
   <si>
-    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABINETE</t>
+    <t xml:space="preserve">TEE TIGRE MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA ELETRICA</t>
   </si>
   <si>
     <t xml:space="preserve">CONECTOR PORCELANA</t>
@@ -2347,10 +2404,10 @@
     <t xml:space="preserve">FORMÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">TEE TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBRA ABRASIVA </t>
+    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPONJA MAGICA 	</t>
   </si>
   <si>
     <t xml:space="preserve">INTERNEED EXTENSÃO</t>
@@ -2362,10 +2419,10 @@
     <t xml:space="preserve">MACHAD</t>
   </si>
   <si>
-    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA ELETRICA</t>
+    <t xml:space="preserve">PLUG SHIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO ALVEJADO</t>
   </si>
   <si>
     <t xml:space="preserve">EXTENSÃO TECHNA</t>
@@ -2377,7 +2434,7 @@
     <t xml:space="preserve">ESQUADRO</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA MAGICA 	</t>
+    <t xml:space="preserve">KRONA LUVA CORRER</t>
   </si>
   <si>
     <t xml:space="preserve">PINO FEMEA</t>
@@ -2389,7 +2446,10 @@
     <t xml:space="preserve">RODEL</t>
   </si>
   <si>
-    <t xml:space="preserve">SACO ALVEJADO</t>
+    <t xml:space="preserve">LUVA CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRO GAVETA</t>
@@ -2398,6 +2458,12 @@
     <t xml:space="preserve">SERROTE</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA REDUCAO CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA GRANDE</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENZEL TERMINAL</t>
   </si>
   <si>
@@ -2407,7 +2473,10 @@
     <t xml:space="preserve">CHAVE FIXA</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
+    <t xml:space="preserve">CAPS CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIQUA TORNEIRA </t>
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
@@ -2416,7 +2485,10 @@
     <t xml:space="preserve">CHAVE FENDA</t>
   </si>
   <si>
-    <t xml:space="preserve">AGULHA GRANDE</t>
+    <t xml:space="preserve">LUVA SOLDAVEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA GAS</t>
   </si>
   <si>
     <t xml:space="preserve">FOXLUX FIO</t>
@@ -2428,7 +2500,7 @@
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
-    <t xml:space="preserve">VIQUA TORNEIRA </t>
+    <t xml:space="preserve">ESPONJA FLASH </t>
   </si>
   <si>
     <t xml:space="preserve">AVANT LUMINARIA</t>
@@ -2440,7 +2512,7 @@
     <t xml:space="preserve">LAMINA SERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">MANGUEIRA GAS</t>
+    <t xml:space="preserve">TORNEIRA MAQ</t>
   </si>
   <si>
     <t xml:space="preserve">FIO TELEF</t>
@@ -2452,7 +2524,7 @@
     <t xml:space="preserve">CHAVE COMBINADA</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA FLASH </t>
+    <t xml:space="preserve">IBIRA MANG</t>
   </si>
   <si>
     <t xml:space="preserve">SENSOR PRESENÇA</t>
@@ -2464,9 +2536,6 @@
     <t xml:space="preserve">CHAVE BIELA</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA MAQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">ELETRODUTO</t>
   </si>
   <si>
@@ -2476,7 +2545,7 @@
     <t xml:space="preserve">CHAVE ALLEN</t>
   </si>
   <si>
-    <t xml:space="preserve">IBIRA MANG</t>
+    <t xml:space="preserve">CAMPAINHA </t>
   </si>
   <si>
     <t xml:space="preserve">EXT ILUMI PLACA</t>
@@ -2488,6 +2557,9 @@
     <t xml:space="preserve">CHAVE ESTRELA</t>
   </si>
   <si>
+    <t xml:space="preserve">CONTROLE REMOTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">PENZEL TERM PREISOL</t>
   </si>
   <si>
@@ -2497,7 +2569,7 @@
     <t xml:space="preserve">SERRA BOSCH</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMPAINHA </t>
+    <t xml:space="preserve">TORNEIRA VIQUA</t>
   </si>
   <si>
     <r>
@@ -2527,7 +2599,7 @@
     <t xml:space="preserve">SERRA ACO</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTROLE REMOTO</t>
+    <t xml:space="preserve">TORNEIRA HERC</t>
   </si>
   <si>
     <t xml:space="preserve">CONECTOR GENERICO</t>
@@ -2539,7 +2611,7 @@
     <t xml:space="preserve">CHAVE CANHAO</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA VIQUA</t>
+    <t xml:space="preserve">ESPONJA MULTIUSO</t>
   </si>
   <si>
     <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
@@ -2551,7 +2623,7 @@
     <t xml:space="preserve">CHAVE PHILLIPS</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA HERC</t>
+    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
   </si>
   <si>
     <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
@@ -2563,7 +2635,7 @@
     <t xml:space="preserve">PAQUIMETRO</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA MULTIUSO</t>
+    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
   </si>
   <si>
     <t xml:space="preserve">MEGATRON CABO PP</t>
@@ -2575,9 +2647,6 @@
     <t xml:space="preserve">CHAVE RODA</t>
   </si>
   <si>
-    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
-  </si>
-  <si>
     <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
   </si>
   <si>
@@ -2587,7 +2656,7 @@
     <t xml:space="preserve">CHAVE DE GRIFO</t>
   </si>
   <si>
-    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
+    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
   </si>
   <si>
     <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
@@ -2599,40 +2668,61 @@
     <t xml:space="preserve">CHAVE INGLESA</t>
   </si>
   <si>
+    <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE LAJE FIXO</t>
   </si>
   <si>
+    <t xml:space="preserve">ACESSORIO CAIXA ASTRA ENT CAIXA ACOPLADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIXADEIRA MANUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
+    <t xml:space="preserve">VENTILADOR DE MESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
   </si>
   <si>
     <t xml:space="preserve">CHAVE VIRAR FERRO</t>
   </si>
   <si>
-    <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
+    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
   </si>
   <si>
     <t xml:space="preserve">BOMBA DE AR</t>
   </si>
   <si>
-    <t xml:space="preserve">VENTILADOR DE MESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUPORTE BRASFORMA</t>
   </si>
   <si>
+    <t xml:space="preserve">REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO SOQUETE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
   </si>
   <si>
+    <t xml:space="preserve">GRELHA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE PIA</t>
   </si>
   <si>
     <t xml:space="preserve">SUPORTE PRIMETECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAQUINA LAVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2732,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2691,12 +2781,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2766,12 +2850,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2897,10 +2981,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG79"/>
+  <dimension ref="A1:AG81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J71" activeCellId="0" sqref="J71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA58" activeCellId="0" sqref="AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2922,15 +3006,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="44.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="36.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="52.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="25.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="31.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="24.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="29.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="28.84"/>
@@ -4242,22 +4326,25 @@
       <c r="AA16" s="1" t="s">
         <v>421</v>
       </c>
+      <c r="AB16" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="AC16" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>426</v>
+        <v>167</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>427</v>
@@ -4316,117 +4403,117 @@
         <v>444</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
+        <v>445</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,1237 +4521,1316 @@
         <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>317</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>528</v>
+        <v>441</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>540</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>563</v>
+        <v>569</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>575</v>
+        <v>583</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>585</v>
+        <v>594</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>595</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="P28" s="5"/>
       <c r="U28" s="1" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>290</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>638</v>
+        <v>651</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>414</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>651</v>
+        <v>664</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="1" t="s">
-        <v>659</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="4" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA38" s="4" t="s">
-        <v>672</v>
+        <v>684</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>693</v>
+        <v>705</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="AA45" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="AA46" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>740</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="AA47" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>746</v>
+        <v>758</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>760</v>
+        <v>773</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>761</v>
+        <v>548</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>764</v>
+        <v>777</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>225</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>767</v>
+        <v>781</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1" t="s">
-        <v>544</v>
+        <v>783</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>770</v>
+        <v>786</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="1" t="s">
-        <v>771</v>
+      <c r="D56" s="7" t="s">
+        <v>788</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>773</v>
+        <v>790</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="6" t="s">
-        <v>778</v>
+      <c r="D58" s="1" t="s">
+        <v>796</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>790</v>
+        <v>360</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="1" t="s">
-        <v>794</v>
+      <c r="D62" s="4" t="s">
+        <v>811</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>383</v>
+        <v>815</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D64" s="4" t="s">
-        <v>801</v>
+      <c r="D64" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="1" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D67" s="1" t="s">
-        <v>813</v>
+      <c r="D67" s="5" t="s">
+        <v>831</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D69" s="5" t="s">
-        <v>821</v>
+      <c r="D69" s="1" t="s">
+        <v>835</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D70" s="1" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="1" t="s">
-        <v>825</v>
+      <c r="D71" s="5" t="s">
+        <v>846</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>829</v>
+        <v>847</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>848</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D72" s="1" t="s">
-        <v>831</v>
+        <v>850</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>851</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D73" s="5" t="s">
-        <v>833</v>
+        <v>853</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>854</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>834</v>
+        <v>855</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D74" s="1" t="s">
-        <v>835</v>
+        <v>856</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D75" s="5" t="s">
-        <v>836</v>
+        <v>859</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D77" s="7" t="s">
-        <v>838</v>
+      <c r="D77" s="1" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D78" s="1" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D79" s="1" t="s">
-        <v>840</v>
-      </c>
+      <c r="D79" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D81" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="884">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -970,6 +970,9 @@
     <t xml:space="preserve">ILUMI ESPELHO</t>
   </si>
   <si>
+    <t xml:space="preserve">LORENZETTI FITA ISOLANTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">FITA ALTA FUSAO</t>
   </si>
   <si>
@@ -1171,7 +1174,7 @@
     <t xml:space="preserve">ESCOVA AÇO</t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUDO MAQ</t>
+    <t xml:space="preserve">PARAFUSO MAQ</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA ACOPLADA</t>
@@ -1357,7 +1360,24 @@
     <t xml:space="preserve">SERROTE IRWIN GESSO</t>
   </si>
   <si>
-    <t xml:space="preserve">CABO FERRAMENTA</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CABO FERRAMENTA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GARAPEIRA</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
@@ -1735,10 +1755,7 @@
     <t xml:space="preserve">RAMADA</t>
   </si>
   <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO LIXAD/POLITRIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO</t>
   </si>
   <si>
     <t xml:space="preserve">LUZARTE COLUNA</t>
@@ -1801,6 +1818,9 @@
     <t xml:space="preserve">PÁ</t>
   </si>
   <si>
+    <t xml:space="preserve">ADAPTADOR FURADEIRA P/ DISCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSENTO METASUL ALMOFADADO OVAL</t>
   </si>
   <si>
@@ -1843,6 +1863,9 @@
     <t xml:space="preserve">PICARETA</t>
   </si>
   <si>
+    <t xml:space="preserve">DISCO BORRACHA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSENTO TIGRE OVAL</t>
   </si>
   <si>
@@ -1879,9 +1902,15 @@
     <t xml:space="preserve">LIMA</t>
   </si>
   <si>
+    <t xml:space="preserve">CARVAO MAKITA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALPHA DUCHA HIGIENICA REGISTRO METAL </t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA EMBORRACHADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PORTA MADEIRA</t>
   </si>
   <si>
@@ -1912,6 +1941,9 @@
     <t xml:space="preserve">ALAVANCA</t>
   </si>
   <si>
+    <t xml:space="preserve">PARAFUSO MAKITA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SACO ENTULHO</t>
   </si>
   <si>
@@ -1942,6 +1974,9 @@
     <t xml:space="preserve">CHIBANCA</t>
   </si>
   <si>
+    <t xml:space="preserve">BROCA WIDEA</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIXADOR PORTA</t>
   </si>
   <si>
@@ -1969,6 +2004,9 @@
     <t xml:space="preserve">CARRINHO MAO</t>
   </si>
   <si>
+    <t xml:space="preserve">DISCO DIAMANTADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRINDE SQUEEZE</t>
   </si>
   <si>
@@ -1978,6 +2016,9 @@
     <t xml:space="preserve">BICO ENGATE</t>
   </si>
   <si>
+    <t xml:space="preserve">MACANETA SILVANA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAIXA CARTA</t>
   </si>
   <si>
@@ -1996,6 +2037,9 @@
     <t xml:space="preserve">TORQUES</t>
   </si>
   <si>
+    <t xml:space="preserve">JOGO PONTAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
   </si>
   <si>
@@ -2023,6 +2067,9 @@
     <t xml:space="preserve">APLICADOR </t>
   </si>
   <si>
+    <t xml:space="preserve">JOGO DE ESCOVAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROTETOR SOLAR</t>
   </si>
   <si>
@@ -2047,6 +2094,9 @@
     <t xml:space="preserve">NIVEL</t>
   </si>
   <si>
+    <t xml:space="preserve">DISCO SPED/INOX</t>
+  </si>
+  <si>
     <t xml:space="preserve">COTOVELO AZUL</t>
   </si>
   <si>
@@ -2068,9 +2118,15 @@
     <t xml:space="preserve">TALHADEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">SDS PLUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOELHO LL</t>
   </si>
   <si>
+    <t xml:space="preserve">VASSOURA GRAMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">GARRAFAO</t>
   </si>
   <si>
@@ -2087,6 +2143,9 @@
   </si>
   <si>
     <t xml:space="preserve">PONTEIRO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDSPLUS</t>
   </si>
   <si>
     <t xml:space="preserve">AMANCO LUVA</t>
@@ -2128,9 +2187,15 @@
     <t xml:space="preserve">ESCOVA AÇO 	</t>
   </si>
   <si>
+    <t xml:space="preserve">BATEDOR ARGAMASSA CORTAG</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAPS CORR PLASTIK</t>
   </si>
   <si>
+    <t xml:space="preserve">CESTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
   </si>
   <si>
@@ -2149,7 +2214,7 @@
     <t xml:space="preserve">CAPS FORTLEV</t>
   </si>
   <si>
-    <t xml:space="preserve">CESTO</t>
+    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
   </si>
   <si>
     <t xml:space="preserve">SILICONE INCOLOR</t>
@@ -2170,7 +2235,7 @@
     <t xml:space="preserve">LUVA FORLTEV</t>
   </si>
   <si>
-    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
+    <t xml:space="preserve">VARAL</t>
   </si>
   <si>
     <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
@@ -2191,7 +2256,7 @@
     <t xml:space="preserve">LUVA TIGRE</t>
   </si>
   <si>
-    <t xml:space="preserve">VARAL</t>
+    <t xml:space="preserve">ESCADA</t>
   </si>
   <si>
     <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
@@ -2212,7 +2277,7 @@
     <t xml:space="preserve">AMANCO NIPEL</t>
   </si>
   <si>
-    <t xml:space="preserve">ESCADA</t>
+    <t xml:space="preserve">VELA</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVEDOR COLA </t>
@@ -2233,7 +2298,7 @@
     <t xml:space="preserve">COTOVELO PLASTILIT</t>
   </si>
   <si>
-    <t xml:space="preserve">VELA</t>
+    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
   </si>
   <si>
     <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
@@ -2254,7 +2319,7 @@
     <t xml:space="preserve">UNIAO PLASTILIT</t>
   </si>
   <si>
-    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
+    <t xml:space="preserve">FACAO</t>
   </si>
   <si>
     <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
@@ -2275,7 +2340,7 @@
     <t xml:space="preserve">NIPLE PLASTILT</t>
   </si>
   <si>
-    <t xml:space="preserve">FACAO</t>
+    <t xml:space="preserve">TERMINAL ROCO</t>
   </si>
   <si>
     <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
@@ -2296,7 +2361,7 @@
     <t xml:space="preserve">CAP MARROM</t>
   </si>
   <si>
-    <t xml:space="preserve">TERMINAL ROCO</t>
+    <t xml:space="preserve">SUPORTE TV</t>
   </si>
   <si>
     <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
@@ -2317,7 +2382,7 @@
     <t xml:space="preserve">ESTRELA LIGA FACIL</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE TV</t>
+    <t xml:space="preserve">CONTROLE TV</t>
   </si>
   <si>
     <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
@@ -2338,7 +2403,7 @@
     <t xml:space="preserve">TEE FORTLEV</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTROLE TV</t>
+    <t xml:space="preserve">GABINETE</t>
   </si>
   <si>
     <t xml:space="preserve">FIXA CUBA </t>
@@ -2359,7 +2424,10 @@
     <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
   </si>
   <si>
-    <t xml:space="preserve">GABINETE</t>
+    <t xml:space="preserve">FIBRA ABRASIVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELATRINCAS GARIN BRANCO</t>
   </si>
   <si>
     <t xml:space="preserve">FERJA LIXA D AGUA </t>
@@ -2377,7 +2445,10 @@
     <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
   </si>
   <si>
-    <t xml:space="preserve">FIBRA ABRASIVA </t>
+    <t xml:space="preserve">TORNEIRA ELETRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPOL MASSA F12</t>
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR FEMEA</t>
@@ -2392,7 +2463,10 @@
     <t xml:space="preserve">TEE TIGRE MARROM</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA ELETRICA</t>
+    <t xml:space="preserve">ESPONJA MAGICA 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGRE GARFO BUCHA</t>
   </si>
   <si>
     <t xml:space="preserve">CONECTOR PORCELANA</t>
@@ -2407,7 +2481,7 @@
     <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA MAGICA 	</t>
+    <t xml:space="preserve">SACO ALVEJADO</t>
   </si>
   <si>
     <t xml:space="preserve">INTERNEED EXTENSÃO</t>
@@ -2422,9 +2496,6 @@
     <t xml:space="preserve">PLUG SHIVA</t>
   </si>
   <si>
-    <t xml:space="preserve">SACO ALVEJADO</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXTENSÃO TECHNA</t>
   </si>
   <si>
@@ -2437,6 +2508,9 @@
     <t xml:space="preserve">KRONA LUVA CORRER</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">PINO FEMEA</t>
   </si>
   <si>
@@ -2449,7 +2523,7 @@
     <t xml:space="preserve">LUVA CORRER</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
+    <t xml:space="preserve">AGULHA GRANDE</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRO GAVETA</t>
@@ -2461,7 +2535,7 @@
     <t xml:space="preserve">BUCHA REDUCAO CORRER</t>
   </si>
   <si>
-    <t xml:space="preserve">AGULHA GRANDE</t>
+    <t xml:space="preserve">VIQUA TORNEIRA </t>
   </si>
   <si>
     <t xml:space="preserve">PENZEL TERMINAL</t>
@@ -2476,7 +2550,7 @@
     <t xml:space="preserve">CAPS CORRER</t>
   </si>
   <si>
-    <t xml:space="preserve">VIQUA TORNEIRA </t>
+    <t xml:space="preserve">MANGUEIRA GAS</t>
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
@@ -2488,7 +2562,7 @@
     <t xml:space="preserve">LUVA SOLDAVEL </t>
   </si>
   <si>
-    <t xml:space="preserve">MANGUEIRA GAS</t>
+    <t xml:space="preserve">ESPONJA FLASH </t>
   </si>
   <si>
     <t xml:space="preserve">FOXLUX FIO</t>
@@ -2500,7 +2574,7 @@
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA FLASH </t>
+    <t xml:space="preserve">TORNEIRA MAQ</t>
   </si>
   <si>
     <t xml:space="preserve">AVANT LUMINARIA</t>
@@ -2512,7 +2586,7 @@
     <t xml:space="preserve">LAMINA SERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA MAQ</t>
+    <t xml:space="preserve">IBIRA MANG</t>
   </si>
   <si>
     <t xml:space="preserve">FIO TELEF</t>
@@ -2524,9 +2598,6 @@
     <t xml:space="preserve">CHAVE COMBINADA</t>
   </si>
   <si>
-    <t xml:space="preserve">IBIRA MANG</t>
-  </si>
-  <si>
     <t xml:space="preserve">SENSOR PRESENÇA</t>
   </si>
   <si>
@@ -2536,6 +2607,9 @@
     <t xml:space="preserve">CHAVE BIELA</t>
   </si>
   <si>
+    <t xml:space="preserve">CAMPAINHA </t>
+  </si>
+  <si>
     <t xml:space="preserve">ELETRODUTO</t>
   </si>
   <si>
@@ -2545,7 +2619,7 @@
     <t xml:space="preserve">CHAVE ALLEN</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMPAINHA </t>
+    <t xml:space="preserve">CONTROLE REMOTO</t>
   </si>
   <si>
     <t xml:space="preserve">EXT ILUMI PLACA</t>
@@ -2557,7 +2631,7 @@
     <t xml:space="preserve">CHAVE ESTRELA</t>
   </si>
   <si>
-    <t xml:space="preserve">CONTROLE REMOTO</t>
+    <t xml:space="preserve">TORNEIRA VIQUA</t>
   </si>
   <si>
     <t xml:space="preserve">PENZEL TERM PREISOL</t>
@@ -2569,7 +2643,7 @@
     <t xml:space="preserve">SERRA BOSCH</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA VIQUA</t>
+    <t xml:space="preserve">TORNEIRA HERC</t>
   </si>
   <si>
     <r>
@@ -2599,7 +2673,7 @@
     <t xml:space="preserve">SERRA ACO</t>
   </si>
   <si>
-    <t xml:space="preserve">TORNEIRA HERC</t>
+    <t xml:space="preserve">ESPONJA MULTIUSO</t>
   </si>
   <si>
     <t xml:space="preserve">CONECTOR GENERICO</t>
@@ -2611,7 +2685,7 @@
     <t xml:space="preserve">CHAVE CANHAO</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA MULTIUSO</t>
+    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
   </si>
   <si>
     <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
@@ -2623,7 +2697,7 @@
     <t xml:space="preserve">CHAVE PHILLIPS</t>
   </si>
   <si>
-    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
+    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
   </si>
   <si>
     <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
@@ -2635,9 +2709,6 @@
     <t xml:space="preserve">PAQUIMETRO</t>
   </si>
   <si>
-    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
-  </si>
-  <si>
     <t xml:space="preserve">MEGATRON CABO PP</t>
   </si>
   <si>
@@ -2647,6 +2718,9 @@
     <t xml:space="preserve">CHAVE RODA</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
   </si>
   <si>
@@ -2656,7 +2730,7 @@
     <t xml:space="preserve">CHAVE DE GRIFO</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
+    <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
   </si>
   <si>
     <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
@@ -2668,7 +2742,7 @@
     <t xml:space="preserve">CHAVE INGLESA</t>
   </si>
   <si>
-    <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
+    <t xml:space="preserve">VENTILADOR DE MESA</t>
   </si>
   <si>
     <t xml:space="preserve">SUPORTE LAJE FIXO</t>
@@ -2680,7 +2754,7 @@
     <t xml:space="preserve">LIXADEIRA MANUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">VENTILADOR DE MESA</t>
+    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
   </si>
   <si>
     <t xml:space="preserve">BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
@@ -2689,7 +2763,7 @@
     <t xml:space="preserve">CHAVE VIRAR FERRO</t>
   </si>
   <si>
-    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
+    <t xml:space="preserve">SUPORTE BRASFORMA</t>
   </si>
   <si>
     <t xml:space="preserve">ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
@@ -2698,7 +2772,7 @@
     <t xml:space="preserve">BOMBA DE AR</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE BRASFORMA</t>
+    <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
   </si>
   <si>
     <t xml:space="preserve">REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
@@ -2707,13 +2781,13 @@
     <t xml:space="preserve">JOGO SOQUETE</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
+    <t xml:space="preserve">SUPORTE PIA</t>
   </si>
   <si>
     <t xml:space="preserve">GRELHA</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE PIA</t>
+    <t xml:space="preserve">CARINHO PEDREIRO</t>
   </si>
   <si>
     <t xml:space="preserve">SUPORTE PRIMETECH</t>
@@ -2732,7 +2806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2774,6 +2848,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2850,11 +2930,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2981,10 +3061,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG81"/>
+  <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA58" activeCellId="0" sqref="AA58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3982,538 +4062,541 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF19" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4521,239 +4604,236 @@
         <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AC21" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AC22" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="P24" s="1" t="s">
         <v>554</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -4800,64 +4880,70 @@
       <c r="L25" s="1" t="s">
         <v>568</v>
       </c>
+      <c r="O25" s="6" t="s">
+        <v>569</v>
+      </c>
       <c r="R25" s="5" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>225</v>
@@ -4865,972 +4951,1014 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>594</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="P27" s="5"/>
       <c r="R27" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="P28" s="5"/>
+        <v>609</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>610</v>
+      </c>
       <c r="U28" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>615</v>
+        <v>620</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>621</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="5" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>624</v>
+        <v>630</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>631</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="AC30" s="1" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>633</v>
+        <v>641</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>642</v>
+        <v>651</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>652</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>290</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>661</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>657</v>
+        <v>668</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>669</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>664</v>
+        <v>677</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>671</v>
+        <v>685</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>686</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="6"/>
+      <c r="D37" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="E37" s="4" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>712</v>
+        <v>728</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>714</v>
+        <v>730</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>719</v>
+        <v>735</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="AA47" s="5" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>749</v>
+        <v>765</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>766</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>755</v>
+        <v>772</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>760</v>
+        <v>778</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>779</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>770</v>
+        <v>549</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>548</v>
+        <v>793</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>225</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="1" t="s">
-        <v>783</v>
+      <c r="D55" s="7" t="s">
+        <v>802</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="7" t="s">
-        <v>788</v>
+      <c r="D56" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>804</v>
+        <v>361</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D61" s="1" t="s">
-        <v>360</v>
+      <c r="D61" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="4" t="s">
-        <v>811</v>
+      <c r="D62" s="1" t="s">
+        <v>830</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="1" t="s">
-        <v>827</v>
+      <c r="D66" s="5" t="s">
+        <v>846</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D67" s="5" t="s">
-        <v>831</v>
+      <c r="D67" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="1" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="1" t="s">
-        <v>842</v>
+      <c r="D70" s="5" t="s">
+        <v>861</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="5" t="s">
-        <v>846</v>
+      <c r="D71" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="1" t="s">
-        <v>850</v>
+      <c r="D72" s="5" t="s">
+        <v>869</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D73" s="5" t="s">
-        <v>853</v>
+      <c r="D73" s="1" t="s">
+        <v>872</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D74" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>857</v>
+      <c r="D74" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>876</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D75" s="5" t="s">
-        <v>859</v>
+      <c r="D75" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>860</v>
+        <v>879</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>861</v>
+        <v>881</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="1" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D78" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D79" s="5" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D81" s="6"/>
+      <c r="D78" s="5" t="s">
+        <v>883</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="922">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -61,10 +61,7 @@
     <t xml:space="preserve">FERRAMENTAS MANUAIS ACESSÓRIOS </t>
   </si>
   <si>
-    <t xml:space="preserve">FERRAMENTAS ELETRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSORIOS PARA FERRAMENTAS ELETRICAS</t>
+    <t xml:space="preserve">FERRAMENTAS ELETRICA E ACESSORIOS</t>
   </si>
   <si>
     <t xml:space="preserve">PARAFUSOS </t>
@@ -163,9 +160,6 @@
     <t xml:space="preserve">POLITRIZ GOODYEAR ANG 71/4 1100W 220V</t>
   </si>
   <si>
-    <t xml:space="preserve">ICDER REBOLO </t>
-  </si>
-  <si>
     <t xml:space="preserve">BUCHA</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t xml:space="preserve">SOPRADOR TERMICO</t>
   </si>
   <si>
-    <t xml:space="preserve">NYLON ROCADEIRA	</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAFUSO DRYWALL</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
   </si>
   <si>
     <t xml:space="preserve">MAKITA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT COMPRESSOR</t>
   </si>
   <si>
     <t xml:space="preserve">PARAFUSO CHIPBOARD</t>
@@ -478,9 +466,6 @@
     <t xml:space="preserve">FURADEIRA </t>
   </si>
   <si>
-    <t xml:space="preserve">JOGO BITS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHUMBADOR</t>
   </si>
   <si>
@@ -574,9 +559,6 @@
     <t xml:space="preserve">SERRA MARMORE</t>
   </si>
   <si>
-    <t xml:space="preserve">DISCO</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORCA TORNEADA</t>
   </si>
   <si>
@@ -670,9 +652,6 @@
     <t xml:space="preserve">MARTELETE</t>
   </si>
   <si>
-    <t xml:space="preserve">BROCA</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARUELA ZINC</t>
   </si>
   <si>
@@ -757,9 +736,6 @@
     <t xml:space="preserve">PISTOLA COLA</t>
   </si>
   <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">REBITE</t>
   </si>
   <si>
@@ -781,6 +757,9 @@
     <t xml:space="preserve">RECEPTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPORTE EXTERNO ZINCO PLATIBANDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">KRONA PLUG</t>
   </si>
   <si>
@@ -844,9 +823,6 @@
     <t xml:space="preserve">FERRO SOLDA</t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">PITÃO </t>
   </si>
   <si>
@@ -931,9 +907,6 @@
     <t xml:space="preserve">ASPIRADOR</t>
   </si>
   <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESCAPULA</t>
   </si>
   <si>
@@ -1010,9 +983,6 @@
   </si>
   <si>
     <t xml:space="preserve">MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDRIL</t>
   </si>
   <si>
     <t xml:space="preserve">GANCHO</t>
@@ -1102,9 +1072,6 @@
     <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">SDS-PLUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAFUSO ABROCANTE</t>
   </si>
   <si>
@@ -1171,9 +1138,6 @@
     <t xml:space="preserve">RABO QUENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">ESCOVA AÇO</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAFUSO MAQ</t>
   </si>
   <si>
@@ -1240,9 +1204,6 @@
     <t xml:space="preserve">TESTE VOLTAGEM</t>
   </si>
   <si>
-    <t xml:space="preserve">ROCADEIRA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAFUSO SEXTAVADO</t>
   </si>
   <si>
@@ -1273,6 +1234,9 @@
     <t xml:space="preserve">TRAMONTINA MODULO</t>
   </si>
   <si>
+    <t xml:space="preserve"> ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TACHINHA</t>
   </si>
   <si>
@@ -1306,9 +1270,6 @@
     <t xml:space="preserve">BOMBA D'AGUA</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAP</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORCA BORBOLETA</t>
   </si>
   <si>
@@ -1355,6 +1316,9 @@
   </si>
   <si>
     <t xml:space="preserve">DUCHA HIGENICA  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMPA CONTATO SPRAY</t>
   </si>
   <si>
     <t xml:space="preserve">SERROTE IRWIN GESSO</t>
@@ -1375,6 +1339,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GARAPEIRA</t>
     </r>
@@ -1383,9 +1348,6 @@
     <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
   </si>
   <si>
-    <t xml:space="preserve">JOGO PONTEIRA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAFUSO CHIPBORD</t>
   </si>
   <si>
@@ -1440,9 +1402,6 @@
     <t xml:space="preserve">ESMERILHADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">SERRA COPO</t>
-  </si>
-  <si>
     <t xml:space="preserve">NEW FIX PARAFUSO</t>
   </si>
   <si>
@@ -1497,9 +1456,6 @@
     <t xml:space="preserve">FURADEIRA/PARAFUSO</t>
   </si>
   <si>
-    <t xml:space="preserve">REBOLO DIAMANTADO</t>
-  </si>
-  <si>
     <t xml:space="preserve">PORCA SEXTAVADO</t>
   </si>
   <si>
@@ -1545,12 +1501,12 @@
     <t xml:space="preserve">MARTELO</t>
   </si>
   <si>
+    <t xml:space="preserve">EXTENSAO CAVADEIRA TRADO</t>
+  </si>
+  <si>
     <t xml:space="preserve">PISTOLA SILICONE </t>
   </si>
   <si>
-    <t xml:space="preserve">SERRA CIRCULAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARRUELA</t>
   </si>
   <si>
@@ -1599,12 +1555,12 @@
     <t xml:space="preserve">MARRETA</t>
   </si>
   <si>
+    <t xml:space="preserve">REFIL PISTOLA GRANDE SILICONE 1K EM BARRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PISTOLA P/ SILICONE BIVOLT</t>
   </si>
   <si>
-    <t xml:space="preserve">PONTEIRA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PARAFUSO ROSCA</t>
   </si>
   <si>
@@ -1635,6 +1591,9 @@
     <t xml:space="preserve">TEK BOND SILICONE</t>
   </si>
   <si>
+    <t xml:space="preserve">ZARCÃO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASPIR DE PO WAP</t>
   </si>
   <si>
@@ -1644,7 +1603,10 @@
     <t xml:space="preserve">ARCO SERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">PONTA MONTADA</t>
+    <t xml:space="preserve">REFIL PISTOLA PEQUENA SILICONE 1K EM BARRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA CIRCULAR SKILL</t>
   </si>
   <si>
     <r>
@@ -1692,7 +1654,7 @@
     <t xml:space="preserve">COLA PU</t>
   </si>
   <si>
-    <t xml:space="preserve">ZARCÃO</t>
+    <t xml:space="preserve">BALDE</t>
   </si>
   <si>
     <t xml:space="preserve">MASSA PLASTICO </t>
@@ -1707,7 +1669,10 @@
     <t xml:space="preserve">ENXADA</t>
   </si>
   <si>
-    <t xml:space="preserve">REFIL PISTOLA  SILICONE EM BARRA</t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO FURADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICDER REBOLO </t>
   </si>
   <si>
     <t xml:space="preserve">PARAFUSO FRANCES</t>
@@ -1740,7 +1705,7 @@
     <t xml:space="preserve">DUREPOXI</t>
   </si>
   <si>
-    <t xml:space="preserve">BALDE</t>
+    <t xml:space="preserve">LIXA SECO</t>
   </si>
   <si>
     <t xml:space="preserve">EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
@@ -1755,7 +1720,10 @@
     <t xml:space="preserve">RAMADA</t>
   </si>
   <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO</t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYLON ROCADEIRA	</t>
   </si>
   <si>
     <t xml:space="preserve">LUZARTE COLUNA</t>
@@ -1768,7 +1736,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">LUVA </t>
+      <t xml:space="preserve">LUVA WAVE </t>
     </r>
     <r>
       <rPr>
@@ -1803,7 +1771,7 @@
     <t xml:space="preserve">COLA HENKEL</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA SECO</t>
+    <t xml:space="preserve">LIXA FERRO</t>
   </si>
   <si>
     <t xml:space="preserve">FIO BICOLOR</t>
@@ -1818,7 +1786,10 @@
     <t xml:space="preserve">PÁ</t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR FURADEIRA P/ DISCO</t>
+    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIT COMPRESSOR</t>
   </si>
   <si>
     <t xml:space="preserve">ASSENTO METASUL ALMOFADADO OVAL</t>
@@ -1848,7 +1819,7 @@
     <t xml:space="preserve">SUPER BONDER</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA FERRO</t>
+    <t xml:space="preserve">LIXA TATU</t>
   </si>
   <si>
     <t xml:space="preserve">ITAQUA DILUENTE</t>
@@ -1863,7 +1834,10 @@
     <t xml:space="preserve">PICARETA</t>
   </si>
   <si>
-    <t xml:space="preserve">DISCO BORRACHA</t>
+    <t xml:space="preserve">BROCA MAKITA WIDEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO BITS</t>
   </si>
   <si>
     <t xml:space="preserve">ASSENTO TIGRE OVAL</t>
@@ -1890,7 +1864,7 @@
     <t xml:space="preserve">COLA SELANTE</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA TATU</t>
+    <t xml:space="preserve">ESMALTE</t>
   </si>
   <si>
     <t xml:space="preserve">PASSA FIO</t>
@@ -1902,7 +1876,10 @@
     <t xml:space="preserve">LIMA</t>
   </si>
   <si>
-    <t xml:space="preserve">CARVAO MAKITA</t>
+    <t xml:space="preserve">KIT MAKITA JOGO PONTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO</t>
   </si>
   <si>
     <t xml:space="preserve">ALPHA DUCHA HIGIENICA REGISTRO METAL </t>
@@ -1929,7 +1906,7 @@
     <t xml:space="preserve">SUPER COLA</t>
   </si>
   <si>
-    <t xml:space="preserve">ESMALTE</t>
+    <t xml:space="preserve">AGUA RAZ</t>
   </si>
   <si>
     <t xml:space="preserve">ARM PRESS BOW</t>
@@ -1941,7 +1918,13 @@
     <t xml:space="preserve">ALAVANCA</t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO MAKITA</t>
+    <t xml:space="preserve">JOGO DE ESCOVAS DE CARVAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CONSTRUÇÃO DELTA</t>
   </si>
   <si>
     <t xml:space="preserve">SACO ENTULHO</t>
@@ -1962,9 +1945,6 @@
     <t xml:space="preserve">COLA SILICONE</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUA RAZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAIXA DE PASSAGEM </t>
   </si>
   <si>
@@ -1974,7 +1954,13 @@
     <t xml:space="preserve">CHIBANCA</t>
   </si>
   <si>
-    <t xml:space="preserve">BROCA WIDEA</t>
+    <t xml:space="preserve">CARVAO FURADEIRA MAKITA 8419/6016 C133G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISTURADOR DE TINTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA  COMFORT KALIPSO</t>
   </si>
   <si>
     <t xml:space="preserve">FIXADOR PORTA</t>
@@ -1995,6 +1981,9 @@
     <t xml:space="preserve">AMANCO ADESIVO </t>
   </si>
   <si>
+    <t xml:space="preserve">PO XADREZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">DISJUNTOR</t>
   </si>
   <si>
@@ -2004,7 +1993,10 @@
     <t xml:space="preserve">CARRINHO MAO</t>
   </si>
   <si>
-    <t xml:space="preserve">DISCO DIAMANTADO</t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100NB C137G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
   </si>
   <si>
     <t xml:space="preserve">BRINDE SQUEEZE</t>
@@ -2025,7 +2017,7 @@
     <t xml:space="preserve">VEDA CALHA</t>
   </si>
   <si>
-    <t xml:space="preserve">PO XADREZ</t>
+    <t xml:space="preserve">LATEX ACRILICA</t>
   </si>
   <si>
     <t xml:space="preserve">CENTRI</t>
@@ -2037,7 +2029,10 @@
     <t xml:space="preserve">TORQUES</t>
   </si>
   <si>
-    <t xml:space="preserve">JOGO PONTAS</t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100H/5800 C138G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
   </si>
   <si>
     <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
@@ -2055,7 +2050,7 @@
     <t xml:space="preserve">COLA TIGRE</t>
   </si>
   <si>
-    <t xml:space="preserve">LATEX ACRILICA</t>
+    <t xml:space="preserve">BANDEIA PINTURA</t>
   </si>
   <si>
     <t xml:space="preserve">SUPORTE DISJUNTOR</t>
@@ -2067,7 +2062,10 @@
     <t xml:space="preserve">APLICADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS</t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO FURADEIRA MAKITA6404/5 CB70 C184G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANDRIL</t>
   </si>
   <si>
     <t xml:space="preserve">PROTETOR SOLAR</t>
@@ -2085,7 +2083,7 @@
     <t xml:space="preserve">UNIPEGA SILICONE</t>
   </si>
   <si>
-    <t xml:space="preserve">BANDEIA PINTURA</t>
+    <t xml:space="preserve">LIXA AGUA</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA DE PASSAGEM</t>
@@ -2094,7 +2092,10 @@
     <t xml:space="preserve">NIVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DISCO SPED/INOX</t>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE DW/BD 301/3011 C185G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDS-PLUS</t>
   </si>
   <si>
     <t xml:space="preserve">COTOVELO AZUL</t>
@@ -2109,7 +2110,7 @@
     <t xml:space="preserve">ESPUMA POLIURETANO</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA AGUA</t>
+    <t xml:space="preserve">LIXA MADEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">CAXINHA LUZ</t>
@@ -2118,7 +2119,10 @@
     <t xml:space="preserve">TALHADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">SDS PLUS</t>
+    <t xml:space="preserve">CARVAO SERRA MARMORE MAKITA NHK9227 C188G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCOVA AÇO</t>
   </si>
   <si>
     <t xml:space="preserve">JOELHO LL</t>
@@ -2133,7 +2137,7 @@
     <t xml:space="preserve">CASCOREZ HENKEL</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA MADEIRA</t>
+    <t xml:space="preserve">LATEX QUARTZOLIT</t>
   </si>
   <si>
     <t xml:space="preserve">PLAFONIER</t>
@@ -2145,10 +2149,16 @@
     <t xml:space="preserve">PONTEIRO </t>
   </si>
   <si>
-    <t xml:space="preserve">SDSPLUS</t>
+    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA 5900 C18407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCADEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">AMANCO LUVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEDACIT CUPINICIDA</t>
   </si>
   <si>
     <t xml:space="preserve">GRAP TORNEIRA</t>
@@ -2175,7 +2185,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LATEX QUARTZOLIT</t>
+    <t xml:space="preserve">PAREDE NOVA</t>
   </si>
   <si>
     <t xml:space="preserve">FUSIVEL</t>
@@ -2187,378 +2197,447 @@
     <t xml:space="preserve">ESCOVA AÇO 	</t>
   </si>
   <si>
+    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA 4100 C8408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS CORR PLASTIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENEIRA MM ARO MADEIRA  AREIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA BOSCH MASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA ILUMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA ENTRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVADEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO PONTEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS FORTLEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARQUA MANGUEIRA MULTIUSO TRANÇADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA QUADRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILUMI PROLONGADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORTLEV CAIXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRUMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA COPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA FORLTEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARQUA MANGUEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA BICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINO MACHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRELHA REDONDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE TORX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBOLO DIAMANTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA TIGRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA DOBLEA FERRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA LUZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESOURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA CIRCULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANCO NIPEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVEDOR COLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAYERLACK MASSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANALETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA AMERICANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAÇARICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO PLASTILIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA NORTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNLUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA HIDROMETRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULVEIZADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONTA MONTADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIAO PLASTILIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRONORTH RESINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONERTOR BORNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REGISTRO GAVETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMBA AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFIL PISTOLA  SILICONE EM BARRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIPLE PLASTILT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL ROCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAS PINCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAMONTINA CORRUGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEE ZAMAC CROMADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCO ESPUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARBONPEÇAS CARVAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUARRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC EXTENSAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUMENTO TORNEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTILETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR FURADEIRA P/ DISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIXA BOSCH AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVULA HYDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE SOQUETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO BORRACHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEE FORTLEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABINETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXA CUBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERJA LIXA D AGUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUMINARIA ALETADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARDEN JUNCAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARVAO MAKITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIBRA ABRASIVA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELATRINCAS GARIN BRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIAPOL MASSA F12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINO PRENSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR GARDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAFUSO MAKITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA ELETRICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGRE GARFO BUCHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR FEMEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA PLASTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIZ DE LINHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROCA WIDEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEE TIGRE MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPONJA MAGICA 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR PORCELANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE REGISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO DIAMANTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACO ALVEJADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTRO PRESSAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO PONTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG SHIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTENSÃO TECHNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA HIDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESQUADRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOGO DE ESCOVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA LUVA CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINO FEMEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA HYDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCO SPED/INOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGULHA GRANDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGISTRO GAVETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERROTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDS PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIQUA TORNEIRA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENZEL TERMINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENSI REPARO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE FIXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDSPLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPS CORRER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA GAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE FENDA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BATEDOR ARGAMASSA CORTAG</t>
   </si>
   <si>
-    <t xml:space="preserve">CAPS CORR PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAREDE NOVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA ENTRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAVADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILICONE INCOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI PROLONGADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORTLEV CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRUMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA FORLTEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA QUADRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO MACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRELHA REDONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE TORX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA TIGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA BICO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA LUZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESOURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANCO NIPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVEDOR COLA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA DOBLEA FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA AMERICANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAÇARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAYERLACK MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNLUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA HIDROMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PULVEIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA NORTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONERTOR BORNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> REGISTRO GAVETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIPLE PLASTILT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL ROCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRONORTH RESINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA CORRUGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE ZAMAC CROMADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO ESPUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS PINCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC EXTENSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUMENTO TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTILETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA HYDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABINETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA CUBA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUMINARIA ALETADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARDEN JUNCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBRA ABRASIVA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELATRINCAS GARIN BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERJA LIXA D AGUA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO PRENSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR GARDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA ELETRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL MASSA F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR FEMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIZ DE LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPONJA MAGICA 	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIGRE GARFO BUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR PORCELANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE REGISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO ALVEJADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO PRESSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACHAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG SHIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO TECHNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA HIDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESQUADRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO FEMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA HYDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA GRANDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO GAVETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERROTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIQUA TORNEIRA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENZEL TERMINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENSI REPARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE FIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE FENDA</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUVA SOLDAVEL </t>
   </si>
   <si>
@@ -2574,6 +2653,12 @@
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
+    <t xml:space="preserve">MISTURADOR DE TINTA NYLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA BUCHA REDUCAO LL</t>
+  </si>
+  <si>
     <t xml:space="preserve">TORNEIRA MAQ</t>
   </si>
   <si>
@@ -2586,6 +2671,12 @@
     <t xml:space="preserve">LAMINA SERRA</t>
   </si>
   <si>
+    <t xml:space="preserve">MISTURADOR DE TINTA COMPEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL LONGA CORRER PLASTICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBIRA MANG</t>
   </si>
   <si>
@@ -2598,6 +2689,12 @@
     <t xml:space="preserve">CHAVE COMBINADA</t>
   </si>
   <si>
+    <t xml:space="preserve">CARVAO FURADEIRA MAKITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTOVELO TIGRE LL B 3/4 X 90 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">SENSOR PRESENÇA</t>
   </si>
   <si>
@@ -2605,6 +2702,9 @@
   </si>
   <si>
     <t xml:space="preserve">CHAVE BIELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEE TIGRE LLL B 3/4 MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">CAMPAINHA </t>
@@ -2757,6 +2857,9 @@
     <t xml:space="preserve">BATEDOR PORTA BOLA</t>
   </si>
   <si>
+    <t xml:space="preserve">MEGATRON EXTENSAO TRIPOLAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
   </si>
   <si>
@@ -2766,6 +2869,9 @@
     <t xml:space="preserve">SUPORTE BRASFORMA</t>
   </si>
   <si>
+    <t xml:space="preserve">EXTENSAO NATICON</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
   </si>
   <si>
@@ -2775,6 +2881,9 @@
     <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
   </si>
   <si>
+    <t xml:space="preserve">EXTENSAO DANEVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
   </si>
   <si>
@@ -2784,6 +2893,9 @@
     <t xml:space="preserve">SUPORTE PIA</t>
   </si>
   <si>
+    <t xml:space="preserve">PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRELHA</t>
   </si>
   <si>
@@ -2797,6 +2909,9 @@
   </si>
   <si>
     <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIME TECH SUPORTE FORNO BRANCO</t>
   </si>
 </sst>
 </file>
@@ -2806,7 +2921,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2848,12 +2963,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2905,7 +3014,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2926,16 +3035,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3061,16 +3166,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG78"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
@@ -3079,30 +3184,30 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="42.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="64.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="44.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="52.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="25.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="31.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="29.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="27.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="40.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="41.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="34" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="29.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="52.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="31.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="45.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="38.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="55.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="27.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="40.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="41.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="34" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,1993 +3307,1990 @@
       <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AD5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="W7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="Z7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="AC7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AF7" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="W8" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="AD8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="AE8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="P9" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Y9" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="AA9" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="AD9" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="P10" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="R10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="AB10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="AD10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="P11" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="Z11" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="AE11" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="S11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="J12" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="K12" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="U12" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="AB12" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="AA13" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="AB13" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="O13" s="1" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="K14" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AF13" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="s">
+      <c r="N14" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="AB14" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="N14" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="AC14" s="4" t="s">
+      <c r="L15" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="AF14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
+      <c r="O15" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="AB15" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="M15" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="K16" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="M16" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="AE16" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA16" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC16" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG16" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="AE19" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE20" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="M21" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="AF20" s="5" t="s">
+      <c r="T21" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF22" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG24" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="T25" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H25" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="F26" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="G26" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="I26" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="M26" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>225</v>
+      <c r="AF26" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="Q27" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="AB27" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="R27" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="AA27" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="AB28" s="4" t="s">
         <v>607</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="R29" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="AB29" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="L29" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5" t="s">
+      <c r="I30" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="L30" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="Z30" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="AB30" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="T31" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="AB31" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AB33" s="1" t="s">
         <v>663</v>
       </c>
     </row>
@@ -5206,758 +5308,874 @@
         <v>667</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>671</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="F35" s="1" t="s">
         <v>674</v>
       </c>
+      <c r="F35" s="4" t="s">
+        <v>675</v>
+      </c>
       <c r="H35" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="O35" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="AA35" s="4" t="s">
+      <c r="M35" s="1" t="s">
         <v>679</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB35" s="4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>685</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="AA36" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB36" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA37" s="4" t="s">
-        <v>694</v>
+        <v>698</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>701</v>
+        <v>707</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>708</v>
+        <v>716</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AA40" s="4" t="s">
-        <v>715</v>
+        <v>724</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>718</v>
+        <v>727</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>729</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>725</v>
+        <v>735</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>729</v>
+        <v>740</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>732</v>
+        <v>744</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="AA43" s="1" t="s">
-        <v>736</v>
+        <v>748</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>739</v>
+        <v>752</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>753</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>743</v>
+        <v>756</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>746</v>
+        <v>760</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="AA45" s="5" t="s">
-        <v>750</v>
+        <v>764</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>753</v>
+        <v>767</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>769</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>754</v>
+        <v>770</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="AA46" s="1" t="s">
-        <v>757</v>
+        <v>772</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>760</v>
+        <v>776</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>777</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="AA47" s="5" t="s">
-        <v>764</v>
+        <v>780</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>767</v>
+        <v>783</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>785</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>788</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA49" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>795</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>783</v>
+        <v>801</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>788</v>
+        <v>807</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>789</v>
+        <v>810</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA52" s="1" t="s">
-        <v>792</v>
+        <v>812</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>797</v>
+        <v>818</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="AA54" s="1" t="s">
-        <v>801</v>
+        <v>823</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="7" t="s">
-        <v>802</v>
+      <c r="D55" s="5" t="s">
+        <v>826</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="AA55" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>829</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="AA56" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>834</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>814</v>
+        <v>840</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="Z57" s="4" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>818</v>
+        <v>846</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>819</v>
+        <v>849</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>821</v>
+        <v>850</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>851</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>822</v>
+        <v>852</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>825</v>
+        <v>857</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="4" t="s">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>828</v>
+        <v>861</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>829</v>
+        <v>862</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>830</v>
+        <v>863</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>832</v>
+        <v>864</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>865</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>833</v>
+        <v>866</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>834</v>
+        <v>867</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>836</v>
+        <v>868</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>869</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>837</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>840</v>
+        <v>871</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>873</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>841</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>842</v>
+        <v>875</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>843</v>
+        <v>876</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>844</v>
+        <v>877</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>845</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="5" t="s">
-        <v>846</v>
+      <c r="D66" s="4" t="s">
+        <v>879</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>848</v>
+        <v>880</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>881</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>849</v>
+        <v>882</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>851</v>
+        <v>883</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>884</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>852</v>
+        <v>885</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>853</v>
+        <v>886</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>855</v>
+        <v>883</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>888</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>859</v>
+        <v>890</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>892</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>860</v>
+        <v>893</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>862</v>
+      <c r="D70" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>895</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>863</v>
+        <v>896</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>864</v>
+        <v>897</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D71" s="1" t="s">
-        <v>865</v>
+        <v>898</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="I71" s="5" t="s">
-        <v>867</v>
+        <v>899</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>900</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>868</v>
+        <v>901</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="5" t="s">
-        <v>869</v>
+      <c r="D72" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>903</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>870</v>
+        <v>904</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>871</v>
+        <v>905</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D73" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>873</v>
+        <v>906</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>874</v>
+        <v>909</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D74" s="5" t="s">
-        <v>875</v>
+      <c r="D74" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>876</v>
+        <v>912</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>877</v>
+        <v>913</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D75" s="1" t="s">
-        <v>878</v>
+        <v>914</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>915</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>879</v>
+        <v>916</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>880</v>
+        <v>917</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>881</v>
+        <v>918</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="1" t="s">
-        <v>882</v>
+        <v>919</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D78" s="5" t="s">
-        <v>883</v>
+      <c r="D78" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D79" s="4" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="1009">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -844,6 +844,9 @@
     <t xml:space="preserve">ANTENA EXT</t>
   </si>
   <si>
+    <t xml:space="preserve">C.FORTE SUPORTE EXTERNO ZINCO 28 MOLDURA TORCIDO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADAPTADOR CURTO</t>
   </si>
   <si>
@@ -937,6 +940,9 @@
     <t xml:space="preserve">PULVERIZADOR </t>
   </si>
   <si>
+    <t xml:space="preserve">TANQUE SINTETICO GRAN N2 110X55 PRETO AJ RORATO</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORRENTE SOLDAVEL</t>
   </si>
   <si>
@@ -986,6 +992,9 @@
   </si>
   <si>
     <t xml:space="preserve">GANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCELANA E PISO PISO EXTERNO CINZA 20KG PLACA</t>
   </si>
   <si>
     <t xml:space="preserve">KIT FIXACAO</t>
@@ -1036,6 +1045,9 @@
     <t xml:space="preserve">MODULO MECTRONIC</t>
   </si>
   <si>
+    <t xml:space="preserve">FITA ANTIDERRAP 50MMX05M TEKBOND PRETO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANTA ASFALTICA</t>
   </si>
   <si>
@@ -1075,6 +1087,9 @@
     <t xml:space="preserve">PARAFUSO ABROCANTE</t>
   </si>
   <si>
+    <t xml:space="preserve">PORCELANA E PISO PISO INTERNO CINZA 20KG PLACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PARAFUSO FIXACAO</t>
   </si>
   <si>
@@ -1141,6 +1156,9 @@
     <t xml:space="preserve">PARAFUSO MAQ</t>
   </si>
   <si>
+    <t xml:space="preserve">PORCELANA E PISO PISO EXTERNO BRANCO 20KG PLACA</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAIXA ACOPLADA</t>
   </si>
   <si>
@@ -1234,7 +1252,7 @@
     <t xml:space="preserve">TRAMONTINA MODULO</t>
   </si>
   <si>
-    <t xml:space="preserve"> ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
+    <t xml:space="preserve">ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
   </si>
   <si>
     <t xml:space="preserve">TACHINHA</t>
@@ -1298,6 +1316,9 @@
   </si>
   <si>
     <t xml:space="preserve">TRAMONTINA PLACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIRATRINCA FITA P/ TRINCA 005X03M</t>
   </si>
   <si>
     <t xml:space="preserve">ESTICADOR</t>
@@ -1363,6 +1384,9 @@
     <t xml:space="preserve">LUVA AZUL</t>
   </si>
   <si>
+    <t xml:space="preserve">ESTRELA LUVA RETENCAO ESGOTO 100</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGADOR</t>
   </si>
   <si>
@@ -1577,6 +1601,9 @@
   </si>
   <si>
     <t xml:space="preserve">PENEIRA TELAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADEADO SEGREDO STAM 25</t>
   </si>
   <si>
     <t xml:space="preserve">SISTEMA X RADIAL SIMPLES CAIXA BRANCO</t>
@@ -1645,6 +1672,9 @@
     <t xml:space="preserve">TELA NYLON</t>
   </si>
   <si>
+    <t xml:space="preserve">CADEADO SEGREDO STAM 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">SISTEMA X RADIAL 2 TOMADAS  CAIXA BRANCO</t>
   </si>
   <si>
@@ -1897,6 +1927,9 @@
     <t xml:space="preserve">PLASTCOR TELA PLASTICA TAPUME</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAMONTINA INTERNA 1P S/PLACA 10A/250V BRANCO 50</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOBRADIÇA SILVANA</t>
   </si>
   <si>
@@ -1924,6 +1957,9 @@
     <t xml:space="preserve">BROCA</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSENTO ATLAS ALMOFADADO BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUVA CONSTRUÇÃO DELTA</t>
   </si>
   <si>
@@ -1936,6 +1972,9 @@
     <t xml:space="preserve">UNIAO INTERNA REBOUCAS</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X RADIAL 1INT SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MIGUELAO</t>
   </si>
   <si>
@@ -1972,6 +2011,9 @@
     <t xml:space="preserve">PENEIRA ARO MADEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X RADIAL 2 INTERRUPTORES SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARRA ROSCA GALVANIZADO</t>
   </si>
   <si>
@@ -1999,6 +2041,9 @@
     <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA CONSTRUCAO VE730 10 DELTA PLUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRINDE SQUEEZE</t>
   </si>
   <si>
@@ -2008,6 +2053,9 @@
     <t xml:space="preserve">BICO ENGATE</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X ILUMI 2 INTERRUPTORES SIMPLES 6A 6318</t>
+  </si>
+  <si>
     <t xml:space="preserve">MACANETA SILVANA</t>
   </si>
   <si>
@@ -2035,6 +2083,9 @@
     <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA CONSTRUCAO VE730 09 DELTA PLUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
   </si>
   <si>
@@ -2044,6 +2095,12 @@
     <t xml:space="preserve">ENGATE MANGUEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">ESPELHO ILUMI SLIM 4X4 CEGO 8305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCA ABRACAD RSF (C)1/2X3/4 ( 100) (M GAS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABIDE</t>
   </si>
   <si>
@@ -2068,6 +2125,9 @@
     <t xml:space="preserve">MANDRIL</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA NBR WAVE KALIPSO AZUL/PRETO 09 G</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROTETOR SOLAR</t>
   </si>
   <si>
@@ -2077,6 +2137,12 @@
     <t xml:space="preserve">MANGUEIRA JARDIM</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X ILUMI LUVA BRANCO 6205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U B 3/4 100 J F METAIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">TORNEIRA TANQ</t>
   </si>
   <si>
@@ -2098,12 +2164,18 @@
     <t xml:space="preserve">SDS-PLUS</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA NBR WAVE KALIPSO AZUL/PRETO 10 XG</t>
+  </si>
+  <si>
     <t xml:space="preserve">COTOVELO AZUL</t>
   </si>
   <si>
     <t xml:space="preserve">EMENDA MANGUEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U E 1 1/2 100 J F METAIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOALHA MESA TERMICA</t>
   </si>
   <si>
@@ -2131,6 +2203,9 @@
     <t xml:space="preserve">VASSOURA GRAMA</t>
   </si>
   <si>
+    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U F 2 100 J F METAIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">GARRAFAO</t>
   </si>
   <si>
@@ -2159,6 +2234,9 @@
   </si>
   <si>
     <t xml:space="preserve">VEDACIT CUPINICIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U H 3 50 J F METAIS</t>
   </si>
   <si>
     <t xml:space="preserve">GRAP TORNEIRA</t>
@@ -2209,6 +2287,9 @@
     <t xml:space="preserve">PENEIRA MM ARO MADEIRA  AREIA</t>
   </si>
   <si>
+    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U J 4 50 J F METAIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">CESTO</t>
   </si>
   <si>
@@ -2236,6 +2317,9 @@
     <t xml:space="preserve">ARQUA MANGUEIRA MULTIUSO TRANÇADA</t>
   </si>
   <si>
+    <t xml:space="preserve">DOBRADIÇA PRESSAO 35MM RETA JOMARCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
   </si>
   <si>
@@ -2263,6 +2347,9 @@
     <t xml:space="preserve">ARQUA MANGUEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">DOBRADIÇA PRESSAO 35MM CURVA JOMARCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VARAL</t>
   </si>
   <si>
@@ -2287,6 +2374,12 @@
     <t xml:space="preserve">LUVA TIGRE</t>
   </si>
   <si>
+    <t xml:space="preserve">PENEIRA FEIJAO 55 PLASTICO 10 TELAS MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBRADIÇA PRESSAO 26MM CURVA JOMARCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESCADA</t>
   </si>
   <si>
@@ -2311,6 +2404,12 @@
     <t xml:space="preserve">AMANCO NIPEL</t>
   </si>
   <si>
+    <t xml:space="preserve">PENEIRA MM ARO PLASTICO 55 AREIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBRADIÇA PRESSAO 26MM RETA JOMARCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VELA</t>
   </si>
   <si>
@@ -2335,6 +2434,12 @@
     <t xml:space="preserve">COTOVELO PLASTILIT</t>
   </si>
   <si>
+    <t xml:space="preserve">PENEIRA MM ARO PLASTICO 55 ARROZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOBRADIÇA LEME ZINCADA LOTH 06</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
   </si>
   <si>
@@ -2359,6 +2464,12 @@
     <t xml:space="preserve">UNIAO PLASTILIT</t>
   </si>
   <si>
+    <t xml:space="preserve">TELA PLASTICO VIVEIRO 100X50 1/2 PRT NETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCA ABRACAD RSF</t>
+  </si>
+  <si>
     <t xml:space="preserve">FACAO</t>
   </si>
   <si>
@@ -2383,6 +2494,9 @@
     <t xml:space="preserve">NIPLE PLASTILT</t>
   </si>
   <si>
+    <t xml:space="preserve">TELA PLASTICO PINTINHO 100X50 1 PRETO NETTEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERMINAL ROCO</t>
   </si>
   <si>
@@ -2407,6 +2521,9 @@
     <t xml:space="preserve">CAP MARROM</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA CROMADO EMA METAIS 1128X3/4 JARD</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE TV</t>
   </si>
   <si>
@@ -2431,6 +2548,9 @@
     <t xml:space="preserve">ESTRELA LIGA FACIL</t>
   </si>
   <si>
+    <t xml:space="preserve">TORNEIRA CROMADO JARDIM ESFERA 1/2 FERTAK</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONTROLE TV</t>
   </si>
   <si>
@@ -2506,6 +2626,9 @@
     <t xml:space="preserve">TORNEIRA ELETRICA</t>
   </si>
   <si>
+    <t xml:space="preserve">FIXA ESPELHO CIBRA 400G BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIGRE GARFO BUCHA</t>
   </si>
   <si>
@@ -2527,6 +2650,9 @@
     <t xml:space="preserve">ESPONJA MAGICA 	</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA BOSCH D AGUA 80 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONECTOR PORCELANA</t>
   </si>
   <si>
@@ -2545,6 +2671,9 @@
     <t xml:space="preserve">SACO ALVEJADO</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA BOSCH D AGUA 100 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">INTERNEED EXTENSÃO</t>
   </si>
   <si>
@@ -2560,6 +2689,9 @@
     <t xml:space="preserve">PLUG SHIVA</t>
   </si>
   <si>
+    <t xml:space="preserve">LIXA BOSCH D AGUA 150 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXTENSÃO TECHNA</t>
   </si>
   <si>
@@ -2719,6 +2851,9 @@
     <t xml:space="preserve">CHAVE ALLEN</t>
   </si>
   <si>
+    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
+  </si>
+  <si>
     <t xml:space="preserve">CONTROLE REMOTO</t>
   </si>
   <si>
@@ -2731,6 +2866,9 @@
     <t xml:space="preserve">CHAVE ESTRELA</t>
   </si>
   <si>
+    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TORNEIRA VIQUA</t>
   </si>
   <si>
@@ -2741,6 +2879,9 @@
   </si>
   <si>
     <t xml:space="preserve">SERRA BOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA PLASTILIT LL B 3/4 MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">TORNEIRA HERC</t>
@@ -2773,6 +2914,9 @@
     <t xml:space="preserve">SERRA ACO</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA PLASTILIT LL E 1 1/2 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESPONJA MULTIUSO</t>
   </si>
   <si>
@@ -2785,6 +2929,9 @@
     <t xml:space="preserve">CHAVE CANHAO</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA PLASTILIT RR 3/4 BRANCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
   </si>
   <si>
@@ -2797,6 +2944,9 @@
     <t xml:space="preserve">CHAVE PHILLIPS</t>
   </si>
   <si>
+    <t xml:space="preserve">LUVA PLASTILIT RR 1/2 BRANCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
   </si>
   <si>
@@ -2809,6 +2959,9 @@
     <t xml:space="preserve">PAQUIMETRO</t>
   </si>
   <si>
+    <t xml:space="preserve">TEE AZUL SHIVA 3/4 X 1/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEGATRON CABO PP</t>
   </si>
   <si>
@@ -2818,6 +2971,9 @@
     <t xml:space="preserve">CHAVE RODA</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO FORTLEV LL H 3/4X45 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
   </si>
   <si>
@@ -2830,6 +2986,9 @@
     <t xml:space="preserve">CHAVE DE GRIFO</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO FORTLEV LL K 1 1/2X45 MARRON</t>
+  </si>
+  <si>
     <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
   </si>
   <si>
@@ -2842,6 +3001,9 @@
     <t xml:space="preserve">CHAVE INGLESA</t>
   </si>
   <si>
+    <t xml:space="preserve">CURVA FORTLEV LL B 3/4 X 90 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">VENTILADOR DE MESA</t>
   </si>
   <si>
@@ -2854,6 +3016,9 @@
     <t xml:space="preserve">LIXADEIRA MANUAL</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO FORTLEV LL B 3/4X90 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">BATEDOR PORTA BOLA</t>
   </si>
   <si>
@@ -2866,6 +3031,9 @@
     <t xml:space="preserve">CHAVE VIRAR FERRO</t>
   </si>
   <si>
+    <t xml:space="preserve">COTOVELO FORTLEV LL E 1 1/2X90 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE BRASFORMA</t>
   </si>
   <si>
@@ -2878,6 +3046,9 @@
     <t xml:space="preserve">BOMBA DE AR</t>
   </si>
   <si>
+    <t xml:space="preserve">CURVA FORTLEV LL E 1 1/2 X 90 MARROM</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
   </si>
   <si>
@@ -2905,13 +3076,103 @@
     <t xml:space="preserve">SUPORTE PRIMETECH</t>
   </si>
   <si>
+    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 10MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANEL DE VEDACAO FORTLEV 75MM ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA A R BOSCH BIMET 18D</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAQUINA LAVAR</t>
   </si>
   <si>
+    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 16MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 25MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRINHO SERV GERAL ESFERA 150K P MACICO</t>
+  </si>
+  <si>
     <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPORTE LAJE PE FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 50MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE DE RODA CRUZ IMA</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRIME TECH SUPORTE FORNO BRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 14M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M CRISTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS BRANCO QUADRISET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS PRETO QUADRISET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGUEIRA TANQUINHO ENTRADA BRANCO FERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABONETEIRA HIDROLAR CROMADO 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARAO CORTINA STILLUS 150 BRC 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARAO CORTINA STILLUS 200 BRC 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODORIZADOR PURO AR LAVANDA 250ML</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +3219,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2966,10 +3227,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3014,7 +3273,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3035,7 +3294,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3166,48 +3429,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="40.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="45.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="51.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="50.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="66.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="45.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="64.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="33.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="29.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="52.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="25.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="53.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="47.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="42.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="31.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="39.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="45.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="38.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="55.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="27.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="40.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="23.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="41.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="34" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="51.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="37.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="47.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="52.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="33.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="37.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="59.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="33" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,7 +3959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -3792,7 +4054,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -3884,7 +4146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -3973,7 +4235,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>247</v>
       </c>
@@ -4037,2145 +4299,2430 @@
       <c r="X10" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="Y10" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="Z10" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1" t="s">
         <v>221</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>509</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="O27" s="4"/>
       <c r="Q27" s="4" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>604</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>632</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>628</v>
+        <v>642</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>643</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>646</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>640</v>
+        <v>656</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>641</v>
+        <v>658</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>642</v>
+        <v>659</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>643</v>
+        <v>660</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="D32" s="1" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>651</v>
+        <v>670</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>654</v>
+        <v>674</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>661</v>
+        <v>683</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>697</v>
+      </c>
       <c r="D35" s="1" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>708</v>
+      </c>
       <c r="D36" s="1" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="1" t="s">
+        <v>719</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>711</v>
+        <v>740</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>713</v>
+        <v>742</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>715</v>
+        <v>744</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>716</v>
+        <v>745</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>747</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>721</v>
+        <v>752</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>723</v>
+        <v>754</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>724</v>
+        <v>755</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>725</v>
+        <v>756</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+      <c r="AB40" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1" t="s">
+        <v>759</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>728</v>
+        <v>761</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>730</v>
+        <v>763</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>731</v>
+        <v>764</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>767</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1" t="s">
+        <v>769</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>740</v>
+        <v>775</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="5" t="s">
+        <v>779</v>
+      </c>
       <c r="D43" s="1" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>746</v>
+        <v>783</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>748</v>
+        <v>785</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>749</v>
+        <v>786</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>787</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>751</v>
+        <v>789</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>752</v>
+        <v>790</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>753</v>
+        <v>791</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>754</v>
+        <v>792</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>755</v>
+        <v>793</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>756</v>
+        <v>794</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>757</v>
+        <v>795</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>796</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>759</v>
+        <v>798</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>761</v>
+        <v>800</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>763</v>
+        <v>802</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>764</v>
+        <v>803</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>765</v>
+        <v>804</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>805</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>767</v>
+        <v>807</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>769</v>
+        <v>809</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>771</v>
+        <v>811</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>772</v>
+        <v>812</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>773</v>
+        <v>813</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>784</v>
+        <v>824</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>785</v>
+        <v>825</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>787</v>
+        <v>827</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>788</v>
+        <v>828</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>791</v>
+        <v>831</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>832</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>792</v>
+        <v>833</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>793</v>
+        <v>834</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>794</v>
+        <v>835</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>797</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>798</v>
+        <v>839</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>840</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>804</v>
+        <v>846</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>806</v>
+        <v>849</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>807</v>
+        <v>850</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>809</v>
+        <v>852</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>520</v>
+        <v>530</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>853</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>810</v>
+        <v>854</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>811</v>
+        <v>855</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>812</v>
+        <v>856</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>815</v>
+        <v>859</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>816</v>
+        <v>860</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>817</v>
+        <v>861</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>821</v>
+        <v>865</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>218</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>822</v>
+        <v>866</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>824</v>
+        <v>868</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>825</v>
+        <v>869</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="5" t="s">
-        <v>826</v>
+      <c r="D55" s="6" t="s">
+        <v>870</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>827</v>
+        <v>871</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>828</v>
+        <v>872</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>829</v>
+        <v>873</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>830</v>
+        <v>874</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>832</v>
+        <v>876</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>833</v>
+        <v>877</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>834</v>
+        <v>878</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>837</v>
+        <v>881</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>838</v>
+        <v>882</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>839</v>
+        <v>883</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>840</v>
+        <v>884</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>841</v>
+        <v>885</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>843</v>
+        <v>887</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>844</v>
+        <v>888</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>845</v>
+        <v>889</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>846</v>
+        <v>890</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>847</v>
+        <v>891</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>849</v>
+        <v>893</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>850</v>
+        <v>894</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>851</v>
+        <v>895</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>852</v>
+        <v>896</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>853</v>
+        <v>897</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>854</v>
+        <v>898</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>855</v>
+        <v>899</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>856</v>
+        <v>900</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>857</v>
+        <v>901</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>858</v>
+        <v>902</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="4" t="s">
-        <v>859</v>
+        <v>903</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>861</v>
+        <v>905</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>862</v>
+        <v>906</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>863</v>
+        <v>908</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>864</v>
+        <v>909</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>865</v>
+        <v>910</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>866</v>
+        <v>911</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>867</v>
+        <v>913</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>868</v>
+        <v>914</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>869</v>
+        <v>915</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>870</v>
+        <v>916</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>872</v>
+        <v>918</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>919</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>873</v>
+        <v>920</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>874</v>
+        <v>921</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>875</v>
+        <v>923</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>876</v>
+        <v>924</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>878</v>
+        <v>926</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="4" t="s">
-        <v>879</v>
+        <v>928</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>880</v>
+        <v>929</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>881</v>
+        <v>930</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>882</v>
+        <v>931</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="1" t="s">
-        <v>883</v>
+        <v>933</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>884</v>
+        <v>934</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>885</v>
+        <v>935</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>886</v>
+        <v>936</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>883</v>
+        <v>933</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>887</v>
+        <v>938</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>889</v>
+        <v>940</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="1" t="s">
-        <v>890</v>
+        <v>942</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>891</v>
+        <v>943</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>892</v>
+        <v>944</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>893</v>
+        <v>945</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D70" s="4" t="s">
-        <v>894</v>
+        <v>947</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>895</v>
+        <v>948</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>896</v>
+        <v>949</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>897</v>
+        <v>950</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D71" s="1" t="s">
-        <v>898</v>
+        <v>952</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>899</v>
+        <v>953</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>900</v>
+        <v>954</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>901</v>
+        <v>955</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D72" s="4" t="s">
-        <v>902</v>
+        <v>957</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>903</v>
+        <v>958</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>904</v>
+        <v>959</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>905</v>
+        <v>960</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D73" s="1" t="s">
-        <v>906</v>
+        <v>962</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>907</v>
+        <v>963</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>908</v>
+        <v>964</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>909</v>
+        <v>965</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D74" s="4" t="s">
-        <v>910</v>
+        <v>967</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>911</v>
+        <v>968</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>912</v>
+        <v>969</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>913</v>
+        <v>970</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D75" s="1" t="s">
-        <v>914</v>
+        <v>971</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>915</v>
+        <v>972</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>916</v>
+        <v>973</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>917</v>
+        <v>974</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>918</v>
+        <v>975</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="1" t="s">
-        <v>919</v>
+        <v>979</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D78" s="4" t="s">
-        <v>920</v>
+        <v>983</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D79" s="4" t="s">
-        <v>921</v>
+        <v>987</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D80" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D81" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D82" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D83" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D84" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D85" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D87" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D88" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D89" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D90" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D91" s="1" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1021">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -943,6 +943,9 @@
     <t xml:space="preserve">TANQUE SINTETICO GRAN N2 110X55 PRETO AJ RORATO</t>
   </si>
   <si>
+    <t xml:space="preserve">REMOVEDOR COLA </t>
+  </si>
+  <si>
     <t xml:space="preserve">CORRENTE SOLDAVEL</t>
   </si>
   <si>
@@ -970,7 +973,7 @@
     <t xml:space="preserve">GALVITE</t>
   </si>
   <si>
-    <t xml:space="preserve">DISJUNTORES</t>
+    <t xml:space="preserve">SISTEMA CANALETA</t>
   </si>
   <si>
     <t xml:space="preserve">TUBO</t>
@@ -1066,12 +1069,15 @@
     <t xml:space="preserve">ESTOPA</t>
   </si>
   <si>
-    <t xml:space="preserve">SISTEMA CANALETA</t>
+    <t xml:space="preserve">CAIXINHA LUZ</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA D'AGUA</t>
   </si>
   <si>
+    <t xml:space="preserve">CUNHA NIVELADORA</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLEO LUBRIFICANTE</t>
   </si>
   <si>
@@ -1135,7 +1141,7 @@
     <t xml:space="preserve">GARRA CABO BATERIA</t>
   </si>
   <si>
-    <t xml:space="preserve">TOMADA</t>
+    <t xml:space="preserve">PLUG</t>
   </si>
   <si>
     <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
@@ -1204,7 +1210,7 @@
     <t xml:space="preserve">CABO CHUPETA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAIXINHA LUZ</t>
+    <t xml:space="preserve">TOMADA EM BARRA</t>
   </si>
   <si>
     <t xml:space="preserve">TORNEIRA BOIA</t>
@@ -1270,7 +1276,7 @@
     <t xml:space="preserve">MANTA VIDRO</t>
   </si>
   <si>
-    <t xml:space="preserve">PLUG</t>
+    <t xml:space="preserve">FILTRO DE LINHA</t>
   </si>
   <si>
     <t xml:space="preserve">ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
@@ -1333,7 +1339,7 @@
     <t xml:space="preserve">ABRACADEIRA NYLON</t>
   </si>
   <si>
-    <t xml:space="preserve">TOMADA EM BARRA</t>
+    <t xml:space="preserve">TERMINAL</t>
   </si>
   <si>
     <t xml:space="preserve">DUCHA HIGENICA  </t>
@@ -1411,7 +1417,7 @@
     <t xml:space="preserve">MASSA POLIR</t>
   </si>
   <si>
-    <t xml:space="preserve">FILTRO DE LINHA</t>
+    <t xml:space="preserve">CONECTOR BORNE</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTROS E ACABAMENTOS</t>
@@ -1465,7 +1471,7 @@
     <t xml:space="preserve">FERROX</t>
   </si>
   <si>
-    <t xml:space="preserve">TERMINAL</t>
+    <t xml:space="preserve">CONDUITE</t>
   </si>
   <si>
     <t xml:space="preserve">VEDA ROSCA</t>
@@ -1516,7 +1522,7 @@
     <t xml:space="preserve">QUEROSENE</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR BORNE</t>
+    <t xml:space="preserve">FIO SOM/LUSTRE</t>
   </si>
   <si>
     <t xml:space="preserve">BLOQUEADOR DE AR</t>
@@ -1570,7 +1576,7 @@
     <t xml:space="preserve">MAXI RUBBER</t>
   </si>
   <si>
-    <t xml:space="preserve">CONDUITE</t>
+    <t xml:space="preserve">CABO FLEX</t>
   </si>
   <si>
     <t xml:space="preserve">RALO</t>
@@ -1624,7 +1630,7 @@
     <t xml:space="preserve">ASPIR DE PO WAP</t>
   </si>
   <si>
-    <t xml:space="preserve">FIO SOM/LUSTRE</t>
+    <t xml:space="preserve">FIO CABO AUTO</t>
   </si>
   <si>
     <t xml:space="preserve">ARCO SERRA</t>
@@ -1690,7 +1696,7 @@
     <t xml:space="preserve">MASSA PLASTICO </t>
   </si>
   <si>
-    <t xml:space="preserve">CABO FLEX</t>
+    <t xml:space="preserve">CONECTOR WAGO</t>
   </si>
   <si>
     <t xml:space="preserve">VEDANTE</t>
@@ -1741,7 +1747,7 @@
     <t xml:space="preserve">EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
   </si>
   <si>
-    <t xml:space="preserve">FIO CABO AUTO</t>
+    <t xml:space="preserve">HASTE</t>
   </si>
   <si>
     <t xml:space="preserve">COLAS CANO</t>
@@ -1807,7 +1813,7 @@
     <t xml:space="preserve">FIO BICOLOR</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR WAGO</t>
+    <t xml:space="preserve">PASSA FIO</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA SIFONADA</t>
@@ -1855,7 +1861,7 @@
     <t xml:space="preserve">ITAQUA DILUENTE</t>
   </si>
   <si>
-    <t xml:space="preserve">HASTE</t>
+    <t xml:space="preserve">ARM PRESS BOW</t>
   </si>
   <si>
     <t xml:space="preserve">SIFÃO 	</t>
@@ -1897,7 +1903,10 @@
     <t xml:space="preserve">ESMALTE</t>
   </si>
   <si>
-    <t xml:space="preserve">PASSA FIO</t>
+    <t xml:space="preserve">FC GARRA P/ CABO BATERIA 100A GRANDE PRETO/VERMELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIXA DE PASSAGEM </t>
   </si>
   <si>
     <t xml:space="preserve">OBTURADOR</t>
@@ -1942,7 +1951,10 @@
     <t xml:space="preserve">AGUA RAZ</t>
   </si>
   <si>
-    <t xml:space="preserve">ARM PRESS BOW</t>
+    <t xml:space="preserve">INTERNEED GARRA P/ CABO BATERIA 10A MEDIO VERMELHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISJUNTOR</t>
   </si>
   <si>
     <t xml:space="preserve">TAPA FURO</t>
@@ -1984,7 +1996,10 @@
     <t xml:space="preserve">COLA SILICONE</t>
   </si>
   <si>
-    <t xml:space="preserve">CAIXA DE PASSAGEM </t>
+    <t xml:space="preserve">INTERNEED GARRA P/ CABO BATERIA 10A MEDIO PRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRI</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA SABESP/TAF</t>
@@ -1999,6 +2014,9 @@
     <t xml:space="preserve">MISTURADOR DE TINTA</t>
   </si>
   <si>
+    <t xml:space="preserve">DUCHA HIGIENICA FERTAK BRANCO 7041</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUVA  COMFORT KALIPSO</t>
   </si>
   <si>
@@ -2026,7 +2044,7 @@
     <t xml:space="preserve">PO XADREZ</t>
   </si>
   <si>
-    <t xml:space="preserve">DISJUNTOR</t>
+    <t xml:space="preserve">SUPORTE DISJUNTOR</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA GORDURA</t>
@@ -2041,6 +2059,9 @@
     <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
   </si>
   <si>
+    <t xml:space="preserve">GATILHO HIGIBAN DUCHA HIGIENICA BRANCO/CROMADO SUPORTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUVA CONSTRUCAO VE730 10 DELTA PLUS</t>
   </si>
   <si>
@@ -2068,9 +2089,6 @@
     <t xml:space="preserve">LATEX ACRILICA</t>
   </si>
   <si>
-    <t xml:space="preserve">CENTRI</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAIXA DE INSPEÇÃO</t>
   </si>
   <si>
@@ -2110,7 +2128,7 @@
     <t xml:space="preserve">BANDEIA PINTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE DISJUNTOR</t>
+    <t xml:space="preserve">CAXINHA LUZ</t>
   </si>
   <si>
     <t xml:space="preserve">COLAS PVC</t>
@@ -2152,6 +2170,9 @@
     <t xml:space="preserve">LIXA AGUA</t>
   </si>
   <si>
+    <t xml:space="preserve">PLAFONIER</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAIXA DE PASSAGEM</t>
   </si>
   <si>
@@ -2173,6 +2194,9 @@
     <t xml:space="preserve">EMENDA MANGUEIRA</t>
   </si>
   <si>
+    <t xml:space="preserve">CONJUNTO PIAL POP 1 TOMADA 10A LGX030 BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U E 1 1/2 100 J F METAIS</t>
   </si>
   <si>
@@ -2185,7 +2209,7 @@
     <t xml:space="preserve">LIXA MADEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">CAXINHA LUZ</t>
+    <t xml:space="preserve">FUSIVEL</t>
   </si>
   <si>
     <t xml:space="preserve">TALHADEIRA</t>
@@ -2203,6 +2227,9 @@
     <t xml:space="preserve">VASSOURA GRAMA</t>
   </si>
   <si>
+    <t xml:space="preserve">CONJUNTO PIAL POP 1 SIMPLES 1 TOMADA 10A LGX103 BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U F 2 100 J F METAIS</t>
   </si>
   <si>
@@ -2215,7 +2242,7 @@
     <t xml:space="preserve">LATEX QUARTZOLIT</t>
   </si>
   <si>
-    <t xml:space="preserve">PLAFONIER</t>
+    <t xml:space="preserve">SISTEMA ILUMI</t>
   </si>
   <si>
     <t xml:space="preserve">ANEL BORRACHA</t>
@@ -2234,6 +2261,9 @@
   </si>
   <si>
     <t xml:space="preserve">VEDACIT CUPINICIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMADA</t>
   </si>
   <si>
     <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U H 3 50 J F METAIS</t>
@@ -2266,7 +2296,7 @@
     <t xml:space="preserve">PAREDE NOVA</t>
   </si>
   <si>
-    <t xml:space="preserve">FUSIVEL</t>
+    <t xml:space="preserve">ILUMI PROLONGADOR</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA FORTLEV</t>
@@ -2299,7 +2329,7 @@
     <t xml:space="preserve">LIXA BOSCH MASSA</t>
   </si>
   <si>
-    <t xml:space="preserve">SISTEMA ILUMI</t>
+    <t xml:space="preserve">PINO MACHO</t>
   </si>
   <si>
     <t xml:space="preserve">VALVULA ENTRADA</t>
@@ -2329,7 +2359,7 @@
     <t xml:space="preserve">PA QUADRADA</t>
   </si>
   <si>
-    <t xml:space="preserve">ILUMI PROLONGADOR</t>
+    <t xml:space="preserve">CAIXA LUZ </t>
   </si>
   <si>
     <t xml:space="preserve">FORTLEV CAIXA</t>
@@ -2359,7 +2389,7 @@
     <t xml:space="preserve">PA BICO </t>
   </si>
   <si>
-    <t xml:space="preserve">PINO MACHO</t>
+    <t xml:space="preserve">CANALETA</t>
   </si>
   <si>
     <t xml:space="preserve">GRELHA REDONDO</t>
@@ -2389,7 +2419,7 @@
     <t xml:space="preserve">LIXA DOBLEA FERRO</t>
   </si>
   <si>
-    <t xml:space="preserve">CAIXA LUZ </t>
+    <t xml:space="preserve">ANNLUX</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA AGUA</t>
@@ -2413,13 +2443,13 @@
     <t xml:space="preserve">VELA</t>
   </si>
   <si>
-    <t xml:space="preserve">REMOVEDOR COLA </t>
+    <t xml:space="preserve">SELATRINCAS GARIN BRANCO TUBO 450GR</t>
   </si>
   <si>
     <t xml:space="preserve">SAYERLACK MASSA</t>
   </si>
   <si>
-    <t xml:space="preserve">CANALETA</t>
+    <t xml:space="preserve">CONERTOR BORNE</t>
   </si>
   <si>
     <t xml:space="preserve">VÁLVULA AMERICANA</t>
@@ -2449,7 +2479,7 @@
     <t xml:space="preserve">LIXA NORTON</t>
   </si>
   <si>
-    <t xml:space="preserve">ANNLUX</t>
+    <t xml:space="preserve">CORRUGADO</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA HIDROMETRO</t>
@@ -2479,7 +2509,7 @@
     <t xml:space="preserve">HYDRONORTH RESINA</t>
   </si>
   <si>
-    <t xml:space="preserve">CONERTOR BORNE</t>
+    <t xml:space="preserve">FC EXTENSAO</t>
   </si>
   <si>
     <t xml:space="preserve"> REGISTRO GAVETA</t>
@@ -2506,7 +2536,7 @@
     <t xml:space="preserve">ATLAS PINCEL</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAMONTINA CORRUGADO</t>
+    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
   </si>
   <si>
     <t xml:space="preserve">TEE ZAMAC CROMADO</t>
@@ -2533,7 +2563,7 @@
     <t xml:space="preserve">AGUARRAS</t>
   </si>
   <si>
-    <t xml:space="preserve">FC EXTENSAO</t>
+    <t xml:space="preserve">LUMINARIA ALETADA</t>
   </si>
   <si>
     <t xml:space="preserve">AUMENTO TORNEIRA</t>
@@ -2560,7 +2590,7 @@
     <t xml:space="preserve">LIXA BOSCH AGUA</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
+    <t xml:space="preserve">PINO PRENSA</t>
   </si>
   <si>
     <t xml:space="preserve">VALVULA HYDRA</t>
@@ -2575,6 +2605,9 @@
     <t xml:space="preserve">TEE FORTLEV</t>
   </si>
   <si>
+    <t xml:space="preserve">GRAP TORNEIRA JARDIM ABS/PRETO 1/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">GABINETE</t>
   </si>
   <si>
@@ -2584,7 +2617,7 @@
     <t xml:space="preserve">FERJA LIXA D AGUA </t>
   </si>
   <si>
-    <t xml:space="preserve">LUMINARIA ALETADA</t>
+    <t xml:space="preserve">ADAPTADOR FEMEA</t>
   </si>
   <si>
     <t xml:space="preserve">GARDEN JUNCAO</t>
@@ -2608,7 +2641,7 @@
     <t xml:space="preserve">VIAPOL MASSA F12</t>
   </si>
   <si>
-    <t xml:space="preserve">PINO PRENSA</t>
+    <t xml:space="preserve">CONECTOR PORCELANA</t>
   </si>
   <si>
     <t xml:space="preserve">ADAPTADOR GARDEN</t>
@@ -2632,7 +2665,7 @@
     <t xml:space="preserve">TIGRE GARFO BUCHA</t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR FEMEA</t>
+    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
   </si>
   <si>
     <t xml:space="preserve">VÁLVULA PLASTICO</t>
@@ -2653,7 +2686,7 @@
     <t xml:space="preserve">LIXA BOSCH D AGUA 80 25</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR PORCELANA</t>
+    <t xml:space="preserve">EXTENSÃO TECHNA</t>
   </si>
   <si>
     <t xml:space="preserve">BASE REGISTRO</t>
@@ -2674,7 +2707,7 @@
     <t xml:space="preserve">LIXA BOSCH D AGUA 100 25</t>
   </si>
   <si>
-    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
+    <t xml:space="preserve">PINO FEMEA</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRO PRESSAO</t>
@@ -2692,7 +2725,7 @@
     <t xml:space="preserve">LIXA BOSCH D AGUA 150 25</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTENSÃO TECHNA</t>
+    <t xml:space="preserve">PENZEL TERMINAL</t>
   </si>
   <si>
     <t xml:space="preserve">VÁLVULA HIDRA</t>
@@ -2710,7 +2743,7 @@
     <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">PINO FEMEA</t>
+    <t xml:space="preserve">FOXLUX FIO</t>
   </si>
   <si>
     <t xml:space="preserve">VÁLVULA HYDRA</t>
@@ -2728,6 +2761,9 @@
     <t xml:space="preserve">AGULHA GRANDE</t>
   </si>
   <si>
+    <t xml:space="preserve">AVANT LUMINARIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGISTRO GAVETA</t>
   </si>
   <si>
@@ -2743,7 +2779,7 @@
     <t xml:space="preserve">VIQUA TORNEIRA </t>
   </si>
   <si>
-    <t xml:space="preserve">PENZEL TERMINAL</t>
+    <t xml:space="preserve">FIO TELEF</t>
   </si>
   <si>
     <t xml:space="preserve">CENSI REPARO</t>
@@ -2761,6 +2797,9 @@
     <t xml:space="preserve">MANGUEIRA GAS</t>
   </si>
   <si>
+    <t xml:space="preserve">SENSOR PRESENÇA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
   </si>
   <si>
@@ -2776,7 +2815,7 @@
     <t xml:space="preserve">ESPONJA FLASH </t>
   </si>
   <si>
-    <t xml:space="preserve">FOXLUX FIO</t>
+    <t xml:space="preserve">ELETRODUTO</t>
   </si>
   <si>
     <t xml:space="preserve">HYDRA REPARO VÁLVULA</t>
@@ -2794,7 +2833,7 @@
     <t xml:space="preserve">TORNEIRA MAQ</t>
   </si>
   <si>
-    <t xml:space="preserve">AVANT LUMINARIA</t>
+    <t xml:space="preserve">EXT ILUMI PLACA</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA HIDROMETRO SABESP</t>
@@ -2812,7 +2851,7 @@
     <t xml:space="preserve">IBIRA MANG</t>
   </si>
   <si>
-    <t xml:space="preserve">FIO TELEF</t>
+    <t xml:space="preserve">PENZEL TERM PREISOL</t>
   </si>
   <si>
     <t xml:space="preserve">JUNCAO METAL</t>
@@ -2825,66 +2864,6 @@
   </si>
   <si>
     <t xml:space="preserve">COTOVELO TIGRE LL B 3/4 X 90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR PRESENÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA TANQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE BIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE TIGRE LLL B 3/4 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPAINHA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE ALLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE REMOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXT ILUMI PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MECANISMO ENTRADA UNIVERSAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE ESTRELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA VIQUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENZEL TERM PREISOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUKIT REPARO VALVULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA BOSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT LL B 3/4 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA HERC</t>
   </si>
   <si>
     <r>
@@ -2908,6 +2887,66 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">VÁLVULA TANQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE BIELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEE TIGRE LLL B 3/4 MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPAINHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTOR GENERICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VÁLVULA MULTIUSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE ALLEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROLE REMOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MECANISMO ENTRADA UNIVERSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAVE ESTRELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA VIQUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUKIT REPARO VALVULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA BOSCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUVA PLASTILIT LL B 3/4 MARROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORNEIRA HERC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEGATRON CABO PP</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAIXA MULT GORDURA CESTA</t>
   </si>
   <si>
@@ -2920,7 +2959,7 @@
     <t xml:space="preserve">ESPONJA MULTIUSO</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR GENERICO</t>
+    <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
   </si>
   <si>
     <t xml:space="preserve">TAF CAIXA P/ HIDROMETRO PP SABESP NTS303</t>
@@ -2935,7 +2974,7 @@
     <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
   </si>
   <si>
-    <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
+    <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
   </si>
   <si>
     <t xml:space="preserve">ACABAMENTO REGISTRO ART METAIS</t>
@@ -2950,7 +2989,7 @@
     <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
   </si>
   <si>
-    <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
+    <t xml:space="preserve">SUPORTE LAJE FIXO</t>
   </si>
   <si>
     <t xml:space="preserve">VÁLVULA AMERICANA METAL</t>
@@ -2962,7 +3001,7 @@
     <t xml:space="preserve">TEE AZUL SHIVA 3/4 X 1/2</t>
   </si>
   <si>
-    <t xml:space="preserve">MEGATRON CABO PP</t>
+    <t xml:space="preserve">MEGATRON EXTENSAO TRIPOLAR</t>
   </si>
   <si>
     <t xml:space="preserve">SALVA REGISTRO ALPHA</t>
@@ -2977,7 +3016,7 @@
     <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
   </si>
   <si>
-    <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
+    <t xml:space="preserve">EXTENSAO NATICON</t>
   </si>
   <si>
     <t xml:space="preserve">IMPERIO HIDRO ACABAMENTO</t>
@@ -2992,7 +3031,7 @@
     <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
   </si>
   <si>
-    <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
+    <t xml:space="preserve">EXTENSAO DANEVA</t>
   </si>
   <si>
     <t xml:space="preserve">ACESSORIO CAIXA BLUKIT</t>
@@ -3007,7 +3046,7 @@
     <t xml:space="preserve">VENTILADOR DE MESA</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE LAJE FIXO</t>
+    <t xml:space="preserve">PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
   </si>
   <si>
     <t xml:space="preserve">ACESSORIO CAIXA ASTRA ENT CAIXA ACOPLADA</t>
@@ -3022,7 +3061,7 @@
     <t xml:space="preserve">BATEDOR PORTA BOLA</t>
   </si>
   <si>
-    <t xml:space="preserve">MEGATRON EXTENSAO TRIPOLAR</t>
+    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 10MM</t>
   </si>
   <si>
     <t xml:space="preserve">BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
@@ -3037,7 +3076,7 @@
     <t xml:space="preserve">SUPORTE BRASFORMA</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTENSAO NATICON</t>
+    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 16MM</t>
   </si>
   <si>
     <t xml:space="preserve">ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
@@ -3052,7 +3091,7 @@
     <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
   </si>
   <si>
-    <t xml:space="preserve">EXTENSAO DANEVA</t>
+    <t xml:space="preserve">SUPORTE LAJE PE FIXO 30CM PRETO</t>
   </si>
   <si>
     <t xml:space="preserve">REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
@@ -3061,10 +3100,13 @@
     <t xml:space="preserve">JOGO SOQUETE</t>
   </si>
   <si>
+    <t xml:space="preserve">KRONA PLUG 1/2</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE PIA</t>
   </si>
   <si>
-    <t xml:space="preserve">PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
+    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
   </si>
   <si>
     <t xml:space="preserve">GRELHA</t>
@@ -3076,7 +3118,7 @@
     <t xml:space="preserve">SUPORTE PRIMETECH</t>
   </si>
   <si>
-    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 10MM</t>
+    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
   </si>
   <si>
     <t xml:space="preserve">ANEL DE VEDACAO FORTLEV 75MM ESGOTO</t>
@@ -3088,7 +3130,7 @@
     <t xml:space="preserve">MAQUINA LAVAR</t>
   </si>
   <si>
-    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 16MM</t>
+    <t xml:space="preserve">INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
   </si>
   <si>
     <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 25MM</t>
@@ -3100,7 +3142,7 @@
     <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE LAJE PE FIXO 30CM PRETO</t>
+    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
   </si>
   <si>
     <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 50MM</t>
@@ -3112,7 +3154,7 @@
     <t xml:space="preserve">PRIME TECH SUPORTE FORNO BRANCO</t>
   </si>
   <si>
-    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
+    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
   </si>
   <si>
     <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
@@ -3121,43 +3163,37 @@
     <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
+    <t xml:space="preserve">FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
   </si>
   <si>
-    <t xml:space="preserve">INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
+    <t xml:space="preserve">FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 14M</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
+    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M</t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
+    <t xml:space="preserve">SUPORTE LAJE PP FUNDO FIXO 30CM PRETO</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M CRISTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
+    <t xml:space="preserve">FILTRO LINHA</t>
   </si>
   <si>
     <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS BRANCO QUADRISET</t>
   </si>
   <si>
-    <t xml:space="preserve">FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
-  </si>
-  <si>
     <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS PRETO QUADRISET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA TANQUINHO ENTRADA BRANCO FERE</t>
@@ -3182,7 +3218,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3224,11 +3260,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3294,7 +3325,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3431,8 +3462,8 @@
   </sheetPr>
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H84" activeCellId="0" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4400,549 +4431,555 @@
       <c r="AC11" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="AD11" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="AE11" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF17" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,367 +4987,367 @@
         <v>221</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>218</v>
@@ -5318,1411 +5355,1435 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>597</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="O27" s="4"/>
       <c r="Q27" s="4" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>613</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="G29" s="0" t="s">
+        <v>628</v>
+      </c>
       <c r="H29" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="4" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>642</v>
+        <v>648</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="AF30" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>652</v>
+        <v>283</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>283</v>
+        <v>686</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>686</v>
+        <v>693</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>696</v>
+        <v>704</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>707</v>
+        <v>716</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>761</v>
+        <v>770</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>771</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>773</v>
+        <v>782</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>783</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="5" t="s">
-        <v>779</v>
+      <c r="C43" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>783</v>
+        <v>792</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>793</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>801</v>
+        <v>810</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>810</v>
+        <v>819</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>814</v>
+        <v>824</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>834</v>
+        <v>844</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>848</v>
+        <v>858</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>865</v>
+        <v>876</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>218</v>
+        <v>877</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="6" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>302</v>
+        <v>889</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>894</v>
+        <v>906</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>907</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>899</v>
+        <v>357</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>912</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="4" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>909</v>
+        <v>921</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>922</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>919</v>
+        <v>931</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>932</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>924</v>
+        <v>936</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>937</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>929</v>
+        <v>941</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>942</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>934</v>
+        <v>946</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>947</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>943</v>
+        <v>955</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>956</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D70" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>948</v>
+        <v>960</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>961</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D71" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>953</v>
+        <v>965</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D72" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>958</v>
+        <v>970</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>971</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D73" s="1" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D74" s="4" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>970</v>
+        <v>983</v>
+      </c>
+      <c r="Z74" s="7" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D75" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>972</v>
+        <v>985</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>986</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>976</v>
+        <v>990</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="1" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D78" s="4" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D79" s="4" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D80" s="1" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D81" s="1" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D82" s="1" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D83" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>997</v>
+        <v>1010</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D84" s="1" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D85" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D86" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D87" s="1" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D88" s="1" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D89" s="1" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D90" s="1" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D91" s="1" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="1030">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -3115,6 +3115,9 @@
     <t xml:space="preserve">CARINHO PEDREIRO</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA REDUCAO ROSCA 3/4X1/2 50 KRONA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPORTE PRIMETECH</t>
   </si>
   <si>
@@ -3127,6 +3130,9 @@
     <t xml:space="preserve">SERRA A R BOSCH BIMET 18D</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL LONGA PLASTILIT 50 X 25</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAQUINA LAVAR</t>
   </si>
   <si>
@@ -3139,6 +3145,9 @@
     <t xml:space="preserve">CARRINHO SERV GERAL ESFERA 150K P MACICO</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA REDUCAO RR PLASTILIT A 3/4 X 1/2 BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
   </si>
   <si>
@@ -3151,6 +3160,9 @@
     <t xml:space="preserve">CHAVE DE RODA CRUZ IMA</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL CURTA CORRER PLASTICO B 1 X 3/4</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRIME TECH SUPORTE FORNO BRANCO</t>
   </si>
   <si>
@@ -3160,16 +3172,31 @@
     <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA REDUCAO RR CORRER PLASTIK 3/4X1/2 BRANCO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
   </si>
   <si>
     <t xml:space="preserve">FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
   </si>
   <si>
+    <t xml:space="preserve">BUCHA AUMENTO GARDEN 1/2 X3 /4 ZAMAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL CURTA FORTL A 3/4X1/2 MARRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
   </si>
   <si>
     <t xml:space="preserve">FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO GARDEN 3/4 X 1/2 ZAMAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUCHA REDUCAO LL LONGA FORT C 1 1/2 X3/4</t>
   </si>
   <si>
     <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 14M</t>
@@ -3304,7 +3331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3322,10 +3349,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3462,8 +3485,8 @@
   </sheetPr>
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H84" activeCellId="0" sqref="H84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z79" activeCellId="0" sqref="Z78:Z81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5366,7 +5389,7 @@
       <c r="F27" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>597</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -5417,7 +5440,7 @@
       <c r="F28" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>613</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -5467,7 +5490,7 @@
       <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>628</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -5926,7 +5949,7 @@
       <c r="D41" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="1" t="s">
         <v>771</v>
       </c>
       <c r="F41" s="4" t="s">
@@ -6290,7 +6313,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>882</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -6393,7 +6416,7 @@
       <c r="D60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>912</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -6640,7 +6663,7 @@
       <c r="L74" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="Z74" s="7" t="s">
+      <c r="Z74" s="6" t="s">
         <v>984</v>
       </c>
     </row>
@@ -6657,133 +6680,160 @@
       <c r="L75" s="1" t="s">
         <v>988</v>
       </c>
+      <c r="Z75" s="0" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
+      </c>
+      <c r="Z76" s="0" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>996</v>
+        <v>998</v>
+      </c>
+      <c r="Z77" s="0" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D78" s="4" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1000</v>
+        <v>1003</v>
+      </c>
+      <c r="Z78" s="0" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D79" s="4" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1003</v>
+        <v>1007</v>
+      </c>
+      <c r="Z79" s="0" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D80" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>1005</v>
+        <v>1010</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Z80" s="0" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D81" s="1" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>1007</v>
+        <v>1014</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Z81" s="0" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D82" s="1" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D83" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>1011</v>
+        <v>1019</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D84" s="1" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D85" s="1" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D86" s="1" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D87" s="1" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D88" s="1" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D89" s="1" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D90" s="1" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D91" s="1" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\lucas-silva\auto_shopee\planilhas\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9845A89-9C88-4084-85E4-865DBAF34786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,48 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="1030">
-  <si>
-    <t xml:space="preserve">FITAS E  ADESIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA IMPERMEABILIZANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRAGENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVERSOS UD (UTILIDADES DOMESTICAS)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1031">
+  <si>
+    <t>FITAS E  ADESIVOS</t>
+  </si>
+  <si>
+    <t>FITA IMPERMEABILIZANTES</t>
+  </si>
+  <si>
+    <t>FERRAGENS</t>
+  </si>
+  <si>
+    <t>DIVERSOS UD (UTILIDADES DOMESTICAS)</t>
   </si>
   <si>
     <t xml:space="preserve">COLAS </t>
   </si>
   <si>
-    <t xml:space="preserve">PINTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOMOTIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELÉTRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRAULICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRIFICANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRAMENTAS MANUAIS</t>
+    <t>PINTURA</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVA</t>
+  </si>
+  <si>
+    <t>ELÉTRICA</t>
+  </si>
+  <si>
+    <t>HIDRAULICA</t>
+  </si>
+  <si>
+    <t>PISOS</t>
+  </si>
+  <si>
+    <t>LUBRIFICANTES</t>
+  </si>
+  <si>
+    <t>FERRAMENTAS MANUAIS</t>
   </si>
   <si>
     <t xml:space="preserve">FERRAMENTAS MANUAIS ACESSÓRIOS </t>
   </si>
   <si>
-    <t xml:space="preserve">FERRAMENTAS ELETRICA E ACESSORIOS</t>
+    <t>FERRAMENTAS ELETRICA E ACESSORIOS</t>
   </si>
   <si>
     <t xml:space="preserve">PARAFUSOS </t>
@@ -70,148 +75,148 @@
     <t xml:space="preserve">MASSAS </t>
   </si>
   <si>
-    <t xml:space="preserve">BANHEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPERMEABILIZANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILHAS E BATEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELHAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFOS CALHAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONEXÕES AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONEXÕES ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRO JARDIM E PISCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORROSIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA E CADEADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADAS</t>
+    <t>BANHEIRO</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>CHUVEIROS</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>IMPERMEABILIZANTES</t>
+  </si>
+  <si>
+    <t>PILHAS E BATEIRAS</t>
+  </si>
+  <si>
+    <t>TELHAS</t>
+  </si>
+  <si>
+    <t>ANTENAS</t>
+  </si>
+  <si>
+    <t>RUFOS CALHAS</t>
+  </si>
+  <si>
+    <t>CONEXÕES AGUA</t>
+  </si>
+  <si>
+    <t>CONEXÕES ESGOTO</t>
+  </si>
+  <si>
+    <t>AGRO JARDIM E PISCINAS</t>
+  </si>
+  <si>
+    <t>PIAS</t>
+  </si>
+  <si>
+    <t>CORROSIVOS</t>
+  </si>
+  <si>
+    <t>TRAVA E CADEADOS</t>
+  </si>
+  <si>
+    <t>TOMADAS</t>
   </si>
   <si>
     <t xml:space="preserve">FITA DUREX </t>
   </si>
   <si>
-    <t xml:space="preserve">FITAS TIRA TRINCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRODEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA BRANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATIDA DE PEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO CAIXA D'AGUA</t>
+    <t>FITAS TIRA TRINCA</t>
+  </si>
+  <si>
+    <t>ROLDANA</t>
+  </si>
+  <si>
+    <t>KRODEC</t>
+  </si>
+  <si>
+    <t>COLA BRANCA</t>
+  </si>
+  <si>
+    <t>ROLO</t>
+  </si>
+  <si>
+    <t>BATIDA DE PEDRA</t>
+  </si>
+  <si>
+    <t>EXTENSÃO</t>
+  </si>
+  <si>
+    <t>FILTRO CAIXA D'AGUA</t>
   </si>
   <si>
     <t xml:space="preserve">ESPATULA SILICONE REJUNTE </t>
   </si>
   <si>
-    <t xml:space="preserve">GRAFITE EM PÓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLDA TUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITRIZ GOODYEAR ANG 71/4 1100W 220V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO HERC</t>
+    <t>GRAFITE EM PÓ</t>
+  </si>
+  <si>
+    <t>SACHO</t>
+  </si>
+  <si>
+    <t>SOLDA TUBO</t>
+  </si>
+  <si>
+    <t>POLITRIZ GOODYEAR ANG 71/4 1100W 220V</t>
+  </si>
+  <si>
+    <t>BUCHA</t>
+  </si>
+  <si>
+    <t>CIMENTO</t>
+  </si>
+  <si>
+    <t>ASSENTO HERC</t>
   </si>
   <si>
     <t xml:space="preserve">CAPACETE </t>
   </si>
   <si>
-    <t xml:space="preserve">BRACO CHUVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO CABO PATCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILHA ALCALINA</t>
+    <t>BRACO CHUVEIRO</t>
+  </si>
+  <si>
+    <t>FIO CABO PATCH</t>
+  </si>
+  <si>
+    <t>OTTO</t>
+  </si>
+  <si>
+    <t>PILHA ALCALINA</t>
   </si>
   <si>
     <t xml:space="preserve">CONJUNTO VEDACAO </t>
   </si>
   <si>
-    <t xml:space="preserve">ANTENA UHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL VIRGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE RORATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO LINHAÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAÇANETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI CONJUNTO</t>
+    <t>ANTENA UHF</t>
+  </si>
+  <si>
+    <t>RUFO</t>
+  </si>
+  <si>
+    <t>CURVA 3/4</t>
+  </si>
+  <si>
+    <t>JOELHO ESGOTO</t>
+  </si>
+  <si>
+    <t>CAL VIRGEM</t>
+  </si>
+  <si>
+    <t>TANQUE RORATO</t>
+  </si>
+  <si>
+    <t>OLEO LINHAÇA</t>
+  </si>
+  <si>
+    <t>MAÇANETA</t>
+  </si>
+  <si>
+    <t>ILUMI CONJUNTO</t>
   </si>
   <si>
     <t xml:space="preserve">FITA CREPE </t>
@@ -220,64 +225,64 @@
     <t xml:space="preserve">DENVERFITA  </t>
   </si>
   <si>
-    <t xml:space="preserve">MANCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA CONTATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA PLASTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRUGADO</t>
+    <t>MANCAL</t>
+  </si>
+  <si>
+    <t>RAQUETE</t>
+  </si>
+  <si>
+    <t>COLA CONTATO</t>
+  </si>
+  <si>
+    <t>EXTENSOR</t>
+  </si>
+  <si>
+    <t>MASSA PLASTICA</t>
+  </si>
+  <si>
+    <t>LUVA CORRUGADO</t>
   </si>
   <si>
     <t xml:space="preserve">IBIRA SUPORTE DRENAGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">ALICATE NIVELADOR PISO/PAREDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORCADO</t>
+    <t>ALICATE NIVELADOR PISO/PAREDE</t>
+  </si>
+  <si>
+    <t>WD-40</t>
+  </si>
+  <si>
+    <t>FORCADO</t>
   </si>
   <si>
     <t xml:space="preserve">LÁPIS </t>
   </si>
   <si>
-    <t xml:space="preserve">SOPRADOR TERMICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO DRYWALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJUNTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO SANITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA SINALIZADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATERIA</t>
+    <t>SOPRADOR TERMICO</t>
+  </si>
+  <si>
+    <t>PARAFUSO DRYWALL</t>
+  </si>
+  <si>
+    <t>REJUNTE</t>
+  </si>
+  <si>
+    <t>ASSENTO SANITARIO</t>
+  </si>
+  <si>
+    <t>COLETE</t>
+  </si>
+  <si>
+    <t>RESISTENCIA</t>
+  </si>
+  <si>
+    <t>PLACA SINALIZADORA</t>
+  </si>
+  <si>
+    <t>ADITIVO</t>
+  </si>
+  <si>
+    <t>BATERIA</t>
   </si>
   <si>
     <t xml:space="preserve">TELHA </t>
@@ -289,88 +294,88 @@
     <t xml:space="preserve">ACESSÓRIOS </t>
   </si>
   <si>
-    <t xml:space="preserve">TEE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESGUICHO REVOLVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SODA CAUSTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA JARDIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULO TRAMONTINA</t>
+    <t>TEE 11/2</t>
+  </si>
+  <si>
+    <t>TE ESGOTO</t>
+  </si>
+  <si>
+    <t>ESGUICHO REVOLVER</t>
+  </si>
+  <si>
+    <t>PIA FIBRA</t>
+  </si>
+  <si>
+    <t>SODA CAUSTICA</t>
+  </si>
+  <si>
+    <t>TORNEIRA JARDIM</t>
+  </si>
+  <si>
+    <t>MODULO TRAMONTINA</t>
   </si>
   <si>
     <t xml:space="preserve">FITA EMBALAGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">FITA AUTO ADESIVA</t>
+    <t>FITA AUTO ADESIVA</t>
   </si>
   <si>
     <t xml:space="preserve">FITA PERFURADA </t>
   </si>
   <si>
-    <t xml:space="preserve">MATA CUPIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEKBOND COLA INSTANTANEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALISADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPEADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANETA</t>
+    <t>MATA CUPIM</t>
+  </si>
+  <si>
+    <t>TEKBOND COLA INSTANTANEA</t>
+  </si>
+  <si>
+    <t>GARFO</t>
+  </si>
+  <si>
+    <t>CATALISADOR</t>
+  </si>
+  <si>
+    <t>PLAFON</t>
+  </si>
+  <si>
+    <t>PRESSURIZADOR</t>
+  </si>
+  <si>
+    <t>CORTADOR PISO</t>
+  </si>
+  <si>
+    <t>GRAXA</t>
+  </si>
+  <si>
+    <t>GRAMPEADOR</t>
+  </si>
+  <si>
+    <t>CANETA</t>
   </si>
   <si>
     <t xml:space="preserve">MAKITA </t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO CHIPBOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DESCARGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASCARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACIT</t>
+    <t>PARAFUSO CHIPBOARD</t>
+  </si>
+  <si>
+    <t>GESSO</t>
+  </si>
+  <si>
+    <t>CAIXA DESCARGA</t>
+  </si>
+  <si>
+    <t>MASCARA</t>
+  </si>
+  <si>
+    <t>CHUVEIRO</t>
+  </si>
+  <si>
+    <t>ELASTICO</t>
+  </si>
+  <si>
+    <t>VEDACIT</t>
   </si>
   <si>
     <r>
@@ -390,224 +395,224 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PANASONIC</t>
+      <t>PANASONIC</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CUMEEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA TRAMONTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA PEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO LATAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO TRAMONTINA</t>
+    <t>CUMEEIRA</t>
+  </si>
+  <si>
+    <t>CONECTOR METAL</t>
+  </si>
+  <si>
+    <t>SUPORTE CALHA</t>
+  </si>
+  <si>
+    <t>TE 11/2</t>
+  </si>
+  <si>
+    <t>CURVA ESGOTO</t>
+  </si>
+  <si>
+    <t>EMENDA TRAMONTINA</t>
+  </si>
+  <si>
+    <t>PIA INOX</t>
+  </si>
+  <si>
+    <t>LIMPA PEDRA</t>
+  </si>
+  <si>
+    <t>CADEADO LATAO</t>
+  </si>
+  <si>
+    <t>ESPELHO TRAMONTINA</t>
   </si>
   <si>
     <t xml:space="preserve">FITA ISOLANTE </t>
   </si>
   <si>
-    <t xml:space="preserve">FITAS ALUMÍNIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA MOVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRINCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THINNER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFLETOR</t>
+    <t>FITAS ALUMÍNIO</t>
+  </si>
+  <si>
+    <t>CANTONEIRA MOVEIS</t>
+  </si>
+  <si>
+    <t>LAVATINA</t>
+  </si>
+  <si>
+    <t>COLA MADEIRA</t>
+  </si>
+  <si>
+    <t>TRINCHA</t>
+  </si>
+  <si>
+    <t>THINNER</t>
+  </si>
+  <si>
+    <t>REFLETOR</t>
   </si>
   <si>
     <t xml:space="preserve">ENGATE </t>
   </si>
   <si>
-    <t xml:space="preserve">MARTELO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRIFICANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE CABRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPO</t>
+    <t>MARTELO BORRACHA</t>
+  </si>
+  <si>
+    <t>LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>PE CABRA</t>
+  </si>
+  <si>
+    <t>GRAMPO</t>
   </si>
   <si>
     <t xml:space="preserve">FURADEIRA </t>
   </si>
   <si>
-    <t xml:space="preserve">CHUMBADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CORRIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUECEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANUNCIADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICO UNIAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBA INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERJA LIMPADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA CADEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO TRAMONTINA</t>
+    <t>CHUMBADOR</t>
+  </si>
+  <si>
+    <t>MASSA CORRIDA</t>
+  </si>
+  <si>
+    <t>BACIA</t>
+  </si>
+  <si>
+    <t>RESPIRADOR</t>
+  </si>
+  <si>
+    <t>AQUECEDOR</t>
+  </si>
+  <si>
+    <t>ANUNCIADOR</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>TABUA</t>
+  </si>
+  <si>
+    <t>EMENDA</t>
+  </si>
+  <si>
+    <t>CALHA</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL</t>
+  </si>
+  <si>
+    <t>LUVA ESGOTO</t>
+  </si>
+  <si>
+    <t>BICO UNIAO</t>
+  </si>
+  <si>
+    <t>CUBA INOX</t>
+  </si>
+  <si>
+    <t>FERJA LIMPADOR</t>
+  </si>
+  <si>
+    <t>PORTA CADEADO</t>
+  </si>
+  <si>
+    <t>CONJUNTO TRAMONTINA</t>
   </si>
   <si>
     <t xml:space="preserve">DUPLA FACE </t>
   </si>
   <si>
-    <t xml:space="preserve">DRYKO FITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA PRATELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICORROSIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA VERTICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA MARMORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA TORNEADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA CHUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA P/ CANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARRAFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE ANTENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA ZINCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTILIT LUVA AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESGUICHO PADRAO</t>
+    <t>DRYKO FITA</t>
+  </si>
+  <si>
+    <t>CANTONEIRA PRATELEIRA</t>
+  </si>
+  <si>
+    <t>RALINHO</t>
+  </si>
+  <si>
+    <t>REFIL COLA</t>
+  </si>
+  <si>
+    <t>SPRAY</t>
+  </si>
+  <si>
+    <t>AGUARAZ</t>
+  </si>
+  <si>
+    <t>LAMPADA</t>
+  </si>
+  <si>
+    <t>SPUD</t>
+  </si>
+  <si>
+    <t>VENTOSA</t>
+  </si>
+  <si>
+    <t>ANTICORROSIVO</t>
+  </si>
+  <si>
+    <t>BOMBA VERTICAL</t>
+  </si>
+  <si>
+    <t>ELETRODO</t>
+  </si>
+  <si>
+    <t>SERRA MARMORE</t>
+  </si>
+  <si>
+    <t>PORCA TORNEADA</t>
+  </si>
+  <si>
+    <t>ARGAMASSA</t>
+  </si>
+  <si>
+    <t>VASO</t>
+  </si>
+  <si>
+    <t>CAPA CHUVA</t>
+  </si>
+  <si>
+    <t>DUCHA</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA P/ CANO</t>
+  </si>
+  <si>
+    <t>SIKA</t>
+  </si>
+  <si>
+    <t>SARRAFO</t>
+  </si>
+  <si>
+    <t>SUPORTE ANTENA</t>
+  </si>
+  <si>
+    <t>CALHA ZINCO</t>
+  </si>
+  <si>
+    <t>MULTILIT LUVA AZUL</t>
+  </si>
+  <si>
+    <t>JUNCAO ESGOTO</t>
+  </si>
+  <si>
+    <t>ESGUICHO PADRAO</t>
   </si>
   <si>
     <t xml:space="preserve">PIA SINTETICA </t>
   </si>
   <si>
-    <t xml:space="preserve">DIABO VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHO CHATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEC PLACA</t>
+    <t>DIABO VERDE</t>
+  </si>
+  <si>
+    <t>FECHO CHATO</t>
+  </si>
+  <si>
+    <t>MEC PLACA</t>
   </si>
   <si>
     <t xml:space="preserve">SILVER TAPE </t>
@@ -616,400 +621,400 @@
     <t xml:space="preserve">TELA P/ TRINCA </t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE PRATELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENTUPIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA JUNTA DIESEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAXI RUBBER PRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTACULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FERRAMENTA</t>
+    <t>SUPORTE PRATELEIRA</t>
+  </si>
+  <si>
+    <t>DESENTUPIDOR</t>
+  </si>
+  <si>
+    <t>COLA JUNTA DIESEL</t>
+  </si>
+  <si>
+    <t>BROXA</t>
+  </si>
+  <si>
+    <t>MAXI RUBBER PRIMER</t>
+  </si>
+  <si>
+    <t>RECEPTACULO</t>
+  </si>
+  <si>
+    <t>TUBO DE LIGAÇÃO</t>
+  </si>
+  <si>
+    <t>PALHA AÇO</t>
+  </si>
+  <si>
+    <t>VASELINA</t>
+  </si>
+  <si>
+    <t>CAIXA FERRAMENTA</t>
   </si>
   <si>
     <t xml:space="preserve">PNEU </t>
   </si>
   <si>
-    <t xml:space="preserve">MARTELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUELA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÓCULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTALETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVISOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA FORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO ESFERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDUCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESINFETANTE CREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHADURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO RADIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA TELADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RATOEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERFONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTADOR DE VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMASSA USO GERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA DE APOIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA MAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKOPRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE EXTERNO ZINCO PLATIBANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA RETENCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA ARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA ACO INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONVERTEDOR DE FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO PADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO RADIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ZEBRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA VEDATUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPÓXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPACADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO MAQUINA</t>
+    <t>MARTELETE</t>
+  </si>
+  <si>
+    <t>ARUELA ZINC</t>
+  </si>
+  <si>
+    <t>PORCELANA PISO</t>
+  </si>
+  <si>
+    <t>LAVATORIO</t>
+  </si>
+  <si>
+    <t>ÓCULOS</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA NYLON</t>
+  </si>
+  <si>
+    <t>VIAPOL</t>
+  </si>
+  <si>
+    <t>PONTALETE</t>
+  </si>
+  <si>
+    <t>DIVISOR</t>
+  </si>
+  <si>
+    <t>CALHA FORTE</t>
+  </si>
+  <si>
+    <t>REGISTRO ESFERA</t>
+  </si>
+  <si>
+    <t>REDUCAO ESGOTO</t>
+  </si>
+  <si>
+    <t>TANQUE PLASTICO</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CREO</t>
+  </si>
+  <si>
+    <t>FECHADURA</t>
+  </si>
+  <si>
+    <t>CONJUNTO RADIAL</t>
+  </si>
+  <si>
+    <t>FITA ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t>FITA TELADA</t>
+  </si>
+  <si>
+    <t>CANTONEIRA ALUMINIO</t>
+  </si>
+  <si>
+    <t>RATOEIRA</t>
+  </si>
+  <si>
+    <t>REMOVEDOR FERRUGEM</t>
+  </si>
+  <si>
+    <t>MANTA FIBRA</t>
+  </si>
+  <si>
+    <t>INTERFONE</t>
+  </si>
+  <si>
+    <t>SIFAO</t>
+  </si>
+  <si>
+    <t>JOELHEIRA</t>
+  </si>
+  <si>
+    <t>JUNTALIDER GRAFITE</t>
+  </si>
+  <si>
+    <t>CORTADOR DE VIDRO</t>
+  </si>
+  <si>
+    <t>CAMARA</t>
+  </si>
+  <si>
+    <t>PISTOLA COLA</t>
+  </si>
+  <si>
+    <t>REBITE</t>
+  </si>
+  <si>
+    <t>MULTIMASSA USO GERAL</t>
+  </si>
+  <si>
+    <t>BARRA DE APOIO</t>
+  </si>
+  <si>
+    <t>LUVA MAO</t>
+  </si>
+  <si>
+    <t>ANTIRRESPINGO SOLDA</t>
+  </si>
+  <si>
+    <t>DRYKOPRIMER</t>
+  </si>
+  <si>
+    <t>RECEPTOR</t>
+  </si>
+  <si>
+    <t>SUPORTE EXTERNO ZINCO PLATIBANDA</t>
+  </si>
+  <si>
+    <t>KRONA PLUG</t>
+  </si>
+  <si>
+    <t>VALVULA RETENCAO</t>
+  </si>
+  <si>
+    <t>PENEIRA ARO</t>
+  </si>
+  <si>
+    <t>PIA ACO INOX</t>
+  </si>
+  <si>
+    <t>CONVERTEDOR DE FERRUGEM</t>
+  </si>
+  <si>
+    <t>CADEADO PADO</t>
+  </si>
+  <si>
+    <t>ESPELHO RADIAL</t>
+  </si>
+  <si>
+    <t>FITA ZEBRADA</t>
+  </si>
+  <si>
+    <t>FITA VEDATUDO</t>
+  </si>
+  <si>
+    <t>SUPORTE BRASFORT</t>
+  </si>
+  <si>
+    <t>AGULHA P/ FOGÃO</t>
+  </si>
+  <si>
+    <t>EPÓXI</t>
+  </si>
+  <si>
+    <t>TINTA</t>
+  </si>
+  <si>
+    <t>ADESIVO LAMINAÇÃO</t>
+  </si>
+  <si>
+    <t>SOQUETE</t>
+  </si>
+  <si>
+    <t>VALVULA LAVATORIO</t>
+  </si>
+  <si>
+    <t>ESPACADOR</t>
+  </si>
+  <si>
+    <t>OLEO MAQUINA</t>
   </si>
   <si>
     <t xml:space="preserve">ESPATULA </t>
   </si>
   <si>
-    <t xml:space="preserve">CINTO FERRAMENTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRO SOLDA</t>
+    <t>CINTO FERRAMENTAS</t>
+  </si>
+  <si>
+    <t>FERRO SOLDA</t>
   </si>
   <si>
     <t xml:space="preserve">PITÃO </t>
   </si>
   <si>
-    <t xml:space="preserve">VARANDAS E QUINTAIS SC 20KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAFADOR DE RUIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA VIDRACEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA LIQUIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.FORTE SUPORTE EXTERNO ZINCO 28 MOLDURA TORCIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR CURTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE SINTETICO RORATO</t>
+    <t>VARANDAS E QUINTAIS SC 20KG</t>
+  </si>
+  <si>
+    <t>ARMARIO</t>
+  </si>
+  <si>
+    <t>ABAFADOR DE RUIDOS</t>
+  </si>
+  <si>
+    <t>MASSA VIDRACEIRO</t>
+  </si>
+  <si>
+    <t>MANTA LIQUIDA</t>
+  </si>
+  <si>
+    <t>ANTENA EXT</t>
+  </si>
+  <si>
+    <t>C.FORTE SUPORTE EXTERNO ZINCO 28 MOLDURA TORCIDO</t>
+  </si>
+  <si>
+    <t>ADAPTADOR CURTO</t>
+  </si>
+  <si>
+    <t>CAPS ESGOTO</t>
+  </si>
+  <si>
+    <t>PENEIRA PLASTICO</t>
+  </si>
+  <si>
+    <t>TANQUE SINTETICO RORATO</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVEDOR DE FERRUGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">CADEADO PAPAIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTAO DOMESTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARALDITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SABESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVELADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA CONTATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULAS METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCAPULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA PRONTA ASSENT REVEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUCADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR AUDITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CALAFETAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA INTERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
+    <t>CADEADO PAPAIZ</t>
+  </si>
+  <si>
+    <t>ILUMI PLACA</t>
+  </si>
+  <si>
+    <t>FITA MARROM</t>
+  </si>
+  <si>
+    <t>FITA MULTIUSO</t>
+  </si>
+  <si>
+    <t>DOBRADICA</t>
+  </si>
+  <si>
+    <t>PORTAO DOMESTICO</t>
+  </si>
+  <si>
+    <t>ARALDITE</t>
+  </si>
+  <si>
+    <t>LIXA MASSA</t>
+  </si>
+  <si>
+    <t>BOINA</t>
+  </si>
+  <si>
+    <t>BARRAMENTO</t>
+  </si>
+  <si>
+    <t>CAIXA SABESP</t>
+  </si>
+  <si>
+    <t>NIVELADOR PISO</t>
+  </si>
+  <si>
+    <t>LIMPA CONTATO</t>
+  </si>
+  <si>
+    <t>ESPATULAS METAL</t>
+  </si>
+  <si>
+    <t>CABO MULTIMETRO</t>
+  </si>
+  <si>
+    <t>ASPIRADOR</t>
+  </si>
+  <si>
+    <t>ESCAPULA</t>
+  </si>
+  <si>
+    <t>MASSA PRONTA ASSENT REVEST</t>
+  </si>
+  <si>
+    <t>TOUCADOR</t>
+  </si>
+  <si>
+    <t>PROTETOR AUDITIVO</t>
+  </si>
+  <si>
+    <t>MASSA CALAFETAR</t>
+  </si>
+  <si>
+    <t>TECPLUS</t>
+  </si>
+  <si>
+    <t>ANTENA INTERNA</t>
+  </si>
+  <si>
+    <t>CAP 3/4</t>
+  </si>
+  <si>
+    <t>CURVA CURTA ESGOTO</t>
   </si>
   <si>
     <t xml:space="preserve">PULVERIZADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">TANQUE SINTETICO GRAN N2 110X55 PRETO AJ RORATO</t>
+    <t>TANQUE SINTETICO GRAN N2 110X55 PRETO AJ RORATO</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVEDOR COLA </t>
   </si>
   <si>
-    <t xml:space="preserve">CORRENTE SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI ESPELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORENZETTI FITA ISOLANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ALTA FUSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBRA ABRASIVA LIMPEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA AZULEJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALVITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA DE ACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGER OLEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA E PISO PISO EXTERNO CINZA 20KG PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENGRAXANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIABIT</t>
+    <t>CORRENTE SOLDAVEL</t>
+  </si>
+  <si>
+    <t>ILUMI ESPELHO</t>
+  </si>
+  <si>
+    <t>LORENZETTI FITA ISOLANTE</t>
+  </si>
+  <si>
+    <t>FITA ALTA FUSAO</t>
+  </si>
+  <si>
+    <t>PREGO</t>
+  </si>
+  <si>
+    <t>FIBRA ABRASIVA LIMPEZA</t>
+  </si>
+  <si>
+    <t>COLA AZULEJO</t>
+  </si>
+  <si>
+    <t>BANDEIA</t>
+  </si>
+  <si>
+    <t>GALVITE</t>
+  </si>
+  <si>
+    <t>SISTEMA CANALETA</t>
+  </si>
+  <si>
+    <t>TUBO</t>
+  </si>
+  <si>
+    <t>PALHA DE ACO</t>
+  </si>
+  <si>
+    <t>SINGER OLEO</t>
+  </si>
+  <si>
+    <t>TRENA</t>
+  </si>
+  <si>
+    <t>LAPIS</t>
+  </si>
+  <si>
+    <t>MULTIMETRO</t>
+  </si>
+  <si>
+    <t>GANCHO</t>
+  </si>
+  <si>
+    <t>PORCELANA E PISO PISO EXTERNO CINZA 20KG PLACA</t>
+  </si>
+  <si>
+    <t>KIT FIXACAO</t>
+  </si>
+  <si>
+    <t>CINTO DELTA</t>
+  </si>
+  <si>
+    <t>DESENGRAXANTE</t>
+  </si>
+  <si>
+    <t>VIABIT</t>
   </si>
   <si>
     <r>
@@ -1029,326 +1034,326 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">COAXIAL</t>
+      <t>COAXIAL</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LUVA 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA PULVERIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TARGETA RCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULO MECTRONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAP 50MMX05M TEKBOND PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA ASFALTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAME</t>
+    <t>LUVA 3/4</t>
+  </si>
+  <si>
+    <t>COTOVELO ESGOTO</t>
+  </si>
+  <si>
+    <t>EDA PULVERIZADOR</t>
+  </si>
+  <si>
+    <t>TARGETA RCA</t>
+  </si>
+  <si>
+    <t>MODULO MECTRONIC</t>
+  </si>
+  <si>
+    <t>FITA ANTIDERRAP 50MMX05M TEKBOND PRETO</t>
+  </si>
+  <si>
+    <t>MANTA ASFALTICA</t>
+  </si>
+  <si>
+    <t>ARAME</t>
   </si>
   <si>
     <t xml:space="preserve">AREJADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">VEDACALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXINHA LUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUNHA NIVELADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO LUBRIFICANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINHA PEDREIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL MACARICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ABROCANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA E PISO PISO INTERNO CINZA 20KG PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODIZIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTTO PRIMER MANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS DE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENROLADOR MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA PORTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO MECTRONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDATUDO FITA ADESIVA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMA PINCEL ARTESANATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRA CABO BATERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAXA SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESEMPENADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS MACARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RABO QUENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO MAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA E PISO PISO EXTERNO BRANCO 20KG PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA ACOPLADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMER MANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA MOSQUITEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA PORTAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO PIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASILIT FITA ADESIVA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA CORREIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA VINIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAÇAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO CHUPETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADA EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA BOIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS BUTANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTE VOLTAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO SEXTAVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO SANITÁRIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAPIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE LLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO VISITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYLON CORTAR GRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHO CADEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA MODULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACHINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRA AFIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA FIXA TUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERNIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO DE LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO DESENGRIPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO CAVADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA BORBOLETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTOR FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO REDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEUTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA TRANÇADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO STAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRATRINCA FITA P/ TRINCA 005X03M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA FIXA ESPELHO/CUBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRACADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL</t>
+    <t>VEDACALHA</t>
+  </si>
+  <si>
+    <t>CORANTE</t>
+  </si>
+  <si>
+    <t>ESTOPA</t>
+  </si>
+  <si>
+    <t>CAIXINHA LUZ</t>
+  </si>
+  <si>
+    <t>CAIXA D'AGUA</t>
+  </si>
+  <si>
+    <t>CUNHA NIVELADORA</t>
+  </si>
+  <si>
+    <t>OLEO LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>LINHA PEDREIRO</t>
+  </si>
+  <si>
+    <t>REFIL MACARICOS</t>
+  </si>
+  <si>
+    <t>AMPERIMETRO DIGITAL</t>
+  </si>
+  <si>
+    <t>PARAFUSO ABROCANTE</t>
+  </si>
+  <si>
+    <t>PORCELANA E PISO PISO INTERNO CINZA 20KG PLACA</t>
+  </si>
+  <si>
+    <t>PARAFUSO FIXACAO</t>
+  </si>
+  <si>
+    <t>BOTA</t>
+  </si>
+  <si>
+    <t>RODIZIO</t>
+  </si>
+  <si>
+    <t>OTTO PRIMER MANTA</t>
+  </si>
+  <si>
+    <t>KRONA LUVA LL</t>
+  </si>
+  <si>
+    <t>CAPS DE ESGOTO</t>
+  </si>
+  <si>
+    <t>ENROLADOR MANGUEIRA</t>
+  </si>
+  <si>
+    <t>TRAVA PORTA</t>
+  </si>
+  <si>
+    <t>CONJUNTO MECTRONIC</t>
+  </si>
+  <si>
+    <t>VEDATUDO FITA ADESIVA ALUMINIO</t>
+  </si>
+  <si>
+    <t>ANCORA PINO LISO AÇÃO INDIRETA</t>
+  </si>
+  <si>
+    <t>CESTINHA</t>
+  </si>
+  <si>
+    <t>PU40</t>
+  </si>
+  <si>
+    <t>ROMA PINCEL ARTESANATO</t>
+  </si>
+  <si>
+    <t>GARRA CABO BATERIA</t>
+  </si>
+  <si>
+    <t>PLUG</t>
+  </si>
+  <si>
+    <t>PRESSURIZADOR CAIXA</t>
+  </si>
+  <si>
+    <t>GRAXA SPRAY</t>
+  </si>
+  <si>
+    <t>DESEMPENADEIRA</t>
+  </si>
+  <si>
+    <t>GAS MACARICO</t>
+  </si>
+  <si>
+    <t>RABO QUENTE</t>
+  </si>
+  <si>
+    <t>PARAFUSO MAQ</t>
+  </si>
+  <si>
+    <t>PORCELANA E PISO PISO EXTERNO BRANCO 20KG PLACA</t>
+  </si>
+  <si>
+    <t>CAIXA ACOPLADA</t>
+  </si>
+  <si>
+    <t>SAPATO</t>
+  </si>
+  <si>
+    <t>CAPACITOR</t>
+  </si>
+  <si>
+    <t>PRIMER MANTA</t>
+  </si>
+  <si>
+    <t>LUVA 11/2</t>
+  </si>
+  <si>
+    <t>TEE ESGOTO</t>
+  </si>
+  <si>
+    <t>TELA MOSQUITEIRO</t>
+  </si>
+  <si>
+    <t>TRAVA PORTAO</t>
+  </si>
+  <si>
+    <t>CONJUNTO PIAL</t>
+  </si>
+  <si>
+    <t>BRASILIT FITA ADESIVA ALUMINIO</t>
+  </si>
+  <si>
+    <t>FIXA FIO</t>
+  </si>
+  <si>
+    <t>CAIXA CORREIO</t>
+  </si>
+  <si>
+    <t>COLA VINIL</t>
+  </si>
+  <si>
+    <t>CAÇAMBA</t>
+  </si>
+  <si>
+    <t>CABO CHUPETA</t>
+  </si>
+  <si>
+    <t>TOMADA EM BARRA</t>
+  </si>
+  <si>
+    <t>TORNEIRA BOIA</t>
+  </si>
+  <si>
+    <t>OLEO MULTIUSO</t>
+  </si>
+  <si>
+    <t>ALICATE</t>
+  </si>
+  <si>
+    <t>GAS BUTANO</t>
+  </si>
+  <si>
+    <t>TESTE VOLTAGEM</t>
+  </si>
+  <si>
+    <t>PARAFUSO SEXTAVADO</t>
+  </si>
+  <si>
+    <t>PARAFUSO SANITÁRIO</t>
+  </si>
+  <si>
+    <t>CAPAS</t>
+  </si>
+  <si>
+    <t>CORDA</t>
+  </si>
+  <si>
+    <t>CHAPIX</t>
+  </si>
+  <si>
+    <t>TE LLL</t>
+  </si>
+  <si>
+    <t>COTOVELO VISITA</t>
+  </si>
+  <si>
+    <t>NYLON CORTAR GRAMA</t>
+  </si>
+  <si>
+    <t>FECHO CADEADO</t>
+  </si>
+  <si>
+    <t>TRAMONTINA MODULO</t>
+  </si>
+  <si>
+    <t>ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
+  </si>
+  <si>
+    <t>TACHINHA</t>
+  </si>
+  <si>
+    <t>PEDRA AFIAR</t>
+  </si>
+  <si>
+    <t>COLA FIXA TUDO</t>
+  </si>
+  <si>
+    <t>VERNIZ</t>
+  </si>
+  <si>
+    <t>MANTA VIDRO</t>
+  </si>
+  <si>
+    <t>FILTRO DE LINHA</t>
+  </si>
+  <si>
+    <t>ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
+  </si>
+  <si>
+    <t>OLEO DESENGRIPANTE</t>
+  </si>
+  <si>
+    <t>SERRORTE</t>
+  </si>
+  <si>
+    <t>EXTENSÃO CAVADEIRA</t>
+  </si>
+  <si>
+    <t>BOMBA D'AGUA</t>
+  </si>
+  <si>
+    <t>PORCA BORBOLETA</t>
+  </si>
+  <si>
+    <t>CONJUNTOR FIXACAO</t>
+  </si>
+  <si>
+    <t>BOTINA</t>
+  </si>
+  <si>
+    <t>CABO REDE</t>
+  </si>
+  <si>
+    <t>NEUTROL</t>
+  </si>
+  <si>
+    <t>TE AZUL</t>
+  </si>
+  <si>
+    <t>LUVA CORRER ESGOTO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA TRANÇADA</t>
+  </si>
+  <si>
+    <t>CADEADO STAM</t>
+  </si>
+  <si>
+    <t>TRAMONTINA PLACA</t>
+  </si>
+  <si>
+    <t>TIRATRINCA FITA P/ TRINCA 005X03M</t>
+  </si>
+  <si>
+    <t>ESTICADOR</t>
+  </si>
+  <si>
+    <t>COLA FIXA ESPELHO/CUBA</t>
+  </si>
+  <si>
+    <t>SELADOR</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA NYLON</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
   </si>
   <si>
     <t xml:space="preserve">DUCHA HIGENICA  </t>
   </si>
   <si>
-    <t xml:space="preserve">LIMPA CONTATO SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERROTE IRWIN GESSO</t>
+    <t>LIMPA CONTATO SPRAY</t>
+  </si>
+  <si>
+    <t>SERROTE IRWIN GESSO</t>
   </si>
   <si>
     <r>
@@ -1368,278 +1373,278 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GARAPEIRA</t>
+      <t>GARAPEIRA</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO CHIPBORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO OVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA LUVA RETENCAO ESGOTO 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA CONJUNTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO REDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASSOURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA EXPANSIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA POLIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR BORNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTROS E ACABAMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE GRIFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANÇA CHAMAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMERILHADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW FIX PARAFUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO ALMOFADADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEIA UMBRO</t>
+    <t>ESMERILHADEIRA ANGULAR</t>
+  </si>
+  <si>
+    <t>PARAFUSO CHIPBORD</t>
+  </si>
+  <si>
+    <t>ASSENTO OVAL</t>
+  </si>
+  <si>
+    <t>AVENTAL</t>
+  </si>
+  <si>
+    <t>BLOCO VIDRO</t>
+  </si>
+  <si>
+    <t>LUVA AZUL</t>
+  </si>
+  <si>
+    <t>ESTRELA LUVA RETENCAO ESGOTO 100</t>
+  </si>
+  <si>
+    <t>REGADOR</t>
+  </si>
+  <si>
+    <t>CADEADO SILVANA</t>
+  </si>
+  <si>
+    <t>TRAMONTINA CONJUNTO</t>
+  </si>
+  <si>
+    <t>GANCHO REDE</t>
+  </si>
+  <si>
+    <t>VASSOURA</t>
+  </si>
+  <si>
+    <t>ESPUMA EXPANSIVA</t>
+  </si>
+  <si>
+    <t>FUNDO</t>
+  </si>
+  <si>
+    <t>MASSA POLIR</t>
+  </si>
+  <si>
+    <t>CONECTOR BORNE</t>
+  </si>
+  <si>
+    <t>REGISTROS E ACABAMENTOS</t>
+  </si>
+  <si>
+    <t>CHAVE GRIFO</t>
+  </si>
+  <si>
+    <t>LANÇA CHAMAS</t>
+  </si>
+  <si>
+    <t>ESMERILHADEIRA</t>
+  </si>
+  <si>
+    <t>NEW FIX PARAFUSO</t>
+  </si>
+  <si>
+    <t>ASSENTO ALMOFADADO</t>
+  </si>
+  <si>
+    <t>MEIA UMBRO</t>
   </si>
   <si>
     <t xml:space="preserve">PAPEL SULFITE </t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR FLANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA VIVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA LARETAL PORTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO ARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELATRINCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT PINTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERROX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDUITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDA ROSCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL P/ MACARICOS E FOGAREIROS ETANIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FURADEIRA/PARAFUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA SEXTAVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL TOALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA LONGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA CRISTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO GOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEC CONJUNTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILICONE ACETICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEROSENE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO SOM/LUSTRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOQUEADOR DE AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSAO CAVADEIRA TRADO</t>
+    <t>ADAPTADOR FLANGE</t>
+  </si>
+  <si>
+    <t>TELA VIVEIRO</t>
+  </si>
+  <si>
+    <t>TRAVA LARETAL PORTA</t>
+  </si>
+  <si>
+    <t>CONJUNTO ARIA</t>
+  </si>
+  <si>
+    <t>GONZO</t>
+  </si>
+  <si>
+    <t>RODO</t>
+  </si>
+  <si>
+    <t>SELATRINCA</t>
+  </si>
+  <si>
+    <t>KIT PINTURA</t>
+  </si>
+  <si>
+    <t>FERROX</t>
+  </si>
+  <si>
+    <t>CONDUITE</t>
+  </si>
+  <si>
+    <t>VEDA ROSCA</t>
+  </si>
+  <si>
+    <t>COLHER</t>
+  </si>
+  <si>
+    <t>REFIL P/ MACARICOS E FOGAREIROS ETANIZ</t>
+  </si>
+  <si>
+    <t>FURADEIRA/PARAFUSO</t>
+  </si>
+  <si>
+    <t>PORCA SEXTAVADO</t>
+  </si>
+  <si>
+    <t>PAPELEIRA</t>
+  </si>
+  <si>
+    <t>MANGOTE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>CURVA LONGA</t>
+  </si>
+  <si>
+    <t>MANGUEIRA CRISTAL</t>
+  </si>
+  <si>
+    <t>CADEADO GOLD</t>
+  </si>
+  <si>
+    <t>MEC CONJUNTO</t>
+  </si>
+  <si>
+    <t>LIMPA VIDRO</t>
+  </si>
+  <si>
+    <t>SILICONE ACETICO</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>QUEROSENE</t>
+  </si>
+  <si>
+    <t>FIO SOM/LUSTRE</t>
+  </si>
+  <si>
+    <t>BLOQUEADOR DE AR</t>
+  </si>
+  <si>
+    <t>MARTELO</t>
+  </si>
+  <si>
+    <t>EXTENSAO CAVADEIRA TRADO</t>
   </si>
   <si>
     <t xml:space="preserve">PISTOLA SILICONE </t>
   </si>
   <si>
-    <t xml:space="preserve">ARRUELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIRINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO SEGURANÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO AREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESTWAY REPARO INFLAVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASFORT CADEADO BIKE CHAVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO MECTRONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA</t>
+    <t>ARRUELA</t>
+  </si>
+  <si>
+    <t>CHUVEIRINHO</t>
+  </si>
+  <si>
+    <t>CINTO SEGURANÇA</t>
+  </si>
+  <si>
+    <t>SACO AREIA</t>
+  </si>
+  <si>
+    <t>JOELHO AZUL</t>
+  </si>
+  <si>
+    <t>BESTWAY REPARO INFLAVEIS</t>
+  </si>
+  <si>
+    <t>BRASFORT CADEADO BIKE CHAVE</t>
+  </si>
+  <si>
+    <t>ESPELHO MECTRONIC</t>
+  </si>
+  <si>
+    <t>CANTONEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">LAMPADA FOGÃO	</t>
   </si>
   <si>
-    <t xml:space="preserve">COLA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAXI RUBBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO FLEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARRETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL PISTOLA GRANDE SILICONE 1K EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA P/ SILICONE BIVOLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ROSCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA TRICOTADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITILHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA TELAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO SEGREDO STAM 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL SIMPLES CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÉ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEK BOND SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZARCÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIR DE PO WAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO CABO AUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARCO SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL PISTOLA PEQUENA SILICONE 1K EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA CIRCULAR SKILL</t>
+    <t>COLA BRANCO</t>
+  </si>
+  <si>
+    <t>LONA</t>
+  </si>
+  <si>
+    <t>MAXI RUBBER</t>
+  </si>
+  <si>
+    <t>CABO FLEX</t>
+  </si>
+  <si>
+    <t>RALO</t>
+  </si>
+  <si>
+    <t>MARRETA</t>
+  </si>
+  <si>
+    <t>REFIL PISTOLA GRANDE SILICONE 1K EM BARRA</t>
+  </si>
+  <si>
+    <t>PISTOLA P/ SILICONE BIVOLT</t>
+  </si>
+  <si>
+    <t>PARAFUSO ROSCA</t>
+  </si>
+  <si>
+    <t>TAMPA BORRACHA</t>
+  </si>
+  <si>
+    <t>LUVA TRICOTADA</t>
+  </si>
+  <si>
+    <t>FITILHO</t>
+  </si>
+  <si>
+    <t>LUVA LR</t>
+  </si>
+  <si>
+    <t>PENEIRA TELAS</t>
+  </si>
+  <si>
+    <t>CADEADO SEGREDO STAM 25</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA</t>
+  </si>
+  <si>
+    <t>PÉ FOGÃO</t>
+  </si>
+  <si>
+    <t>TEK BOND SILICONE</t>
+  </si>
+  <si>
+    <t>ZARCÃO</t>
+  </si>
+  <si>
+    <t>ASPIR DE PO WAP</t>
+  </si>
+  <si>
+    <t>FIO CABO AUTO</t>
+  </si>
+  <si>
+    <t>ARCO SERRA</t>
+  </si>
+  <si>
+    <t>REFIL PISTOLA PEQUENA SILICONE 1K EM BARRA</t>
+  </si>
+  <si>
+    <t>SERRA CIRCULAR SKILL</t>
   </si>
   <si>
     <r>
@@ -1659,110 +1664,110 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PHILIPS</t>
+      <t>PHILIPS</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TAMPA TANQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO SEGREDO STAM 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL 2 TOMADAS  CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA ROSCADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA PU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDE</t>
+    <t>TAMPA TANQUE</t>
+  </si>
+  <si>
+    <t>LUVA DELTA</t>
+  </si>
+  <si>
+    <t>VENTILADOR</t>
+  </si>
+  <si>
+    <t>JOELHO LR</t>
+  </si>
+  <si>
+    <t>TELA NYLON</t>
+  </si>
+  <si>
+    <t>CADEADO SEGREDO STAM 40</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL 2 TOMADAS  CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>BARRA ROSCADA</t>
+  </si>
+  <si>
+    <t>COLA PU</t>
+  </si>
+  <si>
+    <t>BALDE</t>
   </si>
   <si>
     <t xml:space="preserve">MASSA PLASTICO </t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR WAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENXADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO FURADEIRA</t>
+    <t>CONECTOR WAGO</t>
+  </si>
+  <si>
+    <t>VEDANTE</t>
+  </si>
+  <si>
+    <t>ENXADA</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO FURADEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">ICDER REBOLO </t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO FRANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT BANHEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA SANRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKILON LINHA NYLON P/ PESCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA TE LLL 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO CEGO ILUMI SLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGULADOR GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUREPOXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA SECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HASTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLAS CANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA</t>
+    <t>PARAFUSO FRANCES</t>
+  </si>
+  <si>
+    <t>KIT BANHEIRO</t>
+  </si>
+  <si>
+    <t>LUVA SANRO</t>
+  </si>
+  <si>
+    <t>EKILON LINHA NYLON P/ PESCA</t>
+  </si>
+  <si>
+    <t>KRONA TE LLL 11/2</t>
+  </si>
+  <si>
+    <t>UNIAO TORNEIRA</t>
+  </si>
+  <si>
+    <t>ESPELHO CEGO ILUMI SLIM</t>
+  </si>
+  <si>
+    <t>BARRA ZINC</t>
+  </si>
+  <si>
+    <t>REGULADOR GAS</t>
+  </si>
+  <si>
+    <t>DUREPOXI</t>
+  </si>
+  <si>
+    <t>LIXA SECO</t>
+  </si>
+  <si>
+    <t>EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
+  </si>
+  <si>
+    <t>HASTE</t>
+  </si>
+  <si>
+    <t>COLAS CANO</t>
+  </si>
+  <si>
+    <t>RAMADA</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE MAKITA</t>
   </si>
   <si>
     <t xml:space="preserve">NYLON ROCADEIRA	</t>
   </si>
   <si>
-    <t xml:space="preserve">LUZARTE COLUNA</t>
+    <t>LUZARTE COLUNA</t>
   </si>
   <si>
     <r>
@@ -1782,494 +1787,494 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">KALIPSO</t>
+      <t>KALIPSO</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ALCOOL GEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE RRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA GALVANIZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA ABRACADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMERO COLONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO BICOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSA FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SIFONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT COMPRESSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO METASUL ALMOFADADO OVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA IMBAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA SANFONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR INTERNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULO MECTRONIC TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA RSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT GÁS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPER BONDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA TATU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITAQUA DILUENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM PRESS BOW</t>
+    <t>ALCOOL GEL</t>
+  </si>
+  <si>
+    <t>TE RRR</t>
+  </si>
+  <si>
+    <t>TELA GALVANIZADO</t>
+  </si>
+  <si>
+    <t>TRAMONTINA TOMADA</t>
+  </si>
+  <si>
+    <t>INCA ABRACADEIRA</t>
+  </si>
+  <si>
+    <t>NUMERO COLONIAL</t>
+  </si>
+  <si>
+    <t>COLA HENKEL</t>
+  </si>
+  <si>
+    <t>LIXA FERRO</t>
+  </si>
+  <si>
+    <t>FIO BICOLOR</t>
+  </si>
+  <si>
+    <t>PASSA FIO</t>
+  </si>
+  <si>
+    <t>CAIXA SIFONADA</t>
+  </si>
+  <si>
+    <t>PÁ</t>
+  </si>
+  <si>
+    <t>PARAFUSO ALLEN/SEXTAVADO MAKITA</t>
+  </si>
+  <si>
+    <t>KIT COMPRESSOR</t>
+  </si>
+  <si>
+    <t>ASSENTO METASUL ALMOFADADO OVAL</t>
+  </si>
+  <si>
+    <t>LUVA IMBAT</t>
+  </si>
+  <si>
+    <t>PORTA SANFONADA</t>
+  </si>
+  <si>
+    <t>KRONA CAP</t>
+  </si>
+  <si>
+    <t>ADAPTADOR INTERNO</t>
+  </si>
+  <si>
+    <t>MODULO MECTRONIC TOMADA</t>
+  </si>
+  <si>
+    <t>INCA RSF</t>
+  </si>
+  <si>
+    <t>KIT GÁS</t>
+  </si>
+  <si>
+    <t>SUPER BONDER</t>
+  </si>
+  <si>
+    <t>LIXA TATU</t>
+  </si>
+  <si>
+    <t>ITAQUA DILUENTE</t>
+  </si>
+  <si>
+    <t>ARM PRESS BOW</t>
   </si>
   <si>
     <t xml:space="preserve">SIFÃO 	</t>
   </si>
   <si>
-    <t xml:space="preserve">PICARETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA MAKITA WIDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO BITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO TIGRE OVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA RASPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLASTICO BOLHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTILIT ADAPTADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASFORT FIO NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRACADEIRA RSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA SELANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMALTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC GARRA P/ CABO BATERIA 100A GRANDE PRETO/VERMELHO</t>
+    <t>PICARETA</t>
+  </si>
+  <si>
+    <t>BROCA MAKITA WIDEA</t>
+  </si>
+  <si>
+    <t>JOGO BITS</t>
+  </si>
+  <si>
+    <t>ASSENTO TIGRE OVAL</t>
+  </si>
+  <si>
+    <t>LUVA RASPA</t>
+  </si>
+  <si>
+    <t>PLASTICO BOLHA</t>
+  </si>
+  <si>
+    <t>MULTILIT ADAPTADOR</t>
+  </si>
+  <si>
+    <t>BRASFORT FIO NYLON</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA RSF</t>
+  </si>
+  <si>
+    <t>FOGÃO</t>
+  </si>
+  <si>
+    <t>COLA SELANTE</t>
+  </si>
+  <si>
+    <t>ESMALTE</t>
+  </si>
+  <si>
+    <t>FC GARRA P/ CABO BATERIA 100A GRANDE PRETO/VERMELHO</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA DE PASSAGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">OBTURADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT MAKITA JOGO PONTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO</t>
+    <t>OBTURADOR</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>KIT MAKITA JOGO PONTAS</t>
+  </si>
+  <si>
+    <t>DISCO</t>
   </si>
   <si>
     <t xml:space="preserve">ALPHA DUCHA HIGIENICA REGISTRO METAL </t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA EMBORRACHADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLASTCOR TELA PLASTICA TAPUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA INTERNA 1P S/PLACA 10A/250V BRANCO 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPER COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUA RAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED GARRA P/ CABO BATERIA 10A MEDIO VERMELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISJUNTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAPA FURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAVANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS DE CARVAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO ATLAS ALMOFADADO BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CONSTRUÇÃO DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO ENTULHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO INTERNA REBOUCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL 1INT SIMPLES CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUELAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTAO FRANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED GARRA P/ CABO BATERIA 10A MEDIO PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SABESP/TAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIBANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO FURADEIRA MAKITA 8419/6016 C133G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA HIGIENICA FERTAK BRANCO 7041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA  COMFORT KALIPSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXADOR PORTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA ARO MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL 2 INTERRUPTORES SIMPLES CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA ROSCA GALVANIZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR DE TV DIGITAL AQUARIO</t>
+    <t>LUVA EMBORRACHADA</t>
+  </si>
+  <si>
+    <t>PORTA MADEIRA</t>
+  </si>
+  <si>
+    <t>CAPS PLASTILIT</t>
+  </si>
+  <si>
+    <t>PLASTCOR TELA PLASTICA TAPUME</t>
+  </si>
+  <si>
+    <t>TRAMONTINA INTERNA 1P S/PLACA 10A/250V BRANCO 50</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA SILVANA</t>
+  </si>
+  <si>
+    <t>KIT PE</t>
+  </si>
+  <si>
+    <t>SUPER COLA</t>
+  </si>
+  <si>
+    <t>AGUA RAZ</t>
+  </si>
+  <si>
+    <t>INTERNEED GARRA P/ CABO BATERIA 10A MEDIO VERMELHO</t>
+  </si>
+  <si>
+    <t>DISJUNTOR</t>
+  </si>
+  <si>
+    <t>TAPA FURO</t>
+  </si>
+  <si>
+    <t>ALAVANCA</t>
+  </si>
+  <si>
+    <t>JOGO DE ESCOVAS DE CARVAO</t>
+  </si>
+  <si>
+    <t>BROCA</t>
+  </si>
+  <si>
+    <t>ASSENTO ATLAS ALMOFADADO BRANCO</t>
+  </si>
+  <si>
+    <t>LUVA CONSTRUÇÃO DELTA</t>
+  </si>
+  <si>
+    <t>SACO ENTULHO</t>
+  </si>
+  <si>
+    <t>JOELHO SOLDAVEL</t>
+  </si>
+  <si>
+    <t>UNIAO INTERNA REBOUCAS</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL 1INT SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>MIGUELAO</t>
+  </si>
+  <si>
+    <t>BOTAO FRANCES</t>
+  </si>
+  <si>
+    <t>COLA SILICONE</t>
+  </si>
+  <si>
+    <t>INTERNEED GARRA P/ CABO BATERIA 10A MEDIO PRETO</t>
+  </si>
+  <si>
+    <t>CENTRI</t>
+  </si>
+  <si>
+    <t>CAIXA SABESP/TAF</t>
+  </si>
+  <si>
+    <t>CHIBANCA</t>
+  </si>
+  <si>
+    <t>CARVAO FURADEIRA MAKITA 8419/6016 C133G</t>
+  </si>
+  <si>
+    <t>MISTURADOR DE TINTA</t>
+  </si>
+  <si>
+    <t>DUCHA HIGIENICA FERTAK BRANCO 7041</t>
+  </si>
+  <si>
+    <t>LUVA  COMFORT KALIPSO</t>
+  </si>
+  <si>
+    <t>FIXADOR PORTA</t>
+  </si>
+  <si>
+    <t>CURVA SOLDAVEL</t>
+  </si>
+  <si>
+    <t>PENEIRA ARO MADEIRA</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL 2 INTERRUPTORES SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>BARRA ROSCA GALVANIZADO</t>
+  </si>
+  <si>
+    <t>RECEPTOR DE TV DIGITAL AQUARIO</t>
   </si>
   <si>
     <t xml:space="preserve">AMANCO ADESIVO </t>
   </si>
   <si>
-    <t xml:space="preserve">PO XADREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE DISJUNTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA GORDURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRINHO MAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100NB C137G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATILHO HIGIBAN DUCHA HIGIENICA BRANCO/CROMADO SUPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CONSTRUCAO VE730 10 DELTA PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRINDE SQUEEZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICO ENGATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI 2 INTERRUPTORES SIMPLES 6A 6318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACANETA SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA CARTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDA CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATEX ACRILICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DE INSPEÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100H/5800 C138G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CONSTRUCAO VE730 09 DELTA PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGATE MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO ILUMI SLIM 4X4 CEGO 8305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA ABRACAD RSF (C)1/2X3/4 ( 100) (M GAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA TIGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA PINTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAXINHA LUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLAS PVC</t>
+    <t>PO XADREZ</t>
+  </si>
+  <si>
+    <t>SUPORTE DISJUNTOR</t>
+  </si>
+  <si>
+    <t>CAIXA GORDURA</t>
+  </si>
+  <si>
+    <t>CARRINHO MAO</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100NB C137G</t>
+  </si>
+  <si>
+    <t>PARAFUSO/CARVÃO CARBONPEÇAS</t>
+  </si>
+  <si>
+    <t>GATILHO HIGIBAN DUCHA HIGIENICA BRANCO/CROMADO SUPORTE</t>
+  </si>
+  <si>
+    <t>LUVA CONSTRUCAO VE730 10 DELTA PLUS</t>
+  </si>
+  <si>
+    <t>BRINDE SQUEEZE</t>
+  </si>
+  <si>
+    <t>AKATO JOELHO SOLDAVEL</t>
+  </si>
+  <si>
+    <t>BICO ENGATE</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI 2 INTERRUPTORES SIMPLES 6A 6318</t>
+  </si>
+  <si>
+    <t>MACANETA SILVANA</t>
+  </si>
+  <si>
+    <t>CAIXA CARTA</t>
+  </si>
+  <si>
+    <t>VEDA CALHA</t>
+  </si>
+  <si>
+    <t>LATEX ACRILICA</t>
+  </si>
+  <si>
+    <t>CAIXA DE INSPEÇÃO</t>
+  </si>
+  <si>
+    <t>TORQUES</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100H/5800 C138G</t>
+  </si>
+  <si>
+    <t>JOGO DE ESCOVAS E PONTEIRAS</t>
+  </si>
+  <si>
+    <t>LUVA CONSTRUCAO VE730 09 DELTA PLUS</t>
+  </si>
+  <si>
+    <t>BRASFORT BARBANTE DE ALGODAO</t>
+  </si>
+  <si>
+    <t>CAP SOLDAVEL</t>
+  </si>
+  <si>
+    <t>ENGATE MANGUEIRA</t>
+  </si>
+  <si>
+    <t>ESPELHO ILUMI SLIM 4X4 CEGO 8305</t>
+  </si>
+  <si>
+    <t>INCA ABRACAD RSF (C)1/2X3/4 ( 100) (M GAS)</t>
+  </si>
+  <si>
+    <t>CABIDE</t>
+  </si>
+  <si>
+    <t>COLA TIGRE</t>
+  </si>
+  <si>
+    <t>BANDEIA PINTURA</t>
+  </si>
+  <si>
+    <t>CAXINHA LUZ</t>
+  </si>
+  <si>
+    <t>COLAS PVC</t>
   </si>
   <si>
     <t xml:space="preserve">APLICADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO FURADEIRA MAKITA6404/5 CB70 C184G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA NBR WAVE KALIPSO AZUL/PRETO 09 G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA JARDIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI LUVA BRANCO 6205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U B 3/4 100 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA TANQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DE PASSAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE DW/BD 301/3011 C185G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA NBR WAVE KALIPSO AZUL/PRETO 10 XG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO PIAL POP 1 TOMADA 10A LGX030 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U E 1 1/2 100 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TERMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA POLIURETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALHADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO SERRA MARMORE MAKITA NHK9227 C188G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCOVA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASSOURA GRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO PIAL POP 1 SIMPLES 1 TOMADA 10A LGX103 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U F 2 100 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRAFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOREZ HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATEX QUARTZOLIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANEL BORRACHA</t>
+    <t>CARBONPEÇAS CARVAO FURADEIRA MAKITA6404/5 CB70 C184G</t>
+  </si>
+  <si>
+    <t>MANDRIL</t>
+  </si>
+  <si>
+    <t>LUVA NBR WAVE KALIPSO AZUL/PRETO 09 G</t>
+  </si>
+  <si>
+    <t>PROTETOR SOLAR</t>
+  </si>
+  <si>
+    <t>AKATO CAP SOLDAVEL</t>
+  </si>
+  <si>
+    <t>MANGUEIRA JARDIM</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI LUVA BRANCO 6205</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U B 3/4 100 J F METAIS</t>
+  </si>
+  <si>
+    <t>TORNEIRA TANQ</t>
+  </si>
+  <si>
+    <t>UNIPEGA SILICONE</t>
+  </si>
+  <si>
+    <t>LIXA AGUA</t>
+  </si>
+  <si>
+    <t>PLAFONIER</t>
+  </si>
+  <si>
+    <t>CAIXA DE PASSAGEM</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE DW/BD 301/3011 C185G</t>
+  </si>
+  <si>
+    <t>SDS-PLUS</t>
+  </si>
+  <si>
+    <t>LUVA NBR WAVE KALIPSO AZUL/PRETO 10 XG</t>
+  </si>
+  <si>
+    <t>COTOVELO AZUL</t>
+  </si>
+  <si>
+    <t>EMENDA MANGUEIRA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PIAL POP 1 TOMADA 10A LGX030 BRANCO</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U E 1 1/2 100 J F METAIS</t>
+  </si>
+  <si>
+    <t>TOALHA MESA TERMICA</t>
+  </si>
+  <si>
+    <t>ESPUMA POLIURETANO</t>
+  </si>
+  <si>
+    <t>LIXA MADEIRA</t>
+  </si>
+  <si>
+    <t>FUSIVEL</t>
+  </si>
+  <si>
+    <t>TALHADEIRA</t>
+  </si>
+  <si>
+    <t>CARVAO SERRA MARMORE MAKITA NHK9227 C188G</t>
+  </si>
+  <si>
+    <t>ESCOVA AÇO</t>
+  </si>
+  <si>
+    <t>JOELHO LL</t>
+  </si>
+  <si>
+    <t>VASSOURA GRAMA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PIAL POP 1 SIMPLES 1 TOMADA 10A LGX103 BRANCO</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U F 2 100 J F METAIS</t>
+  </si>
+  <si>
+    <t>GARRAFAO</t>
+  </si>
+  <si>
+    <t>CASCOREZ HENKEL</t>
+  </si>
+  <si>
+    <t>LATEX QUARTZOLIT</t>
+  </si>
+  <si>
+    <t>SISTEMA ILUMI</t>
+  </si>
+  <si>
+    <t>ANEL BORRACHA</t>
   </si>
   <si>
     <t xml:space="preserve">PONTEIRO </t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA 5900 C18407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANCO LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACIT CUPINICIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U H 3 50 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAP TORNEIRA</t>
+    <t>PARAFUSO ALLEN/SEXTAVADO MAKITA 5900 C18407</t>
+  </si>
+  <si>
+    <t>ROCADEIRA</t>
+  </si>
+  <si>
+    <t>AMANCO LUVA</t>
+  </si>
+  <si>
+    <t>VEDACIT CUPINICIDA</t>
+  </si>
+  <si>
+    <t>TOMADA</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U H 3 50 J F METAIS</t>
+  </si>
+  <si>
+    <t>GRAP TORNEIRA</t>
   </si>
   <si>
     <r>
@@ -2289,326 +2294,326 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">HENKEL</t>
+      <t>HENKEL</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">PAREDE NOVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI PROLONGADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FORTLEV</t>
+    <t>PAREDE NOVA</t>
+  </si>
+  <si>
+    <t>ILUMI PROLONGADOR</t>
+  </si>
+  <si>
+    <t>CAIXA FORTLEV</t>
   </si>
   <si>
     <t xml:space="preserve">ESCOVA AÇO 	</t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA 4100 C8408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS CORR PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA MM ARO MADEIRA  AREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U J 4 50 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO MACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA ENTRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAVADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO PONTEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARQUA MANGUEIRA MULTIUSO TRANÇADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 35MM RETA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILICONE INCOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA QUADRADA</t>
+    <t>PARAFUSO ALLEN/SEXTAVADO MAKITA 4100 C8408</t>
+  </si>
+  <si>
+    <t>FLAP</t>
+  </si>
+  <si>
+    <t>CAPS CORR PLASTIK</t>
+  </si>
+  <si>
+    <t>PENEIRA MM ARO MADEIRA  AREIA</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U J 4 50 J F METAIS</t>
+  </si>
+  <si>
+    <t>CESTO</t>
+  </si>
+  <si>
+    <t>FIXA CUBA/ESPELHO</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH MASSA</t>
+  </si>
+  <si>
+    <t>PINO MACHO</t>
+  </si>
+  <si>
+    <t>VALVULA ENTRADA</t>
+  </si>
+  <si>
+    <t>CAVADEIRA</t>
+  </si>
+  <si>
+    <t>JOGO PONTEIRA</t>
+  </si>
+  <si>
+    <t>CAPS FORTLEV</t>
+  </si>
+  <si>
+    <t>ARQUA MANGUEIRA MULTIUSO TRANÇADA</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 35MM RETA JOMARCA</t>
+  </si>
+  <si>
+    <t>BRASLIDER SUPORTE BOTIJAO AZUL</t>
+  </si>
+  <si>
+    <t>SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t>PA QUADRADA</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA LUZ </t>
   </si>
   <si>
-    <t xml:space="preserve">FORTLEV CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRUMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA COPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA FORLTEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARQUA MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 35MM CURVA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
+    <t>FORTLEV CAIXA</t>
+  </si>
+  <si>
+    <t>PRUMO</t>
+  </si>
+  <si>
+    <t>SERRA COPO</t>
+  </si>
+  <si>
+    <t>LUVA FORLTEV</t>
+  </si>
+  <si>
+    <t>ARQUA MANGUEIRA</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 35MM CURVA JOMARCA</t>
+  </si>
+  <si>
+    <t>VARAL</t>
+  </si>
+  <si>
+    <t>ESPUMA DE POLIURETANO</t>
   </si>
   <si>
     <t xml:space="preserve">PA BICO </t>
   </si>
   <si>
-    <t xml:space="preserve">CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRELHA REDONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE TORX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBOLO DIAMANTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA TIGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA FEIJAO 55 PLASTICO 10 TELAS MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 26MM CURVA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA DOBLEA FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNLUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESOURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA CIRCULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANCO NIPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA MM ARO PLASTICO 55 AREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 26MM RETA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELATRINCAS GARIN BRANCO TUBO 450GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAYERLACK MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONERTOR BORNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA AMERICANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAÇARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA MM ARO PLASTICO 55 ARROZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA LEME ZINCADA LOTH 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA NORTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORRUGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA HIDROMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PULVEIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTA MONTADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA PLASTICO VIVEIRO 100X50 1/2 PRT NETTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA ABRACAD RSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRONORTH RESINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC EXTENSAO</t>
+    <t>CANALETA</t>
+  </si>
+  <si>
+    <t>GRELHA REDONDO</t>
+  </si>
+  <si>
+    <t>CHAVE TORX</t>
+  </si>
+  <si>
+    <t>REBOLO DIAMANTADO</t>
+  </si>
+  <si>
+    <t>LUVA TIGRE</t>
+  </si>
+  <si>
+    <t>PENEIRA FEIJAO 55 PLASTICO 10 TELAS MM</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 26MM CURVA JOMARCA</t>
+  </si>
+  <si>
+    <t>ESCADA</t>
+  </si>
+  <si>
+    <t>GARIN SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t>LIXA DOBLEA FERRO</t>
+  </si>
+  <si>
+    <t>ANNLUX</t>
+  </si>
+  <si>
+    <t>CAIXA AGUA</t>
+  </si>
+  <si>
+    <t>TESOURA</t>
+  </si>
+  <si>
+    <t>SERRA CIRCULAR</t>
+  </si>
+  <si>
+    <t>AMANCO NIPEL</t>
+  </si>
+  <si>
+    <t>PENEIRA MM ARO PLASTICO 55 AREIA</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 26MM RETA JOMARCA</t>
+  </si>
+  <si>
+    <t>VELA</t>
+  </si>
+  <si>
+    <t>SELATRINCAS GARIN BRANCO TUBO 450GR</t>
+  </si>
+  <si>
+    <t>SAYERLACK MASSA</t>
+  </si>
+  <si>
+    <t>CONERTOR BORNE</t>
+  </si>
+  <si>
+    <t>VÁLVULA AMERICANA</t>
+  </si>
+  <si>
+    <t>MAÇARICO</t>
+  </si>
+  <si>
+    <t>PONTEIRA</t>
+  </si>
+  <si>
+    <t>COTOVELO PLASTILIT</t>
+  </si>
+  <si>
+    <t>PENEIRA MM ARO PLASTICO 55 ARROZ</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA LEME ZINCADA LOTH 06</t>
+  </si>
+  <si>
+    <t>TOALHA MESA TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>UNIPEGA SELANTE PU FLEXIVEL</t>
+  </si>
+  <si>
+    <t>LIXA NORTON</t>
+  </si>
+  <si>
+    <t>CORRUGADO</t>
+  </si>
+  <si>
+    <t>CAIXA HIDROMETRO</t>
+  </si>
+  <si>
+    <t>PULVEIZADOR</t>
+  </si>
+  <si>
+    <t>PONTA MONTADA</t>
+  </si>
+  <si>
+    <t>UNIAO PLASTILIT</t>
+  </si>
+  <si>
+    <t>TELA PLASTICO VIVEIRO 100X50 1/2 PRT NETTE</t>
+  </si>
+  <si>
+    <t>INCA ABRACAD RSF</t>
+  </si>
+  <si>
+    <t>FACAO</t>
+  </si>
+  <si>
+    <t>CASCOREZ EXTRA 1000GR HENKEL</t>
+  </si>
+  <si>
+    <t>HYDRONORTH RESINA</t>
+  </si>
+  <si>
+    <t>FC EXTENSAO</t>
   </si>
   <si>
     <t xml:space="preserve"> REGISTRO GAVETA</t>
   </si>
   <si>
-    <t xml:space="preserve">BOMBA AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL PISTOLA  SILICONE EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIPLE PLASTILT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA PLASTICO PINTINHO 100X50 1 PRETO NETTEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL ROCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS PINCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE ZAMAC CROMADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO ESPUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA CROMADO EMA METAIS 1128X3/4 JARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUMINARIA ALETADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUMENTO TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTILETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR FURADEIRA P/ DISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA CROMADO JARDIM ESFERA 1/2 FERTAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO PRENSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA HYDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAP TORNEIRA JARDIM ABS/PRETO 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABINETE</t>
+    <t>BOMBA AR</t>
+  </si>
+  <si>
+    <t>REFIL PISTOLA  SILICONE EM BARRA</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTILT</t>
+  </si>
+  <si>
+    <t>TELA PLASTICO PINTINHO 100X50 1 PRETO NETTEN</t>
+  </si>
+  <si>
+    <t>TERMINAL ROCO</t>
+  </si>
+  <si>
+    <t>CASCOLA 85GR MONTA/FIXA HENKEL</t>
+  </si>
+  <si>
+    <t>ATLAS PINCEL</t>
+  </si>
+  <si>
+    <t>CONECTOR INTERNEED PORCELANA</t>
+  </si>
+  <si>
+    <t>TEE ZAMAC CROMADO</t>
+  </si>
+  <si>
+    <t>BLOCO ESPUMA</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO</t>
+  </si>
+  <si>
+    <t>CAP MARROM</t>
+  </si>
+  <si>
+    <t>TORNEIRA CROMADO EMA METAIS 1128X3/4 JARD</t>
+  </si>
+  <si>
+    <t>SUPORTE TV</t>
+  </si>
+  <si>
+    <t>GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
+  </si>
+  <si>
+    <t>AGUARRAS</t>
+  </si>
+  <si>
+    <t>LUMINARIA ALETADA</t>
+  </si>
+  <si>
+    <t>AUMENTO TORNEIRA</t>
+  </si>
+  <si>
+    <t>ESTILETE</t>
+  </si>
+  <si>
+    <t>ADAPTADOR FURADEIRA P/ DISCO</t>
+  </si>
+  <si>
+    <t>ESTRELA LIGA FACIL</t>
+  </si>
+  <si>
+    <t>TORNEIRA CROMADO JARDIM ESFERA 1/2 FERTAK</t>
+  </si>
+  <si>
+    <t>CONTROLE TV</t>
+  </si>
+  <si>
+    <t>UNIPEGA SELANTE POLIURETANO</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH AGUA</t>
+  </si>
+  <si>
+    <t>PINO PRENSA</t>
+  </si>
+  <si>
+    <t>VALVULA HYDRA</t>
+  </si>
+  <si>
+    <t>CHAVE SOQUETE</t>
+  </si>
+  <si>
+    <t>DISCO BORRACHA</t>
+  </si>
+  <si>
+    <t>TEE FORTLEV</t>
+  </si>
+  <si>
+    <t>GRAP TORNEIRA JARDIM ABS/PRETO 1/2</t>
+  </si>
+  <si>
+    <t>GABINETE</t>
   </si>
   <si>
     <t xml:space="preserve">FIXA CUBA </t>
@@ -2617,196 +2622,196 @@
     <t xml:space="preserve">FERJA LIXA D AGUA </t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR FEMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARDEN JUNCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
+    <t>ADAPTADOR FEMEA</t>
+  </si>
+  <si>
+    <t>GARDEN JUNCAO</t>
+  </si>
+  <si>
+    <t>REGUA</t>
+  </si>
+  <si>
+    <t>CARVAO MAKITA</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">FIBRA ABRASIVA </t>
   </si>
   <si>
-    <t xml:space="preserve">SELATRINCAS GARIN BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL MASSA F12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR PORCELANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR GARDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA ELETRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA ESPELHO CIBRA 400G BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIGRE GARFO BUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIZ DE LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA WIDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE TIGRE MARROM</t>
+    <t>SELATRINCAS GARIN BRANCO</t>
+  </si>
+  <si>
+    <t>VIAPOL MASSA F12</t>
+  </si>
+  <si>
+    <t>CONECTOR PORCELANA</t>
+  </si>
+  <si>
+    <t>ADAPTADOR GARDEN</t>
+  </si>
+  <si>
+    <t>VANGA</t>
+  </si>
+  <si>
+    <t>PARAFUSO MAKITA</t>
+  </si>
+  <si>
+    <t>COTOVELO CORRER PLASTIK</t>
+  </si>
+  <si>
+    <t>TORNEIRA ELETRICA</t>
+  </si>
+  <si>
+    <t>FIXA ESPELHO CIBRA 400G BRANCO</t>
+  </si>
+  <si>
+    <t>TIGRE GARFO BUCHA</t>
+  </si>
+  <si>
+    <t>INTERNEED EXTENSÃO</t>
+  </si>
+  <si>
+    <t>VÁLVULA PLASTICO</t>
+  </si>
+  <si>
+    <t>GIZ DE LINHA</t>
+  </si>
+  <si>
+    <t>BROCA WIDEA</t>
+  </si>
+  <si>
+    <t>TEE TIGRE MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">ESPONJA MAGICA 	</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA BOSCH D AGUA 80 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO TECHNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE REGISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO DIAMANTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO ALVEJADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH D AGUA 100 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO FEMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO PRESSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACHAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO PONTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG SHIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH D AGUA 150 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENZEL TERMINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA HIDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESQUADRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXLUX FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA HYDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO SPED/INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA GRANDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVANT LUMINARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO GAVETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERROTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO CORRER</t>
+    <t>LIXA BOSCH D AGUA 80 25</t>
+  </si>
+  <si>
+    <t>EXTENSÃO TECHNA</t>
+  </si>
+  <si>
+    <t>BASE REGISTRO</t>
+  </si>
+  <si>
+    <t>FORMÃO</t>
+  </si>
+  <si>
+    <t>DISCO DIAMANTADO</t>
+  </si>
+  <si>
+    <t>COTOVELO TIGRE MARROM</t>
+  </si>
+  <si>
+    <t>SACO ALVEJADO</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH D AGUA 100 25</t>
+  </si>
+  <si>
+    <t>PINO FEMEA</t>
+  </si>
+  <si>
+    <t>REGISTRO PRESSAO</t>
+  </si>
+  <si>
+    <t>MACHAD</t>
+  </si>
+  <si>
+    <t>JOGO PONTAS</t>
+  </si>
+  <si>
+    <t>PLUG SHIVA</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH D AGUA 150 25</t>
+  </si>
+  <si>
+    <t>PENZEL TERMINAL</t>
+  </si>
+  <si>
+    <t>VÁLVULA HIDRA</t>
+  </si>
+  <si>
+    <t>ESQUADRO</t>
+  </si>
+  <si>
+    <t>JOGO DE ESCOVAS</t>
+  </si>
+  <si>
+    <t>KRONA LUVA CORRER</t>
+  </si>
+  <si>
+    <t>TORNEIRA FLEXIVEL</t>
+  </si>
+  <si>
+    <t>FOXLUX FIO</t>
+  </si>
+  <si>
+    <t>VÁLVULA HYDRA</t>
+  </si>
+  <si>
+    <t>RODEL</t>
+  </si>
+  <si>
+    <t>DISCO SPED/INOX</t>
+  </si>
+  <si>
+    <t>LUVA CORRER</t>
+  </si>
+  <si>
+    <t>AGULHA GRANDE</t>
+  </si>
+  <si>
+    <t>AVANT LUMINARIA</t>
+  </si>
+  <si>
+    <t>REGISTRO GAVETA</t>
+  </si>
+  <si>
+    <t>SERROTE</t>
+  </si>
+  <si>
+    <t>SDS PLUS</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO CORRER</t>
   </si>
   <si>
     <t xml:space="preserve">VIQUA TORNEIRA </t>
   </si>
   <si>
-    <t xml:space="preserve">FIO TELEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENSI REPARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE FIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDSPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR PRESENÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE FENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATEDOR ARGAMASSA CORTAG</t>
+    <t>FIO TELEF</t>
+  </si>
+  <si>
+    <t>CENSI REPARO</t>
+  </si>
+  <si>
+    <t>CHAVE FIXA</t>
+  </si>
+  <si>
+    <t>SDSPLUS</t>
+  </si>
+  <si>
+    <t>CAPS CORRER</t>
+  </si>
+  <si>
+    <t>MANGUEIRA GAS</t>
+  </si>
+  <si>
+    <t>SENSOR PRESENÇA</t>
+  </si>
+  <si>
+    <t>ADAPTADOR TANQUE GARDEN</t>
+  </si>
+  <si>
+    <t>CHAVE FENDA</t>
+  </si>
+  <si>
+    <t>BATEDOR ARGAMASSA CORTAG</t>
   </si>
   <si>
     <t xml:space="preserve">LUVA SOLDAVEL </t>
@@ -2815,55 +2820,55 @@
     <t xml:space="preserve">ESPONJA FLASH </t>
   </si>
   <si>
-    <t xml:space="preserve">ELETRODUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRA REPARO VÁLVULA</t>
+    <t>ELETRODUTO</t>
+  </si>
+  <si>
+    <t>HYDRA REPARO VÁLVULA</t>
   </si>
   <si>
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA BUCHA REDUCAO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA MAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXT ILUMI PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA HIDROMETRO SABESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMINA SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA COMPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL LONGA CORRER PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBIRA MANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENZEL TERM PREISOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNCAO METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE COMBINADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO FURADEIRA MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO TIGRE LL B 3/4 X 90 MARROM</t>
+    <t>MISTURADOR DE TINTA NYLON</t>
+  </si>
+  <si>
+    <t>KRONA BUCHA REDUCAO LL</t>
+  </si>
+  <si>
+    <t>TORNEIRA MAQ</t>
+  </si>
+  <si>
+    <t>EXT ILUMI PLACA</t>
+  </si>
+  <si>
+    <t>CAIXA HIDROMETRO SABESP</t>
+  </si>
+  <si>
+    <t>LAMINA SERRA</t>
+  </si>
+  <si>
+    <t>MISTURADOR DE TINTA COMPEL</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL LONGA CORRER PLASTICO</t>
+  </si>
+  <si>
+    <t>IBIRA MANG</t>
+  </si>
+  <si>
+    <t>PENZEL TERM PREISOL</t>
+  </si>
+  <si>
+    <t>JUNCAO METAL</t>
+  </si>
+  <si>
+    <t>CHAVE COMBINADA</t>
+  </si>
+  <si>
+    <t>CARVAO FURADEIRA MAKITA</t>
+  </si>
+  <si>
+    <t>COTOVELO TIGRE LL B 3/4 X 90 MARROM</t>
   </si>
   <si>
     <r>
@@ -2883,369 +2888,369 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CONECTOR BORNE</t>
+      <t>CONECTOR BORNE</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">VÁLVULA TANQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE BIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE TIGRE LLL B 3/4 MARROM</t>
+    <t>VÁLVULA TANQUE</t>
+  </si>
+  <si>
+    <t>CHAVE BIELA</t>
+  </si>
+  <si>
+    <t>TEE TIGRE LLL B 3/4 MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">CAMPAINHA </t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR GENERICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE ALLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE REMOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MECANISMO ENTRADA UNIVERSAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE ESTRELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA VIQUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUKIT REPARO VALVULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA BOSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT LL B 3/4 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA HERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGATRON CABO PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA MULT GORDURA CESTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA ACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT LL E 1 1/2 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPONJA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAF CAIXA P/ HIDROMETRO PP SABESP NTS303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE CANHAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT RR 3/4 BRANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACABAMENTO REGISTRO ART METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE PHILLIPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT RR 1/2 BRANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE LAJE FIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA AMERICANA METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAQUIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE AZUL SHIVA 3/4 X 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGATRON EXTENSAO TRIPOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALVA REGISTRO ALPHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE RODA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL H 3/4X45 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSAO NATICON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPERIO HIDRO ACABAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE DE GRIFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL K 1 1/2X45 MARRON</t>
+    <t>CONECTOR GENERICO</t>
+  </si>
+  <si>
+    <t>VÁLVULA MULTIUSO</t>
+  </si>
+  <si>
+    <t>CHAVE ALLEN</t>
+  </si>
+  <si>
+    <t>KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
+  </si>
+  <si>
+    <t>CONTROLE REMOTO</t>
+  </si>
+  <si>
+    <t>SISTEMA RADIAL  CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>MECANISMO ENTRADA UNIVERSAL</t>
+  </si>
+  <si>
+    <t>CHAVE ESTRELA</t>
+  </si>
+  <si>
+    <t>KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
+  </si>
+  <si>
+    <t>TORNEIRA VIQUA</t>
+  </si>
+  <si>
+    <t>ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
+  </si>
+  <si>
+    <t>BLUKIT REPARO VALVULA</t>
+  </si>
+  <si>
+    <t>SERRA BOSCH</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT LL B 3/4 MARROM</t>
+  </si>
+  <si>
+    <t>TORNEIRA HERC</t>
+  </si>
+  <si>
+    <t>MEGATRON CABO PP</t>
+  </si>
+  <si>
+    <t>CAIXA MULT GORDURA CESTA</t>
+  </si>
+  <si>
+    <t>SERRA ACO</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT LL E 1 1/2 MARROM</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI COTOVELO</t>
+  </si>
+  <si>
+    <t>TAF CAIXA P/ HIDROMETRO PP SABESP NTS303</t>
+  </si>
+  <si>
+    <t>CHAVE CANHAO</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT RR 3/4 BRANCA</t>
+  </si>
+  <si>
+    <t>ALPHA TORNEIRA BICA MOVEL PAREDE</t>
+  </si>
+  <si>
+    <t>PINO ADAPTADOR  ROBUSTO ILUMI</t>
+  </si>
+  <si>
+    <t>ACABAMENTO REGISTRO ART METAIS</t>
+  </si>
+  <si>
+    <t>CHAVE PHILLIPS</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT RR 1/2 BRANCA</t>
+  </si>
+  <si>
+    <t>HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
+  </si>
+  <si>
+    <t>SUPORTE LAJE FIXO</t>
+  </si>
+  <si>
+    <t>VÁLVULA AMERICANA METAL</t>
+  </si>
+  <si>
+    <t>PAQUIMETRO</t>
+  </si>
+  <si>
+    <t>TEE AZUL SHIVA 3/4 X 1/2</t>
+  </si>
+  <si>
+    <t>MEGATRON EXTENSAO TRIPOLAR</t>
+  </si>
+  <si>
+    <t>SALVA REGISTRO ALPHA</t>
+  </si>
+  <si>
+    <t>CHAVE RODA</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL H 3/4X45 MARROM</t>
+  </si>
+  <si>
+    <t>ESPONJA LIMPEZA PESADA FLASH LIMP</t>
+  </si>
+  <si>
+    <t>EXTENSAO NATICON</t>
+  </si>
+  <si>
+    <t>IMPERIO HIDRO ACABAMENTO</t>
+  </si>
+  <si>
+    <t>CHAVE DE GRIFO</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL K 1 1/2X45 MARRON</t>
   </si>
   <si>
     <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
   </si>
   <si>
-    <t xml:space="preserve">EXTENSAO DANEVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSORIO CAIXA BLUKIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE INGLESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA FORTLEV LL B 3/4 X 90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADOR DE MESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSORIO CAIXA ASTRA ENT CAIXA ACOPLADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXADEIRA MANUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL B 3/4X90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 10MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE VIRAR FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL E 1 1/2X90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 16MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA DE AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA FORTLEV LL E 1 1/2 X 90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE LAJE PE FIXO 30CM PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE PIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRELHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARINHO PEDREIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO ROSCA 3/4X1/2 50 KRONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE PRIMETECH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANEL DE VEDACAO FORTLEV 75MM ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA A R BOSCH BIMET 18D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL LONGA PLASTILIT 50 X 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAQUINA LAVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 25MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRINHO SERV GERAL ESFERA 150K P MACICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO RR PLASTILIT A 3/4 X 1/2 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 50MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE DE RODA CRUZ IMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL CURTA CORRER PLASTICO B 1 X 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIME TECH SUPORTE FORNO BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO RR CORRER PLASTIK 3/4X1/2 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA AUMENTO GARDEN 1/2 X3 /4 ZAMAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL CURTA FORTL A 3/4X1/2 MARRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO GARDEN 3/4 X 1/2 ZAMAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL LONGA FORT C 1 1/2 X3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 14M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE LAJE PP FUNDO FIXO 30CM PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M CRISTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS BRANCO QUADRISET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS PRETO QUADRISET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA TANQUINHO ENTRADA BRANCO FERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABONETEIRA HIDROLAR CROMADO 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAO CORTINA STILLUS 150 BRC 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAO CORTINA STILLUS 200 BRC 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODORIZADOR PURO AR LAVANDA 250ML</t>
+    <t>EXTENSAO DANEVA</t>
+  </si>
+  <si>
+    <t>ACESSORIO CAIXA BLUKIT</t>
+  </si>
+  <si>
+    <t>CHAVE INGLESA</t>
+  </si>
+  <si>
+    <t>CURVA FORTLEV LL B 3/4 X 90 MARROM</t>
+  </si>
+  <si>
+    <t>VENTILADOR DE MESA</t>
+  </si>
+  <si>
+    <t>PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
+  </si>
+  <si>
+    <t>ACESSORIO CAIXA ASTRA ENT CAIXA ACOPLADA</t>
+  </si>
+  <si>
+    <t>LIXADEIRA MANUAL</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL B 3/4X90 MARROM</t>
+  </si>
+  <si>
+    <t>BATEDOR PORTA BOLA</t>
+  </si>
+  <si>
+    <t>THOMPSON CONECTOR 03 BORNE 10MM</t>
+  </si>
+  <si>
+    <t>BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
+  </si>
+  <si>
+    <t>CHAVE VIRAR FERRO</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL E 1 1/2X90 MARROM</t>
+  </si>
+  <si>
+    <t>SUPORTE BRASFORMA</t>
+  </si>
+  <si>
+    <t>THOMPSON CONECTOR 03 BORNE 16MM</t>
+  </si>
+  <si>
+    <t>ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
+  </si>
+  <si>
+    <t>BOMBA DE AR</t>
+  </si>
+  <si>
+    <t>CURVA FORTLEV LL E 1 1/2 X 90 MARROM</t>
+  </si>
+  <si>
+    <t>SUPORTE P/ VARAO SIMPLES</t>
+  </si>
+  <si>
+    <t>SUPORTE LAJE PE FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t>REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
+  </si>
+  <si>
+    <t>JOGO SOQUETE</t>
+  </si>
+  <si>
+    <t>KRONA PLUG 1/2</t>
+  </si>
+  <si>
+    <t>SUPORTE PIA</t>
+  </si>
+  <si>
+    <t>FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
+  </si>
+  <si>
+    <t>GRELHA</t>
+  </si>
+  <si>
+    <t>CARINHO PEDREIRO</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO ROSCA 3/4X1/2 50 KRONA</t>
+  </si>
+  <si>
+    <t>SUPORTE PRIMETECH</t>
+  </si>
+  <si>
+    <t>FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
+  </si>
+  <si>
+    <t>ANEL DE VEDACAO FORTLEV 75MM ESGOTO</t>
+  </si>
+  <si>
+    <t>SERRA A R BOSCH BIMET 18D</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL LONGA PLASTILIT 50 X 25</t>
+  </si>
+  <si>
+    <t>MAQUINA LAVAR</t>
+  </si>
+  <si>
+    <t>INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t>ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 25MM</t>
+  </si>
+  <si>
+    <t>CARRINHO SERV GERAL ESFERA 150K P MACICO</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO RR PLASTILIT A 3/4 X 1/2 BRANCO</t>
+  </si>
+  <si>
+    <t>OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
+  </si>
+  <si>
+    <t>CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
+  </si>
+  <si>
+    <t>ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 50MM</t>
+  </si>
+  <si>
+    <t>CHAVE DE RODA CRUZ IMA</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL CURTA CORRER PLASTICO B 1 X 3/4</t>
+  </si>
+  <si>
+    <t>PRIME TECH SUPORTE FORNO BRANCO</t>
+  </si>
+  <si>
+    <t>CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
+  </si>
+  <si>
+    <t>ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO RR CORRER PLASTIK 3/4X1/2 BRANCO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
+  </si>
+  <si>
+    <t>FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t>BUCHA AUMENTO GARDEN 1/2 X3 /4 ZAMAC</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL CURTA FORTL A 3/4X1/2 MARRO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
+  </si>
+  <si>
+    <t>FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO GARDEN 3/4 X 1/2 ZAMAC</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL LONGA FORT C 1 1/2 X3/4</t>
+  </si>
+  <si>
+    <t>MANGUEIRA ENTRADA NOVA 14M</t>
+  </si>
+  <si>
+    <t>CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
+  </si>
+  <si>
+    <t>MANGUEIRA ENTRADA NOVA 20M</t>
+  </si>
+  <si>
+    <t>SUPORTE LAJE PP FUNDO FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA ENTRADA NOVA 20M CRISTAL</t>
+  </si>
+  <si>
+    <t>FILTRO LINHA</t>
+  </si>
+  <si>
+    <t>TORNEIRA B M FILTRO ACQUABIOS BRANCO QUADRISET</t>
+  </si>
+  <si>
+    <t>TORNEIRA B M FILTRO ACQUABIOS PRETO QUADRISET</t>
+  </si>
+  <si>
+    <t>MANGUEIRA TANQUINHO ENTRADA BRANCO FERE</t>
+  </si>
+  <si>
+    <t>SABONETEIRA HIDROLAR CROMADO 2025</t>
+  </si>
+  <si>
+    <t>VARAO CORTINA STILLUS 150 BRC 01</t>
+  </si>
+  <si>
+    <t>VARAO CORTINA STILLUS 200 BRC 01</t>
+  </si>
+  <si>
+    <t>ODORIZADOR PURO AR LAVANDA 250ML</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL 11/2X3/4 LONGA KRONA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3253,22 +3258,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3298,7 +3288,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3306,123 +3296,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -3475,58 +3431,57 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z79" activeCellId="0" sqref="Z78:Z81"/>
+    <sheetView tabSelected="1" topLeftCell="Y59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z82" sqref="Z82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="51.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="50.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="66.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="45.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="64.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="53.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="47.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="42.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="39.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="54.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="51.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="37.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="47.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="52.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="33.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="37.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="59.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="33" style="1" width="11.53"/>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="66.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="45.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="64.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="53.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="47.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="42.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" customWidth="1"/>
+    <col min="20" max="20" width="39.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="55" style="1" customWidth="1"/>
+    <col min="26" max="26" width="51.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="37.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="47.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="52.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="34" style="1" customWidth="1"/>
+    <col min="31" max="31" width="37" style="1" customWidth="1"/>
+    <col min="32" max="32" width="59.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3624,7 +3579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3722,7 +3677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -3820,7 +3775,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -3918,7 +3873,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -4013,7 +3968,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -4108,7 +4063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -4200,7 +4155,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -4289,7 +4244,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>247</v>
       </c>
@@ -4378,7 +4333,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>276</v>
       </c>
@@ -4464,7 +4419,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>304</v>
       </c>
@@ -4544,7 +4499,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>330</v>
       </c>
@@ -4621,7 +4576,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>355</v>
       </c>
@@ -4692,7 +4647,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>378</v>
       </c>
@@ -4760,7 +4715,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>400</v>
       </c>
@@ -4828,7 +4783,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>422</v>
       </c>
@@ -4893,7 +4848,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>442</v>
       </c>
@@ -4949,7 +4904,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>460</v>
       </c>
@@ -5005,7 +4960,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>221</v>
       </c>
@@ -5061,7 +5016,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>495</v>
       </c>
@@ -5117,7 +5072,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>513</v>
       </c>
@@ -5173,7 +5128,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>530</v>
       </c>
@@ -5226,7 +5181,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>546</v>
       </c>
@@ -5276,7 +5231,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>562</v>
       </c>
@@ -5326,7 +5281,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>578</v>
       </c>
@@ -5376,7 +5331,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>593</v>
       </c>
@@ -5427,7 +5382,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>609</v>
       </c>
@@ -5477,7 +5432,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>625</v>
       </c>
@@ -5527,7 +5482,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
         <v>640</v>
       </c>
@@ -5574,7 +5529,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>655</v>
       </c>
@@ -5618,7 +5573,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>668</v>
       </c>
@@ -5662,7 +5617,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>682</v>
       </c>
@@ -5703,7 +5658,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>695</v>
       </c>
@@ -5741,7 +5696,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>706</v>
       </c>
@@ -5779,7 +5734,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>718</v>
       </c>
@@ -5814,7 +5769,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>729</v>
       </c>
@@ -5846,7 +5801,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>739</v>
       </c>
@@ -5878,7 +5833,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>749</v>
       </c>
@@ -5910,7 +5865,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>759</v>
       </c>
@@ -5942,7 +5897,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>769</v>
       </c>
@@ -5974,7 +5929,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>779</v>
       </c>
@@ -6006,7 +5961,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>789</v>
       </c>
@@ -6038,7 +5993,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>799</v>
       </c>
@@ -6067,7 +6022,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>808</v>
       </c>
@@ -6096,7 +6051,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
         <v>817</v>
       </c>
@@ -6125,7 +6080,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
         <v>826</v>
       </c>
@@ -6151,7 +6106,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D48" s="1" t="s">
         <v>834</v>
       </c>
@@ -6177,7 +6132,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>842</v>
       </c>
@@ -6203,7 +6158,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>850</v>
       </c>
@@ -6226,7 +6181,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
         <v>857</v>
       </c>
@@ -6249,7 +6204,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>532</v>
       </c>
@@ -6272,7 +6227,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>870</v>
       </c>
@@ -6292,7 +6247,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
         <v>876</v>
       </c>
@@ -6312,7 +6267,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D55" s="5" t="s">
         <v>882</v>
       </c>
@@ -6332,7 +6287,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>888</v>
       </c>
@@ -6352,7 +6307,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>894</v>
       </c>
@@ -6372,7 +6327,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>900</v>
       </c>
@@ -6392,7 +6347,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="4:26" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>906</v>
       </c>
@@ -6412,7 +6367,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="4:26" ht="15" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
         <v>357</v>
       </c>
@@ -6429,7 +6384,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D61" s="4" t="s">
         <v>916</v>
       </c>
@@ -6446,7 +6401,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
         <v>921</v>
       </c>
@@ -6463,7 +6418,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>926</v>
       </c>
@@ -6480,7 +6435,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D64" s="1" t="s">
         <v>931</v>
       </c>
@@ -6497,7 +6452,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
         <v>936</v>
       </c>
@@ -6514,7 +6469,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="4" t="s">
         <v>941</v>
       </c>
@@ -6531,7 +6486,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
         <v>946</v>
       </c>
@@ -6548,7 +6503,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
         <v>946</v>
       </c>
@@ -6565,7 +6520,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
         <v>955</v>
       </c>
@@ -6582,7 +6537,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="4" t="s">
         <v>960</v>
       </c>
@@ -6599,7 +6554,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
         <v>965</v>
       </c>
@@ -6616,7 +6571,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="4" t="s">
         <v>970</v>
       </c>
@@ -6633,7 +6588,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
         <v>975</v>
       </c>
@@ -6650,7 +6605,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4" t="s">
         <v>980</v>
       </c>
@@ -6667,7 +6622,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>985</v>
       </c>
@@ -6680,11 +6635,11 @@
       <c r="L75" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="Z75" s="0" t="s">
+      <c r="Z75" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
         <v>990</v>
       </c>
@@ -6697,11 +6652,11 @@
       <c r="L76" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="Z76" s="0" t="s">
+      <c r="Z76" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
         <v>995</v>
       </c>
@@ -6714,11 +6669,11 @@
       <c r="L77" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="Z77" s="0" t="s">
+      <c r="Z77" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="4" t="s">
         <v>1000</v>
       </c>
@@ -6731,11 +6686,11 @@
       <c r="L78" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="Z78" s="0" t="s">
+      <c r="Z78" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="4" t="s">
         <v>1005</v>
       </c>
@@ -6745,47 +6700,50 @@
       <c r="I79" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="Z79" s="0" t="s">
+      <c r="Z79" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="I80" t="s">
         <v>1011</v>
       </c>
-      <c r="Z80" s="0" t="s">
+      <c r="Z80" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" t="s">
         <v>1015</v>
       </c>
-      <c r="Z81" s="0" t="s">
+      <c r="Z81" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Z82" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="83" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
         <v>1019</v>
       </c>
@@ -6793,7 +6751,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
         <v>1021</v>
       </c>
@@ -6801,46 +6759,45 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\lucas-silva\auto_shopee\planilhas\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9845A89-9C88-4084-85E4-865DBAF34786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF79A6-65E6-45D9-9D18-24BC917FEBA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1033">
   <si>
     <t>FITAS E  ADESIVOS</t>
   </si>
@@ -1146,9 +1146,6 @@
     <t>GARRA CABO BATERIA</t>
   </si>
   <si>
-    <t>PLUG</t>
-  </si>
-  <si>
     <t>PRESSURIZADOR CAIXA</t>
   </si>
   <si>
@@ -3244,6 +3241,15 @@
   </si>
   <si>
     <t>BUCHA REDUCAO LL 11/2X3/4 LONGA KRONA</t>
+  </si>
+  <si>
+    <t>PLUG MACHO</t>
+  </si>
+  <si>
+    <t>PLUG PORCELANA</t>
+  </si>
+  <si>
+    <t>PLUG RETANGULAR</t>
   </si>
 </sst>
 </file>
@@ -3440,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z82" sqref="Z82"/>
+    <sheetView tabSelected="1" topLeftCell="AC35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF58" sqref="AF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3602,7 +3608,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>40</v>
@@ -3700,7 +3706,7 @@
         <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>72</v>
@@ -3798,7 +3804,7 @@
         <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>104</v>
@@ -3896,7 +3902,7 @@
         <v>134</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>136</v>
@@ -3991,7 +3997,7 @@
         <v>165</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>167</v>
@@ -4086,7 +4092,7 @@
         <v>196</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>198</v>
@@ -4178,7 +4184,7 @@
         <v>224</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>226</v>
@@ -4267,7 +4273,7 @@
         <v>253</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>255</v>
@@ -4356,7 +4362,7 @@
         <v>282</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>284</v>
@@ -4442,7 +4448,7 @@
         <v>310</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>312</v>
@@ -4522,7 +4528,7 @@
         <v>336</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>338</v>
@@ -4596,368 +4602,368 @@
         <v>360</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AE14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="H15" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AE15" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="17" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="Q17" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="H18" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="Q18" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H19" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="O19" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AE19" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="AE19" s="4" t="s">
+      <c r="AF19" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.2">
@@ -4965,367 +4971,367 @@
         <v>221</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="H20" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AE20" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AF20" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>499</v>
-      </c>
       <c r="H21" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="22" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>312</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="H23" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="T23" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="Z23" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="24" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>550</v>
-      </c>
       <c r="H24" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="AF24" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="Q25" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="T25" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="Z25" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="AF25" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>582</v>
-      </c>
       <c r="H26" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="R26" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="AF26" s="1" t="s">
         <v>218</v>
@@ -5333,1465 +5339,1471 @@
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="H27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="O27" s="4"/>
       <c r="Q27" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AB27" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="AB27" s="4" t="s">
+      <c r="AF27" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>613</v>
-      </c>
       <c r="H28" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AB28" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="AB28" s="4" t="s">
+      <c r="AF28" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="T29" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AB29" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="AB29" s="4" t="s">
+      <c r="AF29" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="AF29" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="H30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AB30" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AF30" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="T31" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="T31" s="4" t="s">
+      <c r="Z31" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AF31" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="AF31" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>671</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="Z32" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AF32" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="AF32" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>685</v>
-      </c>
       <c r="H33" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="Z33" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AB33" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AF33" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="AF33" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="H34" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="Z34" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AB34" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AF34" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>709</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="Z35" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="Z35" s="4" t="s">
+      <c r="AB35" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="AB35" s="4" t="s">
+      <c r="AF35" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="AF35" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="36" spans="3:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="H36" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="Z36" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="Z36" s="4" t="s">
+      <c r="AB36" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="AB36" s="1" t="s">
-        <v>728</v>
+      <c r="AF36" s="1" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="Z37" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="Z37" s="4" t="s">
+      <c r="AB37" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="AB37" s="1" t="s">
-        <v>738</v>
+      <c r="AF37" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="Z38" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AB38" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="AB38" s="1" t="s">
-        <v>748</v>
+      <c r="AF38" s="1" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>752</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="Z39" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="Z39" s="4" t="s">
+      <c r="AB39" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="AB39" s="1" t="s">
-        <v>758</v>
+      <c r="AF39" s="1" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="40" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="H40" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="Z40" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="Z40" s="4" t="s">
+      <c r="AB40" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="AB40" s="1" t="s">
-        <v>768</v>
+      <c r="AF40" s="4" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>772</v>
-      </c>
       <c r="H41" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="N41" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="Z41" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="AB41" s="1" t="s">
-        <v>778</v>
+      <c r="AF41" s="1" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="Z42" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="AB42" s="1" t="s">
-        <v>788</v>
+      <c r="AF42" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>791</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>792</v>
-      </c>
       <c r="H43" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="L43" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="Z43" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AB43" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="AB43" s="1" t="s">
-        <v>798</v>
+      <c r="AF43" s="1" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="N44" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="N44" s="4" t="s">
+      <c r="Z44" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AB44" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="AB44" s="1" t="s">
-        <v>807</v>
+      <c r="AF44" s="1" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="45" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>809</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>810</v>
-      </c>
       <c r="H45" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="N45" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="Z45" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="Z45" s="4" t="s">
+      <c r="AB45" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="AB45" s="1" t="s">
-        <v>816</v>
+      <c r="AF45" s="1" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="46" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>819</v>
-      </c>
       <c r="H46" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="Z46" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="AB46" s="1" t="s">
-        <v>825</v>
+      <c r="AF46" s="4" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="47" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="Z47" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="Z47" s="4" t="s">
+      <c r="AF47" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="3:32" ht="15" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>834</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="Z48" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="Z48" s="4" t="s">
+      <c r="AF48" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="49" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D49" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="49" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="Z49" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="AF49" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="50" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="50" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="H50" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="Z50" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="AF50" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="51" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D51" s="1" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="51" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="Z51" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="AF51" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="52" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D52" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="52" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D52" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="Z52" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="AF52" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="53" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D53" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="53" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D53" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="Z53" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="Z53" s="1" t="s">
+      <c r="AF53" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="54" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D54" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="54" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D54" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="Z54" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="Z54" s="1" t="s">
+      <c r="AF54" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="55" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D55" s="5" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="55" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D55" s="5" t="s">
-        <v>882</v>
-      </c>
       <c r="H55" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="Z55" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="AF55" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="56" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D56" s="1" t="s">
-        <v>888</v>
-      </c>
       <c r="H56" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="N56" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="Z56" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AF56" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="57" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="57" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D57" s="1" t="s">
-        <v>894</v>
-      </c>
       <c r="H57" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="N57" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="Z57" s="4" t="s">
         <v>898</v>
       </c>
-      <c r="Z57" s="4" t="s">
+      <c r="AF57" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="58" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="58" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D58" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="Z58" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="Z58" s="4" t="s">
+    </row>
+    <row r="59" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D59" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="59" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D59" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="L59" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="N59" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="Z59" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="Z59" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="60" spans="4:26" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="Z60" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="Z60" s="1" t="s">
+    </row>
+    <row r="61" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="4" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="61" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="4" t="s">
-        <v>916</v>
-      </c>
       <c r="H61" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="Z61" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="Z61" s="1" t="s">
+    </row>
+    <row r="62" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="1" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="62" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="1" t="s">
-        <v>921</v>
-      </c>
       <c r="H62" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>922</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="L62" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="Z62" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="Z62" s="1" t="s">
+    </row>
+    <row r="63" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="63" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>927</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="L63" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="Z63" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="Z63" s="1" t="s">
+    </row>
+    <row r="64" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="1" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="64" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="H64" s="4" t="s">
+      <c r="H64" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="L64" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="Z64" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="Z64" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="65" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="H65" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="Z65" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="Z65" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="66" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="H66" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="L66" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="Z66" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="Z66" s="1" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="67" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="H67" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="Z67" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="Z67" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="68" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="H68" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="L68" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="Z68" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="69" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="H69" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>956</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="L69" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="Z69" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="70" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="H70" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="Z70" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="71" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="H71" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="L71" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="Z71" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="Z71" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="72" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="H72" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="Z72" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="73" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="H73" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="I73" s="4" t="s">
+      <c r="L73" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="Z73" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="74" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="H74" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="Z74" s="6" t="s">
         <v>983</v>
-      </c>
-      <c r="Z74" s="6" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="75" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="H75" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="Z75" t="s">
         <v>988</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="76" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="H76" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="I76" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="Z76" t="s">
         <v>993</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="77" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="H77" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="Z77" t="s">
         <v>998</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="78" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H78" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="L78" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="Z78" t="s">
         <v>1003</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H79" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="Z79" t="s">
         <v>1007</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="80" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H80" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I80" t="s">
         <v>1010</v>
       </c>
-      <c r="I80" t="s">
+      <c r="Z80" t="s">
         <v>1011</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H81" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I81" t="s">
         <v>1014</v>
       </c>
-      <c r="I81" t="s">
+      <c r="Z81" t="s">
         <v>1015</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="82" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="Z82" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="83" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="84" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="85" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="86" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="87" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="88" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="89" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="90" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="91" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="1034">
   <si>
     <t xml:space="preserve">FITAS E  ADESIVOS</t>
   </si>
@@ -2128,6 +2128,9 @@
     <t xml:space="preserve">BANDEIA PINTURA</t>
   </si>
   <si>
+    <t xml:space="preserve">SISTEMA X ILUMI LUVA</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLAS PVC</t>
   </si>
   <si>
@@ -3254,7 +3257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3296,6 +3299,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3340,7 +3349,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3358,6 +3367,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3494,8 +3507,8 @@
   </sheetPr>
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF58" activeCellId="0" sqref="AF58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5627,7 +5640,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
         <v>668</v>
       </c>
@@ -5640,668 +5653,670 @@
       <c r="F32" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="H32" s="0"/>
+      <c r="H32" s="5" t="s">
+        <v>672</v>
+      </c>
       <c r="I32" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>411</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AB35" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF36" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF38" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AB39" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF43" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AB44" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF46" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF47" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="H48" s="5" t="s">
         <v>848</v>
       </c>
+      <c r="H48" s="6" t="s">
+        <v>849</v>
+      </c>
       <c r="I48" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="AF48" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF49" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,183 +6324,183 @@
         <v>532</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF52" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="6" t="s">
-        <v>900</v>
+      <c r="D55" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF55" s="1" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,366 +6508,366 @@
         <v>357</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D61" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D65" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D66" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D67" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D68" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D69" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D70" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D71" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D72" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D73" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D74" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="Z74" s="5" t="s">
         <v>996</v>
+      </c>
+      <c r="Z74" s="6" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D75" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D76" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D77" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="Z77" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D78" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D79" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="Z79" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D80" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Z80" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D81" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="Z81" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D82" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D83" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D84" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D85" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D86" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D87" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D88" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D89" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D90" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D91" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>

--- a/planilhas/outputs/Categorizados.xlsx
+++ b/planilhas/outputs/Categorizados.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\lucas-silva\auto_shopee\planilhas\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B989B32-F125-45C2-AB97-D55C37C33901}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,48 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="1034">
-  <si>
-    <t xml:space="preserve">FITAS E  ADESIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA IMPERMEABILIZANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRAGENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVERSOS UD (UTILIDADES DOMESTICAS)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="1038">
+  <si>
+    <t>FITAS E  ADESIVOS</t>
+  </si>
+  <si>
+    <t>FITA IMPERMEABILIZANTES</t>
+  </si>
+  <si>
+    <t>FERRAGENS</t>
+  </si>
+  <si>
+    <t>DIVERSOS UD (UTILIDADES DOMESTICAS)</t>
   </si>
   <si>
     <t xml:space="preserve">COLAS </t>
   </si>
   <si>
-    <t xml:space="preserve">PINTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOMOTIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELÉTRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIDRAULICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRIFICANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRAMENTAS MANUAIS</t>
+    <t>PINTURA</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVA</t>
+  </si>
+  <si>
+    <t>ELÉTRICA</t>
+  </si>
+  <si>
+    <t>HIDRAULICA</t>
+  </si>
+  <si>
+    <t>PISOS</t>
+  </si>
+  <si>
+    <t>LUBRIFICANTES</t>
+  </si>
+  <si>
+    <t>FERRAMENTAS MANUAIS</t>
   </si>
   <si>
     <t xml:space="preserve">FERRAMENTAS MANUAIS ACESSÓRIOS </t>
   </si>
   <si>
-    <t xml:space="preserve">FERRAMENTAS ELETRICA E ACESSORIOS</t>
+    <t>FERRAMENTAS ELETRICA E ACESSORIOS</t>
   </si>
   <si>
     <t xml:space="preserve">PARAFUSOS </t>
@@ -70,148 +75,148 @@
     <t xml:space="preserve">MASSAS </t>
   </si>
   <si>
-    <t xml:space="preserve">BANHEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUTROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPERMEABILIZANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILHAS E BATEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELHAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFOS CALHAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONEXÕES AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONEXÕES ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRO JARDIM E PISCINAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORROSIVOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA E CADEADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADAS</t>
+    <t>BANHEIRO</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>CHUVEIROS</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>IMPERMEABILIZANTES</t>
+  </si>
+  <si>
+    <t>PILHAS E BATEIRAS</t>
+  </si>
+  <si>
+    <t>TELHAS</t>
+  </si>
+  <si>
+    <t>ANTENAS</t>
+  </si>
+  <si>
+    <t>RUFOS CALHAS</t>
+  </si>
+  <si>
+    <t>CONEXÕES AGUA</t>
+  </si>
+  <si>
+    <t>CONEXÕES ESGOTO</t>
+  </si>
+  <si>
+    <t>AGRO JARDIM E PISCINAS</t>
+  </si>
+  <si>
+    <t>PIAS</t>
+  </si>
+  <si>
+    <t>CORROSIVOS</t>
+  </si>
+  <si>
+    <t>TRAVA E CADEADOS</t>
+  </si>
+  <si>
+    <t>TOMADAS</t>
   </si>
   <si>
     <t xml:space="preserve">FITA DUREX </t>
   </si>
   <si>
-    <t xml:space="preserve">FITAS TIRA TRINCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRODEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA BRANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATIDA DE PEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRUGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO CAIXA D'AGUA</t>
+    <t>FITAS TIRA TRINCA</t>
+  </si>
+  <si>
+    <t>ROLDANA</t>
+  </si>
+  <si>
+    <t>KRODEC</t>
+  </si>
+  <si>
+    <t>COLA BRANCA</t>
+  </si>
+  <si>
+    <t>ROLO</t>
+  </si>
+  <si>
+    <t>BATIDA DE PEDRA</t>
+  </si>
+  <si>
+    <t>LUVA CORRUGADO</t>
+  </si>
+  <si>
+    <t>FILTRO CAIXA D'AGUA</t>
   </si>
   <si>
     <t xml:space="preserve">ESPATULA SILICONE REJUNTE </t>
   </si>
   <si>
-    <t xml:space="preserve">GRAFITE EM PÓ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLDA TUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLITRIZ GOODYEAR ANG 71/4 1100W 220V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO HERC</t>
+    <t>GRAFITE EM PÓ</t>
+  </si>
+  <si>
+    <t>SACHO</t>
+  </si>
+  <si>
+    <t>SOLDA TUBO</t>
+  </si>
+  <si>
+    <t>POLITRIZ GOODYEAR ANG 71/4 1100W 220V</t>
+  </si>
+  <si>
+    <t>BUCHA</t>
+  </si>
+  <si>
+    <t>CIMENTO</t>
+  </si>
+  <si>
+    <t>ASSENTO HERC</t>
   </si>
   <si>
     <t xml:space="preserve">CAPACETE </t>
   </si>
   <si>
-    <t xml:space="preserve">BRACO CHUVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO CABO PATCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILHA ALCALINA</t>
+    <t>BRACO CHUVEIRO</t>
+  </si>
+  <si>
+    <t>FIO CABO PATCH</t>
+  </si>
+  <si>
+    <t>OTTO</t>
+  </si>
+  <si>
+    <t>PILHA ALCALINA</t>
   </si>
   <si>
     <t xml:space="preserve">CONJUNTO VEDACAO </t>
   </si>
   <si>
-    <t xml:space="preserve">ANTENA UHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL VIRGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE RORATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO LINHAÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAÇANETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI CONJUNTO</t>
+    <t>ANTENA UHF</t>
+  </si>
+  <si>
+    <t>RUFO</t>
+  </si>
+  <si>
+    <t>CURVA 3/4</t>
+  </si>
+  <si>
+    <t>JOELHO ESGOTO</t>
+  </si>
+  <si>
+    <t>CAL VIRGEM</t>
+  </si>
+  <si>
+    <t>TANQUE RORATO</t>
+  </si>
+  <si>
+    <t>OLEO LINHAÇA</t>
+  </si>
+  <si>
+    <t>MAÇANETA</t>
+  </si>
+  <si>
+    <t>ILUMI CONJUNTO</t>
   </si>
   <si>
     <t xml:space="preserve">FITA CREPE </t>
@@ -220,64 +225,64 @@
     <t xml:space="preserve">DENVERFITA  </t>
   </si>
   <si>
-    <t xml:space="preserve">MANCAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA CONTATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA PLASTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFON</t>
+    <t>MANCAL</t>
+  </si>
+  <si>
+    <t>RAQUETE</t>
+  </si>
+  <si>
+    <t>COLA CONTATO</t>
+  </si>
+  <si>
+    <t>EXTENSOR</t>
+  </si>
+  <si>
+    <t>MASSA PLASTICA</t>
+  </si>
+  <si>
+    <t>PLAFON</t>
   </si>
   <si>
     <t xml:space="preserve">IBIRA SUPORTE DRENAGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">ALICATE NIVELADOR PISO/PAREDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORCADO</t>
+    <t>ALICATE NIVELADOR PISO/PAREDE</t>
+  </si>
+  <si>
+    <t>WD-40</t>
+  </si>
+  <si>
+    <t>FORCADO</t>
   </si>
   <si>
     <t xml:space="preserve">LÁPIS </t>
   </si>
   <si>
-    <t xml:space="preserve">SOPRADOR TERMICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO DRYWALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REJUNTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO SANITARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA SINALIZADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATERIA</t>
+    <t>SOPRADOR TERMICO</t>
+  </si>
+  <si>
+    <t>PARAFUSO DRYWALL</t>
+  </si>
+  <si>
+    <t>REJUNTE</t>
+  </si>
+  <si>
+    <t>ASSENTO SANITARIO</t>
+  </si>
+  <si>
+    <t>COLETE</t>
+  </si>
+  <si>
+    <t>RESISTENCIA</t>
+  </si>
+  <si>
+    <t>PLACA SINALIZADORA</t>
+  </si>
+  <si>
+    <t>ADITIVO</t>
+  </si>
+  <si>
+    <t>BATERIA</t>
   </si>
   <si>
     <t xml:space="preserve">TELHA </t>
@@ -289,88 +294,88 @@
     <t xml:space="preserve">ACESSÓRIOS </t>
   </si>
   <si>
-    <t xml:space="preserve">TEE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESGUICHO REVOLVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SODA CAUSTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA JARDIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULO TRAMONTINA</t>
+    <t>TEE 11/2</t>
+  </si>
+  <si>
+    <t>TE ESGOTO</t>
+  </si>
+  <si>
+    <t>ESGUICHO REVOLVER</t>
+  </si>
+  <si>
+    <t>PIA FIBRA</t>
+  </si>
+  <si>
+    <t>SODA CAUSTICA</t>
+  </si>
+  <si>
+    <t>TORNEIRA JARDIM</t>
+  </si>
+  <si>
+    <t>MODULO TRAMONTINA</t>
   </si>
   <si>
     <t xml:space="preserve">FITA EMBALAGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">FITA AUTO ADESIVA</t>
+    <t>FITA AUTO ADESIVA</t>
   </si>
   <si>
     <t xml:space="preserve">FITA PERFURADA </t>
   </si>
   <si>
-    <t xml:space="preserve">MATA CUPIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEKBOND COLA INSTANTANEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATALISADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFLETOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPEADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANETA</t>
+    <t>MATA CUPIM</t>
+  </si>
+  <si>
+    <t>TEKBOND COLA INSTANTANEA</t>
+  </si>
+  <si>
+    <t>GARFO</t>
+  </si>
+  <si>
+    <t>CATALISADOR</t>
+  </si>
+  <si>
+    <t>REFLETOR</t>
+  </si>
+  <si>
+    <t>PRESSURIZADOR</t>
+  </si>
+  <si>
+    <t>CORTADOR PISO</t>
+  </si>
+  <si>
+    <t>GRAXA</t>
+  </si>
+  <si>
+    <t>GRAMPEADOR</t>
+  </si>
+  <si>
+    <t>CANETA</t>
   </si>
   <si>
     <t xml:space="preserve">MAKITA </t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO CHIPBOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DESCARGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASCARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACIT</t>
+    <t>PARAFUSO CHIPBOARD</t>
+  </si>
+  <si>
+    <t>GESSO</t>
+  </si>
+  <si>
+    <t>CAIXA DESCARGA</t>
+  </si>
+  <si>
+    <t>MASCARA</t>
+  </si>
+  <si>
+    <t>CHUVEIRO</t>
+  </si>
+  <si>
+    <t>ELASTICO</t>
+  </si>
+  <si>
+    <t>VEDACIT</t>
   </si>
   <si>
     <r>
@@ -390,224 +395,224 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PANASONIC</t>
+      <t>PANASONIC</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CUMEEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA TRAMONTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA PEDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO LATAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO TRAMONTINA</t>
+    <t>CUMEEIRA</t>
+  </si>
+  <si>
+    <t>CONECTOR METAL</t>
+  </si>
+  <si>
+    <t>SUPORTE CALHA</t>
+  </si>
+  <si>
+    <t>TE 11/2</t>
+  </si>
+  <si>
+    <t>CURVA ESGOTO</t>
+  </si>
+  <si>
+    <t>EMENDA TRAMONTINA</t>
+  </si>
+  <si>
+    <t>PIA INOX</t>
+  </si>
+  <si>
+    <t>LIMPA PEDRA</t>
+  </si>
+  <si>
+    <t>CADEADO LATAO</t>
+  </si>
+  <si>
+    <t>ESPELHO TRAMONTINA</t>
   </si>
   <si>
     <t xml:space="preserve">FITA ISOLANTE </t>
   </si>
   <si>
-    <t xml:space="preserve">FITAS ALUMÍNIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA MOVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRINCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THINNER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPADA</t>
+    <t>FITAS ALUMÍNIO</t>
+  </si>
+  <si>
+    <t>CANTONEIRA MOVEIS</t>
+  </si>
+  <si>
+    <t>LAVATINA</t>
+  </si>
+  <si>
+    <t>COLA MADEIRA</t>
+  </si>
+  <si>
+    <t>TRINCHA</t>
+  </si>
+  <si>
+    <t>THINNER</t>
+  </si>
+  <si>
+    <t>LAMPADA</t>
   </si>
   <si>
     <t xml:space="preserve">ENGATE </t>
   </si>
   <si>
-    <t xml:space="preserve">MARTELO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUBRIFICANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE CABRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAMPO</t>
+    <t>MARTELO BORRACHA</t>
+  </si>
+  <si>
+    <t>LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>PE CABRA</t>
+  </si>
+  <si>
+    <t>GRAMPO</t>
   </si>
   <si>
     <t xml:space="preserve">FURADEIRA </t>
   </si>
   <si>
-    <t xml:space="preserve">CHUMBADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CORRIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BACIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AQUECEDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANUNCIADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICO UNIAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUBA INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERJA LIMPADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA CADEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO TRAMONTINA</t>
+    <t>CHUMBADOR</t>
+  </si>
+  <si>
+    <t>MASSA CORRIDA</t>
+  </si>
+  <si>
+    <t>BACIA</t>
+  </si>
+  <si>
+    <t>RESPIRADOR</t>
+  </si>
+  <si>
+    <t>AQUECEDOR</t>
+  </si>
+  <si>
+    <t>ANUNCIADOR</t>
+  </si>
+  <si>
+    <t>DENVER</t>
+  </si>
+  <si>
+    <t>TABUA</t>
+  </si>
+  <si>
+    <t>EMENDA</t>
+  </si>
+  <si>
+    <t>CALHA</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL</t>
+  </si>
+  <si>
+    <t>LUVA ESGOTO</t>
+  </si>
+  <si>
+    <t>BICO UNIAO</t>
+  </si>
+  <si>
+    <t>CUBA INOX</t>
+  </si>
+  <si>
+    <t>FERJA LIMPADOR</t>
+  </si>
+  <si>
+    <t>PORTA CADEADO</t>
+  </si>
+  <si>
+    <t>CONJUNTO TRAMONTINA</t>
   </si>
   <si>
     <t xml:space="preserve">DUPLA FACE </t>
   </si>
   <si>
-    <t xml:space="preserve">DRYKO FITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA PRATELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTACULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICORROSIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA VERTICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA MARMORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA TORNEADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARGAMASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPA CHUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA P/ CANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SARRAFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE ANTENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA ZINCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTILIT LUVA AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESGUICHO PADRAO</t>
+    <t>DRYKO FITA</t>
+  </si>
+  <si>
+    <t>CANTONEIRA PRATELEIRA</t>
+  </si>
+  <si>
+    <t>RALINHO</t>
+  </si>
+  <si>
+    <t>REFIL COLA</t>
+  </si>
+  <si>
+    <t>SPRAY</t>
+  </si>
+  <si>
+    <t>AGUARAZ</t>
+  </si>
+  <si>
+    <t>RECEPTACULO</t>
+  </si>
+  <si>
+    <t>SPUD</t>
+  </si>
+  <si>
+    <t>VENTOSA</t>
+  </si>
+  <si>
+    <t>ANTICORROSIVO</t>
+  </si>
+  <si>
+    <t>BOMBA VERTICAL</t>
+  </si>
+  <si>
+    <t>ELETRODO</t>
+  </si>
+  <si>
+    <t>SERRA MARMORE</t>
+  </si>
+  <si>
+    <t>PORCA TORNEADA</t>
+  </si>
+  <si>
+    <t>ARGAMASSA</t>
+  </si>
+  <si>
+    <t>VASO</t>
+  </si>
+  <si>
+    <t>CAPA CHUVA</t>
+  </si>
+  <si>
+    <t>DUCHA</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA P/ CANO</t>
+  </si>
+  <si>
+    <t>SIKA</t>
+  </si>
+  <si>
+    <t>SARRAFO</t>
+  </si>
+  <si>
+    <t>SUPORTE ANTENA</t>
+  </si>
+  <si>
+    <t>CALHA ZINCO</t>
+  </si>
+  <si>
+    <t>MULTILIT LUVA AZUL</t>
+  </si>
+  <si>
+    <t>JUNCAO ESGOTO</t>
+  </si>
+  <si>
+    <t>ESGUICHO PADRAO</t>
   </si>
   <si>
     <t xml:space="preserve">PIA SINTETICA </t>
   </si>
   <si>
-    <t xml:space="preserve">DIABO VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHO CHATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEC PLACA</t>
+    <t>DIABO VERDE</t>
+  </si>
+  <si>
+    <t>FECHO CHATO</t>
+  </si>
+  <si>
+    <t>MEC PLACA</t>
   </si>
   <si>
     <t xml:space="preserve">SILVER TAPE </t>
@@ -616,400 +621,400 @@
     <t xml:space="preserve">TELA P/ TRINCA </t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE PRATELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENTUPIDOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA JUNTA DIESEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAXI RUBBER PRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERFONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO DE LIGAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASELINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FERRAMENTA</t>
+    <t>SUPORTE PRATELEIRA</t>
+  </si>
+  <si>
+    <t>DESENTUPIDOR</t>
+  </si>
+  <si>
+    <t>COLA JUNTA DIESEL</t>
+  </si>
+  <si>
+    <t>BROXA</t>
+  </si>
+  <si>
+    <t>MAXI RUBBER PRIMER</t>
+  </si>
+  <si>
+    <t>INTERFONE</t>
+  </si>
+  <si>
+    <t>TUBO DE LIGAÇÃO</t>
+  </si>
+  <si>
+    <t>PALHA AÇO</t>
+  </si>
+  <si>
+    <t>VASELINA</t>
+  </si>
+  <si>
+    <t>CAIXA FERRAMENTA</t>
   </si>
   <si>
     <t xml:space="preserve">PNEU </t>
   </si>
   <si>
-    <t xml:space="preserve">MARTELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARUELA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ÓCULOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRAÇADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTALETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVISOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALHA FORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO ESFERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REDUCAO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESINFETANTE CREO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHADURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO RADIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA TELADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RATOEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REMOVEDOR FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA FIBRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNTALIDER GRAFITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORTADOR DE VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMASSA USO GERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA DE APOIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA MAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIRRESPINGO SOLDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRYKOPRIMER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE EXTERNO ZINCO PLATIBANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA RETENCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA ARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIA ACO INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONVERTEDOR DE FERRUGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO PADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO RADIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ZEBRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA VEDATUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA P/ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPÓXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADESIVO LAMINAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA LAVATORIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPACADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO MAQUINA</t>
+    <t>MARTELETE</t>
+  </si>
+  <si>
+    <t>ARUELA ZINC</t>
+  </si>
+  <si>
+    <t>PORCELANA PISO</t>
+  </si>
+  <si>
+    <t>LAVATORIO</t>
+  </si>
+  <si>
+    <t>ÓCULOS</t>
+  </si>
+  <si>
+    <t>ABRAÇADEIRA NYLON</t>
+  </si>
+  <si>
+    <t>VIAPOL</t>
+  </si>
+  <si>
+    <t>PONTALETE</t>
+  </si>
+  <si>
+    <t>DIVISOR</t>
+  </si>
+  <si>
+    <t>CALHA FORTE</t>
+  </si>
+  <si>
+    <t>REGISTRO ESFERA</t>
+  </si>
+  <si>
+    <t>REDUCAO ESGOTO</t>
+  </si>
+  <si>
+    <t>TANQUE PLASTICO</t>
+  </si>
+  <si>
+    <t>DESINFETANTE CREO</t>
+  </si>
+  <si>
+    <t>FECHADURA</t>
+  </si>
+  <si>
+    <t>CONJUNTO RADIAL</t>
+  </si>
+  <si>
+    <t>FITA ANTIDERRAPANTE</t>
+  </si>
+  <si>
+    <t>FITA TELADA</t>
+  </si>
+  <si>
+    <t>CANTONEIRA ALUMINIO</t>
+  </si>
+  <si>
+    <t>RATOEIRA</t>
+  </si>
+  <si>
+    <t>REMOVEDOR FERRUGEM</t>
+  </si>
+  <si>
+    <t>MANTA FIBRA</t>
+  </si>
+  <si>
+    <t>SOQUETE</t>
+  </si>
+  <si>
+    <t>SIFAO</t>
+  </si>
+  <si>
+    <t>JOELHEIRA</t>
+  </si>
+  <si>
+    <t>JUNTALIDER GRAFITE</t>
+  </si>
+  <si>
+    <t>CORTADOR DE VIDRO</t>
+  </si>
+  <si>
+    <t>CAMARA</t>
+  </si>
+  <si>
+    <t>PISTOLA COLA</t>
+  </si>
+  <si>
+    <t>REBITE</t>
+  </si>
+  <si>
+    <t>MULTIMASSA USO GERAL</t>
+  </si>
+  <si>
+    <t>BARRA DE APOIO</t>
+  </si>
+  <si>
+    <t>LUVA MAO</t>
+  </si>
+  <si>
+    <t>ANTIRRESPINGO SOLDA</t>
+  </si>
+  <si>
+    <t>DRYKOPRIMER</t>
+  </si>
+  <si>
+    <t>RECEPTOR</t>
+  </si>
+  <si>
+    <t>SUPORTE EXTERNO ZINCO PLATIBANDA</t>
+  </si>
+  <si>
+    <t>KRONA PLUG</t>
+  </si>
+  <si>
+    <t>VALVULA RETENCAO</t>
+  </si>
+  <si>
+    <t>PENEIRA ARO</t>
+  </si>
+  <si>
+    <t>PIA ACO INOX</t>
+  </si>
+  <si>
+    <t>CONVERTEDOR DE FERRUGEM</t>
+  </si>
+  <si>
+    <t>CADEADO PADO</t>
+  </si>
+  <si>
+    <t>ESPELHO RADIAL</t>
+  </si>
+  <si>
+    <t>FITA ZEBRADA</t>
+  </si>
+  <si>
+    <t>FITA VEDATUDO</t>
+  </si>
+  <si>
+    <t>SUPORTE BRASFORT</t>
+  </si>
+  <si>
+    <t>AGULHA P/ FOGÃO</t>
+  </si>
+  <si>
+    <t>EPÓXI</t>
+  </si>
+  <si>
+    <t>TINTA</t>
+  </si>
+  <si>
+    <t>ADESIVO LAMINAÇÃO</t>
+  </si>
+  <si>
+    <t>BARRAMENTO</t>
+  </si>
+  <si>
+    <t>VALVULA LAVATORIO</t>
+  </si>
+  <si>
+    <t>ESPACADOR</t>
+  </si>
+  <si>
+    <t>OLEO MAQUINA</t>
   </si>
   <si>
     <t xml:space="preserve">ESPATULA </t>
   </si>
   <si>
-    <t xml:space="preserve">CINTO FERRAMENTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERRO SOLDA</t>
+    <t>CINTO FERRAMENTAS</t>
+  </si>
+  <si>
+    <t>FERRO SOLDA</t>
   </si>
   <si>
     <t xml:space="preserve">PITÃO </t>
   </si>
   <si>
-    <t xml:space="preserve">VARANDAS E QUINTAIS SC 20KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABAFADOR DE RUIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA VIDRACEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA LIQUIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.FORTE SUPORTE EXTERNO ZINCO 28 MOLDURA TORCIDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR CURTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANQUE SINTETICO RORATO</t>
+    <t>VARANDAS E QUINTAIS SC 20KG</t>
+  </si>
+  <si>
+    <t>ARMARIO</t>
+  </si>
+  <si>
+    <t>ABAFADOR DE RUIDOS</t>
+  </si>
+  <si>
+    <t>MASSA VIDRACEIRO</t>
+  </si>
+  <si>
+    <t>MANTA LIQUIDA</t>
+  </si>
+  <si>
+    <t>ANTENA EXT</t>
+  </si>
+  <si>
+    <t>C.FORTE SUPORTE EXTERNO ZINCO 28 MOLDURA TORCIDO</t>
+  </si>
+  <si>
+    <t>ADAPTADOR CURTO</t>
+  </si>
+  <si>
+    <t>CAPS ESGOTO</t>
+  </si>
+  <si>
+    <t>PENEIRA PLASTICO</t>
+  </si>
+  <si>
+    <t>TANQUE SINTETICO RORATO</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVEDOR DE FERRUGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">CADEADO PAPAIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTAO DOMESTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARALDITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SABESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVELADOR PISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA CONTATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPATULAS METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIRADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCAPULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA PRONTA ASSENT REVEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOUCADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR AUDITIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA CALAFETAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTENA INTERNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA CURTA ESGOTO</t>
+    <t>CADEADO PAPAIZ</t>
+  </si>
+  <si>
+    <t>ILUMI PLACA</t>
+  </si>
+  <si>
+    <t>FITA MARROM</t>
+  </si>
+  <si>
+    <t>FITA MULTIUSO</t>
+  </si>
+  <si>
+    <t>DOBRADICA</t>
+  </si>
+  <si>
+    <t>PORTAO DOMESTICO</t>
+  </si>
+  <si>
+    <t>ARALDITE</t>
+  </si>
+  <si>
+    <t>LIXA MASSA</t>
+  </si>
+  <si>
+    <t>BOINA</t>
+  </si>
+  <si>
+    <t>SISTEMA CANALETA</t>
+  </si>
+  <si>
+    <t>CAIXA SABESP</t>
+  </si>
+  <si>
+    <t>NIVELADOR PISO</t>
+  </si>
+  <si>
+    <t>LIMPA CONTATO</t>
+  </si>
+  <si>
+    <t>ESPATULAS METAL</t>
+  </si>
+  <si>
+    <t>CABO MULTIMETRO</t>
+  </si>
+  <si>
+    <t>ASPIRADOR</t>
+  </si>
+  <si>
+    <t>ESCAPULA</t>
+  </si>
+  <si>
+    <t>MASSA PRONTA ASSENT REVEST</t>
+  </si>
+  <si>
+    <t>TOUCADOR</t>
+  </si>
+  <si>
+    <t>PROTETOR AUDITIVO</t>
+  </si>
+  <si>
+    <t>MASSA CALAFETAR</t>
+  </si>
+  <si>
+    <t>TECPLUS</t>
+  </si>
+  <si>
+    <t>ANTENA INTERNA</t>
+  </si>
+  <si>
+    <t>CAP 3/4</t>
+  </si>
+  <si>
+    <t>CURVA CURTA ESGOTO</t>
   </si>
   <si>
     <t xml:space="preserve">PULVERIZADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">TANQUE SINTETICO GRAN N2 110X55 PRETO AJ RORATO</t>
+    <t>TANQUE SINTETICO GRAN N2 110X55 PRETO AJ RORATO</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVEDOR COLA </t>
   </si>
   <si>
-    <t xml:space="preserve">CORRENTE SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI ESPELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LORENZETTI FITA ISOLANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ALTA FUSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIBRA ABRASIVA LIMPEZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA AZULEJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALVITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXINHA LUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PALHA DE ACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGER OLEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAPIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA E PISO PISO EXTERNO CINZA 20KG PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESENGRAXANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIABIT</t>
+    <t>CORRENTE SOLDAVEL</t>
+  </si>
+  <si>
+    <t>ILUMI ESPELHO</t>
+  </si>
+  <si>
+    <t>LORENZETTI FITA ISOLANTE</t>
+  </si>
+  <si>
+    <t>FITA ALTA FUSAO</t>
+  </si>
+  <si>
+    <t>PREGO</t>
+  </si>
+  <si>
+    <t>FIBRA ABRASIVA LIMPEZA</t>
+  </si>
+  <si>
+    <t>COLA AZULEJO</t>
+  </si>
+  <si>
+    <t>BANDEIA</t>
+  </si>
+  <si>
+    <t>GALVITE</t>
+  </si>
+  <si>
+    <t>CAIXINHA LUZ</t>
+  </si>
+  <si>
+    <t>TUBO</t>
+  </si>
+  <si>
+    <t>PALHA DE ACO</t>
+  </si>
+  <si>
+    <t>SINGER OLEO</t>
+  </si>
+  <si>
+    <t>TRENA</t>
+  </si>
+  <si>
+    <t>LAPIS</t>
+  </si>
+  <si>
+    <t>MULTIMETRO</t>
+  </si>
+  <si>
+    <t>GANCHO</t>
+  </si>
+  <si>
+    <t>PORCELANA E PISO PISO EXTERNO CINZA 20KG PLACA</t>
+  </si>
+  <si>
+    <t>KIT FIXACAO</t>
+  </si>
+  <si>
+    <t>CINTO DELTA</t>
+  </si>
+  <si>
+    <t>DESENGRAXANTE</t>
+  </si>
+  <si>
+    <t>VIABIT</t>
   </si>
   <si>
     <r>
@@ -1029,326 +1034,326 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">COAXIAL</t>
+      <t>COAXIAL</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LUVA 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA PULVERIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TARGETA RCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULO MECTRONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITA ANTIDERRAP 50MMX05M TEKBOND PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA ASFALTICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAME</t>
+    <t>LUVA 3/4</t>
+  </si>
+  <si>
+    <t>COTOVELO ESGOTO</t>
+  </si>
+  <si>
+    <t>EDA PULVERIZADOR</t>
+  </si>
+  <si>
+    <t>TARGETA RCA</t>
+  </si>
+  <si>
+    <t>MODULO MECTRONIC</t>
+  </si>
+  <si>
+    <t>FITA ANTIDERRAP 50MMX05M TEKBOND PRETO</t>
+  </si>
+  <si>
+    <t>MANTA ASFALTICA</t>
+  </si>
+  <si>
+    <t>ARAME</t>
   </si>
   <si>
     <t xml:space="preserve">AREJADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">VEDACALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUNHA NIVELADORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO LUBRIFICANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINHA PEDREIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL MACARICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMPERIMETRO DIGITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ABROCANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA E PISO PISO INTERNO CINZA 20KG PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODIZIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTTO PRIMER MANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS DE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENROLADOR MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA PORTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO MECTRONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDATUDO FITA ADESIVA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCORA PINO LISO AÇÃO INDIRETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PU40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMA PINCEL ARTESANATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRA CABO BATERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR BORNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZADOR CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAXA SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESEMPENADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS MACARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RABO QUENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO MAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCELANA E PISO PISO EXTERNO BRANCO 20KG PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA ACOPLADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAPATO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPACITOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIMER MANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA MOSQUITEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA PORTAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO PIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASILIT FITA ADESIVA ALUMINIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA CORREIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA VINIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAÇAMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO CHUPETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDUITE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA BOIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALICATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAS BUTANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTE VOLTAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO SEXTAVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO SANITÁRIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAPIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE LLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO VISITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NYLON CORTAR GRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHO CADEADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA MODULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACHINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRA AFIAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA FIXA TUDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERNIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANTA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO SOM/LUSTRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO DESENGRIPANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO CAVADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA D'AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA BORBOLETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTOR FIXACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO REDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEUTROL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA TRANÇADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO STAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIRATRINCA FITA P/ TRINCA 005X03M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA FIXA ESPELHO/CUBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRACADEIRA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABO FLEX</t>
+    <t>VEDACALHA</t>
+  </si>
+  <si>
+    <t>CORANTE</t>
+  </si>
+  <si>
+    <t>ESTOPA</t>
+  </si>
+  <si>
+    <t>TERMINAL</t>
+  </si>
+  <si>
+    <t>CAIXA D'AGUA</t>
+  </si>
+  <si>
+    <t>CUNHA NIVELADORA</t>
+  </si>
+  <si>
+    <t>OLEO LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>LINHA PEDREIRO</t>
+  </si>
+  <si>
+    <t>REFIL MACARICOS</t>
+  </si>
+  <si>
+    <t>AMPERIMETRO DIGITAL</t>
+  </si>
+  <si>
+    <t>PARAFUSO ABROCANTE</t>
+  </si>
+  <si>
+    <t>PORCELANA E PISO PISO INTERNO CINZA 20KG PLACA</t>
+  </si>
+  <si>
+    <t>PARAFUSO FIXACAO</t>
+  </si>
+  <si>
+    <t>BOTA</t>
+  </si>
+  <si>
+    <t>RODIZIO</t>
+  </si>
+  <si>
+    <t>OTTO PRIMER MANTA</t>
+  </si>
+  <si>
+    <t>KRONA LUVA LL</t>
+  </si>
+  <si>
+    <t>CAPS DE ESGOTO</t>
+  </si>
+  <si>
+    <t>ENROLADOR MANGUEIRA</t>
+  </si>
+  <si>
+    <t>TRAVA PORTA</t>
+  </si>
+  <si>
+    <t>CONJUNTO MECTRONIC</t>
+  </si>
+  <si>
+    <t>VEDATUDO FITA ADESIVA ALUMINIO</t>
+  </si>
+  <si>
+    <t>ANCORA PINO LISO AÇÃO INDIRETA</t>
+  </si>
+  <si>
+    <t>CESTINHA</t>
+  </si>
+  <si>
+    <t>PU40</t>
+  </si>
+  <si>
+    <t>ROMA PINCEL ARTESANATO</t>
+  </si>
+  <si>
+    <t>GARRA CABO BATERIA</t>
+  </si>
+  <si>
+    <t>CONECTOR BORNE</t>
+  </si>
+  <si>
+    <t>PRESSURIZADOR CAIXA</t>
+  </si>
+  <si>
+    <t>GRAXA SPRAY</t>
+  </si>
+  <si>
+    <t>DESEMPENADEIRA</t>
+  </si>
+  <si>
+    <t>GAS MACARICO</t>
+  </si>
+  <si>
+    <t>RABO QUENTE</t>
+  </si>
+  <si>
+    <t>PARAFUSO MAQ</t>
+  </si>
+  <si>
+    <t>PORCELANA E PISO PISO EXTERNO BRANCO 20KG PLACA</t>
+  </si>
+  <si>
+    <t>CAIXA ACOPLADA</t>
+  </si>
+  <si>
+    <t>SAPATO</t>
+  </si>
+  <si>
+    <t>CAPACITOR</t>
+  </si>
+  <si>
+    <t>PRIMER MANTA</t>
+  </si>
+  <si>
+    <t>LUVA 11/2</t>
+  </si>
+  <si>
+    <t>TEE ESGOTO</t>
+  </si>
+  <si>
+    <t>TELA MOSQUITEIRO</t>
+  </si>
+  <si>
+    <t>TRAVA PORTAO</t>
+  </si>
+  <si>
+    <t>CONJUNTO PIAL</t>
+  </si>
+  <si>
+    <t>BRASILIT FITA ADESIVA ALUMINIO</t>
+  </si>
+  <si>
+    <t>FIXA FIO</t>
+  </si>
+  <si>
+    <t>CAIXA CORREIO</t>
+  </si>
+  <si>
+    <t>COLA VINIL</t>
+  </si>
+  <si>
+    <t>CAÇAMBA</t>
+  </si>
+  <si>
+    <t>CABO CHUPETA</t>
+  </si>
+  <si>
+    <t>CONDUITE</t>
+  </si>
+  <si>
+    <t>TORNEIRA BOIA</t>
+  </si>
+  <si>
+    <t>OLEO MULTIUSO</t>
+  </si>
+  <si>
+    <t>ALICATE</t>
+  </si>
+  <si>
+    <t>GAS BUTANO</t>
+  </si>
+  <si>
+    <t>TESTE VOLTAGEM</t>
+  </si>
+  <si>
+    <t>PARAFUSO SEXTAVADO</t>
+  </si>
+  <si>
+    <t>PARAFUSO SANITÁRIO</t>
+  </si>
+  <si>
+    <t>CAPAS</t>
+  </si>
+  <si>
+    <t>CORDA</t>
+  </si>
+  <si>
+    <t>CHAPIX</t>
+  </si>
+  <si>
+    <t>TE LLL</t>
+  </si>
+  <si>
+    <t>COTOVELO VISITA</t>
+  </si>
+  <si>
+    <t>NYLON CORTAR GRAMA</t>
+  </si>
+  <si>
+    <t>FECHO CADEADO</t>
+  </si>
+  <si>
+    <t>TRAMONTINA MODULO</t>
+  </si>
+  <si>
+    <t>ANCORA TELA P/ TRINCA FIBRA VIDRO</t>
+  </si>
+  <si>
+    <t>TACHINHA</t>
+  </si>
+  <si>
+    <t>PEDRA AFIAR</t>
+  </si>
+  <si>
+    <t>COLA FIXA TUDO</t>
+  </si>
+  <si>
+    <t>VERNIZ</t>
+  </si>
+  <si>
+    <t>MANTA VIDRO</t>
+  </si>
+  <si>
+    <t>FIO SOM/LUSTRE</t>
+  </si>
+  <si>
+    <t>ACESS P/CAIXA ROCO CONJUNTO FIXACAO 1244</t>
+  </si>
+  <si>
+    <t>OLEO DESENGRIPANTE</t>
+  </si>
+  <si>
+    <t>SERRORTE</t>
+  </si>
+  <si>
+    <t>EXTENSÃO CAVADEIRA</t>
+  </si>
+  <si>
+    <t>BOMBA D'AGUA</t>
+  </si>
+  <si>
+    <t>PORCA BORBOLETA</t>
+  </si>
+  <si>
+    <t>CONJUNTOR FIXACAO</t>
+  </si>
+  <si>
+    <t>BOTINA</t>
+  </si>
+  <si>
+    <t>CABO REDE</t>
+  </si>
+  <si>
+    <t>NEUTROL</t>
+  </si>
+  <si>
+    <t>TE AZUL</t>
+  </si>
+  <si>
+    <t>LUVA CORRER ESGOTO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA TRANÇADA</t>
+  </si>
+  <si>
+    <t>CADEADO STAM</t>
+  </si>
+  <si>
+    <t>TRAMONTINA PLACA</t>
+  </si>
+  <si>
+    <t>TIRATRINCA FITA P/ TRINCA 005X03M</t>
+  </si>
+  <si>
+    <t>ESTICADOR</t>
+  </si>
+  <si>
+    <t>COLA FIXA ESPELHO/CUBA</t>
+  </si>
+  <si>
+    <t>SELADOR</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA NYLON</t>
+  </si>
+  <si>
+    <t>CABO FLEX</t>
   </si>
   <si>
     <t xml:space="preserve">DUCHA HIGENICA  </t>
   </si>
   <si>
-    <t xml:space="preserve">LIMPA CONTATO SPRAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERROTE IRWIN GESSO</t>
+    <t>LIMPA CONTATO SPRAY</t>
+  </si>
+  <si>
+    <t>SERROTE IRWIN GESSO</t>
   </si>
   <si>
     <r>
@@ -1368,278 +1373,278 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GARAPEIRA</t>
+      <t>GARAPEIRA</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ESMERILHADEIRA ANGULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO CHIPBORD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO OVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA LUVA RETENCAO ESGOTO 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA CONJUNTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANCHO REDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASSOURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA EXPANSIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASSA POLIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO CABO AUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTROS E ACABAMENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE GRIFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANÇA CHAMAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMERILHADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW FIX PARAFUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO ALMOFADADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEIA UMBRO</t>
+    <t>ESMERILHADEIRA ANGULAR</t>
+  </si>
+  <si>
+    <t>PARAFUSO CHIPBORD</t>
+  </si>
+  <si>
+    <t>ASSENTO OVAL</t>
+  </si>
+  <si>
+    <t>AVENTAL</t>
+  </si>
+  <si>
+    <t>BLOCO VIDRO</t>
+  </si>
+  <si>
+    <t>LUVA AZUL</t>
+  </si>
+  <si>
+    <t>ESTRELA LUVA RETENCAO ESGOTO 100</t>
+  </si>
+  <si>
+    <t>REGADOR</t>
+  </si>
+  <si>
+    <t>CADEADO SILVANA</t>
+  </si>
+  <si>
+    <t>TRAMONTINA CONJUNTO</t>
+  </si>
+  <si>
+    <t>GANCHO REDE</t>
+  </si>
+  <si>
+    <t>VASSOURA</t>
+  </si>
+  <si>
+    <t>ESPUMA EXPANSIVA</t>
+  </si>
+  <si>
+    <t>FUNDO</t>
+  </si>
+  <si>
+    <t>MASSA POLIR</t>
+  </si>
+  <si>
+    <t>FIO CABO AUTO</t>
+  </si>
+  <si>
+    <t>REGISTROS E ACABAMENTOS</t>
+  </si>
+  <si>
+    <t>CHAVE GRIFO</t>
+  </si>
+  <si>
+    <t>LANÇA CHAMAS</t>
+  </si>
+  <si>
+    <t>ESMERILHADEIRA</t>
+  </si>
+  <si>
+    <t>NEW FIX PARAFUSO</t>
+  </si>
+  <si>
+    <t>ASSENTO ALMOFADADO</t>
+  </si>
+  <si>
+    <t>MEIA UMBRO</t>
   </si>
   <si>
     <t xml:space="preserve">PAPEL SULFITE </t>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR FLANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA VIVEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAVA LARETAL PORTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO ARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELATRINCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT PINTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FERROX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR WAGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDA ROSCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL P/ MACARICOS E FOGAREIROS ETANIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FURADEIRA/PARAFUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORCA SEXTAVADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPELEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPEL TOALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA LONGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA CRISTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO GOLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEC CONJUNTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMPA VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILICONE ACETICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEROSENE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HASTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOQUEADOR DE AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSAO CAVADEIRA TRADO</t>
+    <t>ADAPTADOR FLANGE</t>
+  </si>
+  <si>
+    <t>TELA VIVEIRO</t>
+  </si>
+  <si>
+    <t>TRAVA LARETAL PORTA</t>
+  </si>
+  <si>
+    <t>CONJUNTO ARIA</t>
+  </si>
+  <si>
+    <t>GONZO</t>
+  </si>
+  <si>
+    <t>RODO</t>
+  </si>
+  <si>
+    <t>SELATRINCA</t>
+  </si>
+  <si>
+    <t>KIT PINTURA</t>
+  </si>
+  <si>
+    <t>FERROX</t>
+  </si>
+  <si>
+    <t>CONECTOR WAGO</t>
+  </si>
+  <si>
+    <t>VEDA ROSCA</t>
+  </si>
+  <si>
+    <t>COLHER</t>
+  </si>
+  <si>
+    <t>REFIL P/ MACARICOS E FOGAREIROS ETANIZ</t>
+  </si>
+  <si>
+    <t>FURADEIRA/PARAFUSO</t>
+  </si>
+  <si>
+    <t>PORCA SEXTAVADO</t>
+  </si>
+  <si>
+    <t>PAPELEIRA</t>
+  </si>
+  <si>
+    <t>MANGOTE</t>
+  </si>
+  <si>
+    <t>PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>CURVA LONGA</t>
+  </si>
+  <si>
+    <t>MANGUEIRA CRISTAL</t>
+  </si>
+  <si>
+    <t>CADEADO GOLD</t>
+  </si>
+  <si>
+    <t>MEC CONJUNTO</t>
+  </si>
+  <si>
+    <t>LIMPA VIDRO</t>
+  </si>
+  <si>
+    <t>SILICONE ACETICO</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>QUEROSENE</t>
+  </si>
+  <si>
+    <t>HASTE</t>
+  </si>
+  <si>
+    <t>BLOQUEADOR DE AR</t>
+  </si>
+  <si>
+    <t>MARTELO</t>
+  </si>
+  <si>
+    <t>EXTENSAO CAVADEIRA TRADO</t>
   </si>
   <si>
     <t xml:space="preserve">PISTOLA SILICONE </t>
   </si>
   <si>
-    <t xml:space="preserve">ARRUELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUVEIRINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTO SEGURANÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO AREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BESTWAY REPARO INFLAVEIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASFORT CADEADO BIKE CHAVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO MECTRONIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANTONEIRA</t>
+    <t>ARRUELA</t>
+  </si>
+  <si>
+    <t>CHUVEIRINHO</t>
+  </si>
+  <si>
+    <t>CINTO SEGURANÇA</t>
+  </si>
+  <si>
+    <t>SACO AREIA</t>
+  </si>
+  <si>
+    <t>JOELHO AZUL</t>
+  </si>
+  <si>
+    <t>BESTWAY REPARO INFLAVEIS</t>
+  </si>
+  <si>
+    <t>BRASFORT CADEADO BIKE CHAVE</t>
+  </si>
+  <si>
+    <t>ESPELHO MECTRONIC</t>
+  </si>
+  <si>
+    <t>CANTONEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">LAMPADA FOGÃO	</t>
   </si>
   <si>
-    <t xml:space="preserve">COLA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAXI RUBBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSA FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARRETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL PISTOLA GRANDE SILICONE 1K EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISTOLA P/ SILICONE BIVOLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ROSCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA TRICOTADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FITILHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA TELAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO SEGREDO STAM 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL SIMPLES CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÉ FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEK BOND SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZARCÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIR DE PO WAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARM PRESS BOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARCO SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL PISTOLA PEQUENA SILICONE 1K EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA CIRCULAR SKILL</t>
+    <t>COLA BRANCO</t>
+  </si>
+  <si>
+    <t>LONA</t>
+  </si>
+  <si>
+    <t>MAXI RUBBER</t>
+  </si>
+  <si>
+    <t>PASSA FIO</t>
+  </si>
+  <si>
+    <t>RALO</t>
+  </si>
+  <si>
+    <t>MARRETA</t>
+  </si>
+  <si>
+    <t>REFIL PISTOLA GRANDE SILICONE 1K EM BARRA</t>
+  </si>
+  <si>
+    <t>PISTOLA P/ SILICONE BIVOLT</t>
+  </si>
+  <si>
+    <t>PARAFUSO ROSCA</t>
+  </si>
+  <si>
+    <t>TAMPA BORRACHA</t>
+  </si>
+  <si>
+    <t>LUVA TRICOTADA</t>
+  </si>
+  <si>
+    <t>FITILHO</t>
+  </si>
+  <si>
+    <t>LUVA LR</t>
+  </si>
+  <si>
+    <t>PENEIRA TELAS</t>
+  </si>
+  <si>
+    <t>CADEADO SEGREDO STAM 25</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA</t>
+  </si>
+  <si>
+    <t>PÉ FOGÃO</t>
+  </si>
+  <si>
+    <t>TEK BOND SILICONE</t>
+  </si>
+  <si>
+    <t>ZARCÃO</t>
+  </si>
+  <si>
+    <t>ASPIR DE PO WAP</t>
+  </si>
+  <si>
+    <t>ARM PRESS BOW</t>
+  </si>
+  <si>
+    <t>ARCO SERRA</t>
+  </si>
+  <si>
+    <t>REFIL PISTOLA PEQUENA SILICONE 1K EM BARRA</t>
+  </si>
+  <si>
+    <t>SERRA CIRCULAR SKILL</t>
   </si>
   <si>
     <r>
@@ -1659,38 +1664,38 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PHILIPS</t>
+      <t>PHILIPS</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TAMPA TANQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADEADO SEGREDO STAM 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL 2 TOMADAS  CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA ROSCADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA PU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALDE</t>
+    <t>TAMPA TANQUE</t>
+  </si>
+  <si>
+    <t>LUVA DELTA</t>
+  </si>
+  <si>
+    <t>VENTILADOR</t>
+  </si>
+  <si>
+    <t>JOELHO LR</t>
+  </si>
+  <si>
+    <t>TELA NYLON</t>
+  </si>
+  <si>
+    <t>CADEADO SEGREDO STAM 40</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL 2 TOMADAS  CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>BARRA ROSCADA</t>
+  </si>
+  <si>
+    <t>COLA PU</t>
+  </si>
+  <si>
+    <t>BALDE</t>
   </si>
   <si>
     <t xml:space="preserve">MASSA PLASTICO </t>
@@ -1699,70 +1704,70 @@
     <t xml:space="preserve">CAIXA DE PASSAGEM </t>
   </si>
   <si>
-    <t xml:space="preserve">VEDANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENXADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO FURADEIRA</t>
+    <t>VEDANTE</t>
+  </si>
+  <si>
+    <t>ENXADA</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO FURADEIRA</t>
   </si>
   <si>
     <t xml:space="preserve">ICDER REBOLO </t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO FRANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT BANHEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA SANRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKILON LINHA NYLON P/ PESCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA TE LLL 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO CEGO ILUMI SLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA ZINC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGULADOR GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUREPOXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA SECO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISJUNTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLAS CANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA</t>
+    <t>PARAFUSO FRANCES</t>
+  </si>
+  <si>
+    <t>KIT BANHEIRO</t>
+  </si>
+  <si>
+    <t>LUVA SANRO</t>
+  </si>
+  <si>
+    <t>EKILON LINHA NYLON P/ PESCA</t>
+  </si>
+  <si>
+    <t>KRONA TE LLL 11/2</t>
+  </si>
+  <si>
+    <t>UNIAO TORNEIRA</t>
+  </si>
+  <si>
+    <t>ESPELHO CEGO ILUMI SLIM</t>
+  </si>
+  <si>
+    <t>BARRA ZINC</t>
+  </si>
+  <si>
+    <t>REGULADOR GAS</t>
+  </si>
+  <si>
+    <t>DUREPOXI</t>
+  </si>
+  <si>
+    <t>LIXA SECO</t>
+  </si>
+  <si>
+    <t>EDA MACACO HIDRAULICO  TONELADAS JACARE</t>
+  </si>
+  <si>
+    <t>DISJUNTOR</t>
+  </si>
+  <si>
+    <t>COLAS CANO</t>
+  </si>
+  <si>
+    <t>RAMADA</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE MAKITA</t>
   </si>
   <si>
     <t xml:space="preserve">NYLON ROCADEIRA	</t>
   </si>
   <si>
-    <t xml:space="preserve">LUZARTE COLUNA</t>
+    <t>LUZARTE COLUNA</t>
   </si>
   <si>
     <r>
@@ -1782,494 +1787,494 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">KALIPSO</t>
+      <t>KALIPSO</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ALCOOL GEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE RRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA GALVANIZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA ABRACADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMERO COLONIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO BICOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SIFONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT COMPRESSOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO METASUL ALMOFADADO OVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA IMBAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA SANFONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR INTERNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODULO MECTRONIC TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA RSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT GÁS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPER BONDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA TATU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITAQUA DILUENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE DISJUNTOR</t>
+    <t>ALCOOL GEL</t>
+  </si>
+  <si>
+    <t>TE RRR</t>
+  </si>
+  <si>
+    <t>TELA GALVANIZADO</t>
+  </si>
+  <si>
+    <t>TRAMONTINA TOMADA</t>
+  </si>
+  <si>
+    <t>INCA ABRACADEIRA</t>
+  </si>
+  <si>
+    <t>NUMERO COLONIAL</t>
+  </si>
+  <si>
+    <t>COLA HENKEL</t>
+  </si>
+  <si>
+    <t>LIXA FERRO</t>
+  </si>
+  <si>
+    <t>FIO BICOLOR</t>
+  </si>
+  <si>
+    <t>CENTRI</t>
+  </si>
+  <si>
+    <t>CAIXA SIFONADA</t>
+  </si>
+  <si>
+    <t>PÁ</t>
+  </si>
+  <si>
+    <t>PARAFUSO ALLEN/SEXTAVADO MAKITA</t>
+  </si>
+  <si>
+    <t>KIT COMPRESSOR</t>
+  </si>
+  <si>
+    <t>ASSENTO METASUL ALMOFADADO OVAL</t>
+  </si>
+  <si>
+    <t>LUVA IMBAT</t>
+  </si>
+  <si>
+    <t>PORTA SANFONADA</t>
+  </si>
+  <si>
+    <t>KRONA CAP</t>
+  </si>
+  <si>
+    <t>ADAPTADOR INTERNO</t>
+  </si>
+  <si>
+    <t>MODULO MECTRONIC TOMADA</t>
+  </si>
+  <si>
+    <t>INCA RSF</t>
+  </si>
+  <si>
+    <t>KIT GÁS</t>
+  </si>
+  <si>
+    <t>SUPER BONDER</t>
+  </si>
+  <si>
+    <t>LIXA TATU</t>
+  </si>
+  <si>
+    <t>ITAQUA DILUENTE</t>
+  </si>
+  <si>
+    <t>SUPORTE DISJUNTOR</t>
   </si>
   <si>
     <t xml:space="preserve">SIFÃO 	</t>
   </si>
   <si>
-    <t xml:space="preserve">PICARETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA MAKITA WIDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO BITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO TIGRE OVAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA RASPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLASTICO BOLHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MULTILIT ADAPTADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASFORT FIO NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRACADEIRA RSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOGÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA SELANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESMALTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC GARRA P/ CABO BATERIA 100A GRANDE PRETO/VERMELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBTURADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT MAKITA JOGO PONTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO</t>
+    <t>PICARETA</t>
+  </si>
+  <si>
+    <t>BROCA MAKITA WIDEA</t>
+  </si>
+  <si>
+    <t>JOGO BITS</t>
+  </si>
+  <si>
+    <t>ASSENTO TIGRE OVAL</t>
+  </si>
+  <si>
+    <t>LUVA RASPA</t>
+  </si>
+  <si>
+    <t>PLASTICO BOLHA</t>
+  </si>
+  <si>
+    <t>MULTILIT ADAPTADOR</t>
+  </si>
+  <si>
+    <t>BRASFORT FIO NYLON</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA RSF</t>
+  </si>
+  <si>
+    <t>FOGÃO</t>
+  </si>
+  <si>
+    <t>COLA SELANTE</t>
+  </si>
+  <si>
+    <t>ESMALTE</t>
+  </si>
+  <si>
+    <t>FC GARRA P/ CABO BATERIA 100A GRANDE PRETO/VERMELHO</t>
+  </si>
+  <si>
+    <t>OBTURADOR</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>KIT MAKITA JOGO PONTAS</t>
+  </si>
+  <si>
+    <t>DISCO</t>
   </si>
   <si>
     <t xml:space="preserve">ALPHA DUCHA HIGIENICA REGISTRO METAL </t>
   </si>
   <si>
-    <t xml:space="preserve">LUVA EMBORRACHADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLASTCOR TELA PLASTICA TAPUME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAMONTINA INTERNA 1P S/PLACA 10A/250V BRANCO 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIT PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPER COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUA RAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED GARRA P/ CABO BATERIA 10A MEDIO VERMELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAXINHA LUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAPA FURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALAVANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS DE CARVAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSENTO ATLAS ALMOFADADO BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CONSTRUÇÃO DELTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO ENTULHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO INTERNA REBOUCAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL 1INT SIMPLES CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUELAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTAO FRANCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED GARRA P/ CABO BATERIA 10A MEDIO PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLAFONIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA SABESP/TAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHIBANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO FURADEIRA MAKITA 8419/6016 C133G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUCHA HIGIENICA FERTAK BRANCO 7041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA  COMFORT KALIPSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXADOR PORTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA ARO MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X RADIAL 2 INTERRUPTORES SIMPLES CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRA ROSCA GALVANIZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECEPTOR DE TV DIGITAL AQUARIO</t>
+    <t>LUVA EMBORRACHADA</t>
+  </si>
+  <si>
+    <t>PORTA MADEIRA</t>
+  </si>
+  <si>
+    <t>CAPS PLASTILIT</t>
+  </si>
+  <si>
+    <t>PLASTCOR TELA PLASTICA TAPUME</t>
+  </si>
+  <si>
+    <t>TRAMONTINA INTERNA 1P S/PLACA 10A/250V BRANCO 50</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA SILVANA</t>
+  </si>
+  <si>
+    <t>KIT PE</t>
+  </si>
+  <si>
+    <t>SUPER COLA</t>
+  </si>
+  <si>
+    <t>AGUA RAZ</t>
+  </si>
+  <si>
+    <t>INTERNEED GARRA P/ CABO BATERIA 10A MEDIO VERMELHO</t>
+  </si>
+  <si>
+    <t>CAXINHA LUZ</t>
+  </si>
+  <si>
+    <t>TAPA FURO</t>
+  </si>
+  <si>
+    <t>ALAVANCA</t>
+  </si>
+  <si>
+    <t>JOGO DE ESCOVAS DE CARVAO</t>
+  </si>
+  <si>
+    <t>BROCA</t>
+  </si>
+  <si>
+    <t>ASSENTO ATLAS ALMOFADADO BRANCO</t>
+  </si>
+  <si>
+    <t>LUVA CONSTRUÇÃO DELTA</t>
+  </si>
+  <si>
+    <t>SACO ENTULHO</t>
+  </si>
+  <si>
+    <t>JOELHO SOLDAVEL</t>
+  </si>
+  <si>
+    <t>UNIAO INTERNA REBOUCAS</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL 1INT SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>MIGUELAO</t>
+  </si>
+  <si>
+    <t>BOTAO FRANCES</t>
+  </si>
+  <si>
+    <t>COLA SILICONE</t>
+  </si>
+  <si>
+    <t>INTERNEED GARRA P/ CABO BATERIA 10A MEDIO PRETO</t>
+  </si>
+  <si>
+    <t>PLAFONIER</t>
+  </si>
+  <si>
+    <t>CAIXA SABESP/TAF</t>
+  </si>
+  <si>
+    <t>CHIBANCA</t>
+  </si>
+  <si>
+    <t>CARVAO FURADEIRA MAKITA 8419/6016 C133G</t>
+  </si>
+  <si>
+    <t>MISTURADOR DE TINTA</t>
+  </si>
+  <si>
+    <t>DUCHA HIGIENICA FERTAK BRANCO 7041</t>
+  </si>
+  <si>
+    <t>LUVA  COMFORT KALIPSO</t>
+  </si>
+  <si>
+    <t>FIXADOR PORTA</t>
+  </si>
+  <si>
+    <t>CURVA SOLDAVEL</t>
+  </si>
+  <si>
+    <t>PENEIRA ARO MADEIRA</t>
+  </si>
+  <si>
+    <t>SISTEMA X RADIAL 2 INTERRUPTORES SIMPLES CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>BARRA ROSCA GALVANIZADO</t>
+  </si>
+  <si>
+    <t>RECEPTOR DE TV DIGITAL AQUARIO</t>
   </si>
   <si>
     <t xml:space="preserve">AMANCO ADESIVO </t>
   </si>
   <si>
-    <t xml:space="preserve">PO XADREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUSIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA GORDURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRINHO MAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100NB C137G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO/CARVÃO CARBONPEÇAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GATILHO HIGIBAN DUCHA HIGIENICA BRANCO/CROMADO SUPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CONSTRUCAO VE730 10 DELTA PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRINDE SQUEEZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKATO JOELHO SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICO ENGATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI 2 INTERRUPTORES SIMPLES 6A 6318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACANETA SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA CARTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDA CALHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATEX ACRILICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA DE INSPEÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORQUES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100H/5800 C138G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS E PONTEIRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CONSTRUCAO VE730 09 DELTA PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASFORT BARBANTE DE ALGODAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGATE MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPELHO ILUMI SLIM 4X4 CEGO 8305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA ABRACAD RSF (C)1/2X3/4 ( 100) (M GAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLA TIGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANDEIA PINTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLAS PVC</t>
+    <t>PO XADREZ</t>
+  </si>
+  <si>
+    <t>FUSIVEL</t>
+  </si>
+  <si>
+    <t>CAIXA GORDURA</t>
+  </si>
+  <si>
+    <t>CARRINHO MAO</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100NB C137G</t>
+  </si>
+  <si>
+    <t>PARAFUSO/CARVÃO CARBONPEÇAS</t>
+  </si>
+  <si>
+    <t>GATILHO HIGIBAN DUCHA HIGIENICA BRANCO/CROMADO SUPORTE</t>
+  </si>
+  <si>
+    <t>LUVA CONSTRUCAO VE730 10 DELTA PLUS</t>
+  </si>
+  <si>
+    <t>BRINDE SQUEEZE</t>
+  </si>
+  <si>
+    <t>AKATO JOELHO SOLDAVEL</t>
+  </si>
+  <si>
+    <t>BICO ENGATE</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI 2 INTERRUPTORES SIMPLES 6A 6318</t>
+  </si>
+  <si>
+    <t>MACANETA SILVANA</t>
+  </si>
+  <si>
+    <t>CAIXA CARTA</t>
+  </si>
+  <si>
+    <t>VEDA CALHA</t>
+  </si>
+  <si>
+    <t>LATEX ACRILICA</t>
+  </si>
+  <si>
+    <t>SISTEMA ILUMI</t>
+  </si>
+  <si>
+    <t>CAIXA DE INSPEÇÃO</t>
+  </si>
+  <si>
+    <t>TORQUES</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE MAKITA 4100H/5800 C138G</t>
+  </si>
+  <si>
+    <t>JOGO DE ESCOVAS E PONTEIRAS</t>
+  </si>
+  <si>
+    <t>LUVA CONSTRUCAO VE730 09 DELTA PLUS</t>
+  </si>
+  <si>
+    <t>BRASFORT BARBANTE DE ALGODAO</t>
+  </si>
+  <si>
+    <t>CAP SOLDAVEL</t>
+  </si>
+  <si>
+    <t>ENGATE MANGUEIRA</t>
+  </si>
+  <si>
+    <t>ESPELHO ILUMI SLIM 4X4 CEGO 8305</t>
+  </si>
+  <si>
+    <t>INCA ABRACAD RSF (C)1/2X3/4 ( 100) (M GAS)</t>
+  </si>
+  <si>
+    <t>CABIDE</t>
+  </si>
+  <si>
+    <t>COLA TIGRE</t>
+  </si>
+  <si>
+    <t>BANDEIA PINTURA</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI LUVA</t>
+  </si>
+  <si>
+    <t>COLAS PVC</t>
   </si>
   <si>
     <t xml:space="preserve">APLICADOR </t>
   </si>
   <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO FURADEIRA MAKITA6404/5 CB70 C184G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANDRIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA NBR WAVE KALIPSO AZUL/PRETO 09 G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTETOR SOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKATO CAP SOLDAVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA JARDIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI LUVA BRANCO 6205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U B 3/4 100 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA TANQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA AGUA</t>
+    <t>CARBONPEÇAS CARVAO FURADEIRA MAKITA6404/5 CB70 C184G</t>
+  </si>
+  <si>
+    <t>MANDRIL</t>
+  </si>
+  <si>
+    <t>LUVA NBR WAVE KALIPSO AZUL/PRETO 09 G</t>
+  </si>
+  <si>
+    <t>PROTETOR SOLAR</t>
+  </si>
+  <si>
+    <t>AKATO CAP SOLDAVEL</t>
+  </si>
+  <si>
+    <t>MANGUEIRA JARDIM</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI LUVA BRANCO 6205</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U B 3/4 100 J F METAIS</t>
+  </si>
+  <si>
+    <t>TORNEIRA TANQ</t>
+  </si>
+  <si>
+    <t>UNIPEGA SILICONE</t>
+  </si>
+  <si>
+    <t>LIXA AGUA</t>
   </si>
   <si>
     <t xml:space="preserve">CAIXA LUZ </t>
   </si>
   <si>
-    <t xml:space="preserve">CAIXA DE PASSAGEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO SERRA MARMORE DW/BD 301/3011 C185G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS-PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA NBR WAVE KALIPSO AZUL/PRETO 10 XG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMENDA MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO PIAL POP 1 TOMADA 10A LGX030 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U E 1 1/2 100 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TERMICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA POLIURETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA MADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANALETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TALHADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO SERRA MARMORE MAKITA NHK9227 C188G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCOVA AÇO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOELHO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASSOURA GRAMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONJUNTO PIAL POP 1 SIMPLES 1 TOMADA 10A LGX103 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U F 2 100 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARRAFAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOREZ HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LATEX QUARTZOLIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNLUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANEL BORRACHA</t>
+    <t>CAIXA DE PASSAGEM</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO SERRA MARMORE DW/BD 301/3011 C185G</t>
+  </si>
+  <si>
+    <t>SDS-PLUS</t>
+  </si>
+  <si>
+    <t>LUVA NBR WAVE KALIPSO AZUL/PRETO 10 XG</t>
+  </si>
+  <si>
+    <t>COTOVELO AZUL</t>
+  </si>
+  <si>
+    <t>EMENDA MANGUEIRA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PIAL POP 1 TOMADA 10A LGX030 BRANCO</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U E 1 1/2 100 J F METAIS</t>
+  </si>
+  <si>
+    <t>TOALHA MESA TERMICA</t>
+  </si>
+  <si>
+    <t>ESPUMA POLIURETANO</t>
+  </si>
+  <si>
+    <t>LIXA MADEIRA</t>
+  </si>
+  <si>
+    <t>CANALETA</t>
+  </si>
+  <si>
+    <t>TALHADEIRA</t>
+  </si>
+  <si>
+    <t>CARVAO SERRA MARMORE MAKITA NHK9227 C188G</t>
+  </si>
+  <si>
+    <t>ESCOVA AÇO</t>
+  </si>
+  <si>
+    <t>JOELHO LL</t>
+  </si>
+  <si>
+    <t>VASSOURA GRAMA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PIAL POP 1 SIMPLES 1 TOMADA 10A LGX103 BRANCO</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U F 2 100 J F METAIS</t>
+  </si>
+  <si>
+    <t>GARRAFAO</t>
+  </si>
+  <si>
+    <t>CASCOREZ HENKEL</t>
+  </si>
+  <si>
+    <t>LATEX QUARTZOLIT</t>
+  </si>
+  <si>
+    <t>ANNLUX</t>
+  </si>
+  <si>
+    <t>ANEL BORRACHA</t>
   </si>
   <si>
     <t xml:space="preserve">PONTEIRO </t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA 5900 C18407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANCO LUVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEDACIT CUPINICIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U H 3 50 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAP TORNEIRA</t>
+    <t>PARAFUSO ALLEN/SEXTAVADO MAKITA 5900 C18407</t>
+  </si>
+  <si>
+    <t>ROCADEIRA</t>
+  </si>
+  <si>
+    <t>AMANCO LUVA</t>
+  </si>
+  <si>
+    <t>VEDACIT CUPINICIDA</t>
+  </si>
+  <si>
+    <t>TOMADA</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U H 3 50 J F METAIS</t>
+  </si>
+  <si>
+    <t>GRAP TORNEIRA</t>
   </si>
   <si>
     <r>
@@ -2289,359 +2294,359 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">HENKEL</t>
+      <t>HENKEL</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">PAREDE NOVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONERTOR BORNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA FORTLEV</t>
+    <t>PAREDE NOVA</t>
+  </si>
+  <si>
+    <t>CONERTOR BORNE</t>
+  </si>
+  <si>
+    <t>CAIXA FORTLEV</t>
   </si>
   <si>
     <t xml:space="preserve">ESCOVA AÇO 	</t>
   </si>
   <si>
-    <t xml:space="preserve">PARAFUSO ALLEN/SEXTAVADO MAKITA 4100 C8408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS CORR PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA MM ARO MADEIRA  AREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG MACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JF METAIS ABRACADEIRA TIPO U J 4 50 J F METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CESTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA CUBA/ESPELHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORRUGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA ENTRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAVADEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO PONTEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARQUA MANGUEIRA MULTIUSO TRANÇADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOMADA EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 35MM RETA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRASLIDER SUPORTE BOTIJAO AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILICONE INCOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA QUADRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR INTERNEED PORCELANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORTLEV CAIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRUMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA COPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA FORLTEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARQUA MANGUEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO DE LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 35MM CURVA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPUMA DE POLIURETANO</t>
+    <t>PARAFUSO ALLEN/SEXTAVADO MAKITA 4100 C8408</t>
+  </si>
+  <si>
+    <t>FLAP</t>
+  </si>
+  <si>
+    <t>CAPS CORR PLASTIK</t>
+  </si>
+  <si>
+    <t>PENEIRA MM ARO MADEIRA  AREIA</t>
+  </si>
+  <si>
+    <t>PLUG MACHO</t>
+  </si>
+  <si>
+    <t>JF METAIS ABRACADEIRA TIPO U J 4 50 J F METAIS</t>
+  </si>
+  <si>
+    <t>CESTO</t>
+  </si>
+  <si>
+    <t>FIXA CUBA/ESPELHO</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH MASSA</t>
+  </si>
+  <si>
+    <t>CORRUGADO</t>
+  </si>
+  <si>
+    <t>VALVULA ENTRADA</t>
+  </si>
+  <si>
+    <t>CAVADEIRA</t>
+  </si>
+  <si>
+    <t>JOGO PONTEIRA</t>
+  </si>
+  <si>
+    <t>CAPS FORTLEV</t>
+  </si>
+  <si>
+    <t>ARQUA MANGUEIRA MULTIUSO TRANÇADA</t>
+  </si>
+  <si>
+    <t>TOMADA EM BARRA</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 35MM RETA JOMARCA</t>
+  </si>
+  <si>
+    <t>BRASLIDER SUPORTE BOTIJAO AZUL</t>
+  </si>
+  <si>
+    <t>SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t>PA QUADRADA</t>
+  </si>
+  <si>
+    <t>CONECTOR INTERNEED PORCELANA</t>
+  </si>
+  <si>
+    <t>FORTLEV CAIXA</t>
+  </si>
+  <si>
+    <t>PRUMO</t>
+  </si>
+  <si>
+    <t>SERRA COPO</t>
+  </si>
+  <si>
+    <t>LUVA FORLTEV</t>
+  </si>
+  <si>
+    <t>ARQUA MANGUEIRA</t>
+  </si>
+  <si>
+    <t>FILTRO DE LINHA</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 35MM CURVA JOMARCA</t>
+  </si>
+  <si>
+    <t>VARAL</t>
+  </si>
+  <si>
+    <t>ESPUMA DE POLIURETANO</t>
   </si>
   <si>
     <t xml:space="preserve">PA BICO </t>
   </si>
   <si>
-    <t xml:space="preserve">LUMINARIA ALETADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRELHA REDONDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE TORX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBOLO DIAMANTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA TIGRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA FEIJAO 55 PLASTICO 10 TELAS MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO MACHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 26MM CURVA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARIN SILICONE INCOLOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA DOBLEA FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR PORCELANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESOURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA CIRCULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANCO NIPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA MM ARO PLASTICO 55 AREIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC EXTENSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA PRESSAO 26MM RETA JOMARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELATRINCAS GARIN BRANCO TUBO 450GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAYERLACK MASSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENZEL TERMINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA AMERICANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAÇARICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENEIRA MM ARO PLASTICO 55 ARROZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO PRENSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBRADIÇA LEME ZINCADA LOTH 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOALHA MESA TRANSPARENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SELANTE PU FLEXIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA NORTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXLUX FIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA HIDROMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PULVEIZADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PONTA MONTADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIAO PLASTILIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA PLASTICO VIVEIRO 100X50 1/2 PRT NETTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR FEMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCA ABRACAD RSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOREZ EXTRA 1000GR HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRONORTH RESINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVANT LUMINARIA</t>
+    <t>LUMINARIA ALETADA</t>
+  </si>
+  <si>
+    <t>GRELHA REDONDO</t>
+  </si>
+  <si>
+    <t>CHAVE TORX</t>
+  </si>
+  <si>
+    <t>REBOLO DIAMANTADO</t>
+  </si>
+  <si>
+    <t>LUVA TIGRE</t>
+  </si>
+  <si>
+    <t>PENEIRA FEIJAO 55 PLASTICO 10 TELAS MM</t>
+  </si>
+  <si>
+    <t>PINO MACHO</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 26MM CURVA JOMARCA</t>
+  </si>
+  <si>
+    <t>ESCADA</t>
+  </si>
+  <si>
+    <t>GARIN SILICONE INCOLOR</t>
+  </si>
+  <si>
+    <t>LIXA DOBLEA FERRO</t>
+  </si>
+  <si>
+    <t>CONECTOR PORCELANA</t>
+  </si>
+  <si>
+    <t>CAIXA AGUA</t>
+  </si>
+  <si>
+    <t>TESOURA</t>
+  </si>
+  <si>
+    <t>SERRA CIRCULAR</t>
+  </si>
+  <si>
+    <t>AMANCO NIPEL</t>
+  </si>
+  <si>
+    <t>PENEIRA MM ARO PLASTICO 55 AREIA</t>
+  </si>
+  <si>
+    <t>FC EXTENSAO</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA PRESSAO 26MM RETA JOMARCA</t>
+  </si>
+  <si>
+    <t>VELA</t>
+  </si>
+  <si>
+    <t>SELATRINCAS GARIN BRANCO TUBO 450GR</t>
+  </si>
+  <si>
+    <t>SAYERLACK MASSA</t>
+  </si>
+  <si>
+    <t>PENZEL TERMINAL</t>
+  </si>
+  <si>
+    <t>VÁLVULA AMERICANA</t>
+  </si>
+  <si>
+    <t>MAÇARICO</t>
+  </si>
+  <si>
+    <t>PONTEIRA</t>
+  </si>
+  <si>
+    <t>COTOVELO PLASTILIT</t>
+  </si>
+  <si>
+    <t>PENEIRA MM ARO PLASTICO 55 ARROZ</t>
+  </si>
+  <si>
+    <t>PINO PRENSA</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA LEME ZINCADA LOTH 06</t>
+  </si>
+  <si>
+    <t>TOALHA MESA TRANSPARENTE</t>
+  </si>
+  <si>
+    <t>UNIPEGA SELANTE PU FLEXIVEL</t>
+  </si>
+  <si>
+    <t>LIXA NORTON</t>
+  </si>
+  <si>
+    <t>FOXLUX FIO</t>
+  </si>
+  <si>
+    <t>CAIXA HIDROMETRO</t>
+  </si>
+  <si>
+    <t>PULVEIZADOR</t>
+  </si>
+  <si>
+    <t>PONTA MONTADA</t>
+  </si>
+  <si>
+    <t>UNIAO PLASTILIT</t>
+  </si>
+  <si>
+    <t>TELA PLASTICO VIVEIRO 100X50 1/2 PRT NETTE</t>
+  </si>
+  <si>
+    <t>ADAPTADOR FEMEA</t>
+  </si>
+  <si>
+    <t>INCA ABRACAD RSF</t>
+  </si>
+  <si>
+    <t>FACAO</t>
+  </si>
+  <si>
+    <t>CASCOREZ EXTRA 1000GR HENKEL</t>
+  </si>
+  <si>
+    <t>HYDRONORTH RESINA</t>
+  </si>
+  <si>
+    <t>AVANT LUMINARIA</t>
   </si>
   <si>
     <t xml:space="preserve"> REGISTRO GAVETA</t>
   </si>
   <si>
-    <t xml:space="preserve">BOMBA AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFIL PISTOLA  SILICONE EM BARRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIPLE PLASTILT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELA PLASTICO PINTINHO 100X50 1 PRETO NETTEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO TECHNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMINAL ROCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASCOLA 85GR MONTA/FIXA HENKEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAS PINCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIO TELEF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE ZAMAC CROMADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOCO ESPUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARBONPEÇAS CARVAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA CROMADO EMA METAIS 1128X3/4 JARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO FEMEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUARRAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR PRESENÇA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUMENTO TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTILETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR FURADEIRA P/ DISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA LIGA FACIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA CROMADO JARDIM ESFERA 1/2 FERTAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIPEGA SELANTE POLIURETANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH AGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELETRODUTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALVULA HYDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO BORRACHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE FORTLEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAP TORNEIRA JARDIM ABS/PRETO 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNEED EXTENSÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABINETE</t>
+    <t>BOMBA AR</t>
+  </si>
+  <si>
+    <t>REFIL PISTOLA  SILICONE EM BARRA</t>
+  </si>
+  <si>
+    <t>NIPLE PLASTILT</t>
+  </si>
+  <si>
+    <t>TELA PLASTICO PINTINHO 100X50 1 PRETO NETTEN</t>
+  </si>
+  <si>
+    <t>EXTENSÃO TECHNA</t>
+  </si>
+  <si>
+    <t>TERMINAL ROCO</t>
+  </si>
+  <si>
+    <t>CASCOLA 85GR MONTA/FIXA HENKEL</t>
+  </si>
+  <si>
+    <t>ATLAS PINCEL</t>
+  </si>
+  <si>
+    <t>FIO TELEF</t>
+  </si>
+  <si>
+    <t>TEE ZAMAC CROMADO</t>
+  </si>
+  <si>
+    <t>BLOCO ESPUMA</t>
+  </si>
+  <si>
+    <t>CARBONPEÇAS CARVAO</t>
+  </si>
+  <si>
+    <t>CAP MARROM</t>
+  </si>
+  <si>
+    <t>TORNEIRA CROMADO EMA METAIS 1128X3/4 JARD</t>
+  </si>
+  <si>
+    <t>PINO FEMEA</t>
+  </si>
+  <si>
+    <t>SUPORTE TV</t>
+  </si>
+  <si>
+    <t>GARIN SILICONE 050G INCOLOR COLMEIA 12 GARI</t>
+  </si>
+  <si>
+    <t>AGUARRAS</t>
+  </si>
+  <si>
+    <t>SENSOR PRESENÇA</t>
+  </si>
+  <si>
+    <t>AUMENTO TORNEIRA</t>
+  </si>
+  <si>
+    <t>ESTILETE</t>
+  </si>
+  <si>
+    <t>ADAPTADOR FURADEIRA P/ DISCO</t>
+  </si>
+  <si>
+    <t>ESTRELA LIGA FACIL</t>
+  </si>
+  <si>
+    <t>TORNEIRA CROMADO JARDIM ESFERA 1/2 FERTAK</t>
+  </si>
+  <si>
+    <t>FILTRO LINHA</t>
+  </si>
+  <si>
+    <t>CONTROLE TV</t>
+  </si>
+  <si>
+    <t>UNIPEGA SELANTE POLIURETANO</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH AGUA</t>
+  </si>
+  <si>
+    <t>ELETRODUTO</t>
+  </si>
+  <si>
+    <t>VALVULA HYDRA</t>
+  </si>
+  <si>
+    <t>CHAVE SOQUETE</t>
+  </si>
+  <si>
+    <t>DISCO BORRACHA</t>
+  </si>
+  <si>
+    <t>TEE FORTLEV</t>
+  </si>
+  <si>
+    <t>GRAP TORNEIRA JARDIM ABS/PRETO 1/2</t>
+  </si>
+  <si>
+    <t>INTERNEED EXTENSÃO</t>
+  </si>
+  <si>
+    <t>GABINETE</t>
   </si>
   <si>
     <t xml:space="preserve">FIXA CUBA </t>
@@ -2650,31 +2655,31 @@
     <t xml:space="preserve">FERJA LIXA D AGUA </t>
   </si>
   <si>
-    <t xml:space="preserve">PENZEL TERM PREISOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARDEN JUNCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXT ILUMI PLACA</t>
+    <t>PENZEL TERM PREISOL</t>
+  </si>
+  <si>
+    <t>GARDEN JUNCAO</t>
+  </si>
+  <si>
+    <t>REGUA</t>
+  </si>
+  <si>
+    <t>CARVAO MAKITA</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL MARROM</t>
+  </si>
+  <si>
+    <t>EXT ILUMI PLACA</t>
   </si>
   <si>
     <t xml:space="preserve">FIBRA ABRASIVA </t>
   </si>
   <si>
-    <t xml:space="preserve">SELATRINCAS GARIN BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIAPOL MASSA F12</t>
+    <t>SELATRINCAS GARIN BRANCO</t>
+  </si>
+  <si>
+    <t>VIAPOL MASSA F12</t>
   </si>
   <si>
     <r>
@@ -2694,570 +2699,579 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CONECTOR BORNE</t>
+      <t>CONECTOR BORNE</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ADAPTADOR GARDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAFUSO MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO CORRER PLASTIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO ADAPTADOR  ROBUSTO ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA ELETRICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIXA ESPELHO CIBRA 400G BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIGRE GARFO BUCHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR GENERICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIZ DE LINHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCA WIDEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGATRON EXTENSAO TRIPOLAR</t>
+    <t>ADAPTADOR GARDEN</t>
+  </si>
+  <si>
+    <t>VANGA</t>
+  </si>
+  <si>
+    <t>PARAFUSO MAKITA</t>
+  </si>
+  <si>
+    <t>COTOVELO CORRER PLASTIK</t>
+  </si>
+  <si>
+    <t>PINO ADAPTADOR  ROBUSTO ILUMI</t>
+  </si>
+  <si>
+    <t>TORNEIRA ELETRICA</t>
+  </si>
+  <si>
+    <t>FIXA ESPELHO CIBRA 400G BRANCO</t>
+  </si>
+  <si>
+    <t>TIGRE GARFO BUCHA</t>
+  </si>
+  <si>
+    <t>CONECTOR GENERICO</t>
+  </si>
+  <si>
+    <t>VÁLVULA PLASTICO</t>
+  </si>
+  <si>
+    <t>GIZ DE LINHA</t>
+  </si>
+  <si>
+    <t>BROCA WIDEA</t>
+  </si>
+  <si>
+    <t>TEE TIGRE MARROM</t>
+  </si>
+  <si>
+    <t>MEGATRON EXTENSAO TRIPOLAR</t>
   </si>
   <si>
     <t xml:space="preserve">ESPONJA MAGICA 	</t>
   </si>
   <si>
-    <t xml:space="preserve">LIXA BOSCH D AGUA 80 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA RADIAL  CAIXA BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE REGISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO DIAMANTADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO TIGRE MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSAO NATICON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SACO ALVEJADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH D AGUA 100 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO PRESSAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACHAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO PONTAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG SHIVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSAO DANEVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXA BOSCH D AGUA 150 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEGATRON CABO PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA HIDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESQUADRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO DE ESCOVAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA FLEXIVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SISTEMA X ILUMI COTOVELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA HYDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCO SPED/INOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGULHA GRANDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE LAJE FIXO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGISTRO GAVETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERROTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDS PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
+    <t>LIXA BOSCH D AGUA 80 25</t>
+  </si>
+  <si>
+    <t>SISTEMA RADIAL  CAIXA BRANCO</t>
+  </si>
+  <si>
+    <t>BASE REGISTRO</t>
+  </si>
+  <si>
+    <t>FORMÃO</t>
+  </si>
+  <si>
+    <t>DISCO DIAMANTADO</t>
+  </si>
+  <si>
+    <t>COTOVELO TIGRE MARROM</t>
+  </si>
+  <si>
+    <t>EXTENSAO NATICON</t>
+  </si>
+  <si>
+    <t>SACO ALVEJADO</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH D AGUA 100 25</t>
+  </si>
+  <si>
+    <t>ILUMI LUMINARIA TARTARUGA FERRO/VIDRO</t>
+  </si>
+  <si>
+    <t>REGISTRO PRESSAO</t>
+  </si>
+  <si>
+    <t>MACHAD</t>
+  </si>
+  <si>
+    <t>JOGO PONTAS</t>
+  </si>
+  <si>
+    <t>PLUG SHIVA</t>
+  </si>
+  <si>
+    <t>EXTENSAO DANEVA</t>
+  </si>
+  <si>
+    <t>LIXA BOSCH D AGUA 150 25</t>
+  </si>
+  <si>
+    <t>MEGATRON CABO PP</t>
+  </si>
+  <si>
+    <t>VÁLVULA HIDRA</t>
+  </si>
+  <si>
+    <t>ESQUADRO</t>
+  </si>
+  <si>
+    <t>JOGO DE ESCOVAS</t>
+  </si>
+  <si>
+    <t>KRONA LUVA CORRER</t>
+  </si>
+  <si>
+    <t>PINO ADAPTADOR 2P T ROBUSTO ILUMI</t>
+  </si>
+  <si>
+    <t>TORNEIRA FLEXIVEL</t>
+  </si>
+  <si>
+    <t>SISTEMA X ILUMI COTOVELO</t>
+  </si>
+  <si>
+    <t>VÁLVULA HYDRA</t>
+  </si>
+  <si>
+    <t>RODEL</t>
+  </si>
+  <si>
+    <t>DISCO SPED/INOX</t>
+  </si>
+  <si>
+    <t>LUVA CORRER</t>
+  </si>
+  <si>
+    <t>FILTRO LINHA MEGATRON 5TOM BIVOLT PRETO</t>
+  </si>
+  <si>
+    <t>AGULHA GRANDE</t>
+  </si>
+  <si>
+    <t>SUPORTE LAJE FIXO</t>
+  </si>
+  <si>
+    <t>REGISTRO GAVETA</t>
+  </si>
+  <si>
+    <t>SERROTE</t>
+  </si>
+  <si>
+    <t>SDS PLUS</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO CORRER</t>
+  </si>
+  <si>
+    <t>FILTRO LINHA MEGATRON 4TOM BIVOLT PRETO</t>
   </si>
   <si>
     <t xml:space="preserve">VIQUA TORNEIRA </t>
   </si>
   <si>
-    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 10MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENSI REPARO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE FIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDSPLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPS CORRER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTENSÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA GAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMPSON CONECTOR 03 BORNE 16MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADAPTADOR TANQUE GARDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE FENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATEDOR ARGAMASSA CORTAG</t>
+    <t>THOMPSON CONECTOR 03 BORNE 10MM</t>
+  </si>
+  <si>
+    <t>CENSI REPARO</t>
+  </si>
+  <si>
+    <t>CHAVE FIXA</t>
+  </si>
+  <si>
+    <t>SDSPLUS</t>
+  </si>
+  <si>
+    <t>CAPS CORRER</t>
+  </si>
+  <si>
+    <t>EXTENSÃO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA GAS</t>
+  </si>
+  <si>
+    <t>THOMPSON CONECTOR 03 BORNE 16MM</t>
+  </si>
+  <si>
+    <t>ADAPTADOR TANQUE GARDEN</t>
+  </si>
+  <si>
+    <t>CHAVE FENDA</t>
+  </si>
+  <si>
+    <t>BATEDOR ARGAMASSA CORTAG</t>
   </si>
   <si>
     <t xml:space="preserve">LUVA SOLDAVEL </t>
   </si>
   <si>
-    <t xml:space="preserve">PLUG PORCELANA</t>
+    <t>PLUG PORCELANA</t>
   </si>
   <si>
     <t xml:space="preserve">ESPONJA FLASH </t>
   </si>
   <si>
-    <t xml:space="preserve">SUPORTE LAJE PE FIXO 30CM PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRA REPARO VÁLVULA</t>
+    <t>SUPORTE LAJE PE FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t>HYDRA REPARO VÁLVULA</t>
   </si>
   <si>
     <t xml:space="preserve">MACANETA </t>
   </si>
   <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA NYLON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA BUCHA REDUCAO LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUG RETANGULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA MAQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA HIDROMETRO SABESP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMINA SERRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISTURADOR DE TINTA COMPEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL LONGA CORRER PLASTICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILUMI PROLONGADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBIRA MANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUNCAO METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE COMBINADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARVAO FURADEIRA MAKITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO TIGRE LL B 3/4 X 90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA TANQUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE BIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE TIGRE LLL B 3/4 MARROM</t>
+    <t>MISTURADOR DE TINTA NYLON</t>
+  </si>
+  <si>
+    <t>KRONA BUCHA REDUCAO LL</t>
+  </si>
+  <si>
+    <t>PLUG RETANGULAR</t>
+  </si>
+  <si>
+    <t>TORNEIRA MAQ</t>
+  </si>
+  <si>
+    <t>FOXLUX LUMINARIA LED LINEAR 18W 60CM 6500K SLIM</t>
+  </si>
+  <si>
+    <t>CAIXA HIDROMETRO SABESP</t>
+  </si>
+  <si>
+    <t>LAMINA SERRA</t>
+  </si>
+  <si>
+    <t>MISTURADOR DE TINTA COMPEL</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL LONGA CORRER PLASTICO</t>
+  </si>
+  <si>
+    <t>ILUMI PROLONGADOR</t>
+  </si>
+  <si>
+    <t>IBIRA MANG</t>
+  </si>
+  <si>
+    <t>FOXLUX LUMINARIA LED LINEAR 36W 1 20M 6500K SLIM</t>
+  </si>
+  <si>
+    <t>JUNCAO METAL</t>
+  </si>
+  <si>
+    <t>CHAVE COMBINADA</t>
+  </si>
+  <si>
+    <t>CARVAO FURADEIRA MAKITA</t>
+  </si>
+  <si>
+    <t>COTOVELO TIGRE LL B 3/4 X 90 MARROM</t>
+  </si>
+  <si>
+    <t>INJEREST SUPORTE LAJE PE FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t>VÁLVULA TANQUE</t>
+  </si>
+  <si>
+    <t>CHAVE BIELA</t>
+  </si>
+  <si>
+    <t>TEE TIGRE LLL B 3/4 MARROM</t>
   </si>
   <si>
     <t xml:space="preserve">CAMPAINHA </t>
   </si>
   <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE ALLEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTROLE REMOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MECANISMO ENTRADA UNIVERSAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE ESTRELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA VIQUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUKIT REPARO VALVULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA BOSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT LL B 3/4 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA HERC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE LAJE PP FUNDO FIXO 30CM PRETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIXA MULT GORDURA CESTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA ACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT LL E 1 1/2 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPONJA MULTIUSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAF CAIXA P/ HIDROMETRO PP SABESP NTS303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE CANHAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT RR 3/4 BRANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPHA TORNEIRA BICA MOVEL PAREDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACABAMENTO REGISTRO ART METAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE PHILLIPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUVA PLASTILIT RR 1/2 BRANCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VÁLVULA AMERICANA METAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAQUIMETRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEE AZUL SHIVA 3/4 X 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALVA REGISTRO ALPHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE RODA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL H 3/4X45 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPONJA LIMPEZA PESADA FLASH LIMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMPERIO HIDRO ACABAMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE DE GRIFO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL K 1 1/2X45 MARRON</t>
+    <t>CONECTOR FERTAK PORCELANA 16MM BIF 8203</t>
+  </si>
+  <si>
+    <t>VÁLVULA MULTIUSO</t>
+  </si>
+  <si>
+    <t>CHAVE ALLEN</t>
+  </si>
+  <si>
+    <t>KRONA ADAPTADOR C/ FLANGE E ANEL 3/4</t>
+  </si>
+  <si>
+    <t>CONTROLE REMOTO</t>
+  </si>
+  <si>
+    <t>CONECTOR FERTAK PORCELANA 10MM TRIF 8204</t>
+  </si>
+  <si>
+    <t>MECANISMO ENTRADA UNIVERSAL</t>
+  </si>
+  <si>
+    <t>CHAVE ESTRELA</t>
+  </si>
+  <si>
+    <t>KRONA ADAPTADOR C/ FLANGE E ANEL 11/2</t>
+  </si>
+  <si>
+    <t>TORNEIRA VIQUA</t>
+  </si>
+  <si>
+    <t>CONECTOR FERTAK PORCELANA 16MM TRIF 8205</t>
+  </si>
+  <si>
+    <t>BLUKIT REPARO VALVULA</t>
+  </si>
+  <si>
+    <t>SERRA BOSCH</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT LL B 3/4 MARROM</t>
+  </si>
+  <si>
+    <t>TORNEIRA HERC</t>
+  </si>
+  <si>
+    <t>SUPORTE LAJE PP FUNDO FIXO 30CM PRETO</t>
+  </si>
+  <si>
+    <t>CAIXA MULT GORDURA CESTA</t>
+  </si>
+  <si>
+    <t>SERRA ACO</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT LL E 1 1/2 MARROM</t>
+  </si>
+  <si>
+    <t>ESPONJA MULTIUSO</t>
+  </si>
+  <si>
+    <t>TAF CAIXA P/ HIDROMETRO PP SABESP NTS303</t>
+  </si>
+  <si>
+    <t>CHAVE CANHAO</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT RR 3/4 BRANCA</t>
+  </si>
+  <si>
+    <t>ALPHA TORNEIRA BICA MOVEL PAREDE</t>
+  </si>
+  <si>
+    <t>ACABAMENTO REGISTRO ART METAIS</t>
+  </si>
+  <si>
+    <t>CHAVE PHILLIPS</t>
+  </si>
+  <si>
+    <t>LUVA PLASTILIT RR 1/2 BRANCA</t>
+  </si>
+  <si>
+    <t>HYDRAMOTION TORNEIRA MESA FLEXIVEL SILICONE</t>
+  </si>
+  <si>
+    <t>VÁLVULA AMERICANA METAL</t>
+  </si>
+  <si>
+    <t>PAQUIMETRO</t>
+  </si>
+  <si>
+    <t>TEE AZUL SHIVA 3/4 X 1/2</t>
+  </si>
+  <si>
+    <t>SALVA REGISTRO ALPHA</t>
+  </si>
+  <si>
+    <t>CHAVE RODA</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL H 3/4X45 MARROM</t>
+  </si>
+  <si>
+    <t>ESPONJA LIMPEZA PESADA FLASH LIMP</t>
+  </si>
+  <si>
+    <t>IMPERIO HIDRO ACABAMENTO</t>
+  </si>
+  <si>
+    <t>CHAVE DE GRIFO</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL K 1 1/2X45 MARRON</t>
   </si>
   <si>
     <t xml:space="preserve">FRISO PORTA ALUMINIO </t>
   </si>
   <si>
-    <t xml:space="preserve">ACESSORIO CAIXA BLUKIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE INGLESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA FORTLEV LL B 3/4 X 90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTILADOR DE MESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACESSORIO CAIXA ASTRA ENT CAIXA ACOPLADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIXADEIRA MANUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL B 3/4X90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATEDOR PORTA BOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE VIRAR FERRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTOVELO FORTLEV LL E 1 1/2X90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE BRASFORMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOMBA DE AR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURVA FORTLEV LL E 1 1/2 X 90 MARROM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE P/ VARAO SIMPLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOGO SOQUETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KRONA PLUG 1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE PIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRELHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARINHO PEDREIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO ROSCA 3/4X1/2 50 KRONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE PRIMETECH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANEL DE VEDACAO FORTLEV 75MM ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERRA A R BOSCH BIMET 18D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL LONGA PLASTILIT 50 X 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAQUINA LAVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 25MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRINHO SERV GERAL ESFERA 150K P MACICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO RR PLASTILIT A 3/4 X 1/2 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 50MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAVE DE RODA CRUZ IMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL CURTA CORRER PLASTICO B 1 X 3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIME TECH SUPORTE FORNO BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO RR CORRER PLASTIK 3/4X1/2 BRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA AUMENTO GARDEN 1/2 X3 /4 ZAMAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL CURTA FORTL A 3/4X1/2 MARRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO GARDEN 3/4 X 1/2 ZAMAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL LONGA FORT C 1 1/2 X3/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 14M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUCHA REDUCAO LL 11/2X3/4 LONGA KRONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA ENTRADA NOVA 20M CRISTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS BRANCO QUADRISET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORNEIRA B M FILTRO ACQUABIOS PRETO QUADRISET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGUEIRA TANQUINHO ENTRADA BRANCO FERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABONETEIRA HIDROLAR CROMADO 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAO CORTINA STILLUS 150 BRC 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARAO CORTINA STILLUS 200 BRC 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODORIZADOR PURO AR LAVANDA 250ML</t>
+    <t>ACESSORIO CAIXA BLUKIT</t>
+  </si>
+  <si>
+    <t>CHAVE INGLESA</t>
+  </si>
+  <si>
+    <t>CURVA FORTLEV LL B 3/4 X 90 MARROM</t>
+  </si>
+  <si>
+    <t>VENTILADOR DE MESA</t>
+  </si>
+  <si>
+    <t>ACESSORIO CAIXA ASTRA ENT CAIXA ACOPLADA</t>
+  </si>
+  <si>
+    <t>LIXADEIRA MANUAL</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL B 3/4X90 MARROM</t>
+  </si>
+  <si>
+    <t>BATEDOR PORTA BOLA</t>
+  </si>
+  <si>
+    <t>BLUKIT KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
+  </si>
+  <si>
+    <t>CHAVE VIRAR FERRO</t>
+  </si>
+  <si>
+    <t>COTOVELO FORTLEV LL E 1 1/2X90 MARROM</t>
+  </si>
+  <si>
+    <t>SUPORTE BRASFORMA</t>
+  </si>
+  <si>
+    <t>ASTRA KIT P/ CAIXA ACOPLADA UNIVERSAL SUPORTE BRANCO</t>
+  </si>
+  <si>
+    <t>BOMBA DE AR</t>
+  </si>
+  <si>
+    <t>CURVA FORTLEV LL E 1 1/2 X 90 MARROM</t>
+  </si>
+  <si>
+    <t>SUPORTE P/ VARAO SIMPLES</t>
+  </si>
+  <si>
+    <t>REPARO CAIXA DESCARGA ACOPLADA NATURAL ASTRA</t>
+  </si>
+  <si>
+    <t>JOGO SOQUETE</t>
+  </si>
+  <si>
+    <t>KRONA PLUG 1/2</t>
+  </si>
+  <si>
+    <t>SUPORTE PIA</t>
+  </si>
+  <si>
+    <t>GRELHA</t>
+  </si>
+  <si>
+    <t>CARINHO PEDREIRO</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO ROSCA 3/4X1/2 50 KRONA</t>
+  </si>
+  <si>
+    <t>SUPORTE PRIMETECH</t>
+  </si>
+  <si>
+    <t>ANEL DE VEDACAO FORTLEV 75MM ESGOTO</t>
+  </si>
+  <si>
+    <t>SERRA A R BOSCH BIMET 18D</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL LONGA PLASTILIT 50 X 25</t>
+  </si>
+  <si>
+    <t>MAQUINA LAVAR</t>
+  </si>
+  <si>
+    <t>ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 25MM</t>
+  </si>
+  <si>
+    <t>CARRINHO SERV GERAL ESFERA 150K P MACICO</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO RR PLASTILIT A 3/4 X 1/2 BRANCO</t>
+  </si>
+  <si>
+    <t>OVERTIME CHUVEIRINHO P/ TORNEIRA</t>
+  </si>
+  <si>
+    <t>ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 50MM</t>
+  </si>
+  <si>
+    <t>CHAVE DE RODA CRUZ IMA</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL CURTA CORRER PLASTICO B 1 X 3/4</t>
+  </si>
+  <si>
+    <t>PRIME TECH SUPORTE FORNO BRANCO</t>
+  </si>
+  <si>
+    <t>ESTRELA VALVULA RETENÇÃO LL VERT/HOR PVC 32MM</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO RR CORRER PLASTIK 3/4X1/2 BRANCO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA MAQUINA DE LAVAR ENTRADA 120MT IBIRA</t>
+  </si>
+  <si>
+    <t>BUCHA AUMENTO GARDEN 1/2 X3 /4 ZAMAC</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL CURTA FORTL A 3/4X1/2 MARRO</t>
+  </si>
+  <si>
+    <t>MANGUEIRA MAQUINA DE LAVAR ENTRADA 140MT IBIRA</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO GARDEN 3/4 X 1/2 ZAMAC</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL LONGA FORT C 1 1/2 X3/4</t>
+  </si>
+  <si>
+    <t>MANGUEIRA ENTRADA NOVA 14M</t>
+  </si>
+  <si>
+    <t>BUCHA REDUCAO LL 11/2X3/4 LONGA KRONA</t>
+  </si>
+  <si>
+    <t>MANGUEIRA ENTRADA NOVA 20M</t>
+  </si>
+  <si>
+    <t>MANGUEIRA ENTRADA NOVA 20M CRISTAL</t>
+  </si>
+  <si>
+    <t>TORNEIRA B M FILTRO ACQUABIOS BRANCO QUADRISET</t>
+  </si>
+  <si>
+    <t>TORNEIRA B M FILTRO ACQUABIOS PRETO QUADRISET</t>
+  </si>
+  <si>
+    <t>MANGUEIRA TANQUINHO ENTRADA BRANCO FERE</t>
+  </si>
+  <si>
+    <t>SABONETEIRA HIDROLAR CROMADO 2025</t>
+  </si>
+  <si>
+    <t>VARAO CORTINA STILLUS 150 BRC 01</t>
+  </si>
+  <si>
+    <t>VARAO CORTINA STILLUS 200 BRC 01</t>
+  </si>
+  <si>
+    <t>ODORIZADOR PURO AR LAVANDA 250ML</t>
+  </si>
+  <si>
+    <t>EXTENSAO CURTA 1/2 CROMADO GARDEN</t>
+  </si>
+  <si>
+    <t>EXTENSAO CROMADA MEDIA ZAMAC 1/2 GARDEN</t>
+  </si>
+  <si>
+    <t>EXTENSAO CROMADA LONGA ZAMAC 1/2 GARDEN</t>
+  </si>
+  <si>
+    <t>TOMADINHA C/ RABICHO REDY 107</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3265,22 +3279,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -3306,6 +3305,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3316,7 +3322,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3324,127 +3330,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -3497,58 +3468,57 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="52.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="66.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="45.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="64.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="40.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="47.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="42.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="39.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="51.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="47.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="52.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="59.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="33" style="1" width="11.57"/>
+    <col min="1" max="1" width="44.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="66.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="45.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="64.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="53.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="47.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="42.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18" style="1" customWidth="1"/>
+    <col min="20" max="20" width="39.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="55" style="1" customWidth="1"/>
+    <col min="26" max="26" width="51.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="37.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="47.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="52.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="34" style="1" customWidth="1"/>
+    <col min="31" max="31" width="37" style="1" customWidth="1"/>
+    <col min="32" max="32" width="59.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3646,7 +3616,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3744,7 +3714,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -3842,7 +3812,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -3940,7 +3910,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -4035,7 +4005,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>159</v>
       </c>
@@ -4130,7 +4100,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>190</v>
       </c>
@@ -4222,7 +4192,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -4311,7 +4281,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>247</v>
       </c>
@@ -4400,7 +4370,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>276</v>
       </c>
@@ -4486,7 +4456,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>304</v>
       </c>
@@ -4566,7 +4536,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>330</v>
       </c>
@@ -4643,7 +4613,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>355</v>
       </c>
@@ -4714,7 +4684,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>378</v>
       </c>
@@ -4782,7 +4752,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>400</v>
       </c>
@@ -4850,7 +4820,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>422</v>
       </c>
@@ -4915,7 +4885,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>442</v>
       </c>
@@ -4971,7 +4941,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>460</v>
       </c>
@@ -5027,7 +4997,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>221</v>
       </c>
@@ -5083,7 +5053,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>495</v>
       </c>
@@ -5139,7 +5109,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>513</v>
       </c>
@@ -5195,7 +5165,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>530</v>
       </c>
@@ -5248,7 +5218,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>546</v>
       </c>
@@ -5298,7 +5268,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>562</v>
       </c>
@@ -5348,7 +5318,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>578</v>
       </c>
@@ -5398,7 +5368,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>593</v>
       </c>
@@ -5449,7 +5419,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>608</v>
       </c>
@@ -5499,7 +5469,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>624</v>
       </c>
@@ -5549,7 +5519,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
         <v>639</v>
       </c>
@@ -5596,7 +5566,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>654</v>
       </c>
@@ -5640,7 +5610,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>668</v>
       </c>
@@ -5684,7 +5654,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>682</v>
       </c>
@@ -5725,7 +5695,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>695</v>
       </c>
@@ -5763,7 +5733,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>706</v>
       </c>
@@ -5801,7 +5771,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="3:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>718</v>
       </c>
@@ -5839,7 +5809,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
         <v>730</v>
       </c>
@@ -5874,7 +5844,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>741</v>
       </c>
@@ -5909,7 +5879,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>752</v>
       </c>
@@ -5944,7 +5914,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>763</v>
       </c>
@@ -5979,7 +5949,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>774</v>
       </c>
@@ -6014,7 +5984,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>785</v>
       </c>
@@ -6049,7 +6019,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>796</v>
       </c>
@@ -6084,7 +6054,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>807</v>
       </c>
@@ -6116,7 +6086,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D45" s="1" t="s">
         <v>817</v>
       </c>
@@ -6148,7 +6118,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
         <v>827</v>
       </c>
@@ -6180,7 +6150,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
       <c r="D47" s="1" t="s">
         <v>837</v>
       </c>
@@ -6209,7 +6179,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="3:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D48" s="1" t="s">
         <v>846</v>
       </c>
@@ -6238,7 +6208,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D49" s="1" t="s">
         <v>855</v>
       </c>
@@ -6267,7 +6237,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D50" s="1" t="s">
         <v>864</v>
       </c>
@@ -6293,7 +6263,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D51" s="1" t="s">
         <v>872</v>
       </c>
@@ -6319,7 +6289,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D52" s="1" t="s">
         <v>532</v>
       </c>
@@ -6345,7 +6315,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
         <v>887</v>
       </c>
@@ -6368,7 +6338,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
         <v>894</v>
       </c>
@@ -6391,7 +6361,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D55" s="7" t="s">
         <v>901</v>
       </c>
@@ -6414,7 +6384,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>908</v>
       </c>
@@ -6437,7 +6407,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>915</v>
       </c>
@@ -6460,7 +6430,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
         <v>922</v>
       </c>
@@ -6483,7 +6453,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
         <v>929</v>
       </c>
@@ -6503,7 +6473,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
         <v>357</v>
       </c>
@@ -6520,7 +6490,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D61" s="4" t="s">
         <v>939</v>
       </c>
@@ -6537,7 +6507,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
         <v>944</v>
       </c>
@@ -6554,7 +6524,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="1" t="s">
         <v>949</v>
       </c>
@@ -6571,7 +6541,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="4:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D64" s="1" t="s">
         <v>954</v>
       </c>
@@ -6588,10 +6558,13 @@
         <v>958</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="1" t="s">
         <v>959</v>
       </c>
+      <c r="H65" s="9" t="s">
+        <v>1037</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>960</v>
       </c>
@@ -6602,7 +6575,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="4" t="s">
         <v>963</v>
       </c>
@@ -6616,7 +6589,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="1" t="s">
         <v>967</v>
       </c>
@@ -6630,7 +6603,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1" t="s">
         <v>967</v>
       </c>
@@ -6644,7 +6617,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
         <v>974</v>
       </c>
@@ -6658,7 +6631,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="4" t="s">
         <v>978</v>
       </c>
@@ -6672,7 +6645,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
         <v>982</v>
       </c>
@@ -6686,7 +6659,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D72" s="4" t="s">
         <v>986</v>
       </c>
@@ -6700,7 +6673,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="1" t="s">
         <v>990</v>
       </c>
@@ -6714,7 +6687,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="4" t="s">
         <v>994</v>
       </c>
@@ -6728,7 +6701,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="1" t="s">
         <v>998</v>
       </c>
@@ -6742,7 +6715,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="1" t="s">
         <v>1002</v>
       </c>
@@ -6756,7 +6729,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="1" t="s">
         <v>1006</v>
       </c>
@@ -6770,7 +6743,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="4" t="s">
         <v>1010</v>
       </c>
@@ -6784,7 +6757,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="4" t="s">
         <v>1014</v>
       </c>
@@ -6795,7 +6768,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="1" t="s">
         <v>1017</v>
       </c>
@@ -6806,7 +6779,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
         <v>1020</v>
       </c>
@@ -6817,64 +6790,72 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D82" s="1" t="s">
         <v>1023</v>
       </c>
+      <c r="I82" s="8" t="s">
+        <v>1034</v>
+      </c>
       <c r="Z82" s="1" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I83" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="84" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D84" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I84" s="8" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="85" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D85" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D86" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D87" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D88" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D89" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D90" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="4:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D91" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
